--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="228">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,6 +505,15 @@
     <t>['1', '81', '90+9']</t>
   </si>
   <si>
+    <t>['13', '19']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['67', '75']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -685,10 +694,10 @@
     <t>['37']</t>
   </si>
   <si>
-    <t>['70']</t>
+    <t>['85', '89']</t>
   </si>
   <si>
-    <t>['85', '89']</t>
+    <t>['86', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK116"/>
+  <dimension ref="A1:BK122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1294,7 +1303,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1381,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT2">
         <v>1.17</v>
@@ -1485,7 +1494,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1676,7 +1685,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1766,7 +1775,7 @@
         <v>1.67</v>
       </c>
       <c r="AT4">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2058,7 +2067,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2339,7 +2348,7 @@
         <v>1.43</v>
       </c>
       <c r="AT7">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2440,7 +2449,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2718,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT9">
         <v>1.33</v>
@@ -2822,7 +2831,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3204,7 +3213,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3395,7 +3404,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q13">
         <v>12</v>
@@ -3485,7 +3494,7 @@
         <v>0.5</v>
       </c>
       <c r="AT13">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3673,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT14">
         <v>0.8</v>
@@ -3777,7 +3786,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3867,7 +3876,7 @@
         <v>0.83</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3968,7 +3977,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4246,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT17">
         <v>1</v>
@@ -4350,7 +4359,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4440,7 +4449,7 @@
         <v>1.4</v>
       </c>
       <c r="AT18">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4541,7 +4550,7 @@
         <v>89</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4628,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT19">
         <v>2.5</v>
@@ -4819,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT20">
         <v>0.17</v>
@@ -4923,7 +4932,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5010,10 +5019,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
+        <v>1.57</v>
+      </c>
+      <c r="AT21">
         <v>1.33</v>
-      </c>
-      <c r="AT21">
-        <v>1</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5114,7 +5123,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5201,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT22">
         <v>0.5</v>
@@ -5583,7 +5592,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT24">
         <v>2</v>
@@ -5687,7 +5696,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -6159,7 +6168,7 @@
         <v>0.83</v>
       </c>
       <c r="AT27">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>1.13</v>
@@ -6350,7 +6359,7 @@
         <v>2.67</v>
       </c>
       <c r="AT28">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU28">
         <v>2.46</v>
@@ -6451,7 +6460,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6642,7 +6651,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -6732,7 +6741,7 @@
         <v>0.86</v>
       </c>
       <c r="AT30">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU30">
         <v>1.1</v>
@@ -6833,7 +6842,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7215,7 +7224,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7305,7 +7314,7 @@
         <v>0.83</v>
       </c>
       <c r="AT33">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU33">
         <v>1.45</v>
@@ -7493,10 +7502,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7597,7 +7606,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7684,7 +7693,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT35">
         <v>2.29</v>
@@ -7788,7 +7797,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7979,7 +7988,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8066,7 +8075,7 @@
         <v>2</v>
       </c>
       <c r="AS37">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT37">
         <v>1.14</v>
@@ -8257,7 +8266,7 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT38">
         <v>1</v>
@@ -8642,7 +8651,7 @@
         <v>1.43</v>
       </c>
       <c r="AT40">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU40">
         <v>1.71</v>
@@ -8934,7 +8943,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9021,10 +9030,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT42">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU42">
         <v>1.59</v>
@@ -9316,7 +9325,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9507,7 +9516,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9698,7 +9707,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9889,7 +9898,7 @@
         <v>113</v>
       </c>
       <c r="P47" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9976,7 +9985,7 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT47">
         <v>1.33</v>
@@ -10080,7 +10089,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10167,10 +10176,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT48">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU48">
         <v>1.59</v>
@@ -10271,7 +10280,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10552,7 +10561,7 @@
         <v>2.5</v>
       </c>
       <c r="AT50">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>1.69</v>
@@ -10653,7 +10662,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10844,7 +10853,7 @@
         <v>87</v>
       </c>
       <c r="P52" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -11608,7 +11617,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -11695,7 +11704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT56">
         <v>1.14</v>
@@ -11799,7 +11808,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -11886,10 +11895,10 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT57">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU57">
         <v>1.76</v>
@@ -11990,7 +11999,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12181,7 +12190,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12271,7 +12280,7 @@
         <v>2.5</v>
       </c>
       <c r="AT59">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU59">
         <v>1.68</v>
@@ -12372,7 +12381,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12459,7 +12468,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT60">
         <v>1</v>
@@ -12563,7 +12572,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12841,7 +12850,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT62">
         <v>0.17</v>
@@ -13035,7 +13044,7 @@
         <v>0.86</v>
       </c>
       <c r="AT63">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU63">
         <v>1.06</v>
@@ -13136,7 +13145,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13226,7 +13235,7 @@
         <v>0.83</v>
       </c>
       <c r="AT64">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU64">
         <v>1.02</v>
@@ -13327,7 +13336,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13709,7 +13718,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -13990,7 +13999,7 @@
         <v>1.33</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU68">
         <v>1.34</v>
@@ -14091,7 +14100,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14178,7 +14187,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT69">
         <v>2</v>
@@ -14282,7 +14291,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14369,7 +14378,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT70">
         <v>1</v>
@@ -14473,7 +14482,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>13</v>
@@ -14664,7 +14673,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14751,7 +14760,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT72">
         <v>1</v>
@@ -14855,7 +14864,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15046,7 +15055,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15136,7 +15145,7 @@
         <v>1.4</v>
       </c>
       <c r="AT74">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU74">
         <v>1.71</v>
@@ -15237,7 +15246,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15327,7 +15336,7 @@
         <v>0.5</v>
       </c>
       <c r="AT75">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU75">
         <v>1.91</v>
@@ -15428,7 +15437,7 @@
         <v>87</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15709,7 +15718,7 @@
         <v>1.67</v>
       </c>
       <c r="AT77">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU77">
         <v>1.57</v>
@@ -15810,7 +15819,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16088,10 +16097,10 @@
         <v>1.6</v>
       </c>
       <c r="AS79">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT79">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU79">
         <v>1.66</v>
@@ -16383,7 +16392,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16470,7 +16479,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT81">
         <v>1.33</v>
@@ -16664,7 +16673,7 @@
         <v>2</v>
       </c>
       <c r="AT82">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU82">
         <v>1.93</v>
@@ -16765,7 +16774,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -16852,7 +16861,7 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT83">
         <v>0.8</v>
@@ -16956,7 +16965,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17147,7 +17156,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17338,7 +17347,7 @@
         <v>87</v>
       </c>
       <c r="P86" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -17425,7 +17434,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT86">
         <v>2.29</v>
@@ -17529,7 +17538,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17807,7 +17816,7 @@
         <v>3</v>
       </c>
       <c r="AS88">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT88">
         <v>2.5</v>
@@ -18001,7 +18010,7 @@
         <v>0.83</v>
       </c>
       <c r="AT89">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU89">
         <v>1.66</v>
@@ -18675,7 +18684,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18765,7 +18774,7 @@
         <v>0.83</v>
       </c>
       <c r="AT93">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU93">
         <v>1.14</v>
@@ -18866,7 +18875,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19338,7 +19347,7 @@
         <v>0.86</v>
       </c>
       <c r="AT96">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU96">
         <v>1.14</v>
@@ -19526,7 +19535,7 @@
         <v>1.25</v>
       </c>
       <c r="AS97">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT97">
         <v>1.33</v>
@@ -19630,7 +19639,7 @@
         <v>87</v>
       </c>
       <c r="P98" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19717,7 +19726,7 @@
         <v>3</v>
       </c>
       <c r="AS98">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT98">
         <v>3</v>
@@ -19821,7 +19830,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -19911,7 +19920,7 @@
         <v>2</v>
       </c>
       <c r="AT99">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU99">
         <v>1.25</v>
@@ -20099,7 +20108,7 @@
         <v>1.25</v>
       </c>
       <c r="AS100">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT100">
         <v>1</v>
@@ -20293,7 +20302,7 @@
         <v>2.67</v>
       </c>
       <c r="AT101">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU101">
         <v>2.6</v>
@@ -20394,7 +20403,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q102">
         <v>10</v>
@@ -20776,7 +20785,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20967,7 +20976,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21054,7 +21063,7 @@
         <v>1.4</v>
       </c>
       <c r="AS105">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT105">
         <v>1.17</v>
@@ -21158,7 +21167,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21349,7 +21358,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21540,7 +21549,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q108">
         <v>10</v>
@@ -21731,7 +21740,7 @@
         <v>88</v>
       </c>
       <c r="P109" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -21818,7 +21827,7 @@
         <v>1</v>
       </c>
       <c r="AS109">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT109">
         <v>1</v>
@@ -22012,7 +22021,7 @@
         <v>2.67</v>
       </c>
       <c r="AT110">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU110">
         <v>2.49</v>
@@ -22203,7 +22212,7 @@
         <v>1.33</v>
       </c>
       <c r="AT111">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU111">
         <v>1.39</v>
@@ -22304,7 +22313,7 @@
         <v>160</v>
       </c>
       <c r="P112" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22686,7 +22695,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -23210,6 +23219,1152 @@
       </c>
       <c r="BK116">
         <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2710770</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>44864.41666666666</v>
+      </c>
+      <c r="F117">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>65</v>
+      </c>
+      <c r="H117" t="s">
+        <v>67</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117" t="s">
+        <v>163</v>
+      </c>
+      <c r="P117" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q117">
+        <v>1</v>
+      </c>
+      <c r="R117">
+        <v>8</v>
+      </c>
+      <c r="S117">
+        <v>9</v>
+      </c>
+      <c r="T117">
+        <v>2.6</v>
+      </c>
+      <c r="U117">
+        <v>2.1</v>
+      </c>
+      <c r="V117">
+        <v>4.75</v>
+      </c>
+      <c r="W117">
+        <v>1.44</v>
+      </c>
+      <c r="X117">
+        <v>2.63</v>
+      </c>
+      <c r="Y117">
+        <v>3.25</v>
+      </c>
+      <c r="Z117">
+        <v>1.33</v>
+      </c>
+      <c r="AA117">
+        <v>10</v>
+      </c>
+      <c r="AB117">
+        <v>1.06</v>
+      </c>
+      <c r="AC117">
+        <v>1.94</v>
+      </c>
+      <c r="AD117">
+        <v>3.5</v>
+      </c>
+      <c r="AE117">
+        <v>4.2</v>
+      </c>
+      <c r="AF117">
+        <v>1.07</v>
+      </c>
+      <c r="AG117">
+        <v>9.5</v>
+      </c>
+      <c r="AH117">
+        <v>1.38</v>
+      </c>
+      <c r="AI117">
+        <v>3.1</v>
+      </c>
+      <c r="AJ117">
+        <v>2.07</v>
+      </c>
+      <c r="AK117">
+        <v>1.75</v>
+      </c>
+      <c r="AL117">
+        <v>1.95</v>
+      </c>
+      <c r="AM117">
+        <v>1.8</v>
+      </c>
+      <c r="AN117">
+        <v>1.24</v>
+      </c>
+      <c r="AO117">
+        <v>1.29</v>
+      </c>
+      <c r="AP117">
+        <v>1.85</v>
+      </c>
+      <c r="AQ117">
+        <v>2</v>
+      </c>
+      <c r="AR117">
+        <v>0.8</v>
+      </c>
+      <c r="AS117">
+        <v>2.14</v>
+      </c>
+      <c r="AT117">
+        <v>0.67</v>
+      </c>
+      <c r="AU117">
+        <v>1.71</v>
+      </c>
+      <c r="AV117">
+        <v>1.28</v>
+      </c>
+      <c r="AW117">
+        <v>2.99</v>
+      </c>
+      <c r="AX117">
+        <v>1.4</v>
+      </c>
+      <c r="AY117">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ117">
+        <v>3.88</v>
+      </c>
+      <c r="BA117">
+        <v>1.29</v>
+      </c>
+      <c r="BB117">
+        <v>1.61</v>
+      </c>
+      <c r="BC117">
+        <v>2</v>
+      </c>
+      <c r="BD117">
+        <v>2.53</v>
+      </c>
+      <c r="BE117">
+        <v>3.56</v>
+      </c>
+      <c r="BF117">
+        <v>12</v>
+      </c>
+      <c r="BG117">
+        <v>4</v>
+      </c>
+      <c r="BH117">
+        <v>10</v>
+      </c>
+      <c r="BI117">
+        <v>5</v>
+      </c>
+      <c r="BJ117">
+        <v>22</v>
+      </c>
+      <c r="BK117">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2710777</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>44864.51041666666</v>
+      </c>
+      <c r="F118">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>83</v>
+      </c>
+      <c r="H118" t="s">
+        <v>81</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>164</v>
+      </c>
+      <c r="P118" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q118">
+        <v>7</v>
+      </c>
+      <c r="R118">
+        <v>1</v>
+      </c>
+      <c r="S118">
+        <v>8</v>
+      </c>
+      <c r="T118">
+        <v>1.57</v>
+      </c>
+      <c r="U118">
+        <v>3</v>
+      </c>
+      <c r="V118">
+        <v>9</v>
+      </c>
+      <c r="W118">
+        <v>1.22</v>
+      </c>
+      <c r="X118">
+        <v>4</v>
+      </c>
+      <c r="Y118">
+        <v>2</v>
+      </c>
+      <c r="Z118">
+        <v>1.73</v>
+      </c>
+      <c r="AA118">
+        <v>4.33</v>
+      </c>
+      <c r="AB118">
+        <v>1.2</v>
+      </c>
+      <c r="AC118">
+        <v>1.25</v>
+      </c>
+      <c r="AD118">
+        <v>6.7</v>
+      </c>
+      <c r="AE118">
+        <v>11</v>
+      </c>
+      <c r="AF118">
+        <v>1.01</v>
+      </c>
+      <c r="AG118">
+        <v>23</v>
+      </c>
+      <c r="AH118">
+        <v>1.13</v>
+      </c>
+      <c r="AI118">
+        <v>6</v>
+      </c>
+      <c r="AJ118">
+        <v>1.44</v>
+      </c>
+      <c r="AK118">
+        <v>2.9</v>
+      </c>
+      <c r="AL118">
+        <v>1.95</v>
+      </c>
+      <c r="AM118">
+        <v>1.8</v>
+      </c>
+      <c r="AN118">
+        <v>1.04</v>
+      </c>
+      <c r="AO118">
+        <v>1.11</v>
+      </c>
+      <c r="AP118">
+        <v>4.33</v>
+      </c>
+      <c r="AQ118">
+        <v>2.6</v>
+      </c>
+      <c r="AR118">
+        <v>0.2</v>
+      </c>
+      <c r="AS118">
+        <v>2.33</v>
+      </c>
+      <c r="AT118">
+        <v>0.33</v>
+      </c>
+      <c r="AU118">
+        <v>2.16</v>
+      </c>
+      <c r="AV118">
+        <v>1.4</v>
+      </c>
+      <c r="AW118">
+        <v>3.56</v>
+      </c>
+      <c r="AX118">
+        <v>1.12</v>
+      </c>
+      <c r="AY118">
+        <v>13</v>
+      </c>
+      <c r="AZ118">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BA118">
+        <v>1.26</v>
+      </c>
+      <c r="BB118">
+        <v>1.56</v>
+      </c>
+      <c r="BC118">
+        <v>1.92</v>
+      </c>
+      <c r="BD118">
+        <v>2.39</v>
+      </c>
+      <c r="BE118">
+        <v>3.42</v>
+      </c>
+      <c r="BF118">
+        <v>7</v>
+      </c>
+      <c r="BG118">
+        <v>3</v>
+      </c>
+      <c r="BH118">
+        <v>13</v>
+      </c>
+      <c r="BI118">
+        <v>6</v>
+      </c>
+      <c r="BJ118">
+        <v>20</v>
+      </c>
+      <c r="BK118">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2710768</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>44864.60416666666</v>
+      </c>
+      <c r="F119">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>72</v>
+      </c>
+      <c r="H119" t="s">
+        <v>84</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>114</v>
+      </c>
+      <c r="P119" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q119">
+        <v>6</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>8</v>
+      </c>
+      <c r="T119">
+        <v>2.63</v>
+      </c>
+      <c r="U119">
+        <v>2.2</v>
+      </c>
+      <c r="V119">
+        <v>4</v>
+      </c>
+      <c r="W119">
+        <v>1.4</v>
+      </c>
+      <c r="X119">
+        <v>2.75</v>
+      </c>
+      <c r="Y119">
+        <v>2.75</v>
+      </c>
+      <c r="Z119">
+        <v>1.4</v>
+      </c>
+      <c r="AA119">
+        <v>8</v>
+      </c>
+      <c r="AB119">
+        <v>1.08</v>
+      </c>
+      <c r="AC119">
+        <v>2.11</v>
+      </c>
+      <c r="AD119">
+        <v>3.5</v>
+      </c>
+      <c r="AE119">
+        <v>3.6</v>
+      </c>
+      <c r="AF119">
+        <v>1.05</v>
+      </c>
+      <c r="AG119">
+        <v>11</v>
+      </c>
+      <c r="AH119">
+        <v>1.3</v>
+      </c>
+      <c r="AI119">
+        <v>3.6</v>
+      </c>
+      <c r="AJ119">
+        <v>1.86</v>
+      </c>
+      <c r="AK119">
+        <v>1.88</v>
+      </c>
+      <c r="AL119">
+        <v>1.75</v>
+      </c>
+      <c r="AM119">
+        <v>2</v>
+      </c>
+      <c r="AN119">
+        <v>1.29</v>
+      </c>
+      <c r="AO119">
+        <v>1.3</v>
+      </c>
+      <c r="AP119">
+        <v>1.72</v>
+      </c>
+      <c r="AQ119">
+        <v>1.67</v>
+      </c>
+      <c r="AR119">
+        <v>1.14</v>
+      </c>
+      <c r="AS119">
+        <v>1.86</v>
+      </c>
+      <c r="AT119">
+        <v>1</v>
+      </c>
+      <c r="AU119">
+        <v>2.09</v>
+      </c>
+      <c r="AV119">
+        <v>1.4</v>
+      </c>
+      <c r="AW119">
+        <v>3.49</v>
+      </c>
+      <c r="AX119">
+        <v>1.4</v>
+      </c>
+      <c r="AY119">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ119">
+        <v>3.85</v>
+      </c>
+      <c r="BA119">
+        <v>1.23</v>
+      </c>
+      <c r="BB119">
+        <v>1.51</v>
+      </c>
+      <c r="BC119">
+        <v>1.82</v>
+      </c>
+      <c r="BD119">
+        <v>2.28</v>
+      </c>
+      <c r="BE119">
+        <v>3.14</v>
+      </c>
+      <c r="BF119">
+        <v>8</v>
+      </c>
+      <c r="BG119">
+        <v>4</v>
+      </c>
+      <c r="BH119">
+        <v>13</v>
+      </c>
+      <c r="BI119">
+        <v>3</v>
+      </c>
+      <c r="BJ119">
+        <v>21</v>
+      </c>
+      <c r="BK119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>2710774</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>44864.70833333334</v>
+      </c>
+      <c r="F120">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>79</v>
+      </c>
+      <c r="H120" t="s">
+        <v>74</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>2</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120" t="s">
+        <v>87</v>
+      </c>
+      <c r="P120" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q120">
+        <v>5</v>
+      </c>
+      <c r="R120">
+        <v>3</v>
+      </c>
+      <c r="S120">
+        <v>8</v>
+      </c>
+      <c r="T120">
+        <v>2.63</v>
+      </c>
+      <c r="U120">
+        <v>2.1</v>
+      </c>
+      <c r="V120">
+        <v>4.33</v>
+      </c>
+      <c r="W120">
+        <v>1.4</v>
+      </c>
+      <c r="X120">
+        <v>2.75</v>
+      </c>
+      <c r="Y120">
+        <v>3</v>
+      </c>
+      <c r="Z120">
+        <v>1.36</v>
+      </c>
+      <c r="AA120">
+        <v>8</v>
+      </c>
+      <c r="AB120">
+        <v>1.08</v>
+      </c>
+      <c r="AC120">
+        <v>2.15</v>
+      </c>
+      <c r="AD120">
+        <v>3.4</v>
+      </c>
+      <c r="AE120">
+        <v>3.6</v>
+      </c>
+      <c r="AF120">
+        <v>1.06</v>
+      </c>
+      <c r="AG120">
+        <v>10</v>
+      </c>
+      <c r="AH120">
+        <v>1.33</v>
+      </c>
+      <c r="AI120">
+        <v>3.3</v>
+      </c>
+      <c r="AJ120">
+        <v>1.96</v>
+      </c>
+      <c r="AK120">
+        <v>1.79</v>
+      </c>
+      <c r="AL120">
+        <v>1.8</v>
+      </c>
+      <c r="AM120">
+        <v>1.95</v>
+      </c>
+      <c r="AN120">
+        <v>1.26</v>
+      </c>
+      <c r="AO120">
+        <v>1.29</v>
+      </c>
+      <c r="AP120">
+        <v>1.8</v>
+      </c>
+      <c r="AQ120">
+        <v>2</v>
+      </c>
+      <c r="AR120">
+        <v>1</v>
+      </c>
+      <c r="AS120">
+        <v>1.67</v>
+      </c>
+      <c r="AT120">
+        <v>1.33</v>
+      </c>
+      <c r="AU120">
+        <v>1.75</v>
+      </c>
+      <c r="AV120">
+        <v>1.2</v>
+      </c>
+      <c r="AW120">
+        <v>2.95</v>
+      </c>
+      <c r="AX120">
+        <v>1.39</v>
+      </c>
+      <c r="AY120">
+        <v>8.9</v>
+      </c>
+      <c r="AZ120">
+        <v>3.92</v>
+      </c>
+      <c r="BA120">
+        <v>1.22</v>
+      </c>
+      <c r="BB120">
+        <v>1.52</v>
+      </c>
+      <c r="BC120">
+        <v>1.82</v>
+      </c>
+      <c r="BD120">
+        <v>2.3</v>
+      </c>
+      <c r="BE120">
+        <v>3.04</v>
+      </c>
+      <c r="BF120">
+        <v>8</v>
+      </c>
+      <c r="BG120">
+        <v>5</v>
+      </c>
+      <c r="BH120">
+        <v>7</v>
+      </c>
+      <c r="BI120">
+        <v>5</v>
+      </c>
+      <c r="BJ120">
+        <v>15</v>
+      </c>
+      <c r="BK120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>2710769</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>44865.70833333334</v>
+      </c>
+      <c r="F121">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>80</v>
+      </c>
+      <c r="H121" t="s">
+        <v>73</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121" t="s">
+        <v>87</v>
+      </c>
+      <c r="P121" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q121">
+        <v>6</v>
+      </c>
+      <c r="R121">
+        <v>2</v>
+      </c>
+      <c r="S121">
+        <v>8</v>
+      </c>
+      <c r="T121">
+        <v>3.5</v>
+      </c>
+      <c r="U121">
+        <v>1.91</v>
+      </c>
+      <c r="V121">
+        <v>3.75</v>
+      </c>
+      <c r="W121">
+        <v>1.57</v>
+      </c>
+      <c r="X121">
+        <v>2.25</v>
+      </c>
+      <c r="Y121">
+        <v>3.75</v>
+      </c>
+      <c r="Z121">
+        <v>1.25</v>
+      </c>
+      <c r="AA121">
+        <v>13</v>
+      </c>
+      <c r="AB121">
+        <v>1.04</v>
+      </c>
+      <c r="AC121">
+        <v>2.82</v>
+      </c>
+      <c r="AD121">
+        <v>2.98</v>
+      </c>
+      <c r="AE121">
+        <v>2.44</v>
+      </c>
+      <c r="AF121">
+        <v>1.12</v>
+      </c>
+      <c r="AG121">
+        <v>7</v>
+      </c>
+      <c r="AH121">
+        <v>1.53</v>
+      </c>
+      <c r="AI121">
+        <v>2.55</v>
+      </c>
+      <c r="AJ121">
+        <v>2.38</v>
+      </c>
+      <c r="AK121">
+        <v>1.58</v>
+      </c>
+      <c r="AL121">
+        <v>2.05</v>
+      </c>
+      <c r="AM121">
+        <v>1.7</v>
+      </c>
+      <c r="AN121">
+        <v>1.41</v>
+      </c>
+      <c r="AO121">
+        <v>1.37</v>
+      </c>
+      <c r="AP121">
+        <v>1.46</v>
+      </c>
+      <c r="AQ121">
+        <v>0.4</v>
+      </c>
+      <c r="AR121">
+        <v>1</v>
+      </c>
+      <c r="AS121">
+        <v>0.33</v>
+      </c>
+      <c r="AT121">
+        <v>1.33</v>
+      </c>
+      <c r="AU121">
+        <v>1.26</v>
+      </c>
+      <c r="AV121">
+        <v>0.98</v>
+      </c>
+      <c r="AW121">
+        <v>2.24</v>
+      </c>
+      <c r="AX121">
+        <v>1.66</v>
+      </c>
+      <c r="AY121">
+        <v>7.5</v>
+      </c>
+      <c r="AZ121">
+        <v>2.85</v>
+      </c>
+      <c r="BA121">
+        <v>1.48</v>
+      </c>
+      <c r="BB121">
+        <v>1.87</v>
+      </c>
+      <c r="BC121">
+        <v>2.47</v>
+      </c>
+      <c r="BD121">
+        <v>3.34</v>
+      </c>
+      <c r="BE121">
+        <v>4.94</v>
+      </c>
+      <c r="BF121">
+        <v>6</v>
+      </c>
+      <c r="BG121">
+        <v>4</v>
+      </c>
+      <c r="BH121">
+        <v>7</v>
+      </c>
+      <c r="BI121">
+        <v>5</v>
+      </c>
+      <c r="BJ121">
+        <v>13</v>
+      </c>
+      <c r="BK121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>2710783</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>44869.70833333334</v>
+      </c>
+      <c r="F122">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>81</v>
+      </c>
+      <c r="H122" t="s">
+        <v>72</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>165</v>
+      </c>
+      <c r="P122" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q122">
+        <v>7</v>
+      </c>
+      <c r="R122">
+        <v>1</v>
+      </c>
+      <c r="S122">
+        <v>8</v>
+      </c>
+      <c r="T122">
+        <v>4.33</v>
+      </c>
+      <c r="U122">
+        <v>2.1</v>
+      </c>
+      <c r="V122">
+        <v>2.6</v>
+      </c>
+      <c r="W122">
+        <v>1.4</v>
+      </c>
+      <c r="X122">
+        <v>2.75</v>
+      </c>
+      <c r="Y122">
+        <v>3</v>
+      </c>
+      <c r="Z122">
+        <v>1.36</v>
+      </c>
+      <c r="AA122">
+        <v>8</v>
+      </c>
+      <c r="AB122">
+        <v>1.08</v>
+      </c>
+      <c r="AC122">
+        <v>3.85</v>
+      </c>
+      <c r="AD122">
+        <v>3.45</v>
+      </c>
+      <c r="AE122">
+        <v>1.91</v>
+      </c>
+      <c r="AF122">
+        <v>1.02</v>
+      </c>
+      <c r="AG122">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH122">
+        <v>1.31</v>
+      </c>
+      <c r="AI122">
+        <v>3.2</v>
+      </c>
+      <c r="AJ122">
+        <v>2</v>
+      </c>
+      <c r="AK122">
+        <v>1.8</v>
+      </c>
+      <c r="AL122">
+        <v>1.8</v>
+      </c>
+      <c r="AM122">
+        <v>1.95</v>
+      </c>
+      <c r="AN122">
+        <v>1.87</v>
+      </c>
+      <c r="AO122">
+        <v>1.3</v>
+      </c>
+      <c r="AP122">
+        <v>1.27</v>
+      </c>
+      <c r="AQ122">
+        <v>1.33</v>
+      </c>
+      <c r="AR122">
+        <v>1.6</v>
+      </c>
+      <c r="AS122">
+        <v>1.57</v>
+      </c>
+      <c r="AT122">
+        <v>1.33</v>
+      </c>
+      <c r="AU122">
+        <v>1.78</v>
+      </c>
+      <c r="AV122">
+        <v>1.93</v>
+      </c>
+      <c r="AW122">
+        <v>3.71</v>
+      </c>
+      <c r="AX122">
+        <v>2.88</v>
+      </c>
+      <c r="AY122">
+        <v>7.7</v>
+      </c>
+      <c r="AZ122">
+        <v>1.64</v>
+      </c>
+      <c r="BA122">
+        <v>1.33</v>
+      </c>
+      <c r="BB122">
+        <v>1.64</v>
+      </c>
+      <c r="BC122">
+        <v>2.13</v>
+      </c>
+      <c r="BD122">
+        <v>2.81</v>
+      </c>
+      <c r="BE122">
+        <v>3.94</v>
+      </c>
+      <c r="BF122">
+        <v>11</v>
+      </c>
+      <c r="BG122">
+        <v>8</v>
+      </c>
+      <c r="BH122">
+        <v>12</v>
+      </c>
+      <c r="BI122">
+        <v>4</v>
+      </c>
+      <c r="BJ122">
+        <v>23</v>
+      </c>
+      <c r="BK122">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="246">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,36 @@
     <t>['67', '75']</t>
   </si>
   <si>
+    <t>['40', '46']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['48', '62']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['5', '44', '67']</t>
+  </si>
+  <si>
+    <t>['19', '51', '78']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['63', '81', '90+3']</t>
+  </si>
+  <si>
+    <t>['40', '70']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -616,9 +646,6 @@
     <t>['7']</t>
   </si>
   <si>
-    <t>['19']</t>
-  </si>
-  <si>
     <t>['18', '36']</t>
   </si>
   <si>
@@ -688,16 +715,43 @@
     <t>['54', '71']</t>
   </si>
   <si>
-    <t>['31']</t>
+    <t>['37']</t>
   </si>
   <si>
-    <t>['37']</t>
+    <t>['31']</t>
   </si>
   <si>
     <t>['85', '89']</t>
   </si>
   <si>
     <t>['86', '90+3']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['8', '28']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['32', '75']</t>
+  </si>
+  <si>
+    <t>['37', '41']</t>
+  </si>
+  <si>
+    <t>['39', '66']</t>
+  </si>
+  <si>
+    <t>['48', '85']</t>
+  </si>
+  <si>
+    <t>['20', '36']</t>
+  </si>
+  <si>
+    <t>['64']</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK122"/>
+  <dimension ref="A1:BK141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1303,7 +1357,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1390,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT2">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1494,7 +1548,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1581,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -1685,7 +1739,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1772,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1963,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT5">
         <v>1.14</v>
@@ -2067,7 +2121,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2157,7 +2211,7 @@
         <v>0.86</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2345,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT7">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2449,7 +2503,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2536,10 +2590,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT8">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2727,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT9">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2831,7 +2885,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2918,10 +2972,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT10">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3109,10 +3163,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT11">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3213,7 +3267,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3300,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="AS12">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT12">
         <v>1.14</v>
@@ -3404,7 +3458,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q13">
         <v>12</v>
@@ -3491,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT13">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3682,10 +3736,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT14">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="AU14">
         <v>1.45</v>
@@ -3786,7 +3840,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3873,10 +3927,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT15">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3977,7 +4031,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4064,10 +4118,10 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT16">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AU16">
         <v>1.09</v>
@@ -4255,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT17">
         <v>1</v>
@@ -4359,7 +4413,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4446,10 +4500,10 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4550,7 +4604,7 @@
         <v>89</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4637,10 +4691,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT19">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4828,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AT20">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4932,7 +4986,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5022,7 +5076,7 @@
         <v>1.57</v>
       </c>
       <c r="AT21">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5123,7 +5177,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5213,7 +5267,7 @@
         <v>1.57</v>
       </c>
       <c r="AT22">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU22">
         <v>1.7</v>
@@ -5401,10 +5455,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU23">
         <v>2.21</v>
@@ -5592,10 +5646,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AT24">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU24">
         <v>1.51</v>
@@ -5696,7 +5750,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -5786,7 +5840,7 @@
         <v>2</v>
       </c>
       <c r="AT25">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5974,10 +6028,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT26">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU26">
         <v>1.31</v>
@@ -6165,10 +6219,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU27">
         <v>1.13</v>
@@ -6356,10 +6410,10 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT28">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU28">
         <v>2.46</v>
@@ -6460,7 +6514,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6547,10 +6601,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT29">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AU29">
         <v>1.51</v>
@@ -6651,7 +6705,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -6842,7 +6896,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6929,10 +6983,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT31">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU31">
         <v>1.68</v>
@@ -7120,10 +7174,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT32">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="AU32">
         <v>1.37</v>
@@ -7224,7 +7278,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7311,10 +7365,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT33">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU33">
         <v>1.45</v>
@@ -7502,10 +7556,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT34">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7606,7 +7660,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7693,10 +7747,10 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT35">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU35">
         <v>1.54</v>
@@ -7797,7 +7851,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7884,10 +7938,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT36">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU36">
         <v>2.23</v>
@@ -7988,7 +8042,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8075,7 +8129,7 @@
         <v>2</v>
       </c>
       <c r="AS37">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT37">
         <v>1.14</v>
@@ -8266,7 +8320,7 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT38">
         <v>1</v>
@@ -8457,10 +8511,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT39">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -8648,10 +8702,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT40">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU40">
         <v>1.71</v>
@@ -8839,10 +8893,10 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT41">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU41">
         <v>1.67</v>
@@ -8943,7 +8997,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9033,7 +9087,7 @@
         <v>1.57</v>
       </c>
       <c r="AT42">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU42">
         <v>1.59</v>
@@ -9325,7 +9379,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9412,10 +9466,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT44">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU44">
         <v>1.52</v>
@@ -9516,7 +9570,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9606,7 +9660,7 @@
         <v>0.86</v>
       </c>
       <c r="AT45">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU45">
         <v>1.15</v>
@@ -9707,7 +9761,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9794,10 +9848,10 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT46">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU46">
         <v>1.96</v>
@@ -9898,7 +9952,7 @@
         <v>113</v>
       </c>
       <c r="P47" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9985,10 +10039,10 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT47">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU47">
         <v>2.24</v>
@@ -10089,7 +10143,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10176,7 +10230,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AT48">
         <v>1.33</v>
@@ -10280,7 +10334,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10367,10 +10421,10 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT49">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU49">
         <v>1</v>
@@ -10558,10 +10612,10 @@
         <v>2.33</v>
       </c>
       <c r="AS50">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU50">
         <v>1.69</v>
@@ -10662,7 +10716,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10749,10 +10803,10 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT51">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU51">
         <v>1.4</v>
@@ -10853,7 +10907,7 @@
         <v>87</v>
       </c>
       <c r="P52" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -10940,10 +10994,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT52">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="AU52">
         <v>1.27</v>
@@ -11131,10 +11185,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT53">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU53">
         <v>1.46</v>
@@ -11322,10 +11376,10 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT54">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU54">
         <v>2.69</v>
@@ -11513,10 +11567,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT55">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU55">
         <v>2.05</v>
@@ -11617,7 +11671,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -11704,7 +11758,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT56">
         <v>1.14</v>
@@ -11808,7 +11862,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -11895,10 +11949,10 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT57">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU57">
         <v>1.76</v>
@@ -11999,7 +12053,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12086,10 +12140,10 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT58">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU58">
         <v>2.19</v>
@@ -12190,7 +12244,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12277,10 +12331,10 @@
         <v>0.5</v>
       </c>
       <c r="AS59">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT59">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU59">
         <v>1.68</v>
@@ -12381,7 +12435,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12468,7 +12522,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT60">
         <v>1</v>
@@ -12572,7 +12626,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12659,10 +12713,10 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT61">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AU61">
         <v>1.78</v>
@@ -12850,10 +12904,10 @@
         <v>0.33</v>
       </c>
       <c r="AS62">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT62">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU62">
         <v>2.11</v>
@@ -13044,7 +13098,7 @@
         <v>0.86</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU63">
         <v>1.06</v>
@@ -13145,7 +13199,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13232,10 +13286,10 @@
         <v>0.33</v>
       </c>
       <c r="AS64">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT64">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU64">
         <v>1.02</v>
@@ -13336,7 +13390,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13423,10 +13477,10 @@
         <v>2.33</v>
       </c>
       <c r="AS65">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT65">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU65">
         <v>2.05</v>
@@ -13614,10 +13668,10 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT66">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU66">
         <v>1.23</v>
@@ -13718,7 +13772,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -13805,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT67">
         <v>1</v>
@@ -13996,10 +14050,10 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT68">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU68">
         <v>1.34</v>
@@ -14100,7 +14154,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14190,7 +14244,7 @@
         <v>1.57</v>
       </c>
       <c r="AT69">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU69">
         <v>1.59</v>
@@ -14291,7 +14345,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14378,10 +14432,10 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT70">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU70">
         <v>2.46</v>
@@ -14482,7 +14536,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>13</v>
@@ -14572,7 +14626,7 @@
         <v>2</v>
       </c>
       <c r="AT71">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU71">
         <v>1.8</v>
@@ -14673,7 +14727,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14760,7 +14814,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT72">
         <v>1</v>
@@ -14864,7 +14918,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -14951,7 +15005,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT73">
         <v>1.14</v>
@@ -15055,7 +15109,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15142,10 +15196,10 @@
         <v>0.33</v>
       </c>
       <c r="AS74">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT74">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU74">
         <v>1.71</v>
@@ -15246,7 +15300,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15333,7 +15387,7 @@
         <v>3</v>
       </c>
       <c r="AS75">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT75">
         <v>1.33</v>
@@ -15437,7 +15491,7 @@
         <v>87</v>
       </c>
       <c r="P76" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15524,10 +15578,10 @@
         <v>3</v>
       </c>
       <c r="AS76">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT76">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AU76">
         <v>1.18</v>
@@ -15715,10 +15769,10 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT77">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU77">
         <v>1.57</v>
@@ -15819,7 +15873,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16097,10 +16151,10 @@
         <v>1.6</v>
       </c>
       <c r="AS79">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT79">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU79">
         <v>1.66</v>
@@ -16288,10 +16342,10 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT80">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU80">
         <v>2.92</v>
@@ -16392,7 +16446,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16479,10 +16533,10 @@
         <v>1.33</v>
       </c>
       <c r="AS81">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AT81">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU81">
         <v>1.41</v>
@@ -16673,7 +16727,7 @@
         <v>2</v>
       </c>
       <c r="AT82">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU82">
         <v>1.93</v>
@@ -16774,7 +16828,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -16864,7 +16918,7 @@
         <v>1.57</v>
       </c>
       <c r="AT83">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="AU83">
         <v>1.65</v>
@@ -16965,7 +17019,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17052,10 +17106,10 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT84">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU84">
         <v>1.91</v>
@@ -17156,7 +17210,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17243,10 +17297,10 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT85">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU85">
         <v>1.27</v>
@@ -17347,7 +17401,7 @@
         <v>87</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -17434,10 +17488,10 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT86">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU86">
         <v>2.15</v>
@@ -17538,7 +17592,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17625,10 +17679,10 @@
         <v>2.25</v>
       </c>
       <c r="AS87">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT87">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU87">
         <v>1.38</v>
@@ -17816,10 +17870,10 @@
         <v>3</v>
       </c>
       <c r="AS88">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT88">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU88">
         <v>2.54</v>
@@ -18007,10 +18061,10 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT89">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU89">
         <v>1.66</v>
@@ -18198,10 +18252,10 @@
         <v>0.25</v>
       </c>
       <c r="AS90">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT90">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU90">
         <v>1.57</v>
@@ -18389,10 +18443,10 @@
         <v>1.33</v>
       </c>
       <c r="AS91">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT91">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU91">
         <v>2.05</v>
@@ -18580,7 +18634,7 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT92">
         <v>1</v>
@@ -18684,7 +18738,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18771,7 +18825,7 @@
         <v>2.33</v>
       </c>
       <c r="AS93">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT93">
         <v>1.33</v>
@@ -18875,7 +18929,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -18962,7 +19016,7 @@
         <v>0.8</v>
       </c>
       <c r="AS94">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT94">
         <v>1.14</v>
@@ -19153,10 +19207,10 @@
         <v>0.75</v>
       </c>
       <c r="AS95">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT95">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU95">
         <v>1.57</v>
@@ -19347,7 +19401,7 @@
         <v>0.86</v>
       </c>
       <c r="AT96">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU96">
         <v>1.14</v>
@@ -19535,10 +19589,10 @@
         <v>1.25</v>
       </c>
       <c r="AS97">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT97">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU97">
         <v>1.7</v>
@@ -19639,7 +19693,7 @@
         <v>87</v>
       </c>
       <c r="P98" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19726,10 +19780,10 @@
         <v>3</v>
       </c>
       <c r="AS98">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AT98">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AU98">
         <v>1.29</v>
@@ -19830,7 +19884,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -19917,10 +19971,10 @@
         <v>0.25</v>
       </c>
       <c r="AS99">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT99">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU99">
         <v>1.25</v>
@@ -20108,7 +20162,7 @@
         <v>1.25</v>
       </c>
       <c r="AS100">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT100">
         <v>1</v>
@@ -20299,10 +20353,10 @@
         <v>1.33</v>
       </c>
       <c r="AS101">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT101">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU101">
         <v>2.6</v>
@@ -20403,7 +20457,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>10</v>
@@ -20493,7 +20547,7 @@
         <v>2</v>
       </c>
       <c r="AT102">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="AU102">
         <v>1.89</v>
@@ -20681,10 +20735,10 @@
         <v>2.4</v>
       </c>
       <c r="AS103">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT103">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU103">
         <v>1.51</v>
@@ -20785,7 +20839,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20872,10 +20926,10 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT104">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU104">
         <v>2.02</v>
@@ -20976,7 +21030,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21063,10 +21117,10 @@
         <v>1.4</v>
       </c>
       <c r="AS105">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT105">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU105">
         <v>2.23</v>
@@ -21167,7 +21221,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21254,10 +21308,10 @@
         <v>0.2</v>
       </c>
       <c r="AS106">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT106">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU106">
         <v>1.64</v>
@@ -21358,7 +21412,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21445,10 +21499,10 @@
         <v>2.6</v>
       </c>
       <c r="AS107">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT107">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU107">
         <v>1.66</v>
@@ -21507,7 +21561,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>2710767</v>
+        <v>2710760</v>
       </c>
       <c r="C108" t="s">
         <v>63</v>
@@ -21522,175 +21576,175 @@
         <v>11</v>
       </c>
       <c r="G108" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H108" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108">
         <v>1</v>
       </c>
       <c r="K108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M108">
         <v>1</v>
       </c>
       <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>88</v>
+      </c>
+      <c r="P108" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q108">
         <v>3</v>
       </c>
-      <c r="O108" t="s">
-        <v>157</v>
-      </c>
-      <c r="P108" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q108">
+      <c r="R108">
+        <v>5</v>
+      </c>
+      <c r="S108">
+        <v>8</v>
+      </c>
+      <c r="T108">
+        <v>3.25</v>
+      </c>
+      <c r="U108">
+        <v>2</v>
+      </c>
+      <c r="V108">
+        <v>3.6</v>
+      </c>
+      <c r="W108">
+        <v>1.5</v>
+      </c>
+      <c r="X108">
+        <v>2.5</v>
+      </c>
+      <c r="Y108">
+        <v>3.4</v>
+      </c>
+      <c r="Z108">
+        <v>1.3</v>
+      </c>
+      <c r="AA108">
         <v>10</v>
       </c>
-      <c r="R108">
+      <c r="AB108">
+        <v>1.06</v>
+      </c>
+      <c r="AC108">
+        <v>2.55</v>
+      </c>
+      <c r="AD108">
+        <v>3</v>
+      </c>
+      <c r="AE108">
+        <v>2.8</v>
+      </c>
+      <c r="AF108">
+        <v>1.09</v>
+      </c>
+      <c r="AG108">
+        <v>7.5</v>
+      </c>
+      <c r="AH108">
+        <v>1.45</v>
+      </c>
+      <c r="AI108">
+        <v>2.8</v>
+      </c>
+      <c r="AJ108">
+        <v>2.22</v>
+      </c>
+      <c r="AK108">
+        <v>1.59</v>
+      </c>
+      <c r="AL108">
+        <v>1.95</v>
+      </c>
+      <c r="AM108">
+        <v>1.8</v>
+      </c>
+      <c r="AN108">
+        <v>1.4</v>
+      </c>
+      <c r="AO108">
+        <v>1.36</v>
+      </c>
+      <c r="AP108">
+        <v>1.49</v>
+      </c>
+      <c r="AQ108">
+        <v>1.4</v>
+      </c>
+      <c r="AR108">
+        <v>1</v>
+      </c>
+      <c r="AS108">
+        <v>1.57</v>
+      </c>
+      <c r="AT108">
+        <v>1.33</v>
+      </c>
+      <c r="AU108">
+        <v>1.88</v>
+      </c>
+      <c r="AV108">
+        <v>1.41</v>
+      </c>
+      <c r="AW108">
+        <v>3.29</v>
+      </c>
+      <c r="AX108">
+        <v>1.97</v>
+      </c>
+      <c r="AY108">
+        <v>7.3</v>
+      </c>
+      <c r="AZ108">
+        <v>2.26</v>
+      </c>
+      <c r="BA108">
+        <v>1.48</v>
+      </c>
+      <c r="BB108">
+        <v>1.89</v>
+      </c>
+      <c r="BC108">
+        <v>2.52</v>
+      </c>
+      <c r="BD108">
+        <v>3.18</v>
+      </c>
+      <c r="BE108">
+        <v>4.65</v>
+      </c>
+      <c r="BF108">
         <v>4</v>
-      </c>
-      <c r="S108">
-        <v>14</v>
-      </c>
-      <c r="T108">
-        <v>1.91</v>
-      </c>
-      <c r="U108">
-        <v>2.5</v>
-      </c>
-      <c r="V108">
-        <v>7</v>
-      </c>
-      <c r="W108">
-        <v>1.33</v>
-      </c>
-      <c r="X108">
-        <v>3.25</v>
-      </c>
-      <c r="Y108">
-        <v>2.5</v>
-      </c>
-      <c r="Z108">
-        <v>1.5</v>
-      </c>
-      <c r="AA108">
-        <v>6.5</v>
-      </c>
-      <c r="AB108">
-        <v>1.11</v>
-      </c>
-      <c r="AC108">
-        <v>1.33</v>
-      </c>
-      <c r="AD108">
-        <v>5</v>
-      </c>
-      <c r="AE108">
-        <v>7.5</v>
-      </c>
-      <c r="AF108">
-        <v>1.03</v>
-      </c>
-      <c r="AG108">
-        <v>13</v>
-      </c>
-      <c r="AH108">
-        <v>1.24</v>
-      </c>
-      <c r="AI108">
-        <v>4.2</v>
-      </c>
-      <c r="AJ108">
-        <v>1.68</v>
-      </c>
-      <c r="AK108">
-        <v>2.07</v>
-      </c>
-      <c r="AL108">
-        <v>2</v>
-      </c>
-      <c r="AM108">
-        <v>1.75</v>
-      </c>
-      <c r="AN108">
-        <v>1.08</v>
-      </c>
-      <c r="AO108">
-        <v>1.18</v>
-      </c>
-      <c r="AP108">
-        <v>2.9</v>
-      </c>
-      <c r="AQ108">
-        <v>2.33</v>
-      </c>
-      <c r="AR108">
-        <v>0.2</v>
-      </c>
-      <c r="AS108">
-        <v>2.5</v>
-      </c>
-      <c r="AT108">
-        <v>0.17</v>
-      </c>
-      <c r="AU108">
-        <v>1.96</v>
-      </c>
-      <c r="AV108">
-        <v>1.16</v>
-      </c>
-      <c r="AW108">
-        <v>3.12</v>
-      </c>
-      <c r="AX108">
-        <v>1.21</v>
-      </c>
-      <c r="AY108">
-        <v>10.75</v>
-      </c>
-      <c r="AZ108">
-        <v>6</v>
-      </c>
-      <c r="BA108">
-        <v>1.22</v>
-      </c>
-      <c r="BB108">
-        <v>1.43</v>
-      </c>
-      <c r="BC108">
-        <v>1.81</v>
-      </c>
-      <c r="BD108">
-        <v>2.4</v>
-      </c>
-      <c r="BE108">
-        <v>3.08</v>
-      </c>
-      <c r="BF108">
-        <v>7</v>
       </c>
       <c r="BG108">
         <v>5</v>
       </c>
       <c r="BH108">
+        <v>8</v>
+      </c>
+      <c r="BI108">
         <v>7</v>
       </c>
-      <c r="BI108">
-        <v>11</v>
-      </c>
       <c r="BJ108">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BK108">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:63">
@@ -21698,7 +21752,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>2710760</v>
+        <v>2710767</v>
       </c>
       <c r="C109" t="s">
         <v>63</v>
@@ -21713,175 +21767,175 @@
         <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H109" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109">
         <v>1</v>
       </c>
       <c r="K109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M109">
         <v>1</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O109" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="Q109">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R109">
+        <v>4</v>
+      </c>
+      <c r="S109">
+        <v>14</v>
+      </c>
+      <c r="T109">
+        <v>1.91</v>
+      </c>
+      <c r="U109">
+        <v>2.5</v>
+      </c>
+      <c r="V109">
+        <v>7</v>
+      </c>
+      <c r="W109">
+        <v>1.33</v>
+      </c>
+      <c r="X109">
+        <v>3.25</v>
+      </c>
+      <c r="Y109">
+        <v>2.5</v>
+      </c>
+      <c r="Z109">
+        <v>1.5</v>
+      </c>
+      <c r="AA109">
+        <v>6.5</v>
+      </c>
+      <c r="AB109">
+        <v>1.11</v>
+      </c>
+      <c r="AC109">
+        <v>1.33</v>
+      </c>
+      <c r="AD109">
         <v>5</v>
       </c>
-      <c r="S109">
-        <v>8</v>
-      </c>
-      <c r="T109">
-        <v>3.25</v>
-      </c>
-      <c r="U109">
-        <v>2</v>
-      </c>
-      <c r="V109">
-        <v>3.6</v>
-      </c>
-      <c r="W109">
-        <v>1.5</v>
-      </c>
-      <c r="X109">
-        <v>2.5</v>
-      </c>
-      <c r="Y109">
-        <v>3.4</v>
-      </c>
-      <c r="Z109">
-        <v>1.3</v>
-      </c>
-      <c r="AA109">
-        <v>10</v>
-      </c>
-      <c r="AB109">
-        <v>1.06</v>
-      </c>
-      <c r="AC109">
-        <v>2.55</v>
-      </c>
-      <c r="AD109">
-        <v>3</v>
-      </c>
       <c r="AE109">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="AF109">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="AG109">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AH109">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="AI109">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="AJ109">
-        <v>2.22</v>
+        <v>1.68</v>
       </c>
       <c r="AK109">
-        <v>1.59</v>
+        <v>2.07</v>
       </c>
       <c r="AL109">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AM109">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AN109">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="AO109">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AP109">
-        <v>1.49</v>
+        <v>2.9</v>
       </c>
       <c r="AQ109">
-        <v>1.4</v>
+        <v>2.33</v>
       </c>
       <c r="AR109">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AS109">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AT109">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="AU109">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="AV109">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="AW109">
-        <v>3.29</v>
+        <v>3.12</v>
       </c>
       <c r="AX109">
-        <v>1.97</v>
+        <v>1.21</v>
       </c>
       <c r="AY109">
-        <v>7.3</v>
+        <v>10.75</v>
       </c>
       <c r="AZ109">
-        <v>2.26</v>
+        <v>6</v>
       </c>
       <c r="BA109">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="BB109">
-        <v>1.89</v>
+        <v>1.43</v>
       </c>
       <c r="BC109">
-        <v>2.52</v>
+        <v>1.81</v>
       </c>
       <c r="BD109">
-        <v>3.18</v>
+        <v>2.4</v>
       </c>
       <c r="BE109">
-        <v>4.65</v>
+        <v>3.08</v>
       </c>
       <c r="BF109">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG109">
         <v>5</v>
       </c>
       <c r="BH109">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI109">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BJ109">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BK109">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:63">
@@ -22018,7 +22072,7 @@
         <v>2</v>
       </c>
       <c r="AS110">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT110">
         <v>1.33</v>
@@ -22209,10 +22263,10 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT111">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU111">
         <v>1.39</v>
@@ -22400,7 +22454,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT112">
         <v>1</v>
@@ -22591,10 +22645,10 @@
         <v>0.6</v>
       </c>
       <c r="AS113">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT113">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU113">
         <v>1.32</v>
@@ -22695,7 +22749,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -22785,7 +22839,7 @@
         <v>0.86</v>
       </c>
       <c r="AT114">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU114">
         <v>1.22</v>
@@ -22973,7 +23027,7 @@
         <v>0.83</v>
       </c>
       <c r="AS115">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT115">
         <v>1.14</v>
@@ -23164,10 +23218,10 @@
         <v>2.4</v>
       </c>
       <c r="AS116">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT116">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU116">
         <v>1.99</v>
@@ -23355,10 +23409,10 @@
         <v>0.8</v>
       </c>
       <c r="AS117">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT117">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU117">
         <v>1.71</v>
@@ -23459,7 +23513,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23546,10 +23600,10 @@
         <v>0.2</v>
       </c>
       <c r="AS118">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT118">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU118">
         <v>2.16</v>
@@ -23737,10 +23791,10 @@
         <v>1.14</v>
       </c>
       <c r="AS119">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT119">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU119">
         <v>2.09</v>
@@ -23841,7 +23895,7 @@
         <v>87</v>
       </c>
       <c r="P120" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -23928,10 +23982,10 @@
         <v>1</v>
       </c>
       <c r="AS120">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT120">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU120">
         <v>1.75</v>
@@ -24032,7 +24086,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24119,10 +24173,10 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AT121">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU121">
         <v>1.26</v>
@@ -24365,6 +24419,3635 @@
       </c>
       <c r="BK122">
         <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2710786</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>44870.41666666666</v>
+      </c>
+      <c r="F123">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>73</v>
+      </c>
+      <c r="H123" t="s">
+        <v>69</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123" t="s">
+        <v>87</v>
+      </c>
+      <c r="P123" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q123">
+        <v>5</v>
+      </c>
+      <c r="R123">
+        <v>5</v>
+      </c>
+      <c r="S123">
+        <v>10</v>
+      </c>
+      <c r="T123">
+        <v>2.75</v>
+      </c>
+      <c r="U123">
+        <v>1.95</v>
+      </c>
+      <c r="V123">
+        <v>5</v>
+      </c>
+      <c r="W123">
+        <v>1.57</v>
+      </c>
+      <c r="X123">
+        <v>2.25</v>
+      </c>
+      <c r="Y123">
+        <v>3.75</v>
+      </c>
+      <c r="Z123">
+        <v>1.25</v>
+      </c>
+      <c r="AA123">
+        <v>13</v>
+      </c>
+      <c r="AB123">
+        <v>1.04</v>
+      </c>
+      <c r="AC123">
+        <v>2</v>
+      </c>
+      <c r="AD123">
+        <v>3.05</v>
+      </c>
+      <c r="AE123">
+        <v>3.7</v>
+      </c>
+      <c r="AF123">
+        <v>1.11</v>
+      </c>
+      <c r="AG123">
+        <v>7</v>
+      </c>
+      <c r="AH123">
+        <v>1.5</v>
+      </c>
+      <c r="AI123">
+        <v>2.45</v>
+      </c>
+      <c r="AJ123">
+        <v>2.7</v>
+      </c>
+      <c r="AK123">
+        <v>1.45</v>
+      </c>
+      <c r="AL123">
+        <v>2.25</v>
+      </c>
+      <c r="AM123">
+        <v>1.57</v>
+      </c>
+      <c r="AN123">
+        <v>1.23</v>
+      </c>
+      <c r="AO123">
+        <v>1.33</v>
+      </c>
+      <c r="AP123">
+        <v>1.78</v>
+      </c>
+      <c r="AQ123">
+        <v>0.83</v>
+      </c>
+      <c r="AR123">
+        <v>0.8</v>
+      </c>
+      <c r="AS123">
+        <v>0.86</v>
+      </c>
+      <c r="AT123">
+        <v>0.71</v>
+      </c>
+      <c r="AU123">
+        <v>1.16</v>
+      </c>
+      <c r="AV123">
+        <v>0.87</v>
+      </c>
+      <c r="AW123">
+        <v>2.03</v>
+      </c>
+      <c r="AX123">
+        <v>1.81</v>
+      </c>
+      <c r="AY123">
+        <v>7.3</v>
+      </c>
+      <c r="AZ123">
+        <v>2.52</v>
+      </c>
+      <c r="BA123">
+        <v>1.5</v>
+      </c>
+      <c r="BB123">
+        <v>1.9</v>
+      </c>
+      <c r="BC123">
+        <v>2.53</v>
+      </c>
+      <c r="BD123">
+        <v>3.48</v>
+      </c>
+      <c r="BE123">
+        <v>5.1</v>
+      </c>
+      <c r="BF123">
+        <v>2</v>
+      </c>
+      <c r="BG123">
+        <v>5</v>
+      </c>
+      <c r="BH123">
+        <v>13</v>
+      </c>
+      <c r="BI123">
+        <v>10</v>
+      </c>
+      <c r="BJ123">
+        <v>15</v>
+      </c>
+      <c r="BK123">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2710784</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>44870.51041666666</v>
+      </c>
+      <c r="F124">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>67</v>
+      </c>
+      <c r="H124" t="s">
+        <v>80</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="O124" t="s">
+        <v>166</v>
+      </c>
+      <c r="P124" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q124">
+        <v>8</v>
+      </c>
+      <c r="R124">
+        <v>4</v>
+      </c>
+      <c r="S124">
+        <v>12</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
+        <v>2.2</v>
+      </c>
+      <c r="V124">
+        <v>4.75</v>
+      </c>
+      <c r="W124">
+        <v>1.4</v>
+      </c>
+      <c r="X124">
+        <v>2.75</v>
+      </c>
+      <c r="Y124">
+        <v>2.75</v>
+      </c>
+      <c r="Z124">
+        <v>1.4</v>
+      </c>
+      <c r="AA124">
+        <v>8</v>
+      </c>
+      <c r="AB124">
+        <v>1.08</v>
+      </c>
+      <c r="AC124">
+        <v>1.72</v>
+      </c>
+      <c r="AD124">
+        <v>3.5</v>
+      </c>
+      <c r="AE124">
+        <v>4.3</v>
+      </c>
+      <c r="AF124">
+        <v>1.05</v>
+      </c>
+      <c r="AG124">
+        <v>11</v>
+      </c>
+      <c r="AH124">
+        <v>1.33</v>
+      </c>
+      <c r="AI124">
+        <v>3.4</v>
+      </c>
+      <c r="AJ124">
+        <v>2.01</v>
+      </c>
+      <c r="AK124">
+        <v>1.89</v>
+      </c>
+      <c r="AL124">
+        <v>1.8</v>
+      </c>
+      <c r="AM124">
+        <v>1.95</v>
+      </c>
+      <c r="AN124">
+        <v>1.22</v>
+      </c>
+      <c r="AO124">
+        <v>1.27</v>
+      </c>
+      <c r="AP124">
+        <v>1.93</v>
+      </c>
+      <c r="AQ124">
+        <v>1.67</v>
+      </c>
+      <c r="AR124">
+        <v>0.33</v>
+      </c>
+      <c r="AS124">
+        <v>1.86</v>
+      </c>
+      <c r="AT124">
+        <v>0.29</v>
+      </c>
+      <c r="AU124">
+        <v>1.45</v>
+      </c>
+      <c r="AV124">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AW124">
+        <v>2.26</v>
+      </c>
+      <c r="AX124">
+        <v>1.45</v>
+      </c>
+      <c r="AY124">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ124">
+        <v>3.6</v>
+      </c>
+      <c r="BA124">
+        <v>1.29</v>
+      </c>
+      <c r="BB124">
+        <v>1.57</v>
+      </c>
+      <c r="BC124">
+        <v>2.02</v>
+      </c>
+      <c r="BD124">
+        <v>2.62</v>
+      </c>
+      <c r="BE124">
+        <v>3.64</v>
+      </c>
+      <c r="BF124">
+        <v>12</v>
+      </c>
+      <c r="BG124">
+        <v>3</v>
+      </c>
+      <c r="BH124">
+        <v>6</v>
+      </c>
+      <c r="BI124">
+        <v>2</v>
+      </c>
+      <c r="BJ124">
+        <v>18</v>
+      </c>
+      <c r="BK124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2710780</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>44870.60416666666</v>
+      </c>
+      <c r="F125">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>66</v>
+      </c>
+      <c r="H125" t="s">
+        <v>65</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>2</v>
+      </c>
+      <c r="K125">
+        <v>3</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125" t="s">
+        <v>167</v>
+      </c>
+      <c r="P125" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q125">
+        <v>2</v>
+      </c>
+      <c r="R125">
+        <v>3</v>
+      </c>
+      <c r="S125">
+        <v>5</v>
+      </c>
+      <c r="T125">
+        <v>2.88</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
+        <v>4.33</v>
+      </c>
+      <c r="W125">
+        <v>1.5</v>
+      </c>
+      <c r="X125">
+        <v>2.5</v>
+      </c>
+      <c r="Y125">
+        <v>3.4</v>
+      </c>
+      <c r="Z125">
+        <v>1.3</v>
+      </c>
+      <c r="AA125">
+        <v>10</v>
+      </c>
+      <c r="AB125">
+        <v>1.06</v>
+      </c>
+      <c r="AC125">
+        <v>2</v>
+      </c>
+      <c r="AD125">
+        <v>3.42</v>
+      </c>
+      <c r="AE125">
+        <v>3.82</v>
+      </c>
+      <c r="AF125">
+        <v>1.08</v>
+      </c>
+      <c r="AG125">
+        <v>8.5</v>
+      </c>
+      <c r="AH125">
+        <v>1.46</v>
+      </c>
+      <c r="AI125">
+        <v>2.85</v>
+      </c>
+      <c r="AJ125">
+        <v>2.16</v>
+      </c>
+      <c r="AK125">
+        <v>1.7</v>
+      </c>
+      <c r="AL125">
+        <v>2</v>
+      </c>
+      <c r="AM125">
+        <v>1.75</v>
+      </c>
+      <c r="AN125">
+        <v>1.28</v>
+      </c>
+      <c r="AO125">
+        <v>1.31</v>
+      </c>
+      <c r="AP125">
+        <v>1.71</v>
+      </c>
+      <c r="AQ125">
+        <v>1.33</v>
+      </c>
+      <c r="AR125">
+        <v>1</v>
+      </c>
+      <c r="AS125">
+        <v>1.14</v>
+      </c>
+      <c r="AT125">
+        <v>1.33</v>
+      </c>
+      <c r="AU125">
+        <v>1.57</v>
+      </c>
+      <c r="AV125">
+        <v>1.43</v>
+      </c>
+      <c r="AW125">
+        <v>3</v>
+      </c>
+      <c r="AX125">
+        <v>1.6</v>
+      </c>
+      <c r="AY125">
+        <v>7.6</v>
+      </c>
+      <c r="AZ125">
+        <v>3.02</v>
+      </c>
+      <c r="BA125">
+        <v>1.47</v>
+      </c>
+      <c r="BB125">
+        <v>1.86</v>
+      </c>
+      <c r="BC125">
+        <v>2.45</v>
+      </c>
+      <c r="BD125">
+        <v>3.28</v>
+      </c>
+      <c r="BE125">
+        <v>4.84</v>
+      </c>
+      <c r="BF125">
+        <v>6</v>
+      </c>
+      <c r="BG125">
+        <v>5</v>
+      </c>
+      <c r="BH125">
+        <v>8</v>
+      </c>
+      <c r="BI125">
+        <v>4</v>
+      </c>
+      <c r="BJ125">
+        <v>14</v>
+      </c>
+      <c r="BK125">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2710787</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44870.70833333334</v>
+      </c>
+      <c r="F126">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>68</v>
+      </c>
+      <c r="H126" t="s">
+        <v>71</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
+      </c>
+      <c r="O126" t="s">
+        <v>168</v>
+      </c>
+      <c r="P126" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q126">
+        <v>9</v>
+      </c>
+      <c r="R126">
+        <v>1</v>
+      </c>
+      <c r="S126">
+        <v>10</v>
+      </c>
+      <c r="T126">
+        <v>1.4</v>
+      </c>
+      <c r="U126">
+        <v>3.5</v>
+      </c>
+      <c r="V126">
+        <v>13</v>
+      </c>
+      <c r="W126">
+        <v>1.17</v>
+      </c>
+      <c r="X126">
+        <v>5</v>
+      </c>
+      <c r="Y126">
+        <v>1.83</v>
+      </c>
+      <c r="Z126">
+        <v>1.83</v>
+      </c>
+      <c r="AA126">
+        <v>3.75</v>
+      </c>
+      <c r="AB126">
+        <v>1.25</v>
+      </c>
+      <c r="AC126">
+        <v>1.08</v>
+      </c>
+      <c r="AD126">
+        <v>11.5</v>
+      </c>
+      <c r="AE126">
+        <v>26</v>
+      </c>
+      <c r="AF126">
+        <v>1.01</v>
+      </c>
+      <c r="AG126">
+        <v>36</v>
+      </c>
+      <c r="AH126">
+        <v>1.08</v>
+      </c>
+      <c r="AI126">
+        <v>8</v>
+      </c>
+      <c r="AJ126">
+        <v>1.33</v>
+      </c>
+      <c r="AK126">
+        <v>3.4</v>
+      </c>
+      <c r="AL126">
+        <v>2.2</v>
+      </c>
+      <c r="AM126">
+        <v>1.62</v>
+      </c>
+      <c r="AN126">
+        <v>1.01</v>
+      </c>
+      <c r="AO126">
+        <v>1.06</v>
+      </c>
+      <c r="AP126">
+        <v>6.75</v>
+      </c>
+      <c r="AQ126">
+        <v>2.67</v>
+      </c>
+      <c r="AR126">
+        <v>0.17</v>
+      </c>
+      <c r="AS126">
+        <v>2.71</v>
+      </c>
+      <c r="AT126">
+        <v>0.14</v>
+      </c>
+      <c r="AU126">
+        <v>2.29</v>
+      </c>
+      <c r="AV126">
+        <v>1.24</v>
+      </c>
+      <c r="AW126">
+        <v>3.53</v>
+      </c>
+      <c r="AX126">
+        <v>1.04</v>
+      </c>
+      <c r="AY126">
+        <v>22</v>
+      </c>
+      <c r="AZ126">
+        <v>14</v>
+      </c>
+      <c r="BA126">
+        <v>1.15</v>
+      </c>
+      <c r="BB126">
+        <v>1.32</v>
+      </c>
+      <c r="BC126">
+        <v>1.6</v>
+      </c>
+      <c r="BD126">
+        <v>2.03</v>
+      </c>
+      <c r="BE126">
+        <v>2.66</v>
+      </c>
+      <c r="BF126">
+        <v>13</v>
+      </c>
+      <c r="BG126">
+        <v>2</v>
+      </c>
+      <c r="BH126">
+        <v>15</v>
+      </c>
+      <c r="BI126">
+        <v>3</v>
+      </c>
+      <c r="BJ126">
+        <v>28</v>
+      </c>
+      <c r="BK126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2710778</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44871.41666666666</v>
+      </c>
+      <c r="F127">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>78</v>
+      </c>
+      <c r="H127" t="s">
+        <v>75</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>143</v>
+      </c>
+      <c r="P127" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q127">
+        <v>12</v>
+      </c>
+      <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>14</v>
+      </c>
+      <c r="T127">
+        <v>2.05</v>
+      </c>
+      <c r="U127">
+        <v>2.2</v>
+      </c>
+      <c r="V127">
+        <v>7</v>
+      </c>
+      <c r="W127">
+        <v>1.4</v>
+      </c>
+      <c r="X127">
+        <v>2.75</v>
+      </c>
+      <c r="Y127">
+        <v>3</v>
+      </c>
+      <c r="Z127">
+        <v>1.36</v>
+      </c>
+      <c r="AA127">
+        <v>8</v>
+      </c>
+      <c r="AB127">
+        <v>1.08</v>
+      </c>
+      <c r="AC127">
+        <v>1.5</v>
+      </c>
+      <c r="AD127">
+        <v>4.02</v>
+      </c>
+      <c r="AE127">
+        <v>6.58</v>
+      </c>
+      <c r="AF127">
+        <v>1.05</v>
+      </c>
+      <c r="AG127">
+        <v>10.5</v>
+      </c>
+      <c r="AH127">
+        <v>1.32</v>
+      </c>
+      <c r="AI127">
+        <v>3.35</v>
+      </c>
+      <c r="AJ127">
+        <v>2</v>
+      </c>
+      <c r="AK127">
+        <v>1.8</v>
+      </c>
+      <c r="AL127">
+        <v>2.2</v>
+      </c>
+      <c r="AM127">
+        <v>1.62</v>
+      </c>
+      <c r="AN127">
+        <v>1.11</v>
+      </c>
+      <c r="AO127">
+        <v>1.25</v>
+      </c>
+      <c r="AP127">
+        <v>2.84</v>
+      </c>
+      <c r="AQ127">
+        <v>1.4</v>
+      </c>
+      <c r="AR127">
+        <v>1</v>
+      </c>
+      <c r="AS127">
+        <v>1.33</v>
+      </c>
+      <c r="AT127">
+        <v>1</v>
+      </c>
+      <c r="AU127">
+        <v>1.64</v>
+      </c>
+      <c r="AV127">
+        <v>1.26</v>
+      </c>
+      <c r="AW127">
+        <v>2.9</v>
+      </c>
+      <c r="AX127">
+        <v>1.22</v>
+      </c>
+      <c r="AY127">
+        <v>10.5</v>
+      </c>
+      <c r="AZ127">
+        <v>5.85</v>
+      </c>
+      <c r="BA127">
+        <v>1.27</v>
+      </c>
+      <c r="BB127">
+        <v>1.6</v>
+      </c>
+      <c r="BC127">
+        <v>1.97</v>
+      </c>
+      <c r="BD127">
+        <v>2.48</v>
+      </c>
+      <c r="BE127">
+        <v>3.42</v>
+      </c>
+      <c r="BF127">
+        <v>9</v>
+      </c>
+      <c r="BG127">
+        <v>2</v>
+      </c>
+      <c r="BH127">
+        <v>14</v>
+      </c>
+      <c r="BI127">
+        <v>4</v>
+      </c>
+      <c r="BJ127">
+        <v>23</v>
+      </c>
+      <c r="BK127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>2710781</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>44871.51041666666</v>
+      </c>
+      <c r="F128">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>79</v>
+      </c>
+      <c r="H128" t="s">
+        <v>70</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128" t="s">
+        <v>169</v>
+      </c>
+      <c r="P128" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q128">
+        <v>1</v>
+      </c>
+      <c r="R128">
+        <v>11</v>
+      </c>
+      <c r="S128">
+        <v>12</v>
+      </c>
+      <c r="T128">
+        <v>2.6</v>
+      </c>
+      <c r="U128">
+        <v>2.1</v>
+      </c>
+      <c r="V128">
+        <v>4.75</v>
+      </c>
+      <c r="W128">
+        <v>1.44</v>
+      </c>
+      <c r="X128">
+        <v>2.63</v>
+      </c>
+      <c r="Y128">
+        <v>3.25</v>
+      </c>
+      <c r="Z128">
+        <v>1.33</v>
+      </c>
+      <c r="AA128">
+        <v>9</v>
+      </c>
+      <c r="AB128">
+        <v>1.07</v>
+      </c>
+      <c r="AC128">
+        <v>1.98</v>
+      </c>
+      <c r="AD128">
+        <v>3.35</v>
+      </c>
+      <c r="AE128">
+        <v>4.2</v>
+      </c>
+      <c r="AF128">
+        <v>1.07</v>
+      </c>
+      <c r="AG128">
+        <v>7.75</v>
+      </c>
+      <c r="AH128">
+        <v>1.37</v>
+      </c>
+      <c r="AI128">
+        <v>2.9</v>
+      </c>
+      <c r="AJ128">
+        <v>2.2</v>
+      </c>
+      <c r="AK128">
+        <v>1.7</v>
+      </c>
+      <c r="AL128">
+        <v>1.95</v>
+      </c>
+      <c r="AM128">
+        <v>1.8</v>
+      </c>
+      <c r="AN128">
+        <v>1.22</v>
+      </c>
+      <c r="AO128">
+        <v>1.33</v>
+      </c>
+      <c r="AP128">
+        <v>1.8</v>
+      </c>
+      <c r="AQ128">
+        <v>1.67</v>
+      </c>
+      <c r="AR128">
+        <v>1</v>
+      </c>
+      <c r="AS128">
+        <v>1.57</v>
+      </c>
+      <c r="AT128">
+        <v>1</v>
+      </c>
+      <c r="AU128">
+        <v>1.78</v>
+      </c>
+      <c r="AV128">
+        <v>1.65</v>
+      </c>
+      <c r="AW128">
+        <v>3.43</v>
+      </c>
+      <c r="AX128">
+        <v>1.52</v>
+      </c>
+      <c r="AY128">
+        <v>8</v>
+      </c>
+      <c r="AZ128">
+        <v>3.28</v>
+      </c>
+      <c r="BA128">
+        <v>1.3</v>
+      </c>
+      <c r="BB128">
+        <v>1.65</v>
+      </c>
+      <c r="BC128">
+        <v>2.05</v>
+      </c>
+      <c r="BD128">
+        <v>2.66</v>
+      </c>
+      <c r="BE128">
+        <v>3.64</v>
+      </c>
+      <c r="BF128">
+        <v>5</v>
+      </c>
+      <c r="BG128">
+        <v>4</v>
+      </c>
+      <c r="BH128">
+        <v>6</v>
+      </c>
+      <c r="BI128">
+        <v>11</v>
+      </c>
+      <c r="BJ128">
+        <v>11</v>
+      </c>
+      <c r="BK128">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>2710785</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>44871.60416666666</v>
+      </c>
+      <c r="F129">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>84</v>
+      </c>
+      <c r="H129" t="s">
+        <v>77</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>87</v>
+      </c>
+      <c r="P129" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q129">
+        <v>5</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>7</v>
+      </c>
+      <c r="T129">
+        <v>2.2</v>
+      </c>
+      <c r="U129">
+        <v>2.1</v>
+      </c>
+      <c r="V129">
+        <v>6</v>
+      </c>
+      <c r="W129">
+        <v>1.44</v>
+      </c>
+      <c r="X129">
+        <v>2.63</v>
+      </c>
+      <c r="Y129">
+        <v>3.25</v>
+      </c>
+      <c r="Z129">
+        <v>1.33</v>
+      </c>
+      <c r="AA129">
+        <v>9</v>
+      </c>
+      <c r="AB129">
+        <v>1.07</v>
+      </c>
+      <c r="AC129">
+        <v>1.53</v>
+      </c>
+      <c r="AD129">
+        <v>3.75</v>
+      </c>
+      <c r="AE129">
+        <v>5.6</v>
+      </c>
+      <c r="AF129">
+        <v>1.07</v>
+      </c>
+      <c r="AG129">
+        <v>10.25</v>
+      </c>
+      <c r="AH129">
+        <v>1.36</v>
+      </c>
+      <c r="AI129">
+        <v>3.17</v>
+      </c>
+      <c r="AJ129">
+        <v>2.2</v>
+      </c>
+      <c r="AK129">
+        <v>1.7</v>
+      </c>
+      <c r="AL129">
+        <v>2.1</v>
+      </c>
+      <c r="AM129">
+        <v>1.67</v>
+      </c>
+      <c r="AN129">
+        <v>1.12</v>
+      </c>
+      <c r="AO129">
+        <v>1.25</v>
+      </c>
+      <c r="AP129">
+        <v>2.35</v>
+      </c>
+      <c r="AQ129">
+        <v>2.5</v>
+      </c>
+      <c r="AR129">
+        <v>1.33</v>
+      </c>
+      <c r="AS129">
+        <v>2</v>
+      </c>
+      <c r="AT129">
+        <v>1.57</v>
+      </c>
+      <c r="AU129">
+        <v>1.91</v>
+      </c>
+      <c r="AV129">
+        <v>1.19</v>
+      </c>
+      <c r="AW129">
+        <v>3.1</v>
+      </c>
+      <c r="AX129">
+        <v>1.38</v>
+      </c>
+      <c r="AY129">
+        <v>8.6</v>
+      </c>
+      <c r="AZ129">
+        <v>4.05</v>
+      </c>
+      <c r="BA129">
+        <v>1.31</v>
+      </c>
+      <c r="BB129">
+        <v>1.67</v>
+      </c>
+      <c r="BC129">
+        <v>2.07</v>
+      </c>
+      <c r="BD129">
+        <v>2.69</v>
+      </c>
+      <c r="BE129">
+        <v>3.74</v>
+      </c>
+      <c r="BF129">
+        <v>3</v>
+      </c>
+      <c r="BG129">
+        <v>6</v>
+      </c>
+      <c r="BH129">
+        <v>9</v>
+      </c>
+      <c r="BI129">
+        <v>2</v>
+      </c>
+      <c r="BJ129">
+        <v>12</v>
+      </c>
+      <c r="BK129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>2710779</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>44871.70833333334</v>
+      </c>
+      <c r="F130">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>74</v>
+      </c>
+      <c r="H130" t="s">
+        <v>76</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>2</v>
+      </c>
+      <c r="O130" t="s">
+        <v>95</v>
+      </c>
+      <c r="P130" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q130">
+        <v>1</v>
+      </c>
+      <c r="R130">
+        <v>4</v>
+      </c>
+      <c r="S130">
+        <v>5</v>
+      </c>
+      <c r="T130">
+        <v>2.88</v>
+      </c>
+      <c r="U130">
+        <v>2.1</v>
+      </c>
+      <c r="V130">
+        <v>4</v>
+      </c>
+      <c r="W130">
+        <v>1.44</v>
+      </c>
+      <c r="X130">
+        <v>2.63</v>
+      </c>
+      <c r="Y130">
+        <v>3.25</v>
+      </c>
+      <c r="Z130">
+        <v>1.33</v>
+      </c>
+      <c r="AA130">
+        <v>9</v>
+      </c>
+      <c r="AB130">
+        <v>1.07</v>
+      </c>
+      <c r="AC130">
+        <v>2.1</v>
+      </c>
+      <c r="AD130">
+        <v>3.2</v>
+      </c>
+      <c r="AE130">
+        <v>3.2</v>
+      </c>
+      <c r="AF130">
+        <v>1.07</v>
+      </c>
+      <c r="AG130">
+        <v>9.5</v>
+      </c>
+      <c r="AH130">
+        <v>1.36</v>
+      </c>
+      <c r="AI130">
+        <v>3.17</v>
+      </c>
+      <c r="AJ130">
+        <v>2.25</v>
+      </c>
+      <c r="AK130">
+        <v>1.67</v>
+      </c>
+      <c r="AL130">
+        <v>1.8</v>
+      </c>
+      <c r="AM130">
+        <v>1.95</v>
+      </c>
+      <c r="AN130">
+        <v>1.32</v>
+      </c>
+      <c r="AO130">
+        <v>1.35</v>
+      </c>
+      <c r="AP130">
+        <v>1.68</v>
+      </c>
+      <c r="AQ130">
+        <v>2.5</v>
+      </c>
+      <c r="AR130">
+        <v>1.17</v>
+      </c>
+      <c r="AS130">
+        <v>2.29</v>
+      </c>
+      <c r="AT130">
+        <v>1.14</v>
+      </c>
+      <c r="AU130">
+        <v>1.71</v>
+      </c>
+      <c r="AV130">
+        <v>1.24</v>
+      </c>
+      <c r="AW130">
+        <v>2.95</v>
+      </c>
+      <c r="AX130">
+        <v>1.85</v>
+      </c>
+      <c r="AY130">
+        <v>7.7</v>
+      </c>
+      <c r="AZ130">
+        <v>2.4</v>
+      </c>
+      <c r="BA130">
+        <v>1.27</v>
+      </c>
+      <c r="BB130">
+        <v>1.63</v>
+      </c>
+      <c r="BC130">
+        <v>2.01</v>
+      </c>
+      <c r="BD130">
+        <v>2.54</v>
+      </c>
+      <c r="BE130">
+        <v>3.42</v>
+      </c>
+      <c r="BF130">
+        <v>5</v>
+      </c>
+      <c r="BG130">
+        <v>5</v>
+      </c>
+      <c r="BH130">
+        <v>5</v>
+      </c>
+      <c r="BI130">
+        <v>17</v>
+      </c>
+      <c r="BJ130">
+        <v>10</v>
+      </c>
+      <c r="BK130">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2710782</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44872.70833333334</v>
+      </c>
+      <c r="F131">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>82</v>
+      </c>
+      <c r="H131" t="s">
+        <v>83</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131">
+        <v>2</v>
+      </c>
+      <c r="K131">
+        <v>4</v>
+      </c>
+      <c r="L131">
+        <v>3</v>
+      </c>
+      <c r="M131">
+        <v>2</v>
+      </c>
+      <c r="N131">
+        <v>5</v>
+      </c>
+      <c r="O131" t="s">
+        <v>170</v>
+      </c>
+      <c r="P131" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q131">
+        <v>4</v>
+      </c>
+      <c r="R131">
+        <v>5</v>
+      </c>
+      <c r="S131">
+        <v>9</v>
+      </c>
+      <c r="T131">
+        <v>5</v>
+      </c>
+      <c r="U131">
+        <v>2.3</v>
+      </c>
+      <c r="V131">
+        <v>2.2</v>
+      </c>
+      <c r="W131">
+        <v>1.33</v>
+      </c>
+      <c r="X131">
+        <v>3.25</v>
+      </c>
+      <c r="Y131">
+        <v>2.63</v>
+      </c>
+      <c r="Z131">
+        <v>1.44</v>
+      </c>
+      <c r="AA131">
+        <v>6.5</v>
+      </c>
+      <c r="AB131">
+        <v>1.11</v>
+      </c>
+      <c r="AC131">
+        <v>4.9</v>
+      </c>
+      <c r="AD131">
+        <v>3.95</v>
+      </c>
+      <c r="AE131">
+        <v>1.55</v>
+      </c>
+      <c r="AF131">
+        <v>1.03</v>
+      </c>
+      <c r="AG131">
+        <v>13</v>
+      </c>
+      <c r="AH131">
+        <v>1.24</v>
+      </c>
+      <c r="AI131">
+        <v>4.2</v>
+      </c>
+      <c r="AJ131">
+        <v>1.61</v>
+      </c>
+      <c r="AK131">
+        <v>2.09</v>
+      </c>
+      <c r="AL131">
+        <v>1.8</v>
+      </c>
+      <c r="AM131">
+        <v>1.95</v>
+      </c>
+      <c r="AN131">
+        <v>2.3</v>
+      </c>
+      <c r="AO131">
+        <v>1.22</v>
+      </c>
+      <c r="AP131">
+        <v>1.16</v>
+      </c>
+      <c r="AQ131">
+        <v>2</v>
+      </c>
+      <c r="AR131">
+        <v>3</v>
+      </c>
+      <c r="AS131">
+        <v>2</v>
+      </c>
+      <c r="AT131">
+        <v>2.57</v>
+      </c>
+      <c r="AU131">
+        <v>2.15</v>
+      </c>
+      <c r="AV131">
+        <v>2.13</v>
+      </c>
+      <c r="AW131">
+        <v>4.28</v>
+      </c>
+      <c r="AX131">
+        <v>3.13</v>
+      </c>
+      <c r="AY131">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ131">
+        <v>1.55</v>
+      </c>
+      <c r="BA131">
+        <v>1.22</v>
+      </c>
+      <c r="BB131">
+        <v>1.45</v>
+      </c>
+      <c r="BC131">
+        <v>1.81</v>
+      </c>
+      <c r="BD131">
+        <v>2.3</v>
+      </c>
+      <c r="BE131">
+        <v>3.08</v>
+      </c>
+      <c r="BF131">
+        <v>9</v>
+      </c>
+      <c r="BG131">
+        <v>3</v>
+      </c>
+      <c r="BH131">
+        <v>8</v>
+      </c>
+      <c r="BI131">
+        <v>15</v>
+      </c>
+      <c r="BJ131">
+        <v>17</v>
+      </c>
+      <c r="BK131">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>2710789</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44873.625</v>
+      </c>
+      <c r="F132">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>80</v>
+      </c>
+      <c r="H132" t="s">
+        <v>81</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="O132" t="s">
+        <v>152</v>
+      </c>
+      <c r="P132" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q132">
+        <v>2</v>
+      </c>
+      <c r="R132">
+        <v>5</v>
+      </c>
+      <c r="S132">
+        <v>7</v>
+      </c>
+      <c r="T132">
+        <v>3.5</v>
+      </c>
+      <c r="U132">
+        <v>2.1</v>
+      </c>
+      <c r="V132">
+        <v>3.1</v>
+      </c>
+      <c r="W132">
+        <v>1.44</v>
+      </c>
+      <c r="X132">
+        <v>2.63</v>
+      </c>
+      <c r="Y132">
+        <v>3.25</v>
+      </c>
+      <c r="Z132">
+        <v>1.33</v>
+      </c>
+      <c r="AA132">
+        <v>9</v>
+      </c>
+      <c r="AB132">
+        <v>1.07</v>
+      </c>
+      <c r="AC132">
+        <v>2.84</v>
+      </c>
+      <c r="AD132">
+        <v>3.4</v>
+      </c>
+      <c r="AE132">
+        <v>2.66</v>
+      </c>
+      <c r="AF132">
+        <v>1.06</v>
+      </c>
+      <c r="AG132">
+        <v>8</v>
+      </c>
+      <c r="AH132">
+        <v>1.32</v>
+      </c>
+      <c r="AI132">
+        <v>3.3</v>
+      </c>
+      <c r="AJ132">
+        <v>2.01</v>
+      </c>
+      <c r="AK132">
+        <v>1.72</v>
+      </c>
+      <c r="AL132">
+        <v>1.8</v>
+      </c>
+      <c r="AM132">
+        <v>1.95</v>
+      </c>
+      <c r="AN132">
+        <v>1.52</v>
+      </c>
+      <c r="AO132">
+        <v>1.32</v>
+      </c>
+      <c r="AP132">
+        <v>1.41</v>
+      </c>
+      <c r="AQ132">
+        <v>0.33</v>
+      </c>
+      <c r="AR132">
+        <v>0.33</v>
+      </c>
+      <c r="AS132">
+        <v>0.29</v>
+      </c>
+      <c r="AT132">
+        <v>0.71</v>
+      </c>
+      <c r="AU132">
+        <v>1.33</v>
+      </c>
+      <c r="AV132">
+        <v>1.33</v>
+      </c>
+      <c r="AW132">
+        <v>2.66</v>
+      </c>
+      <c r="AX132">
+        <v>2.04</v>
+      </c>
+      <c r="AY132">
+        <v>7.3</v>
+      </c>
+      <c r="AZ132">
+        <v>2.17</v>
+      </c>
+      <c r="BA132">
+        <v>1.5</v>
+      </c>
+      <c r="BB132">
+        <v>1.83</v>
+      </c>
+      <c r="BC132">
+        <v>2.26</v>
+      </c>
+      <c r="BD132">
+        <v>3.18</v>
+      </c>
+      <c r="BE132">
+        <v>4.65</v>
+      </c>
+      <c r="BF132">
+        <v>5</v>
+      </c>
+      <c r="BG132">
+        <v>6</v>
+      </c>
+      <c r="BH132">
+        <v>8</v>
+      </c>
+      <c r="BI132">
+        <v>18</v>
+      </c>
+      <c r="BJ132">
+        <v>13</v>
+      </c>
+      <c r="BK132">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>2710788</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44873.66666666666</v>
+      </c>
+      <c r="F133">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>72</v>
+      </c>
+      <c r="H133" t="s">
+        <v>67</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>3</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>3</v>
+      </c>
+      <c r="O133" t="s">
+        <v>171</v>
+      </c>
+      <c r="P133" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q133">
+        <v>10</v>
+      </c>
+      <c r="R133">
+        <v>2</v>
+      </c>
+      <c r="S133">
+        <v>12</v>
+      </c>
+      <c r="T133">
+        <v>1.95</v>
+      </c>
+      <c r="U133">
+        <v>2.38</v>
+      </c>
+      <c r="V133">
+        <v>6.5</v>
+      </c>
+      <c r="W133">
+        <v>1.33</v>
+      </c>
+      <c r="X133">
+        <v>3.25</v>
+      </c>
+      <c r="Y133">
+        <v>2.63</v>
+      </c>
+      <c r="Z133">
+        <v>1.44</v>
+      </c>
+      <c r="AA133">
+        <v>7</v>
+      </c>
+      <c r="AB133">
+        <v>1.1</v>
+      </c>
+      <c r="AC133">
+        <v>1.38</v>
+      </c>
+      <c r="AD133">
+        <v>5.23</v>
+      </c>
+      <c r="AE133">
+        <v>9.16</v>
+      </c>
+      <c r="AF133">
+        <v>1.04</v>
+      </c>
+      <c r="AG133">
+        <v>13</v>
+      </c>
+      <c r="AH133">
+        <v>1.26</v>
+      </c>
+      <c r="AI133">
+        <v>4</v>
+      </c>
+      <c r="AJ133">
+        <v>1.75</v>
+      </c>
+      <c r="AK133">
+        <v>1.97</v>
+      </c>
+      <c r="AL133">
+        <v>1.95</v>
+      </c>
+      <c r="AM133">
+        <v>1.8</v>
+      </c>
+      <c r="AN133">
+        <v>1.05</v>
+      </c>
+      <c r="AO133">
+        <v>1.18</v>
+      </c>
+      <c r="AP133">
+        <v>2.73</v>
+      </c>
+      <c r="AQ133">
+        <v>1.86</v>
+      </c>
+      <c r="AR133">
+        <v>0.67</v>
+      </c>
+      <c r="AS133">
+        <v>2</v>
+      </c>
+      <c r="AT133">
+        <v>0.57</v>
+      </c>
+      <c r="AU133">
+        <v>2.13</v>
+      </c>
+      <c r="AV133">
+        <v>1.26</v>
+      </c>
+      <c r="AW133">
+        <v>3.39</v>
+      </c>
+      <c r="AX133">
+        <v>1.27</v>
+      </c>
+      <c r="AY133">
+        <v>11.5</v>
+      </c>
+      <c r="AZ133">
+        <v>4.8</v>
+      </c>
+      <c r="BA133">
+        <v>1.18</v>
+      </c>
+      <c r="BB133">
+        <v>1.37</v>
+      </c>
+      <c r="BC133">
+        <v>1.74</v>
+      </c>
+      <c r="BD133">
+        <v>2.16</v>
+      </c>
+      <c r="BE133">
+        <v>2.77</v>
+      </c>
+      <c r="BF133">
+        <v>8</v>
+      </c>
+      <c r="BG133">
+        <v>0</v>
+      </c>
+      <c r="BH133">
+        <v>13</v>
+      </c>
+      <c r="BI133">
+        <v>9</v>
+      </c>
+      <c r="BJ133">
+        <v>21</v>
+      </c>
+      <c r="BK133">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>2710793</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44873.72916666666</v>
+      </c>
+      <c r="F134">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>65</v>
+      </c>
+      <c r="H134" t="s">
+        <v>68</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134" t="s">
+        <v>89</v>
+      </c>
+      <c r="P134" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q134">
+        <v>3</v>
+      </c>
+      <c r="R134">
+        <v>6</v>
+      </c>
+      <c r="S134">
+        <v>9</v>
+      </c>
+      <c r="T134">
+        <v>6</v>
+      </c>
+      <c r="U134">
+        <v>2.4</v>
+      </c>
+      <c r="V134">
+        <v>2</v>
+      </c>
+      <c r="W134">
+        <v>1.3</v>
+      </c>
+      <c r="X134">
+        <v>3.4</v>
+      </c>
+      <c r="Y134">
+        <v>2.38</v>
+      </c>
+      <c r="Z134">
+        <v>1.53</v>
+      </c>
+      <c r="AA134">
+        <v>6</v>
+      </c>
+      <c r="AB134">
+        <v>1.13</v>
+      </c>
+      <c r="AC134">
+        <v>5.41</v>
+      </c>
+      <c r="AD134">
+        <v>4.29</v>
+      </c>
+      <c r="AE134">
+        <v>1.65</v>
+      </c>
+      <c r="AF134">
+        <v>1.03</v>
+      </c>
+      <c r="AG134">
+        <v>17</v>
+      </c>
+      <c r="AH134">
+        <v>1.2</v>
+      </c>
+      <c r="AI134">
+        <v>4.5</v>
+      </c>
+      <c r="AJ134">
+        <v>1.61</v>
+      </c>
+      <c r="AK134">
+        <v>2.17</v>
+      </c>
+      <c r="AL134">
+        <v>1.75</v>
+      </c>
+      <c r="AM134">
+        <v>2</v>
+      </c>
+      <c r="AN134">
+        <v>2.6</v>
+      </c>
+      <c r="AO134">
+        <v>1.17</v>
+      </c>
+      <c r="AP134">
+        <v>1.12</v>
+      </c>
+      <c r="AQ134">
+        <v>2.14</v>
+      </c>
+      <c r="AR134">
+        <v>2.5</v>
+      </c>
+      <c r="AS134">
+        <v>1.88</v>
+      </c>
+      <c r="AT134">
+        <v>2.57</v>
+      </c>
+      <c r="AU134">
+        <v>1.86</v>
+      </c>
+      <c r="AV134">
+        <v>1.86</v>
+      </c>
+      <c r="AW134">
+        <v>3.72</v>
+      </c>
+      <c r="AX134">
+        <v>3.36</v>
+      </c>
+      <c r="AY134">
+        <v>10.5</v>
+      </c>
+      <c r="AZ134">
+        <v>1.44</v>
+      </c>
+      <c r="BA134">
+        <v>1.36</v>
+      </c>
+      <c r="BB134">
+        <v>1.67</v>
+      </c>
+      <c r="BC134">
+        <v>2.13</v>
+      </c>
+      <c r="BD134">
+        <v>2.79</v>
+      </c>
+      <c r="BE134">
+        <v>4</v>
+      </c>
+      <c r="BF134">
+        <v>4</v>
+      </c>
+      <c r="BG134">
+        <v>5</v>
+      </c>
+      <c r="BH134">
+        <v>12</v>
+      </c>
+      <c r="BI134">
+        <v>6</v>
+      </c>
+      <c r="BJ134">
+        <v>16</v>
+      </c>
+      <c r="BK134">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2710797</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44874.625</v>
+      </c>
+      <c r="F135">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>76</v>
+      </c>
+      <c r="H135" t="s">
+        <v>79</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>2</v>
+      </c>
+      <c r="K135">
+        <v>3</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>172</v>
+      </c>
+      <c r="P135" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q135">
+        <v>2</v>
+      </c>
+      <c r="R135">
+        <v>1</v>
+      </c>
+      <c r="S135">
+        <v>3</v>
+      </c>
+      <c r="T135">
+        <v>3.2</v>
+      </c>
+      <c r="U135">
+        <v>2.05</v>
+      </c>
+      <c r="V135">
+        <v>3.6</v>
+      </c>
+      <c r="W135">
+        <v>1.44</v>
+      </c>
+      <c r="X135">
+        <v>2.63</v>
+      </c>
+      <c r="Y135">
+        <v>3.4</v>
+      </c>
+      <c r="Z135">
+        <v>1.3</v>
+      </c>
+      <c r="AA135">
+        <v>10</v>
+      </c>
+      <c r="AB135">
+        <v>1.06</v>
+      </c>
+      <c r="AC135">
+        <v>2.6</v>
+      </c>
+      <c r="AD135">
+        <v>3.3</v>
+      </c>
+      <c r="AE135">
+        <v>2.8</v>
+      </c>
+      <c r="AF135">
+        <v>1.07</v>
+      </c>
+      <c r="AG135">
+        <v>8</v>
+      </c>
+      <c r="AH135">
+        <v>1.4</v>
+      </c>
+      <c r="AI135">
+        <v>2.88</v>
+      </c>
+      <c r="AJ135">
+        <v>2.21</v>
+      </c>
+      <c r="AK135">
+        <v>1.67</v>
+      </c>
+      <c r="AL135">
+        <v>1.91</v>
+      </c>
+      <c r="AM135">
+        <v>1.91</v>
+      </c>
+      <c r="AN135">
+        <v>1.46</v>
+      </c>
+      <c r="AO135">
+        <v>1.37</v>
+      </c>
+      <c r="AP135">
+        <v>1.55</v>
+      </c>
+      <c r="AQ135">
+        <v>0.5</v>
+      </c>
+      <c r="AR135">
+        <v>2</v>
+      </c>
+      <c r="AS135">
+        <v>0.43</v>
+      </c>
+      <c r="AT135">
+        <v>2.14</v>
+      </c>
+      <c r="AU135">
+        <v>1.8</v>
+      </c>
+      <c r="AV135">
+        <v>1.69</v>
+      </c>
+      <c r="AW135">
+        <v>3.49</v>
+      </c>
+      <c r="AX135">
+        <v>2.04</v>
+      </c>
+      <c r="AY135">
+        <v>7.6</v>
+      </c>
+      <c r="AZ135">
+        <v>2.15</v>
+      </c>
+      <c r="BA135">
+        <v>1.28</v>
+      </c>
+      <c r="BB135">
+        <v>1.55</v>
+      </c>
+      <c r="BC135">
+        <v>1.98</v>
+      </c>
+      <c r="BD135">
+        <v>2.59</v>
+      </c>
+      <c r="BE135">
+        <v>3.48</v>
+      </c>
+      <c r="BF135">
+        <v>4</v>
+      </c>
+      <c r="BG135">
+        <v>10</v>
+      </c>
+      <c r="BH135">
+        <v>3</v>
+      </c>
+      <c r="BI135">
+        <v>8</v>
+      </c>
+      <c r="BJ135">
+        <v>7</v>
+      </c>
+      <c r="BK135">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>2710791</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44874.625</v>
+      </c>
+      <c r="F136">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>71</v>
+      </c>
+      <c r="H136" t="s">
+        <v>73</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136" t="s">
+        <v>173</v>
+      </c>
+      <c r="P136" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q136">
+        <v>7</v>
+      </c>
+      <c r="R136">
+        <v>6</v>
+      </c>
+      <c r="S136">
+        <v>13</v>
+      </c>
+      <c r="T136">
+        <v>3</v>
+      </c>
+      <c r="U136">
+        <v>2</v>
+      </c>
+      <c r="V136">
+        <v>4</v>
+      </c>
+      <c r="W136">
+        <v>1.5</v>
+      </c>
+      <c r="X136">
+        <v>2.5</v>
+      </c>
+      <c r="Y136">
+        <v>3.4</v>
+      </c>
+      <c r="Z136">
+        <v>1.3</v>
+      </c>
+      <c r="AA136">
+        <v>10</v>
+      </c>
+      <c r="AB136">
+        <v>1.06</v>
+      </c>
+      <c r="AC136">
+        <v>2.23</v>
+      </c>
+      <c r="AD136">
+        <v>3.3</v>
+      </c>
+      <c r="AE136">
+        <v>3.4</v>
+      </c>
+      <c r="AF136">
+        <v>1.09</v>
+      </c>
+      <c r="AG136">
+        <v>7</v>
+      </c>
+      <c r="AH136">
+        <v>1.43</v>
+      </c>
+      <c r="AI136">
+        <v>2.8</v>
+      </c>
+      <c r="AJ136">
+        <v>2.25</v>
+      </c>
+      <c r="AK136">
+        <v>1.6</v>
+      </c>
+      <c r="AL136">
+        <v>1.95</v>
+      </c>
+      <c r="AM136">
+        <v>1.8</v>
+      </c>
+      <c r="AN136">
+        <v>1.3</v>
+      </c>
+      <c r="AO136">
+        <v>1.33</v>
+      </c>
+      <c r="AP136">
+        <v>1.66</v>
+      </c>
+      <c r="AQ136">
+        <v>2</v>
+      </c>
+      <c r="AR136">
+        <v>1.33</v>
+      </c>
+      <c r="AS136">
+        <v>2.14</v>
+      </c>
+      <c r="AT136">
+        <v>1.14</v>
+      </c>
+      <c r="AU136">
+        <v>1.45</v>
+      </c>
+      <c r="AV136">
+        <v>1</v>
+      </c>
+      <c r="AW136">
+        <v>2.45</v>
+      </c>
+      <c r="AX136">
+        <v>1.48</v>
+      </c>
+      <c r="AY136">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ136">
+        <v>3.44</v>
+      </c>
+      <c r="BA136">
+        <v>1.33</v>
+      </c>
+      <c r="BB136">
+        <v>1.64</v>
+      </c>
+      <c r="BC136">
+        <v>2.12</v>
+      </c>
+      <c r="BD136">
+        <v>2.81</v>
+      </c>
+      <c r="BE136">
+        <v>3.94</v>
+      </c>
+      <c r="BF136">
+        <v>4</v>
+      </c>
+      <c r="BG136">
+        <v>4</v>
+      </c>
+      <c r="BH136">
+        <v>6</v>
+      </c>
+      <c r="BI136">
+        <v>9</v>
+      </c>
+      <c r="BJ136">
+        <v>10</v>
+      </c>
+      <c r="BK136">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>2710790</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44874.66666666666</v>
+      </c>
+      <c r="F137">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>75</v>
+      </c>
+      <c r="H137" t="s">
+        <v>84</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>87</v>
+      </c>
+      <c r="P137" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q137">
+        <v>4</v>
+      </c>
+      <c r="R137">
+        <v>7</v>
+      </c>
+      <c r="S137">
+        <v>11</v>
+      </c>
+      <c r="T137">
+        <v>3.75</v>
+      </c>
+      <c r="U137">
+        <v>2.2</v>
+      </c>
+      <c r="V137">
+        <v>2.88</v>
+      </c>
+      <c r="W137">
+        <v>1.4</v>
+      </c>
+      <c r="X137">
+        <v>2.75</v>
+      </c>
+      <c r="Y137">
+        <v>2.75</v>
+      </c>
+      <c r="Z137">
+        <v>1.4</v>
+      </c>
+      <c r="AA137">
+        <v>8</v>
+      </c>
+      <c r="AB137">
+        <v>1.08</v>
+      </c>
+      <c r="AC137">
+        <v>2.9</v>
+      </c>
+      <c r="AD137">
+        <v>3.4</v>
+      </c>
+      <c r="AE137">
+        <v>2.43</v>
+      </c>
+      <c r="AF137">
+        <v>1.04</v>
+      </c>
+      <c r="AG137">
+        <v>10</v>
+      </c>
+      <c r="AH137">
+        <v>1.3</v>
+      </c>
+      <c r="AI137">
+        <v>3.4</v>
+      </c>
+      <c r="AJ137">
+        <v>1.97</v>
+      </c>
+      <c r="AK137">
+        <v>1.89</v>
+      </c>
+      <c r="AL137">
+        <v>1.7</v>
+      </c>
+      <c r="AM137">
+        <v>2.05</v>
+      </c>
+      <c r="AN137">
+        <v>1.65</v>
+      </c>
+      <c r="AO137">
+        <v>1.33</v>
+      </c>
+      <c r="AP137">
+        <v>1.3</v>
+      </c>
+      <c r="AQ137">
+        <v>0.83</v>
+      </c>
+      <c r="AR137">
+        <v>1</v>
+      </c>
+      <c r="AS137">
+        <v>0.71</v>
+      </c>
+      <c r="AT137">
+        <v>1.22</v>
+      </c>
+      <c r="AU137">
+        <v>1.64</v>
+      </c>
+      <c r="AV137">
+        <v>1.36</v>
+      </c>
+      <c r="AW137">
+        <v>3</v>
+      </c>
+      <c r="AX137">
+        <v>2.09</v>
+      </c>
+      <c r="AY137">
+        <v>7.7</v>
+      </c>
+      <c r="AZ137">
+        <v>2.09</v>
+      </c>
+      <c r="BA137">
+        <v>1.22</v>
+      </c>
+      <c r="BB137">
+        <v>1.43</v>
+      </c>
+      <c r="BC137">
+        <v>1.79</v>
+      </c>
+      <c r="BD137">
+        <v>2.26</v>
+      </c>
+      <c r="BE137">
+        <v>3.04</v>
+      </c>
+      <c r="BF137">
+        <v>7</v>
+      </c>
+      <c r="BG137">
+        <v>5</v>
+      </c>
+      <c r="BH137">
+        <v>9</v>
+      </c>
+      <c r="BI137">
+        <v>6</v>
+      </c>
+      <c r="BJ137">
+        <v>16</v>
+      </c>
+      <c r="BK137">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>2710792</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44874.72916666666</v>
+      </c>
+      <c r="F138">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>77</v>
+      </c>
+      <c r="H138" t="s">
+        <v>78</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>152</v>
+      </c>
+      <c r="P138" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q138">
+        <v>2</v>
+      </c>
+      <c r="R138">
+        <v>5</v>
+      </c>
+      <c r="S138">
+        <v>7</v>
+      </c>
+      <c r="T138">
+        <v>4.33</v>
+      </c>
+      <c r="U138">
+        <v>2.05</v>
+      </c>
+      <c r="V138">
+        <v>2.88</v>
+      </c>
+      <c r="W138">
+        <v>1.5</v>
+      </c>
+      <c r="X138">
+        <v>2.5</v>
+      </c>
+      <c r="Y138">
+        <v>3.4</v>
+      </c>
+      <c r="Z138">
+        <v>1.3</v>
+      </c>
+      <c r="AA138">
+        <v>10</v>
+      </c>
+      <c r="AB138">
+        <v>1.06</v>
+      </c>
+      <c r="AC138">
+        <v>3.8</v>
+      </c>
+      <c r="AD138">
+        <v>3.2</v>
+      </c>
+      <c r="AE138">
+        <v>2.11</v>
+      </c>
+      <c r="AF138">
+        <v>1.07</v>
+      </c>
+      <c r="AG138">
+        <v>8</v>
+      </c>
+      <c r="AH138">
+        <v>1.5</v>
+      </c>
+      <c r="AI138">
+        <v>2.6</v>
+      </c>
+      <c r="AJ138">
+        <v>2.18</v>
+      </c>
+      <c r="AK138">
+        <v>1.69</v>
+      </c>
+      <c r="AL138">
+        <v>1.95</v>
+      </c>
+      <c r="AM138">
+        <v>1.8</v>
+      </c>
+      <c r="AN138">
+        <v>1.71</v>
+      </c>
+      <c r="AO138">
+        <v>1.32</v>
+      </c>
+      <c r="AP138">
+        <v>1.28</v>
+      </c>
+      <c r="AQ138">
+        <v>0.83</v>
+      </c>
+      <c r="AR138">
+        <v>2.29</v>
+      </c>
+      <c r="AS138">
+        <v>1.14</v>
+      </c>
+      <c r="AT138">
+        <v>2</v>
+      </c>
+      <c r="AU138">
+        <v>1.36</v>
+      </c>
+      <c r="AV138">
+        <v>1.71</v>
+      </c>
+      <c r="AW138">
+        <v>3.07</v>
+      </c>
+      <c r="AX138">
+        <v>2.16</v>
+      </c>
+      <c r="AY138">
+        <v>7.3</v>
+      </c>
+      <c r="AZ138">
+        <v>2.05</v>
+      </c>
+      <c r="BA138">
+        <v>1.39</v>
+      </c>
+      <c r="BB138">
+        <v>1.72</v>
+      </c>
+      <c r="BC138">
+        <v>2.22</v>
+      </c>
+      <c r="BD138">
+        <v>2.93</v>
+      </c>
+      <c r="BE138">
+        <v>4.25</v>
+      </c>
+      <c r="BF138">
+        <v>3</v>
+      </c>
+      <c r="BG138">
+        <v>6</v>
+      </c>
+      <c r="BH138">
+        <v>6</v>
+      </c>
+      <c r="BI138">
+        <v>12</v>
+      </c>
+      <c r="BJ138">
+        <v>9</v>
+      </c>
+      <c r="BK138">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>2710795</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44875.625</v>
+      </c>
+      <c r="F139">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>82</v>
+      </c>
+      <c r="H139" t="s">
+        <v>66</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139" t="s">
+        <v>87</v>
+      </c>
+      <c r="P139" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q139">
+        <v>5</v>
+      </c>
+      <c r="R139">
+        <v>3</v>
+      </c>
+      <c r="S139">
+        <v>8</v>
+      </c>
+      <c r="T139">
+        <v>3</v>
+      </c>
+      <c r="U139">
+        <v>2.05</v>
+      </c>
+      <c r="V139">
+        <v>4</v>
+      </c>
+      <c r="W139">
+        <v>1.5</v>
+      </c>
+      <c r="X139">
+        <v>2.5</v>
+      </c>
+      <c r="Y139">
+        <v>3.4</v>
+      </c>
+      <c r="Z139">
+        <v>1.3</v>
+      </c>
+      <c r="AA139">
+        <v>10</v>
+      </c>
+      <c r="AB139">
+        <v>1.06</v>
+      </c>
+      <c r="AC139">
+        <v>1.72</v>
+      </c>
+      <c r="AD139">
+        <v>1.72</v>
+      </c>
+      <c r="AE139">
+        <v>2.24</v>
+      </c>
+      <c r="AF139">
+        <v>1.08</v>
+      </c>
+      <c r="AG139">
+        <v>9</v>
+      </c>
+      <c r="AH139">
+        <v>1.4</v>
+      </c>
+      <c r="AI139">
+        <v>3</v>
+      </c>
+      <c r="AJ139">
+        <v>2.11</v>
+      </c>
+      <c r="AK139">
+        <v>1.65</v>
+      </c>
+      <c r="AL139">
+        <v>1.95</v>
+      </c>
+      <c r="AM139">
+        <v>1.8</v>
+      </c>
+      <c r="AN139">
+        <v>1.34</v>
+      </c>
+      <c r="AO139">
+        <v>1.33</v>
+      </c>
+      <c r="AP139">
+        <v>1.6</v>
+      </c>
+      <c r="AQ139">
+        <v>2.17</v>
+      </c>
+      <c r="AR139">
+        <v>0.5</v>
+      </c>
+      <c r="AS139">
+        <v>2</v>
+      </c>
+      <c r="AT139">
+        <v>0.57</v>
+      </c>
+      <c r="AU139">
+        <v>2.14</v>
+      </c>
+      <c r="AV139">
+        <v>1.58</v>
+      </c>
+      <c r="AW139">
+        <v>3.72</v>
+      </c>
+      <c r="AX139">
+        <v>1.73</v>
+      </c>
+      <c r="AY139">
+        <v>7.6</v>
+      </c>
+      <c r="AZ139">
+        <v>2.65</v>
+      </c>
+      <c r="BA139">
+        <v>1.31</v>
+      </c>
+      <c r="BB139">
+        <v>1.59</v>
+      </c>
+      <c r="BC139">
+        <v>2.04</v>
+      </c>
+      <c r="BD139">
+        <v>2.69</v>
+      </c>
+      <c r="BE139">
+        <v>3.65</v>
+      </c>
+      <c r="BF139">
+        <v>4</v>
+      </c>
+      <c r="BG139">
+        <v>4</v>
+      </c>
+      <c r="BH139">
+        <v>7</v>
+      </c>
+      <c r="BI139">
+        <v>8</v>
+      </c>
+      <c r="BJ139">
+        <v>11</v>
+      </c>
+      <c r="BK139">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>2710794</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44875.66666666666</v>
+      </c>
+      <c r="F140">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>70</v>
+      </c>
+      <c r="H140" t="s">
+        <v>74</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140" t="s">
+        <v>174</v>
+      </c>
+      <c r="P140" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q140">
+        <v>5</v>
+      </c>
+      <c r="R140">
+        <v>5</v>
+      </c>
+      <c r="S140">
+        <v>10</v>
+      </c>
+      <c r="T140">
+        <v>3</v>
+      </c>
+      <c r="U140">
+        <v>2.1</v>
+      </c>
+      <c r="V140">
+        <v>3.75</v>
+      </c>
+      <c r="W140">
+        <v>1.44</v>
+      </c>
+      <c r="X140">
+        <v>2.63</v>
+      </c>
+      <c r="Y140">
+        <v>3.25</v>
+      </c>
+      <c r="Z140">
+        <v>1.33</v>
+      </c>
+      <c r="AA140">
+        <v>9</v>
+      </c>
+      <c r="AB140">
+        <v>1.07</v>
+      </c>
+      <c r="AC140">
+        <v>1.74</v>
+      </c>
+      <c r="AD140">
+        <v>1.75</v>
+      </c>
+      <c r="AE140">
+        <v>2.15</v>
+      </c>
+      <c r="AF140">
+        <v>1.07</v>
+      </c>
+      <c r="AG140">
+        <v>9.5</v>
+      </c>
+      <c r="AH140">
+        <v>1.36</v>
+      </c>
+      <c r="AI140">
+        <v>3.2</v>
+      </c>
+      <c r="AJ140">
+        <v>2.08</v>
+      </c>
+      <c r="AK140">
+        <v>1.67</v>
+      </c>
+      <c r="AL140">
+        <v>1.8</v>
+      </c>
+      <c r="AM140">
+        <v>1.95</v>
+      </c>
+      <c r="AN140">
+        <v>1.36</v>
+      </c>
+      <c r="AO140">
+        <v>1.28</v>
+      </c>
+      <c r="AP140">
+        <v>1.65</v>
+      </c>
+      <c r="AQ140">
+        <v>1.43</v>
+      </c>
+      <c r="AR140">
+        <v>1.33</v>
+      </c>
+      <c r="AS140">
+        <v>1.63</v>
+      </c>
+      <c r="AT140">
+        <v>1.14</v>
+      </c>
+      <c r="AU140">
+        <v>1.82</v>
+      </c>
+      <c r="AV140">
+        <v>1.19</v>
+      </c>
+      <c r="AW140">
+        <v>3.01</v>
+      </c>
+      <c r="AX140">
+        <v>1.47</v>
+      </c>
+      <c r="AY140">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ140">
+        <v>3.48</v>
+      </c>
+      <c r="BA140">
+        <v>1.27</v>
+      </c>
+      <c r="BB140">
+        <v>1.52</v>
+      </c>
+      <c r="BC140">
+        <v>1.93</v>
+      </c>
+      <c r="BD140">
+        <v>2.5</v>
+      </c>
+      <c r="BE140">
+        <v>3.42</v>
+      </c>
+      <c r="BF140">
+        <v>9</v>
+      </c>
+      <c r="BG140">
+        <v>2</v>
+      </c>
+      <c r="BH140">
+        <v>7</v>
+      </c>
+      <c r="BI140">
+        <v>3</v>
+      </c>
+      <c r="BJ140">
+        <v>16</v>
+      </c>
+      <c r="BK140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>2710796</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44875.72916666666</v>
+      </c>
+      <c r="F141">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>83</v>
+      </c>
+      <c r="H141" t="s">
+        <v>69</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>175</v>
+      </c>
+      <c r="P141" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q141">
+        <v>7</v>
+      </c>
+      <c r="R141">
+        <v>1</v>
+      </c>
+      <c r="S141">
+        <v>8</v>
+      </c>
+      <c r="T141">
+        <v>1.44</v>
+      </c>
+      <c r="U141">
+        <v>3.1</v>
+      </c>
+      <c r="V141">
+        <v>13</v>
+      </c>
+      <c r="W141">
+        <v>1.22</v>
+      </c>
+      <c r="X141">
+        <v>4</v>
+      </c>
+      <c r="Y141">
+        <v>2</v>
+      </c>
+      <c r="Z141">
+        <v>1.73</v>
+      </c>
+      <c r="AA141">
+        <v>4.33</v>
+      </c>
+      <c r="AB141">
+        <v>1.2</v>
+      </c>
+      <c r="AC141">
+        <v>1.14</v>
+      </c>
+      <c r="AD141">
+        <v>8</v>
+      </c>
+      <c r="AE141">
+        <v>19</v>
+      </c>
+      <c r="AF141">
+        <v>1.01</v>
+      </c>
+      <c r="AG141">
+        <v>26</v>
+      </c>
+      <c r="AH141">
+        <v>1.12</v>
+      </c>
+      <c r="AI141">
+        <v>6.5</v>
+      </c>
+      <c r="AJ141">
+        <v>1.41</v>
+      </c>
+      <c r="AK141">
+        <v>2.78</v>
+      </c>
+      <c r="AL141">
+        <v>2.25</v>
+      </c>
+      <c r="AM141">
+        <v>1.57</v>
+      </c>
+      <c r="AN141">
+        <v>1.01</v>
+      </c>
+      <c r="AO141">
+        <v>1.04</v>
+      </c>
+      <c r="AP141">
+        <v>6</v>
+      </c>
+      <c r="AQ141">
+        <v>2.33</v>
+      </c>
+      <c r="AR141">
+        <v>0.83</v>
+      </c>
+      <c r="AS141">
+        <v>2.43</v>
+      </c>
+      <c r="AT141">
+        <v>0.71</v>
+      </c>
+      <c r="AU141">
+        <v>2.2</v>
+      </c>
+      <c r="AV141">
+        <v>0.99</v>
+      </c>
+      <c r="AW141">
+        <v>3.19</v>
+      </c>
+      <c r="AX141">
+        <v>1.25</v>
+      </c>
+      <c r="AY141">
+        <v>10</v>
+      </c>
+      <c r="AZ141">
+        <v>4.74</v>
+      </c>
+      <c r="BA141">
+        <v>1.24</v>
+      </c>
+      <c r="BB141">
+        <v>1.52</v>
+      </c>
+      <c r="BC141">
+        <v>1.83</v>
+      </c>
+      <c r="BD141">
+        <v>2.3</v>
+      </c>
+      <c r="BE141">
+        <v>3.08</v>
+      </c>
+      <c r="BF141">
+        <v>6</v>
+      </c>
+      <c r="BG141">
+        <v>5</v>
+      </c>
+      <c r="BH141">
+        <v>13</v>
+      </c>
+      <c r="BI141">
+        <v>4</v>
+      </c>
+      <c r="BJ141">
+        <v>19</v>
+      </c>
+      <c r="BK141">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK141"/>
+  <dimension ref="A1:BK142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>2.71</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0.71</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT21" t="n">
         <v>1.14</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT22" t="n">
         <v>0.57</v>
@@ -8008,7 +8008,7 @@
         <v>1.88</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU37" t="n">
         <v>1.69</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT42" t="n">
         <v>0.57</v>
@@ -11865,7 +11865,7 @@
         <v>2</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU56" t="n">
         <v>2.1</v>
@@ -14501,7 +14501,7 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT69" t="n">
         <v>2.14</v>
@@ -15316,7 +15316,7 @@
         <v>2.14</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU73" t="n">
         <v>1.28</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT83" t="n">
         <v>0.71</v>
@@ -19579,7 +19579,7 @@
         <v>1.33</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU94" t="n">
         <v>1.66</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT108" t="n">
         <v>1.33</v>
@@ -23842,7 +23842,7 @@
         <v>0.43</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU115" t="n">
         <v>1.85</v>
@@ -25260,7 +25260,7 @@
         <v>1.6</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT122" t="n">
         <v>1.33</v>
@@ -29172,6 +29172,209 @@
       </c>
       <c r="BK141" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2710802</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>44924.54166666666</v>
+      </c>
+      <c r="F142" t="n">
+        <v>15</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>2</v>
+      </c>
+      <c r="L142" t="n">
+        <v>2</v>
+      </c>
+      <c r="M142" t="n">
+        <v>2</v>
+      </c>
+      <c r="N142" t="n">
+        <v>4</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['34', '75']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['2', '62']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>2</v>
+      </c>
+      <c r="R142" t="n">
+        <v>4</v>
+      </c>
+      <c r="S142" t="n">
+        <v>6</v>
+      </c>
+      <c r="T142" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V142" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X142" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK142"/>
+  <dimension ref="A1:BK144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT18" t="n">
         <v>1.22</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT23" t="n">
         <v>1.33</v>
@@ -6587,7 +6587,7 @@
         <v>0.86</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU30" t="n">
         <v>1.1</v>
@@ -8414,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT46" t="n">
         <v>0.57</v>
@@ -10241,7 +10241,7 @@
         <v>0.29</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -10644,7 +10644,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT50" t="n">
         <v>1.22</v>
@@ -11459,7 +11459,7 @@
         <v>2.71</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU54" t="n">
         <v>2.69</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT59" t="n">
         <v>0.71</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT61" t="n">
         <v>2.57</v>
@@ -14910,7 +14910,7 @@
         <v>2</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU71" t="n">
         <v>1.8</v>
@@ -15516,7 +15516,7 @@
         <v>0.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT74" t="n">
         <v>0.71</v>
@@ -15722,7 +15722,7 @@
         <v>0.43</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU75" t="n">
         <v>1.91</v>
@@ -17549,7 +17549,7 @@
         <v>1.63</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU84" t="n">
         <v>1.91</v>
@@ -18764,7 +18764,7 @@
         <v>0.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT90" t="n">
         <v>0.14</v>
@@ -19376,7 +19376,7 @@
         <v>0.86</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU93" t="n">
         <v>1.14</v>
@@ -19576,7 +19576,7 @@
         <v>0.8</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT94" t="n">
         <v>1.13</v>
@@ -22015,7 +22015,7 @@
         <v>0.71</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU106" t="n">
         <v>1.64</v>
@@ -22215,7 +22215,7 @@
         <v>2.6</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT107" t="n">
         <v>2</v>
@@ -22827,7 +22827,7 @@
         <v>2.71</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU110" t="n">
         <v>2.49</v>
@@ -25263,7 +25263,7 @@
         <v>1.5</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU122" t="n">
         <v>1.78</v>
@@ -25669,7 +25669,7 @@
         <v>1.86</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU124" t="n">
         <v>1.45</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT127" t="n">
         <v>1</v>
@@ -26884,7 +26884,7 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT130" t="n">
         <v>1.14</v>
@@ -29375,6 +29375,412 @@
       </c>
       <c r="BK142" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2710803</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>44924.63541666666</v>
+      </c>
+      <c r="F143" t="n">
+        <v>15</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>2</v>
+      </c>
+      <c r="R143" t="n">
+        <v>6</v>
+      </c>
+      <c r="S143" t="n">
+        <v>8</v>
+      </c>
+      <c r="T143" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X143" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2710798</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>44924.72916666666</v>
+      </c>
+      <c r="F144" t="n">
+        <v>15</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>2</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['56', '74']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>3</v>
+      </c>
+      <c r="R144" t="n">
+        <v>5</v>
+      </c>
+      <c r="S144" t="n">
+        <v>8</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V144" t="n">
+        <v>10</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X144" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK144"/>
+  <dimension ref="A1:BK148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.88</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT4" t="n">
         <v>1.22</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT6" t="n">
         <v>2.14</v>
@@ -2121,7 +2121,7 @@
         <v>2.14</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT10" t="n">
         <v>2</v>
@@ -3742,10 +3742,10 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU16" t="n">
         <v>1.09</v>
@@ -4557,7 +4557,7 @@
         <v>0.29</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>2.14</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU26" t="n">
         <v>1.31</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT27" t="n">
         <v>1.22</v>
@@ -6384,7 +6384,7 @@
         <v>0.71</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU29" t="n">
         <v>1.51</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT30" t="n">
         <v>1.29</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT32" t="n">
         <v>0.71</v>
@@ -8817,10 +8817,10 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU41" t="n">
         <v>1.67</v>
@@ -9429,7 +9429,7 @@
         <v>0.71</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU44" t="n">
         <v>1.52</v>
@@ -9629,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT45" t="n">
         <v>2.57</v>
@@ -10038,7 +10038,7 @@
         <v>2.43</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU47" t="n">
         <v>2.24</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT49" t="n">
         <v>2.14</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT52" t="n">
         <v>0.71</v>
@@ -11256,7 +11256,7 @@
         <v>1.14</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU53" t="n">
         <v>1.46</v>
@@ -12271,7 +12271,7 @@
         <v>2</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU58" t="n">
         <v>2.19</v>
@@ -12880,7 +12880,7 @@
         <v>1.57</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU61" t="n">
         <v>1.78</v>
@@ -13083,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU62" t="n">
         <v>2.11</v>
@@ -13283,7 +13283,7 @@
         <v>1.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT63" t="n">
         <v>1.22</v>
@@ -13486,7 +13486,7 @@
         <v>0.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT64" t="n">
         <v>0.57</v>
@@ -14298,7 +14298,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT68" t="n">
         <v>1.14</v>
@@ -15922,10 +15922,10 @@
         <v>3</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU76" t="n">
         <v>1.18</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT77" t="n">
         <v>1.14</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT78" t="n">
         <v>1</v>
@@ -16940,7 +16940,7 @@
         <v>0.29</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU81" t="n">
         <v>1.41</v>
@@ -17752,7 +17752,7 @@
         <v>1.14</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU85" t="n">
         <v>1.27</v>
@@ -18155,7 +18155,7 @@
         <v>2.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT87" t="n">
         <v>2.14</v>
@@ -18767,7 +18767,7 @@
         <v>2.13</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU90" t="n">
         <v>1.57</v>
@@ -19373,7 +19373,7 @@
         <v>2.33</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT93" t="n">
         <v>1.29</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT95" t="n">
         <v>0.57</v>
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT96" t="n">
         <v>1.14</v>
@@ -20188,7 +20188,7 @@
         <v>1.57</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU97" t="n">
         <v>1.7</v>
@@ -20391,7 +20391,7 @@
         <v>0.29</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU98" t="n">
         <v>1.29</v>
@@ -21403,7 +21403,7 @@
         <v>2.4</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT103" t="n">
         <v>2.14</v>
@@ -21609,7 +21609,7 @@
         <v>1.63</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU104" t="n">
         <v>2.02</v>
@@ -21812,7 +21812,7 @@
         <v>2.43</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU105" t="n">
         <v>2.23</v>
@@ -22624,7 +22624,7 @@
         <v>2</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU109" t="n">
         <v>1.96</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT111" t="n">
         <v>1.14</v>
@@ -23636,7 +23636,7 @@
         <v>2.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT114" t="n">
         <v>2</v>
@@ -25463,7 +25463,7 @@
         <v>0.8</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT123" t="n">
         <v>0.71</v>
@@ -25666,7 +25666,7 @@
         <v>0.33</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT124" t="n">
         <v>0.25</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT125" t="n">
         <v>1.33</v>
@@ -26075,7 +26075,7 @@
         <v>2.71</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU126" t="n">
         <v>2.29</v>
@@ -26684,7 +26684,7 @@
         <v>2</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU129" t="n">
         <v>1.91</v>
@@ -26887,7 +26887,7 @@
         <v>2.13</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU130" t="n">
         <v>1.71</v>
@@ -27090,7 +27090,7 @@
         <v>2</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU131" t="n">
         <v>2.15</v>
@@ -29781,6 +29781,818 @@
       </c>
       <c r="BK144" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2710801</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>44925.54166666666</v>
+      </c>
+      <c r="F145" t="n">
+        <v>15</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>2</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>2</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['51', '78']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>4</v>
+      </c>
+      <c r="R145" t="n">
+        <v>2</v>
+      </c>
+      <c r="S145" t="n">
+        <v>6</v>
+      </c>
+      <c r="T145" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V145" t="n">
+        <v>4</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X145" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2710807</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>44925.63541666666</v>
+      </c>
+      <c r="F146" t="n">
+        <v>15</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="n">
+        <v>2</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>3</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2</v>
+      </c>
+      <c r="S146" t="n">
+        <v>5</v>
+      </c>
+      <c r="T146" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2</v>
+      </c>
+      <c r="V146" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2710800</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>44925.63541666666</v>
+      </c>
+      <c r="F147" t="n">
+        <v>15</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="n">
+        <v>2</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>5</v>
+      </c>
+      <c r="R147" t="n">
+        <v>6</v>
+      </c>
+      <c r="S147" t="n">
+        <v>11</v>
+      </c>
+      <c r="T147" t="n">
+        <v>3</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V147" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X147" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2710805</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>44925.72916666666</v>
+      </c>
+      <c r="F148" t="n">
+        <v>15</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>2</v>
+      </c>
+      <c r="N148" t="n">
+        <v>2</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['83', '89']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>5</v>
+      </c>
+      <c r="R148" t="n">
+        <v>9</v>
+      </c>
+      <c r="S148" t="n">
+        <v>14</v>
+      </c>
+      <c r="T148" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V148" t="n">
+        <v>2</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X148" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK148"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT5" t="n">
         <v>1.13</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU17" t="n">
         <v>2.62</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT19" t="n">
         <v>2.57</v>
@@ -5166,7 +5166,7 @@
         <v>2.13</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU23" t="n">
         <v>2.21</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT28" t="n">
         <v>0.57</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT35" t="n">
         <v>2</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT39" t="n">
         <v>0.25</v>
@@ -9226,7 +9226,7 @@
         <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU43" t="n">
         <v>1.56</v>
@@ -10850,7 +10850,7 @@
         <v>2.14</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU51" t="n">
         <v>1.4</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT54" t="n">
         <v>0.25</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT58" t="n">
         <v>1.13</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT60" t="n">
         <v>1</v>
@@ -14098,7 +14098,7 @@
         <v>0.71</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU67" t="n">
         <v>1.75</v>
@@ -14707,7 +14707,7 @@
         <v>2.43</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU70" t="n">
         <v>2.46</v>
@@ -15113,7 +15113,7 @@
         <v>1.88</v>
       </c>
       <c r="AT72" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU72" t="n">
         <v>1.72</v>
@@ -16531,7 +16531,7 @@
         <v>1.6</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT79" t="n">
         <v>1.22</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT80" t="n">
         <v>0.57</v>
@@ -18967,10 +18967,10 @@
         <v>1.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU91" t="n">
         <v>2.05</v>
@@ -19173,7 +19173,7 @@
         <v>0.43</v>
       </c>
       <c r="AT92" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU92" t="n">
         <v>1.74</v>
@@ -20185,7 +20185,7 @@
         <v>1.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT97" t="n">
         <v>1.38</v>
@@ -20997,7 +20997,7 @@
         <v>1.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT101" t="n">
         <v>1.22</v>
@@ -22421,7 +22421,7 @@
         <v>1.5</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -22621,7 +22621,7 @@
         <v>0.2</v>
       </c>
       <c r="AS109" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT109" t="n">
         <v>0.25</v>
@@ -22824,7 +22824,7 @@
         <v>2</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT110" t="n">
         <v>1.29</v>
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT120" t="n">
         <v>1.14</v>
@@ -25872,7 +25872,7 @@
         <v>1.13</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU125" t="n">
         <v>1.57</v>
@@ -26072,7 +26072,7 @@
         <v>0.17</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT126" t="n">
         <v>0.25</v>
@@ -26478,10 +26478,10 @@
         <v>1</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT128" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU128" t="n">
         <v>1.78</v>
@@ -26681,7 +26681,7 @@
         <v>1.33</v>
       </c>
       <c r="AS129" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT129" t="n">
         <v>1.38</v>
@@ -30593,6 +30593,615 @@
       </c>
       <c r="BK148" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2710799</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>44926.41666666666</v>
+      </c>
+      <c r="F149" t="n">
+        <v>15</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>2</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>10</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2</v>
+      </c>
+      <c r="S149" t="n">
+        <v>12</v>
+      </c>
+      <c r="T149" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V149" t="n">
+        <v>8</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X149" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2710806</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>44926.51041666666</v>
+      </c>
+      <c r="F150" t="n">
+        <v>15</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>2</v>
+      </c>
+      <c r="L150" t="n">
+        <v>2</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="n">
+        <v>3</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['45', '88']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>5</v>
+      </c>
+      <c r="R150" t="n">
+        <v>2</v>
+      </c>
+      <c r="S150" t="n">
+        <v>7</v>
+      </c>
+      <c r="T150" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V150" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2710804</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>44926.51041666666</v>
+      </c>
+      <c r="F151" t="n">
+        <v>15</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>2</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>2</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['22', '64']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>3</v>
+      </c>
+      <c r="R151" t="n">
+        <v>2</v>
+      </c>
+      <c r="S151" t="n">
+        <v>5</v>
+      </c>
+      <c r="T151" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V151" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT7" t="n">
         <v>0.71</v>
@@ -3339,7 +3339,7 @@
         <v>1.88</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>1.45</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AT20" t="n">
         <v>0.25</v>
@@ -4963,7 +4963,7 @@
         <v>1.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU22" t="n">
         <v>1.7</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AT24" t="n">
         <v>2.14</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT31" t="n">
         <v>2</v>
@@ -6993,7 +6993,7 @@
         <v>1.13</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.37</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT40" t="n">
         <v>1.14</v>
@@ -9835,7 +9835,7 @@
         <v>1.57</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU46" t="n">
         <v>1.96</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AT48" t="n">
         <v>1.29</v>
@@ -11053,7 +11053,7 @@
         <v>1.63</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU52" t="n">
         <v>1.27</v>
@@ -11659,10 +11659,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU55" t="n">
         <v>2.05</v>
@@ -16737,7 +16737,7 @@
         <v>2.5</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU80" t="n">
         <v>2.92</v>
@@ -16937,7 +16937,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AT81" t="n">
         <v>1.38</v>
@@ -17346,7 +17346,7 @@
         <v>1.5</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.65</v>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT84" t="n">
         <v>0.25</v>
@@ -19782,7 +19782,7 @@
         <v>1.63</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU95" t="n">
         <v>1.57</v>
@@ -20388,7 +20388,7 @@
         <v>3</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AT98" t="n">
         <v>2.63</v>
@@ -21203,7 +21203,7 @@
         <v>2</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU102" t="n">
         <v>1.89</v>
@@ -21606,7 +21606,7 @@
         <v>1</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT104" t="n">
         <v>1.38</v>
@@ -23436,7 +23436,7 @@
         <v>2.14</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU113" t="n">
         <v>1.32</v>
@@ -24042,7 +24042,7 @@
         <v>2.4</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT116" t="n">
         <v>2.57</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AT121" t="n">
         <v>1.14</v>
@@ -25466,7 +25466,7 @@
         <v>1.13</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU123" t="n">
         <v>1.16</v>
@@ -27290,7 +27290,7 @@
         <v>0.33</v>
       </c>
       <c r="AS132" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AT132" t="n">
         <v>0.71</v>
@@ -28714,7 +28714,7 @@
         <v>2</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU139" t="n">
         <v>2.14</v>
@@ -28914,7 +28914,7 @@
         <v>1.33</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT140" t="n">
         <v>1.14</v>
@@ -29120,7 +29120,7 @@
         <v>2.43</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU141" t="n">
         <v>2.2</v>
@@ -31202,6 +31202,412 @@
       </c>
       <c r="BK151" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2710814</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>44932.60416666666</v>
+      </c>
+      <c r="F152" t="n">
+        <v>16</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>8</v>
+      </c>
+      <c r="R152" t="n">
+        <v>4</v>
+      </c>
+      <c r="S152" t="n">
+        <v>12</v>
+      </c>
+      <c r="T152" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X152" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2710816</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>44932.70833333334</v>
+      </c>
+      <c r="F153" t="n">
+        <v>16</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>13</v>
+      </c>
+      <c r="R153" t="n">
+        <v>2</v>
+      </c>
+      <c r="S153" t="n">
+        <v>15</v>
+      </c>
+      <c r="T153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V153" t="n">
+        <v>6</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X153" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1.44</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2.14</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT12" t="n">
         <v>1.13</v>
@@ -3136,7 +3136,7 @@
         <v>0.43</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT15" t="n">
         <v>1.14</v>
@@ -3745,7 +3745,7 @@
         <v>1.13</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU16" t="n">
         <v>1.09</v>
@@ -6181,7 +6181,7 @@
         <v>2.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU28" t="n">
         <v>2.46</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU29" t="n">
         <v>1.51</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU33" t="n">
         <v>1.45</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT39" t="n">
         <v>0.25</v>
@@ -9023,7 +9023,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU42" t="n">
         <v>1.59</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT44" t="n">
         <v>1.13</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT53" t="n">
         <v>0.25</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT58" t="n">
         <v>1.13</v>
@@ -12474,7 +12474,7 @@
         <v>2.13</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU59" t="n">
         <v>1.68</v>
@@ -12880,7 +12880,7 @@
         <v>1.57</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU61" t="n">
         <v>1.78</v>
@@ -13489,7 +13489,7 @@
         <v>1.13</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU64" t="n">
         <v>1.02</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT66" t="n">
         <v>2.57</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT67" t="n">
         <v>0.86</v>
@@ -15519,7 +15519,7 @@
         <v>1.57</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU74" t="n">
         <v>1.71</v>
@@ -15925,7 +15925,7 @@
         <v>1.13</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU76" t="n">
         <v>1.18</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT85" t="n">
         <v>1.13</v>
@@ -18561,10 +18561,10 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU89" t="n">
         <v>1.66</v>
@@ -18967,7 +18967,7 @@
         <v>1.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT91" t="n">
         <v>1.14</v>
@@ -20391,7 +20391,7 @@
         <v>0.25</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU98" t="n">
         <v>1.29</v>
@@ -20594,7 +20594,7 @@
         <v>2.14</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU99" t="n">
         <v>1.25</v>
@@ -22012,7 +22012,7 @@
         <v>0.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT106" t="n">
         <v>0.25</v>
@@ -22621,7 +22621,7 @@
         <v>0.2</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT109" t="n">
         <v>0.25</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT112" t="n">
         <v>1</v>
@@ -24248,7 +24248,7 @@
         <v>1.88</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU117" t="n">
         <v>1.71</v>
@@ -24451,7 +24451,7 @@
         <v>2.43</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU118" t="n">
         <v>2.16</v>
@@ -26681,7 +26681,7 @@
         <v>1.33</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT129" t="n">
         <v>1.38</v>
@@ -27090,7 +27090,7 @@
         <v>2</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU131" t="n">
         <v>2.15</v>
@@ -27293,7 +27293,7 @@
         <v>0.25</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU132" t="n">
         <v>1.33</v>
@@ -27496,7 +27496,7 @@
         <v>2</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU133" t="n">
         <v>2.13</v>
@@ -28305,7 +28305,7 @@
         <v>1</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT137" t="n">
         <v>1.22</v>
@@ -28508,7 +28508,7 @@
         <v>2.29</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT138" t="n">
         <v>2</v>
@@ -30541,7 +30541,7 @@
         <v>1.63</v>
       </c>
       <c r="AT148" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU148" t="n">
         <v>1.58</v>
@@ -30944,7 +30944,7 @@
         <v>1</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT150" t="n">
         <v>0.86</v>
@@ -31608,6 +31608,615 @@
       </c>
       <c r="BK153" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2710817</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>44933.51041666666</v>
+      </c>
+      <c r="F154" t="n">
+        <v>16</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>2</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="n">
+        <v>3</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['47', '63']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>6</v>
+      </c>
+      <c r="R154" t="n">
+        <v>5</v>
+      </c>
+      <c r="S154" t="n">
+        <v>11</v>
+      </c>
+      <c r="T154" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V154" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X154" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2710810</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>44933.60416666666</v>
+      </c>
+      <c r="F155" t="n">
+        <v>16</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>6</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2</v>
+      </c>
+      <c r="S155" t="n">
+        <v>8</v>
+      </c>
+      <c r="T155" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2</v>
+      </c>
+      <c r="V155" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2710811</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>44933.70833333334</v>
+      </c>
+      <c r="F156" t="n">
+        <v>16</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>2</v>
+      </c>
+      <c r="M156" t="n">
+        <v>2</v>
+      </c>
+      <c r="N156" t="n">
+        <v>4</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['51', '76']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['32', '85']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>5</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2</v>
+      </c>
+      <c r="S156" t="n">
+        <v>7</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V156" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X156" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK156"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>0.88</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT8" t="n">
         <v>2.33</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT9" t="n">
         <v>1.38</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT13" t="n">
         <v>0.5</v>
@@ -3542,7 +3542,7 @@
         <v>1.38</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT17" t="n">
         <v>0.86</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT18" t="n">
         <v>1.22</v>
@@ -4354,7 +4354,7 @@
         <v>1.75</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.5</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>2.13</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU23" t="n">
         <v>2.21</v>
@@ -5369,7 +5369,7 @@
         <v>0.25</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU24" t="n">
         <v>1.51</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT25" t="n">
         <v>1.38</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT26" t="n">
         <v>1.13</v>
@@ -7399,7 +7399,7 @@
         <v>2.43</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU36" t="n">
         <v>2.23</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT38" t="n">
         <v>1</v>
@@ -8617,7 +8617,7 @@
         <v>1.44</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU40" t="n">
         <v>1.71</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT43" t="n">
         <v>0.86</v>
@@ -9632,7 +9632,7 @@
         <v>0.88</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU45" t="n">
         <v>1.15</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT46" t="n">
         <v>0.88</v>
@@ -10444,7 +10444,7 @@
         <v>1.13</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU49" t="n">
         <v>1</v>
@@ -10847,10 +10847,10 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU51" t="n">
         <v>1.4</v>
@@ -11862,7 +11862,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT56" t="n">
         <v>1.13</v>
@@ -12068,7 +12068,7 @@
         <v>1.88</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU57" t="n">
         <v>1.76</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT61" t="n">
         <v>2.33</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT62" t="n">
         <v>0.25</v>
@@ -13689,7 +13689,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT65" t="n">
         <v>2</v>
@@ -13895,7 +13895,7 @@
         <v>1.38</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU66" t="n">
         <v>1.23</v>
@@ -14301,7 +14301,7 @@
         <v>1.13</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU68" t="n">
         <v>1.34</v>
@@ -14504,7 +14504,7 @@
         <v>1.5</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU69" t="n">
         <v>1.59</v>
@@ -14707,7 +14707,7 @@
         <v>2.43</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU70" t="n">
         <v>2.46</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT71" t="n">
         <v>0.25</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT73" t="n">
         <v>1.13</v>
@@ -15516,7 +15516,7 @@
         <v>0.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT74" t="n">
         <v>0.75</v>
@@ -15719,7 +15719,7 @@
         <v>3</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT75" t="n">
         <v>1.29</v>
@@ -16128,7 +16128,7 @@
         <v>1.63</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU77" t="n">
         <v>1.57</v>
@@ -17140,10 +17140,10 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU82" t="n">
         <v>1.93</v>
@@ -17952,7 +17952,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT86" t="n">
         <v>2</v>
@@ -18158,7 +18158,7 @@
         <v>1.13</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU87" t="n">
         <v>1.38</v>
@@ -18361,7 +18361,7 @@
         <v>2.43</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU88" t="n">
         <v>2.54</v>
@@ -18970,7 +18970,7 @@
         <v>2.29</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU91" t="n">
         <v>2.05</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT92" t="n">
         <v>0.86</v>
@@ -19576,7 +19576,7 @@
         <v>0.8</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT94" t="n">
         <v>1.13</v>
@@ -19985,7 +19985,7 @@
         <v>0.88</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU96" t="n">
         <v>1.14</v>
@@ -20591,7 +20591,7 @@
         <v>0.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT99" t="n">
         <v>0.75</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT102" t="n">
         <v>1</v>
@@ -21406,7 +21406,7 @@
         <v>1.63</v>
       </c>
       <c r="AT103" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU103" t="n">
         <v>1.51</v>
@@ -22421,7 +22421,7 @@
         <v>1.5</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -23030,7 +23030,7 @@
         <v>1.13</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU111" t="n">
         <v>1.39</v>
@@ -23433,7 +23433,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT113" t="n">
         <v>0.88</v>
@@ -23839,7 +23839,7 @@
         <v>0.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT115" t="n">
         <v>1.13</v>
@@ -24045,7 +24045,7 @@
         <v>1.44</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU116" t="n">
         <v>1.99</v>
@@ -24651,7 +24651,7 @@
         <v>1.14</v>
       </c>
       <c r="AS119" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT119" t="n">
         <v>1.22</v>
@@ -24857,7 +24857,7 @@
         <v>1.75</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU120" t="n">
         <v>1.75</v>
@@ -25060,7 +25060,7 @@
         <v>0.25</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU121" t="n">
         <v>1.26</v>
@@ -25872,7 +25872,7 @@
         <v>1.13</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU125" t="n">
         <v>1.57</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT127" t="n">
         <v>1</v>
@@ -27087,7 +27087,7 @@
         <v>3</v>
       </c>
       <c r="AS131" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT131" t="n">
         <v>2.33</v>
@@ -27493,7 +27493,7 @@
         <v>0.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT133" t="n">
         <v>0.5</v>
@@ -27699,7 +27699,7 @@
         <v>1.88</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU134" t="n">
         <v>1.86</v>
@@ -27899,10 +27899,10 @@
         <v>2</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU135" t="n">
         <v>1.8</v>
@@ -28102,10 +28102,10 @@
         <v>1.33</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU136" t="n">
         <v>1.45</v>
@@ -28711,7 +28711,7 @@
         <v>0.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT139" t="n">
         <v>0.88</v>
@@ -28917,7 +28917,7 @@
         <v>1.44</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU140" t="n">
         <v>1.82</v>
@@ -29726,7 +29726,7 @@
         <v>0.29</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT144" t="n">
         <v>0.25</v>
@@ -31150,7 +31150,7 @@
         <v>1.75</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU151" t="n">
         <v>1.71</v>
@@ -32217,6 +32217,1021 @@
       </c>
       <c r="BK156" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2710812</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>44934.41666666666</v>
+      </c>
+      <c r="F157" t="n">
+        <v>16</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>2</v>
+      </c>
+      <c r="N157" t="n">
+        <v>2</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['47', '52']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>4</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2</v>
+      </c>
+      <c r="S157" t="n">
+        <v>6</v>
+      </c>
+      <c r="T157" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V157" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X157" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2710813</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>44934.51041666666</v>
+      </c>
+      <c r="F158" t="n">
+        <v>16</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2</v>
+      </c>
+      <c r="K158" t="n">
+        <v>3</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="n">
+        <v>2</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['7', '40']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>5</v>
+      </c>
+      <c r="R158" t="n">
+        <v>7</v>
+      </c>
+      <c r="S158" t="n">
+        <v>12</v>
+      </c>
+      <c r="T158" t="n">
+        <v>3</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V158" t="n">
+        <v>4</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2710815</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>44934.60416666666</v>
+      </c>
+      <c r="F159" t="n">
+        <v>16</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>2</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="n">
+        <v>3</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['36', '80']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>3</v>
+      </c>
+      <c r="R159" t="n">
+        <v>4</v>
+      </c>
+      <c r="S159" t="n">
+        <v>7</v>
+      </c>
+      <c r="T159" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2</v>
+      </c>
+      <c r="V159" t="n">
+        <v>6</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X159" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2710809</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>44934.70833333334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>16</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>7</v>
+      </c>
+      <c r="R160" t="n">
+        <v>4</v>
+      </c>
+      <c r="S160" t="n">
+        <v>11</v>
+      </c>
+      <c r="T160" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X160" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2710808</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>44935.70833333334</v>
+      </c>
+      <c r="F161" t="n">
+        <v>16</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>14</v>
+      </c>
+      <c r="R161" t="n">
+        <v>1</v>
+      </c>
+      <c r="S161" t="n">
+        <v>15</v>
+      </c>
+      <c r="T161" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V161" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X161" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.88</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0.75</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT16" t="n">
         <v>2.33</v>
@@ -4151,7 +4151,7 @@
         <v>1.38</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT22" t="n">
         <v>0.88</v>
@@ -5775,7 +5775,7 @@
         <v>1.88</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.31</v>
@@ -5978,7 +5978,7 @@
         <v>1.13</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU27" t="n">
         <v>1.13</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT32" t="n">
         <v>1</v>
@@ -8008,7 +8008,7 @@
         <v>1.88</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU37" t="n">
         <v>1.69</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT41" t="n">
         <v>0.25</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT42" t="n">
         <v>0.5</v>
@@ -9429,7 +9429,7 @@
         <v>0.75</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU44" t="n">
         <v>1.52</v>
@@ -10647,7 +10647,7 @@
         <v>2.13</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU50" t="n">
         <v>1.69</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT52" t="n">
         <v>1</v>
@@ -11865,7 +11865,7 @@
         <v>1.89</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU56" t="n">
         <v>2.1</v>
@@ -12271,7 +12271,7 @@
         <v>2.29</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU58" t="n">
         <v>2.19</v>
@@ -13286,7 +13286,7 @@
         <v>0.88</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU63" t="n">
         <v>1.06</v>
@@ -14298,7 +14298,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT68" t="n">
         <v>1.38</v>
@@ -14501,7 +14501,7 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT69" t="n">
         <v>2.25</v>
@@ -15316,7 +15316,7 @@
         <v>1.88</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU73" t="n">
         <v>1.28</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT77" t="n">
         <v>1.38</v>
@@ -16534,7 +16534,7 @@
         <v>1.75</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU79" t="n">
         <v>1.66</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT83" t="n">
         <v>1</v>
@@ -17752,7 +17752,7 @@
         <v>1.38</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU85" t="n">
         <v>1.27</v>
@@ -18155,7 +18155,7 @@
         <v>2.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT87" t="n">
         <v>2.25</v>
@@ -19579,7 +19579,7 @@
         <v>1.38</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU94" t="n">
         <v>1.66</v>
@@ -19638,7 +19638,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>2710755</v>
+        <v>2710754</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -19658,182 +19658,182 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Real Valladolid</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Celta de Vigo</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
         <v>4</v>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="n">
-        <v>5</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>['32', '62', '74', '79']</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>['43']</t>
-        </is>
-      </c>
-      <c r="Q95" t="n">
-        <v>3</v>
-      </c>
       <c r="R95" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S95" t="n">
+        <v>13</v>
+      </c>
+      <c r="T95" t="n">
+        <v>4</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2</v>
+      </c>
+      <c r="V95" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA95" t="n">
         <v>10</v>
       </c>
-      <c r="T95" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U95" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V95" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W95" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X95" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y95" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z95" t="n">
+      <c r="AB95" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP95" t="n">
         <v>1.36</v>
       </c>
-      <c r="AA95" t="n">
+      <c r="AQ95" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY95" t="n">
         <v>8</v>
       </c>
-      <c r="AB95" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC95" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AD95" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AF95" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG95" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AH95" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AI95" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AL95" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AM95" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN95" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AO95" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AP95" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AQ95" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR95" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AS95" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AT95" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AU95" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AV95" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AW95" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AX95" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AY95" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AZ95" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="BA95" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="BB95" t="n">
-        <v>1.65</v>
+        <v>1.49</v>
       </c>
       <c r="BC95" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="BD95" t="n">
-        <v>2.85</v>
+        <v>2.37</v>
       </c>
       <c r="BE95" t="n">
-        <v>4.24</v>
+        <v>3.3</v>
       </c>
       <c r="BF95" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG95" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH95" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BI95" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="BJ95" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BK95" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96">
@@ -19841,7 +19841,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>2710754</v>
+        <v>2710755</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -19861,182 +19861,182 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Cádiz</t>
+          <t>Real Valladolid</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Celta de Vigo</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['32', '62', '74', '79']</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['43']</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R96" t="n">
+        <v>7</v>
+      </c>
+      <c r="S96" t="n">
+        <v>10</v>
+      </c>
+      <c r="T96" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X96" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>17</v>
+      </c>
+      <c r="BJ96" t="n">
         <v>9</v>
       </c>
-      <c r="S96" t="n">
-        <v>13</v>
-      </c>
-      <c r="T96" t="n">
-        <v>4</v>
-      </c>
-      <c r="U96" t="n">
-        <v>2</v>
-      </c>
-      <c r="V96" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W96" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X96" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y96" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z96" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA96" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB96" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC96" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AD96" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE96" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AF96" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AG96" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="AH96" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AK96" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AL96" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM96" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AN96" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AO96" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP96" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AQ96" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AR96" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS96" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AT96" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AU96" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AV96" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AW96" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AX96" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AY96" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ96" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BA96" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="BB96" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="BC96" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="BD96" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="BE96" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BF96" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG96" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH96" t="n">
-        <v>12</v>
-      </c>
-      <c r="BI96" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ96" t="n">
-        <v>16</v>
-      </c>
       <c r="BK96" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97">
@@ -21000,7 +21000,7 @@
         <v>2.5</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU101" t="n">
         <v>2.6</v>
@@ -21403,7 +21403,7 @@
         <v>2.4</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT103" t="n">
         <v>2.25</v>
@@ -21812,7 +21812,7 @@
         <v>2.43</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU105" t="n">
         <v>2.23</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT108" t="n">
         <v>1.13</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT111" t="n">
         <v>1</v>
@@ -23842,7 +23842,7 @@
         <v>0.75</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU115" t="n">
         <v>1.85</v>
@@ -24654,7 +24654,7 @@
         <v>1.89</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU119" t="n">
         <v>2.09</v>
@@ -25260,7 +25260,7 @@
         <v>1.6</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT122" t="n">
         <v>1.29</v>
@@ -25666,7 +25666,7 @@
         <v>0.33</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT124" t="n">
         <v>0.25</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT125" t="n">
         <v>1.13</v>
@@ -26887,7 +26887,7 @@
         <v>2.13</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.71</v>
@@ -28308,7 +28308,7 @@
         <v>0.75</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU137" t="n">
         <v>1.64</v>
@@ -29320,10 +29320,10 @@
         <v>1.14</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU142" t="n">
         <v>1.89</v>
@@ -29991,7 +29991,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>2710807</v>
+        <v>2710800</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -30011,19 +30011,19 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Cádiz</t>
+          <t>Celta de Vigo</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Almería</t>
+          <t>Sevilla FC</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K146" t="n">
         <v>1</v>
@@ -30039,28 +30039,28 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>['83']</t>
+          <t>['33']</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>['40']</t>
+          <t>['54']</t>
         </is>
       </c>
       <c r="Q146" t="n">
+        <v>5</v>
+      </c>
+      <c r="R146" t="n">
+        <v>6</v>
+      </c>
+      <c r="S146" t="n">
+        <v>11</v>
+      </c>
+      <c r="T146" t="n">
         <v>3</v>
       </c>
-      <c r="R146" t="n">
-        <v>2</v>
-      </c>
-      <c r="S146" t="n">
-        <v>5</v>
-      </c>
-      <c r="T146" t="n">
-        <v>3.1</v>
-      </c>
       <c r="U146" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V146" t="n">
         <v>3.75</v>
@@ -30084,31 +30084,31 @@
         <v>1.06</v>
       </c>
       <c r="AC146" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="AD146" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="AE146" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="AF146" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AG146" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH146" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AI146" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AJ146" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AK146" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AL146" t="n">
         <v>1.95</v>
@@ -30117,76 +30117,76 @@
         <v>1.8</v>
       </c>
       <c r="AN146" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AO146" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AP146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU146" t="n">
         <v>1.58</v>
       </c>
-      <c r="AQ146" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AR146" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AS146" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AT146" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AU146" t="n">
-        <v>1.26</v>
-      </c>
       <c r="AV146" t="n">
-        <v>1.14</v>
+        <v>1.37</v>
       </c>
       <c r="AW146" t="n">
-        <v>2.4</v>
+        <v>2.95</v>
       </c>
       <c r="AX146" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="AY146" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="AZ146" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="BA146" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="BB146" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="BC146" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="BD146" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="BE146" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="BF146" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG146" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BH146" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK146" t="n">
         <v>6</v>
-      </c>
-      <c r="BI146" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ146" t="n">
-        <v>14</v>
-      </c>
-      <c r="BK146" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="147">
@@ -30194,7 +30194,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>2710800</v>
+        <v>2710807</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -30214,19 +30214,19 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Celta de Vigo</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Sevilla FC</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" t="n">
         <v>1</v>
@@ -30242,28 +30242,28 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>['33']</t>
+          <t>['83']</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>['54']</t>
+          <t>['40']</t>
         </is>
       </c>
       <c r="Q147" t="n">
+        <v>3</v>
+      </c>
+      <c r="R147" t="n">
+        <v>2</v>
+      </c>
+      <c r="S147" t="n">
         <v>5</v>
       </c>
-      <c r="R147" t="n">
-        <v>6</v>
-      </c>
-      <c r="S147" t="n">
-        <v>11</v>
-      </c>
       <c r="T147" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U147" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V147" t="n">
         <v>3.75</v>
@@ -30287,31 +30287,31 @@
         <v>1.06</v>
       </c>
       <c r="AC147" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="AD147" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="AE147" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="AF147" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AG147" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH147" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AI147" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AJ147" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="AK147" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AL147" t="n">
         <v>1.95</v>
@@ -30320,76 +30320,76 @@
         <v>1.8</v>
       </c>
       <c r="AN147" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AO147" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ147" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV147" t="n">
         <v>1.14</v>
       </c>
-      <c r="AR147" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AS147" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AT147" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AU147" t="n">
+      <c r="AW147" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX147" t="n">
         <v>1.58</v>
       </c>
-      <c r="AV147" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AW147" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AX147" t="n">
-        <v>1.66</v>
-      </c>
       <c r="AY147" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="AZ147" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="BA147" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="BB147" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="BC147" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="BD147" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="BE147" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="BF147" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH147" t="n">
         <v>6</v>
       </c>
-      <c r="BG147" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH147" t="n">
-        <v>10</v>
-      </c>
       <c r="BI147" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BJ147" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK147" t="n">
         <v>16</v>
-      </c>
-      <c r="BK147" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="148">
@@ -30538,7 +30538,7 @@
         <v>2.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT148" t="n">
         <v>2.33</v>
@@ -30803,7 +30803,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>2710806</v>
+        <v>2710804</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -30823,182 +30823,182 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Valencia CF</t>
+          <t>CA Osasuna</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L150" t="n">
         <v>2</v>
       </c>
       <c r="M150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N150" t="n">
+        <v>2</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['22', '64']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
         <v>3</v>
       </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>['45', '88']</t>
-        </is>
-      </c>
-      <c r="P150" t="inlineStr">
-        <is>
-          <t>['21']</t>
-        </is>
-      </c>
-      <c r="Q150" t="n">
+      <c r="R150" t="n">
+        <v>2</v>
+      </c>
+      <c r="S150" t="n">
         <v>5</v>
-      </c>
-      <c r="R150" t="n">
-        <v>2</v>
-      </c>
-      <c r="S150" t="n">
-        <v>7</v>
       </c>
       <c r="T150" t="n">
         <v>2.6</v>
       </c>
       <c r="U150" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="V150" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="W150" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X150" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y150" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Z150" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AA150" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AB150" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AC150" t="n">
         <v>1.95</v>
       </c>
       <c r="AD150" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AE150" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AF150" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AG150" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AH150" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AI150" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="AJ150" t="n">
-        <v>1.92</v>
+        <v>2.35</v>
       </c>
       <c r="AK150" t="n">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="AL150" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AM150" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AN150" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AO150" t="n">
         <v>1.3</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ150" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AR150" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.29</v>
+        <v>1.75</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU150" t="n">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="AV150" t="n">
-        <v>1.69</v>
+        <v>1.38</v>
       </c>
       <c r="AW150" t="n">
-        <v>3.51</v>
+        <v>3.09</v>
       </c>
       <c r="AX150" t="n">
-        <v>1.83</v>
+        <v>1.49</v>
       </c>
       <c r="AY150" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="AZ150" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="BA150" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="BB150" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="BC150" t="n">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="BD150" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="BE150" t="n">
-        <v>3.2</v>
+        <v>3.64</v>
       </c>
       <c r="BF150" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BG150" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH150" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK150" t="n">
         <v>11</v>
-      </c>
-      <c r="BJ150" t="n">
-        <v>15</v>
-      </c>
-      <c r="BK150" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="151">
@@ -31006,7 +31006,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>2710804</v>
+        <v>2710806</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -31026,182 +31026,182 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>CA Osasuna</t>
+          <t>Valencia CF</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L151" t="n">
         <v>2</v>
       </c>
       <c r="M151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>['22', '64']</t>
+          <t>['45', '88']</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['21']</t>
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R151" t="n">
         <v>2</v>
       </c>
       <c r="S151" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T151" t="n">
         <v>2.6</v>
       </c>
       <c r="U151" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="V151" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="W151" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X151" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Y151" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Z151" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AA151" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB151" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AC151" t="n">
         <v>1.95</v>
       </c>
       <c r="AD151" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI151" t="n">
         <v>3.4</v>
       </c>
-      <c r="AE151" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AF151" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AG151" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH151" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AI151" t="n">
-        <v>2.9</v>
-      </c>
       <c r="AJ151" t="n">
-        <v>2.35</v>
+        <v>1.92</v>
       </c>
       <c r="AK151" t="n">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="AL151" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AM151" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AN151" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AO151" t="n">
         <v>1.3</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AR151" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.75</v>
+        <v>2.29</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="AU151" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="AV151" t="n">
-        <v>1.38</v>
+        <v>1.69</v>
       </c>
       <c r="AW151" t="n">
-        <v>3.09</v>
+        <v>3.51</v>
       </c>
       <c r="AX151" t="n">
-        <v>1.49</v>
+        <v>1.83</v>
       </c>
       <c r="AY151" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="AZ151" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="BA151" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="BB151" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="BC151" t="n">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="BD151" t="n">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="BE151" t="n">
-        <v>3.64</v>
+        <v>3.2</v>
       </c>
       <c r="BF151" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG151" t="n">
         <v>3</v>
       </c>
-      <c r="BG151" t="n">
-        <v>4</v>
-      </c>
       <c r="BH151" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI151" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BJ151" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BK151" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152">
@@ -33232,6 +33232,615 @@
       </c>
       <c r="BK161" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2710818</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>44939.70833333334</v>
+      </c>
+      <c r="F162" t="n">
+        <v>17</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="n">
+        <v>2</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>13</v>
+      </c>
+      <c r="R162" t="n">
+        <v>3</v>
+      </c>
+      <c r="S162" t="n">
+        <v>16</v>
+      </c>
+      <c r="T162" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V162" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X162" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2710827</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>44940.41666666666</v>
+      </c>
+      <c r="F163" t="n">
+        <v>17</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>1</v>
+      </c>
+      <c r="R163" t="n">
+        <v>4</v>
+      </c>
+      <c r="S163" t="n">
+        <v>5</v>
+      </c>
+      <c r="T163" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V163" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X163" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2710822</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>44940.51041666666</v>
+      </c>
+      <c r="F164" t="n">
+        <v>17</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>2</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="n">
+        <v>3</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['46', '88']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>5</v>
+      </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
+      <c r="S164" t="n">
+        <v>5</v>
+      </c>
+      <c r="T164" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V164" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X164" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK164"/>
+  <dimension ref="A1:BK166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -2324,7 +2324,7 @@
         <v>1.89</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT19" t="n">
         <v>2.63</v>
@@ -5572,7 +5572,7 @@
         <v>1.75</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>0.88</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU30" t="n">
         <v>1.1</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT35" t="n">
         <v>2</v>
@@ -8005,7 +8005,7 @@
         <v>2</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT37" t="n">
         <v>1.33</v>
@@ -10038,7 +10038,7 @@
         <v>2.43</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU47" t="n">
         <v>2.24</v>
@@ -10241,7 +10241,7 @@
         <v>0.25</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT57" t="n">
         <v>1</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT60" t="n">
         <v>1</v>
@@ -15110,7 +15110,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT72" t="n">
         <v>0.86</v>
@@ -15722,7 +15722,7 @@
         <v>0.75</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU75" t="n">
         <v>1.91</v>
@@ -16531,7 +16531,7 @@
         <v>1.6</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT79" t="n">
         <v>1.2</v>
@@ -16940,7 +16940,7 @@
         <v>0.25</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU81" t="n">
         <v>1.41</v>
@@ -19376,7 +19376,7 @@
         <v>1.13</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU93" t="n">
         <v>1.14</v>
@@ -20185,10 +20185,10 @@
         <v>1.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU97" t="n">
         <v>1.7</v>
@@ -20794,7 +20794,7 @@
         <v>1.25</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT100" t="n">
         <v>1</v>
@@ -21609,7 +21609,7 @@
         <v>1.44</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU104" t="n">
         <v>2.02</v>
@@ -22827,7 +22827,7 @@
         <v>2.5</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU110" t="n">
         <v>2.49</v>
@@ -24245,7 +24245,7 @@
         <v>0.8</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT117" t="n">
         <v>0.5</v>
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT120" t="n">
         <v>1.38</v>
@@ -25263,7 +25263,7 @@
         <v>1.67</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU122" t="n">
         <v>1.78</v>
@@ -26478,7 +26478,7 @@
         <v>1</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT128" t="n">
         <v>0.86</v>
@@ -26684,7 +26684,7 @@
         <v>2.29</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU129" t="n">
         <v>1.91</v>
@@ -27696,7 +27696,7 @@
         <v>2.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT134" t="n">
         <v>2.63</v>
@@ -29526,7 +29526,7 @@
         <v>2.13</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU143" t="n">
         <v>1.63</v>
@@ -29932,7 +29932,7 @@
         <v>1.13</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU145" t="n">
         <v>1.21</v>
@@ -30944,7 +30944,7 @@
         <v>1.33</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT150" t="n">
         <v>1.13</v>
@@ -33499,13 +33499,13 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R163" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S163" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T163" t="n">
         <v>3.4</v>
@@ -33622,22 +33622,22 @@
         <v>2.9</v>
       </c>
       <c r="BF163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG163" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH163" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BI163" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BJ163" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BK163" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164">
@@ -33705,10 +33705,10 @@
         <v>5</v>
       </c>
       <c r="R164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S164" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T164" t="n">
         <v>3.1</v>
@@ -33828,19 +33828,425 @@
         <v>7</v>
       </c>
       <c r="BG164" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2710825</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>44940.60416666666</v>
+      </c>
+      <c r="F165" t="n">
+        <v>17</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>3</v>
+      </c>
+      <c r="R165" t="n">
+        <v>1</v>
+      </c>
+      <c r="S165" t="n">
         <v>4</v>
       </c>
-      <c r="BH164" t="n">
+      <c r="T165" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U165" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V165" t="n">
         <v>5</v>
       </c>
-      <c r="BI164" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ164" t="n">
+      <c r="W165" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X165" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2710823</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>44940.70833333334</v>
+      </c>
+      <c r="F166" t="n">
+        <v>17</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>2</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" t="n">
+        <v>3</v>
+      </c>
+      <c r="L166" t="n">
+        <v>3</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>4</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['25', '37', '62']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>4</v>
+      </c>
+      <c r="R166" t="n">
+        <v>2</v>
+      </c>
+      <c r="S166" t="n">
+        <v>6</v>
+      </c>
+      <c r="T166" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2</v>
+      </c>
+      <c r="V166" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ166" t="n">
         <v>12</v>
       </c>
-      <c r="BK164" t="n">
-        <v>6</v>
+      <c r="BK166" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK166"/>
+  <dimension ref="A1:BK168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.11</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT8" t="n">
         <v>2.33</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT27" t="n">
         <v>1.2</v>
@@ -6790,7 +6790,7 @@
         <v>1.44</v>
       </c>
       <c r="AT31" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU31" t="n">
         <v>1.68</v>
@@ -7602,7 +7602,7 @@
         <v>1.89</v>
       </c>
       <c r="AT35" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU35" t="n">
         <v>1.54</v>
@@ -8211,7 +8211,7 @@
         <v>1.89</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU38" t="n">
         <v>2.14</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT49" t="n">
         <v>2.25</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT51" t="n">
         <v>1.13</v>
@@ -12677,7 +12677,7 @@
         <v>1.89</v>
       </c>
       <c r="AT60" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU60" t="n">
         <v>1.62</v>
@@ -13486,7 +13486,7 @@
         <v>0.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT64" t="n">
         <v>0.5</v>
@@ -13692,7 +13692,7 @@
         <v>0.75</v>
       </c>
       <c r="AT65" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU65" t="n">
         <v>2.05</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT73" t="n">
         <v>1.33</v>
@@ -15922,7 +15922,7 @@
         <v>3</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT76" t="n">
         <v>2.33</v>
@@ -16331,7 +16331,7 @@
         <v>0.88</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU78" t="n">
         <v>1.08</v>
@@ -17955,7 +17955,7 @@
         <v>1.89</v>
       </c>
       <c r="AT86" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU86" t="n">
         <v>2.15</v>
@@ -19373,7 +19373,7 @@
         <v>2.33</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT93" t="n">
         <v>1.13</v>
@@ -20591,7 +20591,7 @@
         <v>0.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT99" t="n">
         <v>0.75</v>
@@ -20797,7 +20797,7 @@
         <v>2</v>
       </c>
       <c r="AT100" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU100" t="n">
         <v>1.63</v>
@@ -22218,7 +22218,7 @@
         <v>2.13</v>
       </c>
       <c r="AT107" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU107" t="n">
         <v>1.66</v>
@@ -23233,7 +23233,7 @@
         <v>1.38</v>
       </c>
       <c r="AT112" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU112" t="n">
         <v>1.29</v>
@@ -23433,7 +23433,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT113" t="n">
         <v>0.88</v>
@@ -23639,7 +23639,7 @@
         <v>0.88</v>
       </c>
       <c r="AT114" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU114" t="n">
         <v>1.22</v>
@@ -25463,7 +25463,7 @@
         <v>0.8</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT123" t="n">
         <v>1</v>
@@ -26278,7 +26278,7 @@
         <v>1.38</v>
       </c>
       <c r="AT127" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU127" t="n">
         <v>1.64</v>
@@ -28102,7 +28102,7 @@
         <v>1.33</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT136" t="n">
         <v>1</v>
@@ -28511,7 +28511,7 @@
         <v>1.38</v>
       </c>
       <c r="AT138" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU138" t="n">
         <v>1.36</v>
@@ -29929,7 +29929,7 @@
         <v>1.57</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT145" t="n">
         <v>1.22</v>
@@ -30744,7 +30744,7 @@
         <v>2.5</v>
       </c>
       <c r="AT149" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU149" t="n">
         <v>2.45</v>
@@ -32365,7 +32365,7 @@
         <v>2.14</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT157" t="n">
         <v>2.25</v>
@@ -34247,6 +34247,412 @@
       </c>
       <c r="BK166" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2710826</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>44941.41666666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>17</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="n">
+        <v>2</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="n">
+        <v>2</v>
+      </c>
+      <c r="N167" t="n">
+        <v>3</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['6', '62']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>5</v>
+      </c>
+      <c r="R167" t="n">
+        <v>1</v>
+      </c>
+      <c r="S167" t="n">
+        <v>6</v>
+      </c>
+      <c r="T167" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U167" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V167" t="n">
+        <v>4</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X167" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2710821</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>44941.51041666666</v>
+      </c>
+      <c r="F168" t="n">
+        <v>17</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K168" t="n">
+        <v>2</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="n">
+        <v>2</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>3</v>
+      </c>
+      <c r="R168" t="n">
+        <v>4</v>
+      </c>
+      <c r="S168" t="n">
+        <v>7</v>
+      </c>
+      <c r="T168" t="n">
+        <v>5</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V168" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X168" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK168"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT6" t="n">
         <v>2.25</v>
@@ -2730,7 +2730,7 @@
         <v>2.13</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT30" t="n">
         <v>1.13</v>
@@ -8414,7 +8414,7 @@
         <v>2.29</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT45" t="n">
         <v>2.63</v>
@@ -11459,7 +11459,7 @@
         <v>2.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU54" t="n">
         <v>2.69</v>
@@ -13283,7 +13283,7 @@
         <v>1.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT63" t="n">
         <v>1.2</v>
@@ -14910,7 +14910,7 @@
         <v>1.75</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU71" t="n">
         <v>1.8</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT78" t="n">
         <v>1.22</v>
@@ -17549,7 +17549,7 @@
         <v>1.44</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU84" t="n">
         <v>1.91</v>
@@ -19779,7 +19779,7 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT95" t="n">
         <v>1.38</v>
@@ -22015,7 +22015,7 @@
         <v>0.75</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU106" t="n">
         <v>1.64</v>
@@ -23636,7 +23636,7 @@
         <v>2.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT114" t="n">
         <v>1.89</v>
@@ -25669,7 +25669,7 @@
         <v>1.44</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU124" t="n">
         <v>1.45</v>
@@ -29729,7 +29729,7 @@
         <v>1.38</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU144" t="n">
         <v>1.77</v>
@@ -30335,7 +30335,7 @@
         <v>0.14</v>
       </c>
       <c r="AS147" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT147" t="n">
         <v>0.25</v>
@@ -34653,6 +34653,209 @@
       </c>
       <c r="BK168" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2710819</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>44942.70833333334</v>
+      </c>
+      <c r="F169" t="n">
+        <v>17</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="n">
+        <v>2</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>3</v>
+      </c>
+      <c r="R169" t="n">
+        <v>6</v>
+      </c>
+      <c r="S169" t="n">
+        <v>9</v>
+      </c>
+      <c r="T169" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V169" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK169"/>
+  <dimension ref="A1:BK170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT15" t="n">
         <v>1.38</v>
@@ -4963,7 +4963,7 @@
         <v>1.67</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU22" t="n">
         <v>1.7</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT33" t="n">
         <v>0.75</v>
@@ -9835,7 +9835,7 @@
         <v>1.38</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU46" t="n">
         <v>1.96</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT53" t="n">
         <v>0.25</v>
@@ -11662,7 +11662,7 @@
         <v>1.44</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU55" t="n">
         <v>2.05</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT66" t="n">
         <v>2.63</v>
@@ -16737,7 +16737,7 @@
         <v>2.5</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU80" t="n">
         <v>2.92</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT85" t="n">
         <v>1</v>
@@ -19985,7 +19985,7 @@
         <v>1.44</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU96" t="n">
         <v>1.57</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT112" t="n">
         <v>1.22</v>
@@ -23436,7 +23436,7 @@
         <v>1.78</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU113" t="n">
         <v>1.32</v>
@@ -28508,7 +28508,7 @@
         <v>2.29</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT138" t="n">
         <v>1.89</v>
@@ -28714,7 +28714,7 @@
         <v>1.75</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU139" t="n">
         <v>2.14</v>
@@ -31353,7 +31353,7 @@
         <v>0.25</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU152" t="n">
         <v>1.34</v>
@@ -31959,7 +31959,7 @@
         <v>0.57</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT155" t="n">
         <v>0.5</v>
@@ -34856,6 +34856,209 @@
       </c>
       <c r="BK169" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2710834</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>44946.70833333334</v>
+      </c>
+      <c r="F170" t="n">
+        <v>18</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>4</v>
+      </c>
+      <c r="R170" t="n">
+        <v>6</v>
+      </c>
+      <c r="S170" t="n">
+        <v>10</v>
+      </c>
+      <c r="T170" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U170" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X170" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK170"/>
+  <dimension ref="A1:BK175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>0.89</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.44</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
         <v>1.33</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU14" t="n">
         <v>1.45</v>
@@ -3542,7 +3542,7 @@
         <v>1.56</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT18" t="n">
         <v>1.2</v>
@@ -5369,7 +5369,7 @@
         <v>0.25</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU24" t="n">
         <v>1.51</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT25" t="n">
         <v>1.22</v>
@@ -6181,7 +6181,7 @@
         <v>2.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU28" t="n">
         <v>2.46</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT29" t="n">
         <v>2.33</v>
@@ -6993,7 +6993,7 @@
         <v>1.11</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU32" t="n">
         <v>1.37</v>
@@ -7196,7 +7196,7 @@
         <v>1.56</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU33" t="n">
         <v>1.45</v>
@@ -7399,7 +7399,7 @@
         <v>2.43</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT36" t="n">
         <v>2.63</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT39" t="n">
         <v>0.33</v>
@@ -9023,7 +9023,7 @@
         <v>1.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU42" t="n">
         <v>1.59</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT43" t="n">
         <v>0.86</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT44" t="n">
         <v>1</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT46" t="n">
         <v>0.78</v>
@@ -10444,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU49" t="n">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>1.44</v>
       </c>
       <c r="AT52" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU52" t="n">
         <v>1.27</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -12474,7 +12474,7 @@
         <v>2.13</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU59" t="n">
         <v>1.68</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT61" t="n">
         <v>2.33</v>
@@ -13489,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU64" t="n">
         <v>1.02</v>
@@ -13689,7 +13689,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT65" t="n">
         <v>1.89</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT67" t="n">
         <v>0.86</v>
@@ -14301,7 +14301,7 @@
         <v>1.11</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU68" t="n">
         <v>1.34</v>
@@ -14504,7 +14504,7 @@
         <v>1.67</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU69" t="n">
         <v>1.59</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT71" t="n">
         <v>0.33</v>
@@ -15516,10 +15516,10 @@
         <v>0.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU74" t="n">
         <v>1.71</v>
@@ -15719,7 +15719,7 @@
         <v>3</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT75" t="n">
         <v>1.13</v>
@@ -16128,7 +16128,7 @@
         <v>1.44</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU77" t="n">
         <v>1.57</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT82" t="n">
         <v>1</v>
@@ -17346,7 +17346,7 @@
         <v>1.67</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU83" t="n">
         <v>1.65</v>
@@ -18158,7 +18158,7 @@
         <v>1.11</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU87" t="n">
         <v>1.38</v>
@@ -18561,10 +18561,10 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU89" t="n">
         <v>1.66</v>
@@ -18967,7 +18967,7 @@
         <v>1.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT91" t="n">
         <v>1.13</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT92" t="n">
         <v>0.86</v>
@@ -19576,7 +19576,7 @@
         <v>0.8</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT94" t="n">
         <v>1.33</v>
@@ -19782,7 +19782,7 @@
         <v>0.89</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU95" t="n">
         <v>1.14</v>
@@ -20594,7 +20594,7 @@
         <v>1.78</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU99" t="n">
         <v>1.25</v>
@@ -21200,10 +21200,10 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT102" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU102" t="n">
         <v>1.89</v>
@@ -21406,7 +21406,7 @@
         <v>1.44</v>
       </c>
       <c r="AT103" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU103" t="n">
         <v>1.51</v>
@@ -22012,7 +22012,7 @@
         <v>0.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT106" t="n">
         <v>0.33</v>
@@ -22621,7 +22621,7 @@
         <v>0.2</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT109" t="n">
         <v>0.25</v>
@@ -23839,7 +23839,7 @@
         <v>0.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT115" t="n">
         <v>1.33</v>
@@ -24248,7 +24248,7 @@
         <v>2</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU117" t="n">
         <v>1.71</v>
@@ -24451,7 +24451,7 @@
         <v>2.43</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU118" t="n">
         <v>2.16</v>
@@ -24857,7 +24857,7 @@
         <v>1.89</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU120" t="n">
         <v>1.75</v>
@@ -25466,7 +25466,7 @@
         <v>1</v>
       </c>
       <c r="AT123" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU123" t="n">
         <v>1.16</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT127" t="n">
         <v>1.22</v>
@@ -26681,7 +26681,7 @@
         <v>1.33</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT129" t="n">
         <v>1.22</v>
@@ -27087,7 +27087,7 @@
         <v>3</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT131" t="n">
         <v>2.33</v>
@@ -27293,7 +27293,7 @@
         <v>0.25</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU132" t="n">
         <v>1.33</v>
@@ -27496,7 +27496,7 @@
         <v>1.89</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU133" t="n">
         <v>2.13</v>
@@ -27899,10 +27899,10 @@
         <v>2</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU135" t="n">
         <v>1.8</v>
@@ -28305,7 +28305,7 @@
         <v>1</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT137" t="n">
         <v>1.2</v>
@@ -28711,7 +28711,7 @@
         <v>0.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT139" t="n">
         <v>0.78</v>
@@ -28917,7 +28917,7 @@
         <v>1.44</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU140" t="n">
         <v>1.82</v>
@@ -29120,7 +29120,7 @@
         <v>2.43</v>
       </c>
       <c r="AT141" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU141" t="n">
         <v>2.2</v>
@@ -29726,7 +29726,7 @@
         <v>0.29</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT144" t="n">
         <v>0.33</v>
@@ -31147,7 +31147,7 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT151" t="n">
         <v>0.86</v>
@@ -31556,7 +31556,7 @@
         <v>1.44</v>
       </c>
       <c r="AT153" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU153" t="n">
         <v>1.84</v>
@@ -31756,7 +31756,7 @@
         <v>2.63</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT154" t="n">
         <v>2.33</v>
@@ -31962,7 +31962,7 @@
         <v>1.56</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU155" t="n">
         <v>1.31</v>
@@ -32162,10 +32162,10 @@
         <v>0.71</v>
       </c>
       <c r="AS156" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU156" t="n">
         <v>1.67</v>
@@ -32368,7 +32368,7 @@
         <v>1.78</v>
       </c>
       <c r="AT157" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU157" t="n">
         <v>1.4</v>
@@ -32568,10 +32568,10 @@
         <v>1.14</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU158" t="n">
         <v>2.04</v>
@@ -32771,7 +32771,7 @@
         <v>1.14</v>
       </c>
       <c r="AS159" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT159" t="n">
         <v>1</v>
@@ -32974,7 +32974,7 @@
         <v>2.57</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT160" t="n">
         <v>2.63</v>
@@ -35059,6 +35059,1021 @@
       </c>
       <c r="BK170" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2710832</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>44947.41666666666</v>
+      </c>
+      <c r="F171" t="n">
+        <v>18</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>2</v>
+      </c>
+      <c r="K171" t="n">
+        <v>2</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2</v>
+      </c>
+      <c r="N171" t="n">
+        <v>2</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['15', '36']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>3</v>
+      </c>
+      <c r="R171" t="n">
+        <v>4</v>
+      </c>
+      <c r="S171" t="n">
+        <v>7</v>
+      </c>
+      <c r="T171" t="n">
+        <v>4</v>
+      </c>
+      <c r="U171" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V171" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X171" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2710833</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>44947.51041666666</v>
+      </c>
+      <c r="F172" t="n">
+        <v>18</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>7</v>
+      </c>
+      <c r="R172" t="n">
+        <v>4</v>
+      </c>
+      <c r="S172" t="n">
+        <v>11</v>
+      </c>
+      <c r="T172" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V172" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X172" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2710829</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>44947.60416666666</v>
+      </c>
+      <c r="F173" t="n">
+        <v>18</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>3</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>3</v>
+      </c>
+      <c r="L173" t="n">
+        <v>3</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>3</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['18', '23', '28']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>4</v>
+      </c>
+      <c r="R173" t="n">
+        <v>1</v>
+      </c>
+      <c r="S173" t="n">
+        <v>5</v>
+      </c>
+      <c r="T173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V173" t="n">
+        <v>8</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X173" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2710835</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>44947.70833333334</v>
+      </c>
+      <c r="F174" t="n">
+        <v>18</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>8</v>
+      </c>
+      <c r="R174" t="n">
+        <v>1</v>
+      </c>
+      <c r="S174" t="n">
+        <v>9</v>
+      </c>
+      <c r="T174" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V174" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X174" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2710837</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>44948.41666666666</v>
+      </c>
+      <c r="F175" t="n">
+        <v>18</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['90+11']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>3</v>
+      </c>
+      <c r="R175" t="n">
+        <v>2</v>
+      </c>
+      <c r="S175" t="n">
+        <v>5</v>
+      </c>
+      <c r="T175" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V175" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X175" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK175"/>
+  <dimension ref="A1:BK178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT5" t="n">
         <v>1.33</v>
@@ -2121,7 +2121,7 @@
         <v>1.78</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT9" t="n">
         <v>1.22</v>
@@ -3745,7 +3745,7 @@
         <v>1.11</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU16" t="n">
         <v>1.09</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT17" t="n">
         <v>0.86</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AT20" t="n">
         <v>0.25</v>
@@ -4760,7 +4760,7 @@
         <v>1.67</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>2.13</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU23" t="n">
         <v>2.21</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AT24" t="n">
         <v>2.33</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT28" t="n">
         <v>0.44</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU29" t="n">
         <v>1.51</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT38" t="n">
         <v>1.22</v>
@@ -8617,7 +8617,7 @@
         <v>1.44</v>
       </c>
       <c r="AT40" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU40" t="n">
         <v>1.71</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AT48" t="n">
         <v>1.13</v>
@@ -10850,7 +10850,7 @@
         <v>1.78</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU51" t="n">
         <v>1.4</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT54" t="n">
         <v>0.33</v>
@@ -11862,7 +11862,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT56" t="n">
         <v>1.33</v>
@@ -12068,7 +12068,7 @@
         <v>2</v>
       </c>
       <c r="AT57" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU57" t="n">
         <v>1.76</v>
@@ -12880,7 +12880,7 @@
         <v>1.56</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU61" t="n">
         <v>1.78</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT62" t="n">
         <v>0.25</v>
@@ -14707,7 +14707,7 @@
         <v>2.43</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU70" t="n">
         <v>2.46</v>
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU76" t="n">
         <v>1.18</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT80" t="n">
         <v>0.78</v>
@@ -16937,7 +16937,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AT81" t="n">
         <v>1.22</v>
@@ -17143,7 +17143,7 @@
         <v>1.56</v>
       </c>
       <c r="AT82" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU82" t="n">
         <v>1.93</v>
@@ -17952,7 +17952,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT86" t="n">
         <v>1.89</v>
@@ -18970,7 +18970,7 @@
         <v>2.38</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU91" t="n">
         <v>2.05</v>
@@ -20388,10 +20388,10 @@
         <v>3</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU98" t="n">
         <v>1.29</v>
@@ -20997,7 +20997,7 @@
         <v>1.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT101" t="n">
         <v>1.2</v>
@@ -22421,7 +22421,7 @@
         <v>1.67</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -22824,7 +22824,7 @@
         <v>2</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT110" t="n">
         <v>1.13</v>
@@ -23030,7 +23030,7 @@
         <v>1.11</v>
       </c>
       <c r="AT111" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU111" t="n">
         <v>1.39</v>
@@ -24651,7 +24651,7 @@
         <v>1.14</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT119" t="n">
         <v>1.2</v>
@@ -25057,10 +25057,10 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AT121" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU121" t="n">
         <v>1.26</v>
@@ -25872,7 +25872,7 @@
         <v>1.11</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU125" t="n">
         <v>1.57</v>
@@ -26072,7 +26072,7 @@
         <v>0.17</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT126" t="n">
         <v>0.25</v>
@@ -27090,7 +27090,7 @@
         <v>1.56</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU131" t="n">
         <v>2.15</v>
@@ -27290,7 +27290,7 @@
         <v>0.33</v>
       </c>
       <c r="AS132" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AT132" t="n">
         <v>0.67</v>
@@ -27493,7 +27493,7 @@
         <v>0.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT133" t="n">
         <v>0.44</v>
@@ -28105,7 +28105,7 @@
         <v>1.78</v>
       </c>
       <c r="AT136" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU136" t="n">
         <v>1.45</v>
@@ -30541,7 +30541,7 @@
         <v>1.44</v>
       </c>
       <c r="AT148" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU148" t="n">
         <v>1.58</v>
@@ -30741,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT149" t="n">
         <v>1.22</v>
@@ -30947,7 +30947,7 @@
         <v>1.89</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU150" t="n">
         <v>1.71</v>
@@ -31350,7 +31350,7 @@
         <v>0.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AT152" t="n">
         <v>0.78</v>
@@ -31759,7 +31759,7 @@
         <v>2.38</v>
       </c>
       <c r="AT154" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU154" t="n">
         <v>1.84</v>
@@ -32774,7 +32774,7 @@
         <v>1</v>
       </c>
       <c r="AT159" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU159" t="n">
         <v>1.69</v>
@@ -33177,10 +33177,10 @@
         <v>1.14</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU161" t="n">
         <v>2.13</v>
@@ -36074,6 +36074,615 @@
       </c>
       <c r="BK175" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2710831</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>44948.51041666666</v>
+      </c>
+      <c r="F176" t="n">
+        <v>18</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="n">
+        <v>2</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>7</v>
+      </c>
+      <c r="R176" t="n">
+        <v>2</v>
+      </c>
+      <c r="S176" t="n">
+        <v>9</v>
+      </c>
+      <c r="T176" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2</v>
+      </c>
+      <c r="V176" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X176" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2710830</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>44948.60416666666</v>
+      </c>
+      <c r="F177" t="n">
+        <v>18</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>4</v>
+      </c>
+      <c r="R177" t="n">
+        <v>2</v>
+      </c>
+      <c r="S177" t="n">
+        <v>6</v>
+      </c>
+      <c r="T177" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="V177" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X177" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2710828</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>44948.70833333334</v>
+      </c>
+      <c r="F178" t="n">
+        <v>18</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>2</v>
+      </c>
+      <c r="N178" t="n">
+        <v>2</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['24', '90']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>12</v>
+      </c>
+      <c r="R178" t="n">
+        <v>2</v>
+      </c>
+      <c r="S178" t="n">
+        <v>14</v>
+      </c>
+      <c r="T178" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V178" t="n">
+        <v>3</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X178" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK178"/>
+  <dimension ref="A1:BK179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT7" t="n">
         <v>0.67</v>
@@ -4557,7 +4557,7 @@
         <v>0.33</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT31" t="n">
         <v>1.89</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT40" t="n">
         <v>0.89</v>
@@ -8820,7 +8820,7 @@
         <v>1.44</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU41" t="n">
         <v>1.67</v>
@@ -11256,7 +11256,7 @@
         <v>1.56</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU53" t="n">
         <v>1.46</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT55" t="n">
         <v>0.78</v>
@@ -13083,7 +13083,7 @@
         <v>1.7</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU62" t="n">
         <v>2.11</v>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT84" t="n">
         <v>0.33</v>
@@ -18767,7 +18767,7 @@
         <v>2.13</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU90" t="n">
         <v>1.57</v>
@@ -21606,7 +21606,7 @@
         <v>1</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT104" t="n">
         <v>1.22</v>
@@ -22624,7 +22624,7 @@
         <v>2.38</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU109" t="n">
         <v>1.96</v>
@@ -24042,7 +24042,7 @@
         <v>2.4</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT116" t="n">
         <v>2.63</v>
@@ -26075,7 +26075,7 @@
         <v>2.56</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU126" t="n">
         <v>2.29</v>
@@ -28914,7 +28914,7 @@
         <v>1.33</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT140" t="n">
         <v>1.22</v>
@@ -30338,7 +30338,7 @@
         <v>0.89</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU147" t="n">
         <v>1.26</v>
@@ -31553,7 +31553,7 @@
         <v>0.71</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT153" t="n">
         <v>0.89</v>
@@ -36683,6 +36683,209 @@
       </c>
       <c r="BK178" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2710836</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>44949.70833333334</v>
+      </c>
+      <c r="F179" t="n">
+        <v>18</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>2</v>
+      </c>
+      <c r="M179" t="n">
+        <v>2</v>
+      </c>
+      <c r="N179" t="n">
+        <v>4</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['48', '65']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['54', '74']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>6</v>
+      </c>
+      <c r="R179" t="n">
+        <v>2</v>
+      </c>
+      <c r="S179" t="n">
+        <v>8</v>
+      </c>
+      <c r="T179" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V179" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X179" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK179"/>
+  <dimension ref="A1:BK184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.11</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT6" t="n">
         <v>2.33</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT8" t="n">
         <v>2.4</v>
@@ -2324,7 +2324,7 @@
         <v>1.7</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT10" t="n">
         <v>1.89</v>
@@ -2730,7 +2730,7 @@
         <v>2.13</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT13" t="n">
         <v>0.44</v>
@@ -3542,7 +3542,7 @@
         <v>1.56</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.89</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT21" t="n">
         <v>0.89</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT22" t="n">
         <v>0.78</v>
@@ -5572,7 +5572,7 @@
         <v>1.56</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT27" t="n">
         <v>1.2</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT30" t="n">
         <v>1.13</v>
@@ -7399,7 +7399,7 @@
         <v>2.43</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU36" t="n">
         <v>2.23</v>
@@ -8211,7 +8211,7 @@
         <v>1.7</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU38" t="n">
         <v>2.14</v>
@@ -8414,7 +8414,7 @@
         <v>2.38</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT42" t="n">
         <v>0.44</v>
@@ -9629,10 +9629,10 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU45" t="n">
         <v>1.15</v>
@@ -10038,7 +10038,7 @@
         <v>2.43</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU47" t="n">
         <v>2.24</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT49" t="n">
         <v>2.33</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT51" t="n">
         <v>1.11</v>
@@ -11459,7 +11459,7 @@
         <v>2.56</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU54" t="n">
         <v>2.69</v>
@@ -12677,7 +12677,7 @@
         <v>1.89</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU60" t="n">
         <v>1.62</v>
@@ -13283,7 +13283,7 @@
         <v>1.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT63" t="n">
         <v>1.2</v>
@@ -13486,7 +13486,7 @@
         <v>0.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT64" t="n">
         <v>0.44</v>
@@ -13689,7 +13689,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT65" t="n">
         <v>1.89</v>
@@ -13895,7 +13895,7 @@
         <v>1.56</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU66" t="n">
         <v>1.23</v>
@@ -14301,7 +14301,7 @@
         <v>1.11</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU68" t="n">
         <v>1.34</v>
@@ -14501,7 +14501,7 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT69" t="n">
         <v>2.33</v>
@@ -14910,7 +14910,7 @@
         <v>1.56</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU71" t="n">
         <v>1.8</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT73" t="n">
         <v>1.33</v>
@@ -15719,7 +15719,7 @@
         <v>3</v>
       </c>
       <c r="AS75" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT75" t="n">
         <v>1.13</v>
@@ -15922,7 +15922,7 @@
         <v>3</v>
       </c>
       <c r="AS76" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT76" t="n">
         <v>2.4</v>
@@ -16128,7 +16128,7 @@
         <v>1.44</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU77" t="n">
         <v>1.57</v>
@@ -16328,10 +16328,10 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.08</v>
@@ -16940,7 +16940,7 @@
         <v>0.33</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU81" t="n">
         <v>1.41</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT83" t="n">
         <v>0.89</v>
@@ -17549,7 +17549,7 @@
         <v>1.4</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU84" t="n">
         <v>1.91</v>
@@ -18361,7 +18361,7 @@
         <v>2.43</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU88" t="n">
         <v>2.54</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT92" t="n">
         <v>0.86</v>
@@ -19373,7 +19373,7 @@
         <v>2.33</v>
       </c>
       <c r="AS93" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT93" t="n">
         <v>1.13</v>
@@ -19779,10 +19779,10 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU95" t="n">
         <v>1.14</v>
@@ -20188,7 +20188,7 @@
         <v>1.89</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU97" t="n">
         <v>1.7</v>
@@ -20591,7 +20591,7 @@
         <v>0.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT99" t="n">
         <v>0.67</v>
@@ -20797,7 +20797,7 @@
         <v>2</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU100" t="n">
         <v>1.63</v>
@@ -21609,7 +21609,7 @@
         <v>1.4</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU104" t="n">
         <v>2.02</v>
@@ -22015,7 +22015,7 @@
         <v>1</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU106" t="n">
         <v>1.64</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT108" t="n">
         <v>1.11</v>
@@ -23233,7 +23233,7 @@
         <v>1.56</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU112" t="n">
         <v>1.29</v>
@@ -23433,7 +23433,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT113" t="n">
         <v>0.78</v>
@@ -23636,7 +23636,7 @@
         <v>2.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT114" t="n">
         <v>1.89</v>
@@ -23839,7 +23839,7 @@
         <v>0.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT115" t="n">
         <v>1.33</v>
@@ -24045,7 +24045,7 @@
         <v>1.4</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU116" t="n">
         <v>1.99</v>
@@ -24857,7 +24857,7 @@
         <v>1.89</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU120" t="n">
         <v>1.75</v>
@@ -25260,7 +25260,7 @@
         <v>1.6</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT122" t="n">
         <v>1.13</v>
@@ -25463,7 +25463,7 @@
         <v>0.8</v>
       </c>
       <c r="AS123" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT123" t="n">
         <v>0.89</v>
@@ -25669,7 +25669,7 @@
         <v>1.44</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU124" t="n">
         <v>1.45</v>
@@ -26278,7 +26278,7 @@
         <v>1.56</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU127" t="n">
         <v>1.64</v>
@@ -26684,7 +26684,7 @@
         <v>2.38</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU129" t="n">
         <v>1.91</v>
@@ -27699,7 +27699,7 @@
         <v>2</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU134" t="n">
         <v>1.86</v>
@@ -27899,7 +27899,7 @@
         <v>2</v>
       </c>
       <c r="AS135" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT135" t="n">
         <v>2.33</v>
@@ -28102,7 +28102,7 @@
         <v>1.33</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT136" t="n">
         <v>0.89</v>
@@ -28917,7 +28917,7 @@
         <v>1.4</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU140" t="n">
         <v>1.82</v>
@@ -29320,7 +29320,7 @@
         <v>1.14</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT142" t="n">
         <v>1.33</v>
@@ -29729,7 +29729,7 @@
         <v>1.56</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU144" t="n">
         <v>1.77</v>
@@ -29929,10 +29929,10 @@
         <v>1.57</v>
       </c>
       <c r="AS145" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU145" t="n">
         <v>1.21</v>
@@ -30335,7 +30335,7 @@
         <v>0.14</v>
       </c>
       <c r="AS147" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT147" t="n">
         <v>0.33</v>
@@ -30744,7 +30744,7 @@
         <v>2.56</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU149" t="n">
         <v>2.45</v>
@@ -32365,7 +32365,7 @@
         <v>2.14</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT157" t="n">
         <v>2.33</v>
@@ -32571,7 +32571,7 @@
         <v>1.56</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU158" t="n">
         <v>2.04</v>
@@ -32771,7 +32771,7 @@
         <v>1.14</v>
       </c>
       <c r="AS159" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT159" t="n">
         <v>0.89</v>
@@ -32977,7 +32977,7 @@
         <v>1.56</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU160" t="n">
         <v>1.75</v>
@@ -33786,7 +33786,7 @@
         <v>1.13</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT164" t="n">
         <v>1</v>
@@ -33992,7 +33992,7 @@
         <v>2</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU165" t="n">
         <v>1.83</v>
@@ -34395,10 +34395,10 @@
         <v>1</v>
       </c>
       <c r="AS167" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU167" t="n">
         <v>1.2</v>
@@ -34598,7 +34598,7 @@
         <v>2</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT168" t="n">
         <v>1.89</v>
@@ -34801,10 +34801,10 @@
         <v>0.25</v>
       </c>
       <c r="AS169" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU169" t="n">
         <v>1.32</v>
@@ -35413,7 +35413,7 @@
         <v>1</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU172" t="n">
         <v>1.65</v>
@@ -35816,7 +35816,7 @@
         <v>1</v>
       </c>
       <c r="AS174" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT174" t="n">
         <v>0.89</v>
@@ -36886,6 +36886,1021 @@
       </c>
       <c r="BK179" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2710840</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>44953.70833333334</v>
+      </c>
+      <c r="F180" t="n">
+        <v>19</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>3</v>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="n">
+        <v>4</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['21', '61', '77']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>2</v>
+      </c>
+      <c r="R180" t="n">
+        <v>2</v>
+      </c>
+      <c r="S180" t="n">
+        <v>4</v>
+      </c>
+      <c r="T180" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V180" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X180" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2710838</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>44954.41666666666</v>
+      </c>
+      <c r="F181" t="n">
+        <v>19</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>2</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>2</v>
+      </c>
+      <c r="L181" t="n">
+        <v>2</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>2</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['10', '38']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>6</v>
+      </c>
+      <c r="R181" t="n">
+        <v>2</v>
+      </c>
+      <c r="S181" t="n">
+        <v>8</v>
+      </c>
+      <c r="T181" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U181" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V181" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X181" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2710843</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>44954.51041666666</v>
+      </c>
+      <c r="F182" t="n">
+        <v>19</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>4</v>
+      </c>
+      <c r="R182" t="n">
+        <v>2</v>
+      </c>
+      <c r="S182" t="n">
+        <v>6</v>
+      </c>
+      <c r="T182" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V182" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X182" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2710845</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>44954.60416666666</v>
+      </c>
+      <c r="F183" t="n">
+        <v>19</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>3</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>3</v>
+      </c>
+      <c r="L183" t="n">
+        <v>3</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>3</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['29', '43', '45+4']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>5</v>
+      </c>
+      <c r="R183" t="n">
+        <v>2</v>
+      </c>
+      <c r="S183" t="n">
+        <v>7</v>
+      </c>
+      <c r="T183" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V183" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X183" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2710844</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>44954.70833333334</v>
+      </c>
+      <c r="F184" t="n">
+        <v>19</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>6</v>
+      </c>
+      <c r="R184" t="n">
+        <v>1</v>
+      </c>
+      <c r="S184" t="n">
+        <v>7</v>
+      </c>
+      <c r="T184" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U184" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V184" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X184" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK184"/>
+  <dimension ref="A1:BK186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT4" t="n">
         <v>1.2</v>
@@ -2527,7 +2527,7 @@
         <v>0.9</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT14" t="n">
         <v>0.89</v>
@@ -3948,7 +3948,7 @@
         <v>1.7</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU17" t="n">
         <v>2.62</v>
@@ -6790,7 +6790,7 @@
         <v>1.4</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU31" t="n">
         <v>1.68</v>
@@ -7602,7 +7602,7 @@
         <v>1.89</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU35" t="n">
         <v>1.54</v>
@@ -8005,7 +8005,7 @@
         <v>2</v>
       </c>
       <c r="AS37" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT37" t="n">
         <v>1.33</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT41" t="n">
         <v>0.33</v>
@@ -9226,7 +9226,7 @@
         <v>1.56</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU43" t="n">
         <v>1.56</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT52" t="n">
         <v>0.89</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT57" t="n">
         <v>0.89</v>
@@ -13692,7 +13692,7 @@
         <v>1.2</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU65" t="n">
         <v>2.05</v>
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU67" t="n">
         <v>1.75</v>
@@ -15110,10 +15110,10 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU72" t="n">
         <v>1.72</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT77" t="n">
         <v>1.4</v>
@@ -17955,7 +17955,7 @@
         <v>1.7</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU86" t="n">
         <v>2.15</v>
@@ -19173,7 +19173,7 @@
         <v>1.2</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU92" t="n">
         <v>1.74</v>
@@ -19982,7 +19982,7 @@
         <v>0.75</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT96" t="n">
         <v>0.78</v>
@@ -20794,7 +20794,7 @@
         <v>1.25</v>
       </c>
       <c r="AS100" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT100" t="n">
         <v>1.1</v>
@@ -21403,7 +21403,7 @@
         <v>2.4</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT103" t="n">
         <v>2.33</v>
@@ -22218,7 +22218,7 @@
         <v>2.13</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU107" t="n">
         <v>1.66</v>
@@ -23639,7 +23639,7 @@
         <v>1.1</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU114" t="n">
         <v>1.22</v>
@@ -24245,7 +24245,7 @@
         <v>0.8</v>
       </c>
       <c r="AS117" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT117" t="n">
         <v>0.44</v>
@@ -25666,7 +25666,7 @@
         <v>0.33</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT124" t="n">
         <v>0.3</v>
@@ -26481,7 +26481,7 @@
         <v>1.89</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU128" t="n">
         <v>1.78</v>
@@ -27696,7 +27696,7 @@
         <v>2.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT134" t="n">
         <v>2.67</v>
@@ -28511,7 +28511,7 @@
         <v>1.56</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU138" t="n">
         <v>1.36</v>
@@ -30538,7 +30538,7 @@
         <v>2.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT148" t="n">
         <v>2.4</v>
@@ -31150,7 +31150,7 @@
         <v>2.38</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU151" t="n">
         <v>1.82</v>
@@ -33583,7 +33583,7 @@
         <v>1.13</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT163" t="n">
         <v>1.33</v>
@@ -33989,7 +33989,7 @@
         <v>1.38</v>
       </c>
       <c r="AS165" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT165" t="n">
         <v>1.1</v>
@@ -34601,7 +34601,7 @@
         <v>1.9</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU168" t="n">
         <v>1.33</v>
@@ -37901,6 +37901,412 @@
       </c>
       <c r="BK184" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2710846</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>44955.41666666666</v>
+      </c>
+      <c r="F185" t="n">
+        <v>19</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>4</v>
+      </c>
+      <c r="R185" t="n">
+        <v>7</v>
+      </c>
+      <c r="S185" t="n">
+        <v>11</v>
+      </c>
+      <c r="T185" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V185" t="n">
+        <v>3</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X185" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2710842</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>44955.51041666666</v>
+      </c>
+      <c r="F186" t="n">
+        <v>19</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>5</v>
+      </c>
+      <c r="R186" t="n">
+        <v>4</v>
+      </c>
+      <c r="S186" t="n">
+        <v>9</v>
+      </c>
+      <c r="T186" t="n">
+        <v>4</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2</v>
+      </c>
+      <c r="V186" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X186" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK186"/>
+  <dimension ref="A1:BK188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT3" t="n">
         <v>1.1</v>
@@ -1715,7 +1715,7 @@
         <v>1.1</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT16" t="n">
         <v>2.4</v>
@@ -5369,7 +5369,7 @@
         <v>0.33</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU24" t="n">
         <v>1.51</v>
@@ -6587,7 +6587,7 @@
         <v>1.1</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU30" t="n">
         <v>1.1</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT32" t="n">
         <v>0.89</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT34" t="n">
         <v>1.4</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT47" t="n">
         <v>1.1</v>
@@ -10241,7 +10241,7 @@
         <v>0.33</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -10444,7 +10444,7 @@
         <v>0.9</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU49" t="n">
         <v>1</v>
@@ -14298,7 +14298,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT68" t="n">
         <v>1.4</v>
@@ -14504,7 +14504,7 @@
         <v>1.5</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU69" t="n">
         <v>1.59</v>
@@ -14704,7 +14704,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT70" t="n">
         <v>1.11</v>
@@ -15722,7 +15722,7 @@
         <v>1.2</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU75" t="n">
         <v>1.91</v>
@@ -18155,10 +18155,10 @@
         <v>2.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU87" t="n">
         <v>1.38</v>
@@ -18358,7 +18358,7 @@
         <v>3</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT88" t="n">
         <v>2.67</v>
@@ -19376,7 +19376,7 @@
         <v>0.9</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU93" t="n">
         <v>1.14</v>
@@ -21406,7 +21406,7 @@
         <v>1.6</v>
       </c>
       <c r="AT103" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU103" t="n">
         <v>1.51</v>
@@ -21809,7 +21809,7 @@
         <v>1.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT105" t="n">
         <v>1</v>
@@ -22827,7 +22827,7 @@
         <v>2.56</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU110" t="n">
         <v>2.49</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT111" t="n">
         <v>0.89</v>
@@ -24448,7 +24448,7 @@
         <v>0.2</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT118" t="n">
         <v>0.67</v>
@@ -25263,7 +25263,7 @@
         <v>1.5</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU122" t="n">
         <v>1.78</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT125" t="n">
         <v>1.11</v>
@@ -27902,7 +27902,7 @@
         <v>1.2</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU135" t="n">
         <v>1.8</v>
@@ -29117,7 +29117,7 @@
         <v>0.83</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT141" t="n">
         <v>0.89</v>
@@ -29526,7 +29526,7 @@
         <v>2.13</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU143" t="n">
         <v>1.63</v>
@@ -30132,7 +30132,7 @@
         <v>1.14</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT146" t="n">
         <v>1</v>
@@ -32368,7 +32368,7 @@
         <v>1.9</v>
       </c>
       <c r="AT157" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU157" t="n">
         <v>1.4</v>
@@ -33380,7 +33380,7 @@
         <v>1.22</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT162" t="n">
         <v>1.2</v>
@@ -34195,7 +34195,7 @@
         <v>1.89</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU166" t="n">
         <v>1.65</v>
@@ -35210,7 +35210,7 @@
         <v>1.56</v>
       </c>
       <c r="AT171" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU171" t="n">
         <v>1.99</v>
@@ -38307,6 +38307,412 @@
       </c>
       <c r="BK186" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2710841</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>44955.60416666666</v>
+      </c>
+      <c r="F187" t="n">
+        <v>19</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>2</v>
+      </c>
+      <c r="R187" t="n">
+        <v>5</v>
+      </c>
+      <c r="S187" t="n">
+        <v>7</v>
+      </c>
+      <c r="T187" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U187" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V187" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X187" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2710839</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>44955.70833333334</v>
+      </c>
+      <c r="F188" t="n">
+        <v>19</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>10</v>
+      </c>
+      <c r="R188" t="n">
+        <v>3</v>
+      </c>
+      <c r="S188" t="n">
+        <v>13</v>
+      </c>
+      <c r="T188" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V188" t="n">
+        <v>5</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X188" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK188"/>
+  <dimension ref="A1:BK189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>2.56</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>1.8</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU37" t="n">
         <v>1.69</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT39" t="n">
         <v>0.3</v>
@@ -11865,7 +11865,7 @@
         <v>1.7</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU56" t="n">
         <v>2.1</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -15316,7 +15316,7 @@
         <v>1.9</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU73" t="n">
         <v>1.28</v>
@@ -18967,7 +18967,7 @@
         <v>1.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT91" t="n">
         <v>1.11</v>
@@ -19579,7 +19579,7 @@
         <v>1.56</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU94" t="n">
         <v>1.66</v>
@@ -22621,7 +22621,7 @@
         <v>0.2</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT109" t="n">
         <v>0.33</v>
@@ -23842,7 +23842,7 @@
         <v>1.2</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU115" t="n">
         <v>1.85</v>
@@ -26681,7 +26681,7 @@
         <v>1.33</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT129" t="n">
         <v>1.1</v>
@@ -29323,7 +29323,7 @@
         <v>1.5</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU142" t="n">
         <v>1.89</v>
@@ -31147,7 +31147,7 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT151" t="n">
         <v>0.75</v>
@@ -31756,7 +31756,7 @@
         <v>2.63</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT154" t="n">
         <v>2.4</v>
@@ -33586,7 +33586,7 @@
         <v>1.6</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU163" t="n">
         <v>1.56</v>
@@ -36019,7 +36019,7 @@
         <v>0.75</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT175" t="n">
         <v>0.67</v>
@@ -38713,6 +38713,209 @@
       </c>
       <c r="BK188" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2710847</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>44956.70833333334</v>
+      </c>
+      <c r="F189" t="n">
+        <v>19</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>5</v>
+      </c>
+      <c r="R189" t="n">
+        <v>4</v>
+      </c>
+      <c r="S189" t="n">
+        <v>9</v>
+      </c>
+      <c r="T189" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V189" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X189" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK189"/>
+  <dimension ref="A1:BK190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT11" t="n">
         <v>0.3</v>
@@ -4354,7 +4354,7 @@
         <v>1.89</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT23" t="n">
         <v>1.11</v>
@@ -7805,7 +7805,7 @@
         <v>1.2</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU36" t="n">
         <v>2.23</v>
@@ -9632,7 +9632,7 @@
         <v>1.1</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU45" t="n">
         <v>1.15</v>
@@ -10644,7 +10644,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT50" t="n">
         <v>1.2</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT59" t="n">
         <v>0.67</v>
@@ -13895,7 +13895,7 @@
         <v>1.56</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU66" t="n">
         <v>1.23</v>
@@ -18361,7 +18361,7 @@
         <v>2.25</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU88" t="n">
         <v>2.54</v>
@@ -18764,7 +18764,7 @@
         <v>0.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT90" t="n">
         <v>0.33</v>
@@ -22215,7 +22215,7 @@
         <v>2.6</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT107" t="n">
         <v>2</v>
@@ -24045,7 +24045,7 @@
         <v>1.4</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU116" t="n">
         <v>1.99</v>
@@ -26884,7 +26884,7 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT130" t="n">
         <v>1</v>
@@ -27699,7 +27699,7 @@
         <v>1.8</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU134" t="n">
         <v>1.86</v>
@@ -29523,7 +29523,7 @@
         <v>1.33</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT143" t="n">
         <v>1</v>
@@ -32977,7 +32977,7 @@
         <v>1.56</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU160" t="n">
         <v>1.75</v>
@@ -37443,7 +37443,7 @@
         <v>1.5</v>
       </c>
       <c r="AT182" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU182" t="n">
         <v>1.92</v>
@@ -38916,6 +38916,209 @@
       </c>
       <c r="BK189" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2710824</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>44958.70833333334</v>
+      </c>
+      <c r="F190" t="n">
+        <v>17</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="n">
+        <v>2</v>
+      </c>
+      <c r="N190" t="n">
+        <v>3</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['65', '80']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>1</v>
+      </c>
+      <c r="R190" t="n">
+        <v>6</v>
+      </c>
+      <c r="S190" t="n">
+        <v>7</v>
+      </c>
+      <c r="T190" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V190" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X190" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK190"/>
+  <dimension ref="A1:BK195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.6</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT9" t="n">
         <v>1.1</v>
@@ -3339,7 +3339,7 @@
         <v>1.8</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU14" t="n">
         <v>1.45</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU17" t="n">
         <v>2.62</v>
@@ -4148,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AT20" t="n">
         <v>0.33</v>
@@ -4760,7 +4760,7 @@
         <v>1.5</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>1.89</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU23" t="n">
         <v>2.21</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AT24" t="n">
         <v>2.2</v>
@@ -5978,7 +5978,7 @@
         <v>0.9</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU27" t="n">
         <v>1.13</v>
@@ -6993,7 +6993,7 @@
         <v>1.3</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU32" t="n">
         <v>1.37</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT34" t="n">
         <v>1.4</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT38" t="n">
         <v>1.1</v>
@@ -8617,7 +8617,7 @@
         <v>1.4</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU40" t="n">
         <v>1.71</v>
@@ -9226,7 +9226,7 @@
         <v>1.56</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU43" t="n">
         <v>1.56</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT46" t="n">
         <v>0.78</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT47" t="n">
         <v>1.1</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AT48" t="n">
         <v>1</v>
@@ -10647,7 +10647,7 @@
         <v>1.89</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU50" t="n">
         <v>1.69</v>
@@ -10850,7 +10850,7 @@
         <v>1.9</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU51" t="n">
         <v>1.4</v>
@@ -11053,7 +11053,7 @@
         <v>1.6</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU52" t="n">
         <v>1.27</v>
@@ -11862,7 +11862,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT56" t="n">
         <v>1.5</v>
@@ -12068,7 +12068,7 @@
         <v>1.8</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU57" t="n">
         <v>1.76</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT61" t="n">
         <v>2.4</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT62" t="n">
         <v>0.33</v>
@@ -13286,7 +13286,7 @@
         <v>1.1</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU63" t="n">
         <v>1.06</v>
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU67" t="n">
         <v>1.75</v>
@@ -14704,10 +14704,10 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU70" t="n">
         <v>2.46</v>
@@ -15113,7 +15113,7 @@
         <v>1.8</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU72" t="n">
         <v>1.72</v>
@@ -15516,7 +15516,7 @@
         <v>0.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT74" t="n">
         <v>0.67</v>
@@ -16534,7 +16534,7 @@
         <v>1.89</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU79" t="n">
         <v>1.66</v>
@@ -16937,7 +16937,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AT81" t="n">
         <v>1.1</v>
@@ -17143,7 +17143,7 @@
         <v>1.56</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU82" t="n">
         <v>1.93</v>
@@ -17346,7 +17346,7 @@
         <v>1.5</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU83" t="n">
         <v>1.65</v>
@@ -17952,7 +17952,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT86" t="n">
         <v>2</v>
@@ -18358,7 +18358,7 @@
         <v>3</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT88" t="n">
         <v>2.7</v>
@@ -18970,7 +18970,7 @@
         <v>2.11</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU91" t="n">
         <v>2.05</v>
@@ -19173,7 +19173,7 @@
         <v>1.2</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU92" t="n">
         <v>1.74</v>
@@ -19576,7 +19576,7 @@
         <v>0.8</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT94" t="n">
         <v>1.5</v>
@@ -20388,7 +20388,7 @@
         <v>3</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AT98" t="n">
         <v>2.4</v>
@@ -21000,7 +21000,7 @@
         <v>2.56</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU101" t="n">
         <v>2.6</v>
@@ -21203,7 +21203,7 @@
         <v>1.56</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU102" t="n">
         <v>1.89</v>
@@ -21809,7 +21809,7 @@
         <v>1.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT105" t="n">
         <v>1</v>
@@ -22421,7 +22421,7 @@
         <v>1.5</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -23030,7 +23030,7 @@
         <v>1.3</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU111" t="n">
         <v>1.39</v>
@@ -24448,7 +24448,7 @@
         <v>0.2</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT118" t="n">
         <v>0.67</v>
@@ -24651,10 +24651,10 @@
         <v>1.14</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU119" t="n">
         <v>2.09</v>
@@ -25057,10 +25057,10 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU121" t="n">
         <v>1.26</v>
@@ -25466,7 +25466,7 @@
         <v>0.9</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU123" t="n">
         <v>1.16</v>
@@ -25872,7 +25872,7 @@
         <v>1.3</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU125" t="n">
         <v>1.57</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT127" t="n">
         <v>1.1</v>
@@ -26481,7 +26481,7 @@
         <v>1.89</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU128" t="n">
         <v>1.78</v>
@@ -27290,7 +27290,7 @@
         <v>0.33</v>
       </c>
       <c r="AS132" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AT132" t="n">
         <v>0.67</v>
@@ -27493,7 +27493,7 @@
         <v>0.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT133" t="n">
         <v>0.44</v>
@@ -28105,7 +28105,7 @@
         <v>1.9</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU136" t="n">
         <v>1.45</v>
@@ -28308,7 +28308,7 @@
         <v>1</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU137" t="n">
         <v>1.64</v>
@@ -29117,10 +29117,10 @@
         <v>0.83</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU141" t="n">
         <v>2.2</v>
@@ -29726,7 +29726,7 @@
         <v>0.29</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT144" t="n">
         <v>0.3</v>
@@ -30947,7 +30947,7 @@
         <v>1.89</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU150" t="n">
         <v>1.71</v>
@@ -31150,7 +31150,7 @@
         <v>2.11</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU151" t="n">
         <v>1.82</v>
@@ -31350,7 +31350,7 @@
         <v>0.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AT152" t="n">
         <v>0.78</v>
@@ -31556,7 +31556,7 @@
         <v>1.4</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU153" t="n">
         <v>1.84</v>
@@ -32774,7 +32774,7 @@
         <v>1.2</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU159" t="n">
         <v>1.69</v>
@@ -32974,7 +32974,7 @@
         <v>2.57</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT160" t="n">
         <v>2.7</v>
@@ -33177,10 +33177,10 @@
         <v>1.14</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU161" t="n">
         <v>2.13</v>
@@ -33383,7 +33383,7 @@
         <v>1.3</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU162" t="n">
         <v>1.6</v>
@@ -35613,7 +35613,7 @@
         <v>0.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT173" t="n">
         <v>0.44</v>
@@ -35819,7 +35819,7 @@
         <v>1.2</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU174" t="n">
         <v>1.68</v>
@@ -36222,10 +36222,10 @@
         <v>1.13</v>
       </c>
       <c r="AS176" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU176" t="n">
         <v>1.38</v>
@@ -36428,7 +36428,7 @@
         <v>2.56</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU177" t="n">
         <v>2.43</v>
@@ -36628,7 +36628,7 @@
         <v>2.33</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT178" t="n">
         <v>2.4</v>
@@ -38052,7 +38052,7 @@
         <v>1.6</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU185" t="n">
         <v>1.51</v>
@@ -38658,7 +38658,7 @@
         <v>2.33</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT188" t="n">
         <v>2.2</v>
@@ -39119,6 +39119,1021 @@
       </c>
       <c r="BK190" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2710820</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>44959.70833333334</v>
+      </c>
+      <c r="F191" t="n">
+        <v>17</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>2</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>2</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['52', '54']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>6</v>
+      </c>
+      <c r="R191" t="n">
+        <v>6</v>
+      </c>
+      <c r="S191" t="n">
+        <v>12</v>
+      </c>
+      <c r="T191" t="n">
+        <v>2</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V191" t="n">
+        <v>6</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X191" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2710848</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>44960.70833333334</v>
+      </c>
+      <c r="F192" t="n">
+        <v>20</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>3</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" t="n">
+        <v>4</v>
+      </c>
+      <c r="L192" t="n">
+        <v>4</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="n">
+        <v>5</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['10', '35', '44', '75']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>0</v>
+      </c>
+      <c r="R192" t="n">
+        <v>3</v>
+      </c>
+      <c r="S192" t="n">
+        <v>3</v>
+      </c>
+      <c r="T192" t="n">
+        <v>2</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V192" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X192" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2710854</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>44961.41666666666</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="n">
+        <v>2</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>4</v>
+      </c>
+      <c r="R193" t="n">
+        <v>3</v>
+      </c>
+      <c r="S193" t="n">
+        <v>7</v>
+      </c>
+      <c r="T193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V193" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X193" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2710852</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>44961.51041666666</v>
+      </c>
+      <c r="F194" t="n">
+        <v>20</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>2</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
+      <c r="K194" t="n">
+        <v>3</v>
+      </c>
+      <c r="L194" t="n">
+        <v>3</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="n">
+        <v>4</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['3', '45+3', '52']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>6</v>
+      </c>
+      <c r="R194" t="n">
+        <v>10</v>
+      </c>
+      <c r="S194" t="n">
+        <v>16</v>
+      </c>
+      <c r="T194" t="n">
+        <v>5</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V194" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X194" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2710849</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>44961.60416666666</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="n">
+        <v>2</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>2</v>
+      </c>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
+      <c r="S195" t="n">
+        <v>2</v>
+      </c>
+      <c r="T195" t="n">
+        <v>2</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V195" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK195"/>
+  <dimension ref="A1:BK200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.8</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT5" t="n">
         <v>1.5</v>
@@ -2121,7 +2121,7 @@
         <v>1.9</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT11" t="n">
         <v>0.3</v>
@@ -3136,7 +3136,7 @@
         <v>1.2</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT15" t="n">
         <v>1.4</v>
@@ -3745,7 +3745,7 @@
         <v>1.3</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU16" t="n">
         <v>1.09</v>
@@ -3948,7 +3948,7 @@
         <v>1.82</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU17" t="n">
         <v>2.62</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT19" t="n">
         <v>2.7</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT21" t="n">
         <v>0.9</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>1.7</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT23" t="n">
         <v>1.1</v>
@@ -5775,7 +5775,7 @@
         <v>1.9</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU26" t="n">
         <v>1.31</v>
@@ -6178,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU28" t="n">
         <v>2.46</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU29" t="n">
         <v>1.51</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT33" t="n">
         <v>0.67</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT35" t="n">
         <v>2</v>
@@ -9020,10 +9020,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU42" t="n">
         <v>1.59</v>
@@ -9226,7 +9226,7 @@
         <v>1.56</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU43" t="n">
         <v>1.56</v>
@@ -9429,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="AT44" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU44" t="n">
         <v>1.52</v>
@@ -9835,7 +9835,7 @@
         <v>1.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU46" t="n">
         <v>1.96</v>
@@ -10644,7 +10644,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT50" t="n">
         <v>1.09</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT53" t="n">
         <v>0.33</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT54" t="n">
         <v>0.3</v>
@@ -11662,7 +11662,7 @@
         <v>1.4</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>2.05</v>
@@ -12271,7 +12271,7 @@
         <v>2.11</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU58" t="n">
         <v>2.19</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT59" t="n">
         <v>0.67</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT60" t="n">
         <v>1.1</v>
@@ -12880,7 +12880,7 @@
         <v>1.5</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU61" t="n">
         <v>1.78</v>
@@ -13489,7 +13489,7 @@
         <v>0.9</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU64" t="n">
         <v>1.02</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT66" t="n">
         <v>2.7</v>
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU67" t="n">
         <v>1.75</v>
@@ -14501,7 +14501,7 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT69" t="n">
         <v>2.2</v>
@@ -15113,7 +15113,7 @@
         <v>1.8</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU72" t="n">
         <v>1.72</v>
@@ -15925,7 +15925,7 @@
         <v>0.9</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU76" t="n">
         <v>1.18</v>
@@ -16531,7 +16531,7 @@
         <v>1.6</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT79" t="n">
         <v>1.09</v>
@@ -16734,10 +16734,10 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU80" t="n">
         <v>2.92</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT83" t="n">
         <v>0.8</v>
@@ -17749,10 +17749,10 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT85" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU85" t="n">
         <v>1.27</v>
@@ -18564,7 +18564,7 @@
         <v>1</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU89" t="n">
         <v>1.66</v>
@@ -18764,7 +18764,7 @@
         <v>0.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT90" t="n">
         <v>0.33</v>
@@ -19173,7 +19173,7 @@
         <v>1.2</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU92" t="n">
         <v>1.74</v>
@@ -19985,7 +19985,7 @@
         <v>1.6</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU96" t="n">
         <v>1.57</v>
@@ -20185,7 +20185,7 @@
         <v>1.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT97" t="n">
         <v>1.1</v>
@@ -20391,7 +20391,7 @@
         <v>0.6</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU98" t="n">
         <v>1.29</v>
@@ -20997,7 +20997,7 @@
         <v>1.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT101" t="n">
         <v>1.09</v>
@@ -21812,7 +21812,7 @@
         <v>2.33</v>
       </c>
       <c r="AT105" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU105" t="n">
         <v>2.23</v>
@@ -22215,7 +22215,7 @@
         <v>2.6</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT107" t="n">
         <v>2</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT108" t="n">
         <v>1.1</v>
@@ -22824,7 +22824,7 @@
         <v>2</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT110" t="n">
         <v>1</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT112" t="n">
         <v>1.1</v>
@@ -23436,7 +23436,7 @@
         <v>1.9</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU113" t="n">
         <v>1.32</v>
@@ -24248,7 +24248,7 @@
         <v>1.8</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU117" t="n">
         <v>1.71</v>
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT120" t="n">
         <v>1.4</v>
@@ -25260,7 +25260,7 @@
         <v>1.6</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT122" t="n">
         <v>1</v>
@@ -26072,7 +26072,7 @@
         <v>0.17</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT126" t="n">
         <v>0.33</v>
@@ -26478,10 +26478,10 @@
         <v>1</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU128" t="n">
         <v>1.78</v>
@@ -26884,10 +26884,10 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT130" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU130" t="n">
         <v>1.71</v>
@@ -27090,7 +27090,7 @@
         <v>1.56</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU131" t="n">
         <v>2.15</v>
@@ -27496,7 +27496,7 @@
         <v>1.82</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU133" t="n">
         <v>2.13</v>
@@ -28508,7 +28508,7 @@
         <v>2.29</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT138" t="n">
         <v>2</v>
@@ -28714,7 +28714,7 @@
         <v>1.56</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU139" t="n">
         <v>2.14</v>
@@ -29320,7 +29320,7 @@
         <v>1.14</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT142" t="n">
         <v>1.5</v>
@@ -29523,7 +29523,7 @@
         <v>1.33</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT143" t="n">
         <v>1</v>
@@ -30135,7 +30135,7 @@
         <v>1.3</v>
       </c>
       <c r="AT146" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU146" t="n">
         <v>1.58</v>
@@ -30541,7 +30541,7 @@
         <v>1.6</v>
       </c>
       <c r="AT148" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU148" t="n">
         <v>1.58</v>
@@ -30741,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT149" t="n">
         <v>1.1</v>
@@ -30944,7 +30944,7 @@
         <v>1.33</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT150" t="n">
         <v>1.1</v>
@@ -31150,7 +31150,7 @@
         <v>2.11</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU151" t="n">
         <v>1.82</v>
@@ -31353,7 +31353,7 @@
         <v>0.6</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU152" t="n">
         <v>1.34</v>
@@ -31759,7 +31759,7 @@
         <v>2.11</v>
       </c>
       <c r="AT154" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU154" t="n">
         <v>1.84</v>
@@ -31959,10 +31959,10 @@
         <v>0.57</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU155" t="n">
         <v>1.31</v>
@@ -33786,10 +33786,10 @@
         <v>1.13</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT164" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU164" t="n">
         <v>1.95</v>
@@ -34192,7 +34192,7 @@
         <v>1.29</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT166" t="n">
         <v>1</v>
@@ -35004,10 +35004,10 @@
         <v>0.88</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU170" t="n">
         <v>1.34</v>
@@ -35616,7 +35616,7 @@
         <v>1.5</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU173" t="n">
         <v>1.79</v>
@@ -36425,7 +36425,7 @@
         <v>1</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT177" t="n">
         <v>0.9</v>
@@ -36631,7 +36631,7 @@
         <v>1.82</v>
       </c>
       <c r="AT178" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU178" t="n">
         <v>2.08</v>
@@ -37440,7 +37440,7 @@
         <v>2.63</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT182" t="n">
         <v>2.7</v>
@@ -38052,7 +38052,7 @@
         <v>1.6</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU185" t="n">
         <v>1.51</v>
@@ -39064,7 +39064,7 @@
         <v>2.67</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT190" t="n">
         <v>2.7</v>
@@ -39270,7 +39270,7 @@
         <v>2.33</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU191" t="n">
         <v>2.24</v>
@@ -39995,13 +39995,13 @@
         </is>
       </c>
       <c r="Q195" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R195" t="n">
         <v>0</v>
       </c>
       <c r="S195" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T195" t="n">
         <v>2</v>
@@ -40118,22 +40118,1037 @@
         <v>3.95</v>
       </c>
       <c r="BF195" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2710851</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>44961.70833333334</v>
+      </c>
+      <c r="F196" t="n">
+        <v>20</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>2</v>
+      </c>
+      <c r="J196" t="n">
+        <v>2</v>
+      </c>
+      <c r="K196" t="n">
         <v>4</v>
       </c>
-      <c r="BG195" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH195" t="n">
+      <c r="L196" t="n">
         <v>3</v>
       </c>
-      <c r="BI195" t="n">
+      <c r="M196" t="n">
+        <v>4</v>
+      </c>
+      <c r="N196" t="n">
+        <v>7</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['9', '23', '84']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['6', '42', '56', '69']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
         <v>5</v>
       </c>
-      <c r="BJ195" t="n">
+      <c r="R196" t="n">
+        <v>5</v>
+      </c>
+      <c r="S196" t="n">
+        <v>10</v>
+      </c>
+      <c r="T196" t="n">
+        <v>3</v>
+      </c>
+      <c r="U196" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V196" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X196" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF196" t="n">
         <v>7</v>
       </c>
-      <c r="BK195" t="n">
+      <c r="BG196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2710853</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>44962.41666666666</v>
+      </c>
+      <c r="F197" t="n">
+        <v>20</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>1</v>
+      </c>
+      <c r="R197" t="n">
+        <v>12</v>
+      </c>
+      <c r="S197" t="n">
+        <v>13</v>
+      </c>
+      <c r="T197" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V197" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X197" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>18</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2710856</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>44962.51041666666</v>
+      </c>
+      <c r="F198" t="n">
+        <v>20</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>8</v>
+      </c>
+      <c r="R198" t="n">
+        <v>4</v>
+      </c>
+      <c r="S198" t="n">
+        <v>12</v>
+      </c>
+      <c r="T198" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V198" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X198" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG198" t="n">
         <v>5</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2710855</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>44962.60416666666</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R199" t="n">
+        <v>4</v>
+      </c>
+      <c r="S199" t="n">
+        <v>4</v>
+      </c>
+      <c r="T199" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V199" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X199" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2710850</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>44962.70833333334</v>
+      </c>
+      <c r="F200" t="n">
+        <v>20</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>3</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>3</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['58', '70', '79']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>8</v>
+      </c>
+      <c r="R200" t="n">
+        <v>3</v>
+      </c>
+      <c r="S200" t="n">
+        <v>11</v>
+      </c>
+      <c r="T200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V200" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK200"/>
+  <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4557,7 +4557,7 @@
         <v>0.6</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT25" t="n">
         <v>1.1</v>
@@ -8820,7 +8820,7 @@
         <v>1.6</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU41" t="n">
         <v>1.67</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT43" t="n">
         <v>0.6</v>
@@ -11256,7 +11256,7 @@
         <v>1.7</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU53" t="n">
         <v>1.46</v>
@@ -13083,7 +13083,7 @@
         <v>1.82</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU62" t="n">
         <v>2.11</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT71" t="n">
         <v>0.3</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT82" t="n">
         <v>0.9</v>
@@ -18767,7 +18767,7 @@
         <v>1.7</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU90" t="n">
         <v>1.57</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT102" t="n">
         <v>0.8</v>
@@ -22624,7 +22624,7 @@
         <v>2.11</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU109" t="n">
         <v>1.96</v>
@@ -26075,7 +26075,7 @@
         <v>2.6</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU126" t="n">
         <v>2.29</v>
@@ -27087,7 +27087,7 @@
         <v>3</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT131" t="n">
         <v>2.18</v>
@@ -28711,7 +28711,7 @@
         <v>0.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT139" t="n">
         <v>1</v>
@@ -30338,7 +30338,7 @@
         <v>1.1</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU147" t="n">
         <v>1.26</v>
@@ -32568,7 +32568,7 @@
         <v>1.14</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT158" t="n">
         <v>1.4</v>
@@ -35207,7 +35207,7 @@
         <v>2.25</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT171" t="n">
         <v>2.2</v>
@@ -36834,7 +36834,7 @@
         <v>1.4</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU179" t="n">
         <v>1.82</v>
@@ -41149,6 +41149,209 @@
       </c>
       <c r="BK200" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2710857</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>44963.70833333334</v>
+      </c>
+      <c r="F201" t="n">
+        <v>20</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>2</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>2</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['54', '63']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>3</v>
+      </c>
+      <c r="R201" t="n">
+        <v>7</v>
+      </c>
+      <c r="S201" t="n">
+        <v>10</v>
+      </c>
+      <c r="T201" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V201" t="n">
+        <v>5</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="298">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -649,6 +649,18 @@
     <t>['54', '63']</t>
   </si>
   <si>
+    <t>['6', '34']</t>
+  </si>
+  <si>
+    <t>['27', '62']</t>
+  </si>
+  <si>
+    <t>['28', '40']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -890,6 +902,12 @@
   </si>
   <si>
     <t>['6', '42', '56', '69']</t>
+  </si>
+  <si>
+    <t>['6', '42', '70']</t>
+  </si>
+  <si>
+    <t>['30', '72']</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK201"/>
+  <dimension ref="A1:BK207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1495,7 +1513,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1686,7 +1704,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1773,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT3">
         <v>1.1</v>
@@ -1877,7 +1895,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2158,7 +2176,7 @@
         <v>2.6</v>
       </c>
       <c r="AT5">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2259,7 +2277,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2346,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT6">
         <v>2.2</v>
@@ -2537,10 +2555,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT7">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2641,7 +2659,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2728,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT8">
         <v>2.18</v>
@@ -2922,7 +2940,7 @@
         <v>1.82</v>
       </c>
       <c r="AT9">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3023,7 +3041,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3110,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT10">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3405,7 +3423,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3495,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="AT12">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3596,7 +3614,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q13">
         <v>12</v>
@@ -3683,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT13">
         <v>0.7</v>
@@ -3978,7 +3996,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4068,7 +4086,7 @@
         <v>1.7</v>
       </c>
       <c r="AT15">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4169,7 +4187,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4256,7 +4274,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT16">
         <v>2.18</v>
@@ -4551,7 +4569,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4742,7 +4760,7 @@
         <v>89</v>
       </c>
       <c r="P19" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5124,7 +5142,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5315,7 +5333,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5888,7 +5906,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -5978,7 +5996,7 @@
         <v>1.7</v>
       </c>
       <c r="AT25">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6166,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT26">
         <v>0.9</v>
@@ -6357,7 +6375,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT27">
         <v>1.09</v>
@@ -6652,7 +6670,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6843,7 +6861,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -6930,10 +6948,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU30">
         <v>1.1</v>
@@ -7034,7 +7052,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7121,10 +7139,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT31">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU31">
         <v>1.68</v>
@@ -7312,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT32">
         <v>0.8</v>
@@ -7416,7 +7434,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7506,7 +7524,7 @@
         <v>1.7</v>
       </c>
       <c r="AT33">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU33">
         <v>1.45</v>
@@ -7697,7 +7715,7 @@
         <v>2.33</v>
       </c>
       <c r="AT34">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7798,7 +7816,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7888,7 +7906,7 @@
         <v>1.7</v>
       </c>
       <c r="AT35">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU35">
         <v>1.54</v>
@@ -7989,7 +8007,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8076,7 +8094,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT36">
         <v>2.7</v>
@@ -8180,7 +8198,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8270,7 +8288,7 @@
         <v>1.8</v>
       </c>
       <c r="AT37">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU37">
         <v>1.69</v>
@@ -8840,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT40">
         <v>0.9</v>
@@ -9135,7 +9153,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9517,7 +9535,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9708,7 +9726,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9795,7 +9813,7 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT45">
         <v>2.7</v>
@@ -10180,7 +10198,7 @@
         <v>2.33</v>
       </c>
       <c r="AT47">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU47">
         <v>2.24</v>
@@ -10281,7 +10299,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10371,7 +10389,7 @@
         <v>0.6</v>
       </c>
       <c r="AT48">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU48">
         <v>1.59</v>
@@ -10472,7 +10490,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10559,7 +10577,7 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT49">
         <v>2.2</v>
@@ -10854,7 +10872,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10941,7 +10959,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT51">
         <v>1.1</v>
@@ -11045,7 +11063,7 @@
         <v>87</v>
       </c>
       <c r="P52" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -11705,7 +11723,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -11809,7 +11827,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -11899,7 +11917,7 @@
         <v>1.82</v>
       </c>
       <c r="AT56">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU56">
         <v>2.1</v>
@@ -12000,7 +12018,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12191,7 +12209,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12472,7 +12490,7 @@
         <v>1.7</v>
       </c>
       <c r="AT59">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU59">
         <v>1.68</v>
@@ -12764,7 +12782,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -13233,7 +13251,7 @@
         <v>1.75</v>
       </c>
       <c r="AS63">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT63">
         <v>1.09</v>
@@ -13337,7 +13355,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13424,7 +13442,7 @@
         <v>0.33</v>
       </c>
       <c r="AS64">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT64">
         <v>0.7</v>
@@ -13528,7 +13546,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13615,10 +13633,10 @@
         <v>2.33</v>
       </c>
       <c r="AS65">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT65">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU65">
         <v>2.05</v>
@@ -13910,7 +13928,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14188,10 +14206,10 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT68">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU68">
         <v>1.34</v>
@@ -14292,7 +14310,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14483,7 +14501,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14674,7 +14692,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q71">
         <v>13</v>
@@ -14865,7 +14883,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15056,7 +15074,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15143,10 +15161,10 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT73">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU73">
         <v>1.28</v>
@@ -15247,7 +15265,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15337,7 +15355,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU74">
         <v>1.71</v>
@@ -15438,7 +15456,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15525,10 +15543,10 @@
         <v>3</v>
       </c>
       <c r="AS75">
+        <v>1.36</v>
+      </c>
+      <c r="AT75">
         <v>1.2</v>
-      </c>
-      <c r="AT75">
-        <v>1</v>
       </c>
       <c r="AU75">
         <v>1.91</v>
@@ -15629,7 +15647,7 @@
         <v>87</v>
       </c>
       <c r="P76" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15716,7 +15734,7 @@
         <v>3</v>
       </c>
       <c r="AS76">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT76">
         <v>2.18</v>
@@ -15910,7 +15928,7 @@
         <v>1.6</v>
       </c>
       <c r="AT77">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU77">
         <v>1.57</v>
@@ -16011,7 +16029,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16098,7 +16116,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT78">
         <v>1.1</v>
@@ -16674,7 +16692,7 @@
         <v>0.6</v>
       </c>
       <c r="AT81">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU81">
         <v>1.41</v>
@@ -16966,7 +16984,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17157,7 +17175,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17244,7 +17262,7 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT84">
         <v>0.3</v>
@@ -17348,7 +17366,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17629,7 +17647,7 @@
         <v>1.82</v>
       </c>
       <c r="AT86">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU86">
         <v>2.15</v>
@@ -17730,7 +17748,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17817,7 +17835,7 @@
         <v>2.25</v>
       </c>
       <c r="AS87">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT87">
         <v>2.2</v>
@@ -18772,7 +18790,7 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT92">
         <v>0.6</v>
@@ -18876,7 +18894,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18963,10 +18981,10 @@
         <v>2.33</v>
       </c>
       <c r="AS93">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU93">
         <v>1.14</v>
@@ -19067,7 +19085,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19157,7 +19175,7 @@
         <v>1.5</v>
       </c>
       <c r="AT94">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU94">
         <v>1.66</v>
@@ -19345,10 +19363,10 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT95">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU95">
         <v>1.14</v>
@@ -19730,7 +19748,7 @@
         <v>1.7</v>
       </c>
       <c r="AT97">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU97">
         <v>1.7</v>
@@ -19831,7 +19849,7 @@
         <v>87</v>
       </c>
       <c r="P98" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -20022,7 +20040,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20109,10 +20127,10 @@
         <v>0.25</v>
       </c>
       <c r="AS99">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT99">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU99">
         <v>1.25</v>
@@ -20595,7 +20613,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q102">
         <v>10</v>
@@ -20977,7 +20995,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21064,10 +21082,10 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT104">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU104">
         <v>2.02</v>
@@ -21168,7 +21186,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21359,7 +21377,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21550,7 +21568,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21640,7 +21658,7 @@
         <v>1.7</v>
       </c>
       <c r="AT107">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU107">
         <v>1.66</v>
@@ -21932,7 +21950,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22213,7 +22231,7 @@
         <v>2.6</v>
       </c>
       <c r="AT110">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU110">
         <v>2.49</v>
@@ -22401,7 +22419,7 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT111">
         <v>0.9</v>
@@ -22783,7 +22801,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT113">
         <v>1</v>
@@ -22887,7 +22905,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -22974,10 +22992,10 @@
         <v>2.67</v>
       </c>
       <c r="AS114">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT114">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU114">
         <v>1.22</v>
@@ -23165,10 +23183,10 @@
         <v>0.83</v>
       </c>
       <c r="AS115">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT115">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU115">
         <v>1.85</v>
@@ -23356,7 +23374,7 @@
         <v>2.4</v>
       </c>
       <c r="AS116">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT116">
         <v>2.7</v>
@@ -23651,7 +23669,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23741,7 +23759,7 @@
         <v>2.33</v>
       </c>
       <c r="AT118">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU118">
         <v>2.16</v>
@@ -24033,7 +24051,7 @@
         <v>87</v>
       </c>
       <c r="P120" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24123,7 +24141,7 @@
         <v>1.7</v>
       </c>
       <c r="AT120">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU120">
         <v>1.75</v>
@@ -24224,7 +24242,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24505,7 +24523,7 @@
         <v>1.64</v>
       </c>
       <c r="AT122">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU122">
         <v>1.78</v>
@@ -24693,7 +24711,7 @@
         <v>0.8</v>
       </c>
       <c r="AS123">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT123">
         <v>0.8</v>
@@ -24988,7 +25006,7 @@
         <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25075,7 +25093,7 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT125">
         <v>1.1</v>
@@ -25370,7 +25388,7 @@
         <v>143</v>
       </c>
       <c r="P127" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q127">
         <v>12</v>
@@ -25752,7 +25770,7 @@
         <v>87</v>
       </c>
       <c r="P129" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25842,7 +25860,7 @@
         <v>2.11</v>
       </c>
       <c r="AT129">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU129">
         <v>1.91</v>
@@ -25943,7 +25961,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26134,7 +26152,7 @@
         <v>170</v>
       </c>
       <c r="P131" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26325,7 +26343,7 @@
         <v>152</v>
       </c>
       <c r="P132" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q132">
         <v>2</v>
@@ -26415,7 +26433,7 @@
         <v>0.6</v>
       </c>
       <c r="AT132">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU132">
         <v>1.33</v>
@@ -26707,7 +26725,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26898,7 +26916,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q135">
         <v>2</v>
@@ -26985,7 +27003,7 @@
         <v>2</v>
       </c>
       <c r="AS135">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT135">
         <v>2.2</v>
@@ -27176,7 +27194,7 @@
         <v>1.33</v>
       </c>
       <c r="AS136">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT136">
         <v>0.9</v>
@@ -27280,7 +27298,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27561,7 +27579,7 @@
         <v>1.7</v>
       </c>
       <c r="AT138">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU138">
         <v>1.36</v>
@@ -27940,10 +27958,10 @@
         <v>1.33</v>
       </c>
       <c r="AS140">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT140">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU140">
         <v>1.82</v>
@@ -28044,7 +28062,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28235,7 +28253,7 @@
         <v>176</v>
       </c>
       <c r="P142" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28325,7 +28343,7 @@
         <v>1.64</v>
       </c>
       <c r="AT142">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU142">
         <v>1.89</v>
@@ -28516,7 +28534,7 @@
         <v>1.7</v>
       </c>
       <c r="AT143">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU143">
         <v>1.63</v>
@@ -28895,10 +28913,10 @@
         <v>1.57</v>
       </c>
       <c r="AS145">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT145">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU145">
         <v>1.21</v>
@@ -28999,7 +29017,7 @@
         <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29086,7 +29104,7 @@
         <v>1.14</v>
       </c>
       <c r="AS146">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT146">
         <v>0.9</v>
@@ -29190,7 +29208,7 @@
         <v>124</v>
       </c>
       <c r="P147" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29277,7 +29295,7 @@
         <v>0.14</v>
       </c>
       <c r="AS147">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT147">
         <v>0.3</v>
@@ -29381,7 +29399,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29572,7 +29590,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q149">
         <v>10</v>
@@ -29954,7 +29972,7 @@
         <v>181</v>
       </c>
       <c r="P151" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30145,7 +30163,7 @@
         <v>87</v>
       </c>
       <c r="P152" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q152">
         <v>8</v>
@@ -30423,7 +30441,7 @@
         <v>0.71</v>
       </c>
       <c r="AS153">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT153">
         <v>0.8</v>
@@ -30909,7 +30927,7 @@
         <v>184</v>
       </c>
       <c r="P156" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -30999,7 +31017,7 @@
         <v>1</v>
       </c>
       <c r="AT156">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU156">
         <v>1.67</v>
@@ -31100,7 +31118,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31187,7 +31205,7 @@
         <v>2.14</v>
       </c>
       <c r="AS157">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT157">
         <v>2.2</v>
@@ -31291,7 +31309,7 @@
         <v>147</v>
       </c>
       <c r="P158" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31381,7 +31399,7 @@
         <v>1.7</v>
       </c>
       <c r="AT158">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU158">
         <v>2.04</v>
@@ -31569,7 +31587,7 @@
         <v>1.14</v>
       </c>
       <c r="AS159">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT159">
         <v>0.9</v>
@@ -31673,7 +31691,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -32142,7 +32160,7 @@
         <v>1.22</v>
       </c>
       <c r="AS162">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT162">
         <v>1.09</v>
@@ -32246,7 +32264,7 @@
         <v>87</v>
       </c>
       <c r="P163" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32336,7 +32354,7 @@
         <v>1.6</v>
       </c>
       <c r="AT163">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU163">
         <v>1.56</v>
@@ -32718,7 +32736,7 @@
         <v>1.8</v>
       </c>
       <c r="AT165">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU165">
         <v>1.83</v>
@@ -32819,7 +32837,7 @@
         <v>189</v>
       </c>
       <c r="P166" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q166">
         <v>4</v>
@@ -32909,7 +32927,7 @@
         <v>1.7</v>
       </c>
       <c r="AT166">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU166">
         <v>1.65</v>
@@ -33010,7 +33028,7 @@
         <v>179</v>
       </c>
       <c r="P167" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33097,7 +33115,7 @@
         <v>1</v>
       </c>
       <c r="AS167">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT167">
         <v>1.1</v>
@@ -33201,7 +33219,7 @@
         <v>190</v>
       </c>
       <c r="P168" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33288,10 +33306,10 @@
         <v>2</v>
       </c>
       <c r="AS168">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT168">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU168">
         <v>1.33</v>
@@ -33392,7 +33410,7 @@
         <v>179</v>
       </c>
       <c r="P169" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33479,7 +33497,7 @@
         <v>0.25</v>
       </c>
       <c r="AS169">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT169">
         <v>0.3</v>
@@ -33774,7 +33792,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34055,7 +34073,7 @@
         <v>1</v>
       </c>
       <c r="AT172">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU172">
         <v>1.65</v>
@@ -34434,7 +34452,7 @@
         <v>1</v>
       </c>
       <c r="AS174">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT174">
         <v>0.8</v>
@@ -34628,7 +34646,7 @@
         <v>2.11</v>
       </c>
       <c r="AT175">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU175">
         <v>1.85</v>
@@ -35111,7 +35129,7 @@
         <v>87</v>
       </c>
       <c r="P178" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q178">
         <v>12</v>
@@ -35302,7 +35320,7 @@
         <v>195</v>
       </c>
       <c r="P179" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -35389,7 +35407,7 @@
         <v>0.25</v>
       </c>
       <c r="AS179">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT179">
         <v>0.3</v>
@@ -35580,7 +35598,7 @@
         <v>1.22</v>
       </c>
       <c r="AS180">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT180">
         <v>1.1</v>
@@ -35771,10 +35789,10 @@
         <v>1.22</v>
       </c>
       <c r="AS181">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT181">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU181">
         <v>1.35</v>
@@ -36153,7 +36171,7 @@
         <v>0.33</v>
       </c>
       <c r="AS183">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT183">
         <v>0.3</v>
@@ -36344,10 +36362,10 @@
         <v>1.22</v>
       </c>
       <c r="AS184">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT184">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU184">
         <v>1.22</v>
@@ -36639,7 +36657,7 @@
         <v>87</v>
       </c>
       <c r="P186" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -36729,7 +36747,7 @@
         <v>1.8</v>
       </c>
       <c r="AT186">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU186">
         <v>1.79</v>
@@ -36917,10 +36935,10 @@
         <v>1.13</v>
       </c>
       <c r="AS187">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT187">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU187">
         <v>1.69</v>
@@ -37302,7 +37320,7 @@
         <v>2.11</v>
       </c>
       <c r="AT189">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU189">
         <v>1.94</v>
@@ -37403,7 +37421,7 @@
         <v>201</v>
       </c>
       <c r="P190" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q190">
         <v>1</v>
@@ -37976,7 +37994,7 @@
         <v>114</v>
       </c>
       <c r="P193" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38167,7 +38185,7 @@
         <v>204</v>
       </c>
       <c r="P194" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38549,7 +38567,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39122,7 +39140,7 @@
         <v>87</v>
       </c>
       <c r="P199" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -39646,6 +39664,1152 @@
       </c>
       <c r="BK201">
         <v>17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:63">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>2710859</v>
+      </c>
+      <c r="C202" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" t="s">
+        <v>64</v>
+      </c>
+      <c r="E202" s="2">
+        <v>44967.70833333334</v>
+      </c>
+      <c r="F202">
+        <v>21</v>
+      </c>
+      <c r="G202" t="s">
+        <v>69</v>
+      </c>
+      <c r="H202" t="s">
+        <v>81</v>
+      </c>
+      <c r="I202">
+        <v>2</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>2</v>
+      </c>
+      <c r="L202">
+        <v>2</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202" t="s">
+        <v>211</v>
+      </c>
+      <c r="P202" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q202">
+        <v>5</v>
+      </c>
+      <c r="R202">
+        <v>6</v>
+      </c>
+      <c r="S202">
+        <v>11</v>
+      </c>
+      <c r="T202">
+        <v>3.5</v>
+      </c>
+      <c r="U202">
+        <v>2.05</v>
+      </c>
+      <c r="V202">
+        <v>3.25</v>
+      </c>
+      <c r="W202">
+        <v>1.44</v>
+      </c>
+      <c r="X202">
+        <v>2.63</v>
+      </c>
+      <c r="Y202">
+        <v>3.25</v>
+      </c>
+      <c r="Z202">
+        <v>1.33</v>
+      </c>
+      <c r="AA202">
+        <v>10</v>
+      </c>
+      <c r="AB202">
+        <v>1.06</v>
+      </c>
+      <c r="AC202">
+        <v>2.55</v>
+      </c>
+      <c r="AD202">
+        <v>2.95</v>
+      </c>
+      <c r="AE202">
+        <v>2.5</v>
+      </c>
+      <c r="AF202">
+        <v>1.07</v>
+      </c>
+      <c r="AG202">
+        <v>9</v>
+      </c>
+      <c r="AH202">
+        <v>1.4</v>
+      </c>
+      <c r="AI202">
+        <v>3</v>
+      </c>
+      <c r="AJ202">
+        <v>2.15</v>
+      </c>
+      <c r="AK202">
+        <v>1.61</v>
+      </c>
+      <c r="AL202">
+        <v>1.91</v>
+      </c>
+      <c r="AM202">
+        <v>1.91</v>
+      </c>
+      <c r="AN202">
+        <v>1.49</v>
+      </c>
+      <c r="AO202">
+        <v>1.32</v>
+      </c>
+      <c r="AP202">
+        <v>1.43</v>
+      </c>
+      <c r="AQ202">
+        <v>1.1</v>
+      </c>
+      <c r="AR202">
+        <v>0.67</v>
+      </c>
+      <c r="AS202">
+        <v>1.27</v>
+      </c>
+      <c r="AT202">
+        <v>0.6</v>
+      </c>
+      <c r="AU202">
+        <v>1.34</v>
+      </c>
+      <c r="AV202">
+        <v>1.43</v>
+      </c>
+      <c r="AW202">
+        <v>2.77</v>
+      </c>
+      <c r="AX202">
+        <v>2</v>
+      </c>
+      <c r="AY202">
+        <v>7.5</v>
+      </c>
+      <c r="AZ202">
+        <v>2.06</v>
+      </c>
+      <c r="BA202">
+        <v>1.46</v>
+      </c>
+      <c r="BB202">
+        <v>1.76</v>
+      </c>
+      <c r="BC202">
+        <v>2.2</v>
+      </c>
+      <c r="BD202">
+        <v>2.9</v>
+      </c>
+      <c r="BE202">
+        <v>4</v>
+      </c>
+      <c r="BF202">
+        <v>3</v>
+      </c>
+      <c r="BG202">
+        <v>2</v>
+      </c>
+      <c r="BH202">
+        <v>10</v>
+      </c>
+      <c r="BI202">
+        <v>7</v>
+      </c>
+      <c r="BJ202">
+        <v>13</v>
+      </c>
+      <c r="BK202">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:63">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>2710861</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="2">
+        <v>44968.51041666666</v>
+      </c>
+      <c r="F203">
+        <v>21</v>
+      </c>
+      <c r="G203" t="s">
+        <v>71</v>
+      </c>
+      <c r="H203" t="s">
+        <v>74</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>2</v>
+      </c>
+      <c r="K203">
+        <v>3</v>
+      </c>
+      <c r="L203">
+        <v>2</v>
+      </c>
+      <c r="M203">
+        <v>3</v>
+      </c>
+      <c r="N203">
+        <v>5</v>
+      </c>
+      <c r="O203" t="s">
+        <v>212</v>
+      </c>
+      <c r="P203" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q203">
+        <v>8</v>
+      </c>
+      <c r="R203">
+        <v>2</v>
+      </c>
+      <c r="S203">
+        <v>10</v>
+      </c>
+      <c r="T203">
+        <v>3.5</v>
+      </c>
+      <c r="U203">
+        <v>2.1</v>
+      </c>
+      <c r="V203">
+        <v>3.1</v>
+      </c>
+      <c r="W203">
+        <v>1.4</v>
+      </c>
+      <c r="X203">
+        <v>2.75</v>
+      </c>
+      <c r="Y203">
+        <v>3</v>
+      </c>
+      <c r="Z203">
+        <v>1.36</v>
+      </c>
+      <c r="AA203">
+        <v>8</v>
+      </c>
+      <c r="AB203">
+        <v>1.08</v>
+      </c>
+      <c r="AC203">
+        <v>2.67</v>
+      </c>
+      <c r="AD203">
+        <v>3.28</v>
+      </c>
+      <c r="AE203">
+        <v>2.33</v>
+      </c>
+      <c r="AF203">
+        <v>1.06</v>
+      </c>
+      <c r="AG203">
+        <v>10</v>
+      </c>
+      <c r="AH203">
+        <v>1.33</v>
+      </c>
+      <c r="AI203">
+        <v>3.3</v>
+      </c>
+      <c r="AJ203">
+        <v>2.02</v>
+      </c>
+      <c r="AK203">
+        <v>1.78</v>
+      </c>
+      <c r="AL203">
+        <v>1.8</v>
+      </c>
+      <c r="AM203">
+        <v>1.95</v>
+      </c>
+      <c r="AN203">
+        <v>1.53</v>
+      </c>
+      <c r="AO203">
+        <v>1.32</v>
+      </c>
+      <c r="AP203">
+        <v>1.4</v>
+      </c>
+      <c r="AQ203">
+        <v>1.9</v>
+      </c>
+      <c r="AR203">
+        <v>1.4</v>
+      </c>
+      <c r="AS203">
+        <v>1.73</v>
+      </c>
+      <c r="AT203">
+        <v>1.55</v>
+      </c>
+      <c r="AU203">
+        <v>1.42</v>
+      </c>
+      <c r="AV203">
+        <v>1.26</v>
+      </c>
+      <c r="AW203">
+        <v>2.68</v>
+      </c>
+      <c r="AX203">
+        <v>2.1</v>
+      </c>
+      <c r="AY203">
+        <v>7.5</v>
+      </c>
+      <c r="AZ203">
+        <v>1.96</v>
+      </c>
+      <c r="BA203">
+        <v>1.36</v>
+      </c>
+      <c r="BB203">
+        <v>1.6</v>
+      </c>
+      <c r="BC203">
+        <v>1.94</v>
+      </c>
+      <c r="BD203">
+        <v>2.48</v>
+      </c>
+      <c r="BE203">
+        <v>3.25</v>
+      </c>
+      <c r="BF203">
+        <v>12</v>
+      </c>
+      <c r="BG203">
+        <v>10</v>
+      </c>
+      <c r="BH203">
+        <v>7</v>
+      </c>
+      <c r="BI203">
+        <v>5</v>
+      </c>
+      <c r="BJ203">
+        <v>19</v>
+      </c>
+      <c r="BK203">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:63">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>2710866</v>
+      </c>
+      <c r="C204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="2">
+        <v>44968.60416666666</v>
+      </c>
+      <c r="F204">
+        <v>21</v>
+      </c>
+      <c r="G204" t="s">
+        <v>76</v>
+      </c>
+      <c r="H204" t="s">
+        <v>77</v>
+      </c>
+      <c r="I204">
+        <v>2</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>2</v>
+      </c>
+      <c r="L204">
+        <v>2</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>2</v>
+      </c>
+      <c r="O204" t="s">
+        <v>213</v>
+      </c>
+      <c r="P204" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q204">
+        <v>8</v>
+      </c>
+      <c r="R204">
+        <v>2</v>
+      </c>
+      <c r="S204">
+        <v>10</v>
+      </c>
+      <c r="T204">
+        <v>2.63</v>
+      </c>
+      <c r="U204">
+        <v>1.91</v>
+      </c>
+      <c r="V204">
+        <v>5.5</v>
+      </c>
+      <c r="W204">
+        <v>1.62</v>
+      </c>
+      <c r="X204">
+        <v>2.2</v>
+      </c>
+      <c r="Y204">
+        <v>4</v>
+      </c>
+      <c r="Z204">
+        <v>1.22</v>
+      </c>
+      <c r="AA204">
+        <v>13</v>
+      </c>
+      <c r="AB204">
+        <v>1.04</v>
+      </c>
+      <c r="AC204">
+        <v>1.95</v>
+      </c>
+      <c r="AD204">
+        <v>3.1</v>
+      </c>
+      <c r="AE204">
+        <v>4.7</v>
+      </c>
+      <c r="AF204">
+        <v>1.12</v>
+      </c>
+      <c r="AG204">
+        <v>6.5</v>
+      </c>
+      <c r="AH204">
+        <v>1.53</v>
+      </c>
+      <c r="AI204">
+        <v>2.5</v>
+      </c>
+      <c r="AJ204">
+        <v>2.63</v>
+      </c>
+      <c r="AK204">
+        <v>1.45</v>
+      </c>
+      <c r="AL204">
+        <v>2.38</v>
+      </c>
+      <c r="AM204">
+        <v>1.53</v>
+      </c>
+      <c r="AN204">
+        <v>1.17</v>
+      </c>
+      <c r="AO204">
+        <v>1.34</v>
+      </c>
+      <c r="AP204">
+        <v>1.9</v>
+      </c>
+      <c r="AQ204">
+        <v>1.2</v>
+      </c>
+      <c r="AR204">
+        <v>1.1</v>
+      </c>
+      <c r="AS204">
+        <v>1.36</v>
+      </c>
+      <c r="AT204">
+        <v>1</v>
+      </c>
+      <c r="AU204">
+        <v>1.9</v>
+      </c>
+      <c r="AV204">
+        <v>1.08</v>
+      </c>
+      <c r="AW204">
+        <v>2.98</v>
+      </c>
+      <c r="AX204">
+        <v>1.48</v>
+      </c>
+      <c r="AY204">
+        <v>8.5</v>
+      </c>
+      <c r="AZ204">
+        <v>3.2</v>
+      </c>
+      <c r="BA204">
+        <v>1.46</v>
+      </c>
+      <c r="BB204">
+        <v>1.75</v>
+      </c>
+      <c r="BC204">
+        <v>2.18</v>
+      </c>
+      <c r="BD204">
+        <v>2.8</v>
+      </c>
+      <c r="BE204">
+        <v>3.85</v>
+      </c>
+      <c r="BF204">
+        <v>6</v>
+      </c>
+      <c r="BG204">
+        <v>0</v>
+      </c>
+      <c r="BH204">
+        <v>11</v>
+      </c>
+      <c r="BI204">
+        <v>7</v>
+      </c>
+      <c r="BJ204">
+        <v>17</v>
+      </c>
+      <c r="BK204">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>2710862</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="2">
+        <v>44968.70833333334</v>
+      </c>
+      <c r="F205">
+        <v>21</v>
+      </c>
+      <c r="G205" t="s">
+        <v>70</v>
+      </c>
+      <c r="H205" t="s">
+        <v>72</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <v>2</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>2</v>
+      </c>
+      <c r="N205">
+        <v>3</v>
+      </c>
+      <c r="O205" t="s">
+        <v>137</v>
+      </c>
+      <c r="P205" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q205">
+        <v>7</v>
+      </c>
+      <c r="R205">
+        <v>1</v>
+      </c>
+      <c r="S205">
+        <v>8</v>
+      </c>
+      <c r="T205">
+        <v>3.75</v>
+      </c>
+      <c r="U205">
+        <v>2.05</v>
+      </c>
+      <c r="V205">
+        <v>3.1</v>
+      </c>
+      <c r="W205">
+        <v>1.44</v>
+      </c>
+      <c r="X205">
+        <v>2.63</v>
+      </c>
+      <c r="Y205">
+        <v>3.4</v>
+      </c>
+      <c r="Z205">
+        <v>1.3</v>
+      </c>
+      <c r="AA205">
+        <v>10</v>
+      </c>
+      <c r="AB205">
+        <v>1.06</v>
+      </c>
+      <c r="AC205">
+        <v>3</v>
+      </c>
+      <c r="AD205">
+        <v>3.3</v>
+      </c>
+      <c r="AE205">
+        <v>2.45</v>
+      </c>
+      <c r="AF205">
+        <v>1.08</v>
+      </c>
+      <c r="AG205">
+        <v>9</v>
+      </c>
+      <c r="AH205">
+        <v>1.4</v>
+      </c>
+      <c r="AI205">
+        <v>3</v>
+      </c>
+      <c r="AJ205">
+        <v>2.01</v>
+      </c>
+      <c r="AK205">
+        <v>1.81</v>
+      </c>
+      <c r="AL205">
+        <v>1.95</v>
+      </c>
+      <c r="AM205">
+        <v>1.8</v>
+      </c>
+      <c r="AN205">
+        <v>1.53</v>
+      </c>
+      <c r="AO205">
+        <v>1.34</v>
+      </c>
+      <c r="AP205">
+        <v>1.37</v>
+      </c>
+      <c r="AQ205">
+        <v>1.4</v>
+      </c>
+      <c r="AR205">
+        <v>1</v>
+      </c>
+      <c r="AS205">
+        <v>1.27</v>
+      </c>
+      <c r="AT205">
+        <v>1.2</v>
+      </c>
+      <c r="AU205">
+        <v>1.77</v>
+      </c>
+      <c r="AV205">
+        <v>1.6</v>
+      </c>
+      <c r="AW205">
+        <v>3.37</v>
+      </c>
+      <c r="AX205">
+        <v>1.97</v>
+      </c>
+      <c r="AY205">
+        <v>7.5</v>
+      </c>
+      <c r="AZ205">
+        <v>2.08</v>
+      </c>
+      <c r="BA205">
+        <v>1.36</v>
+      </c>
+      <c r="BB205">
+        <v>1.58</v>
+      </c>
+      <c r="BC205">
+        <v>1.94</v>
+      </c>
+      <c r="BD205">
+        <v>2.45</v>
+      </c>
+      <c r="BE205">
+        <v>3.25</v>
+      </c>
+      <c r="BF205">
+        <v>9</v>
+      </c>
+      <c r="BG205">
+        <v>4</v>
+      </c>
+      <c r="BH205">
+        <v>10</v>
+      </c>
+      <c r="BI205">
+        <v>4</v>
+      </c>
+      <c r="BJ205">
+        <v>19</v>
+      </c>
+      <c r="BK205">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>2710858</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2">
+        <v>44969.41666666666</v>
+      </c>
+      <c r="F206">
+        <v>21</v>
+      </c>
+      <c r="G206" t="s">
+        <v>73</v>
+      </c>
+      <c r="H206" t="s">
+        <v>82</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+      <c r="N206">
+        <v>2</v>
+      </c>
+      <c r="O206" t="s">
+        <v>214</v>
+      </c>
+      <c r="P206" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q206">
+        <v>5</v>
+      </c>
+      <c r="R206">
+        <v>6</v>
+      </c>
+      <c r="S206">
+        <v>11</v>
+      </c>
+      <c r="T206">
+        <v>3.75</v>
+      </c>
+      <c r="U206">
+        <v>1.83</v>
+      </c>
+      <c r="V206">
+        <v>3.75</v>
+      </c>
+      <c r="W206">
+        <v>1.67</v>
+      </c>
+      <c r="X206">
+        <v>2.1</v>
+      </c>
+      <c r="Y206">
+        <v>4.33</v>
+      </c>
+      <c r="Z206">
+        <v>1.2</v>
+      </c>
+      <c r="AA206">
+        <v>15</v>
+      </c>
+      <c r="AB206">
+        <v>1.03</v>
+      </c>
+      <c r="AC206">
+        <v>2.9</v>
+      </c>
+      <c r="AD206">
+        <v>2.8</v>
+      </c>
+      <c r="AE206">
+        <v>2.83</v>
+      </c>
+      <c r="AF206">
+        <v>1.14</v>
+      </c>
+      <c r="AG206">
+        <v>6</v>
+      </c>
+      <c r="AH206">
+        <v>1.57</v>
+      </c>
+      <c r="AI206">
+        <v>2.25</v>
+      </c>
+      <c r="AJ206">
+        <v>2.94</v>
+      </c>
+      <c r="AK206">
+        <v>1.37</v>
+      </c>
+      <c r="AL206">
+        <v>2.38</v>
+      </c>
+      <c r="AM206">
+        <v>1.53</v>
+      </c>
+      <c r="AN206">
+        <v>1.41</v>
+      </c>
+      <c r="AO206">
+        <v>1.42</v>
+      </c>
+      <c r="AP206">
+        <v>1.41</v>
+      </c>
+      <c r="AQ206">
+        <v>0.9</v>
+      </c>
+      <c r="AR206">
+        <v>1.5</v>
+      </c>
+      <c r="AS206">
+        <v>0.91</v>
+      </c>
+      <c r="AT206">
+        <v>1.45</v>
+      </c>
+      <c r="AU206">
+        <v>1.18</v>
+      </c>
+      <c r="AV206">
+        <v>1.37</v>
+      </c>
+      <c r="AW206">
+        <v>2.55</v>
+      </c>
+      <c r="AX206">
+        <v>2.18</v>
+      </c>
+      <c r="AY206">
+        <v>7.5</v>
+      </c>
+      <c r="AZ206">
+        <v>1.9</v>
+      </c>
+      <c r="BA206">
+        <v>1.43</v>
+      </c>
+      <c r="BB206">
+        <v>1.71</v>
+      </c>
+      <c r="BC206">
+        <v>2.12</v>
+      </c>
+      <c r="BD206">
+        <v>2.75</v>
+      </c>
+      <c r="BE206">
+        <v>3.7</v>
+      </c>
+      <c r="BF206">
+        <v>4</v>
+      </c>
+      <c r="BG206">
+        <v>5</v>
+      </c>
+      <c r="BH206">
+        <v>9</v>
+      </c>
+      <c r="BI206">
+        <v>12</v>
+      </c>
+      <c r="BJ206">
+        <v>13</v>
+      </c>
+      <c r="BK206">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>2710863</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>44969.51041666666</v>
+      </c>
+      <c r="F207">
+        <v>21</v>
+      </c>
+      <c r="G207" t="s">
+        <v>66</v>
+      </c>
+      <c r="H207" t="s">
+        <v>78</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>1</v>
+      </c>
+      <c r="O207" t="s">
+        <v>87</v>
+      </c>
+      <c r="P207" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q207">
+        <v>7</v>
+      </c>
+      <c r="R207">
+        <v>5</v>
+      </c>
+      <c r="S207">
+        <v>12</v>
+      </c>
+      <c r="T207">
+        <v>4.33</v>
+      </c>
+      <c r="U207">
+        <v>1.95</v>
+      </c>
+      <c r="V207">
+        <v>3</v>
+      </c>
+      <c r="W207">
+        <v>1.53</v>
+      </c>
+      <c r="X207">
+        <v>2.38</v>
+      </c>
+      <c r="Y207">
+        <v>3.5</v>
+      </c>
+      <c r="Z207">
+        <v>1.29</v>
+      </c>
+      <c r="AA207">
+        <v>11</v>
+      </c>
+      <c r="AB207">
+        <v>1.05</v>
+      </c>
+      <c r="AC207">
+        <v>3.57</v>
+      </c>
+      <c r="AD207">
+        <v>3.1</v>
+      </c>
+      <c r="AE207">
+        <v>2.21</v>
+      </c>
+      <c r="AF207">
+        <v>1.09</v>
+      </c>
+      <c r="AG207">
+        <v>7.5</v>
+      </c>
+      <c r="AH207">
+        <v>1.5</v>
+      </c>
+      <c r="AI207">
+        <v>2.45</v>
+      </c>
+      <c r="AJ207">
+        <v>2.43</v>
+      </c>
+      <c r="AK207">
+        <v>1.52</v>
+      </c>
+      <c r="AL207">
+        <v>2.05</v>
+      </c>
+      <c r="AM207">
+        <v>1.7</v>
+      </c>
+      <c r="AN207">
+        <v>1.62</v>
+      </c>
+      <c r="AO207">
+        <v>1.35</v>
+      </c>
+      <c r="AP207">
+        <v>1.3</v>
+      </c>
+      <c r="AQ207">
+        <v>1.3</v>
+      </c>
+      <c r="AR207">
+        <v>2</v>
+      </c>
+      <c r="AS207">
+        <v>1.18</v>
+      </c>
+      <c r="AT207">
+        <v>2.09</v>
+      </c>
+      <c r="AU207">
+        <v>1.66</v>
+      </c>
+      <c r="AV207">
+        <v>1.69</v>
+      </c>
+      <c r="AW207">
+        <v>3.35</v>
+      </c>
+      <c r="AX207">
+        <v>2.2</v>
+      </c>
+      <c r="AY207">
+        <v>7.5</v>
+      </c>
+      <c r="AZ207">
+        <v>1.89</v>
+      </c>
+      <c r="BA207">
+        <v>1.46</v>
+      </c>
+      <c r="BB207">
+        <v>1.76</v>
+      </c>
+      <c r="BC207">
+        <v>2.2</v>
+      </c>
+      <c r="BD207">
+        <v>2.88</v>
+      </c>
+      <c r="BE207">
+        <v>3.95</v>
+      </c>
+      <c r="BF207">
+        <v>3</v>
+      </c>
+      <c r="BG207">
+        <v>4</v>
+      </c>
+      <c r="BH207">
+        <v>12</v>
+      </c>
+      <c r="BI207">
+        <v>7</v>
+      </c>
+      <c r="BJ207">
+        <v>15</v>
+      </c>
+      <c r="BK207">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="298">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1269,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK207"/>
+  <dimension ref="A1:BK209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT4">
         <v>1.09</v>
@@ -4850,7 +4850,7 @@
         <v>1.7</v>
       </c>
       <c r="AT19">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5614,7 +5614,7 @@
         <v>1.7</v>
       </c>
       <c r="AT23">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU23">
         <v>2.21</v>
@@ -8097,7 +8097,7 @@
         <v>1.36</v>
       </c>
       <c r="AT36">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AU36">
         <v>2.23</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT39">
         <v>0.3</v>
@@ -9049,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT41">
         <v>0.3</v>
@@ -9816,7 +9816,7 @@
         <v>1.27</v>
       </c>
       <c r="AT45">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AU45">
         <v>1.15</v>
@@ -10962,7 +10962,7 @@
         <v>1.73</v>
       </c>
       <c r="AT51">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU51">
         <v>1.4</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT52">
         <v>0.8</v>
@@ -12296,7 +12296,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT58">
         <v>0.9</v>
@@ -13827,7 +13827,7 @@
         <v>1.7</v>
       </c>
       <c r="AT66">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AU66">
         <v>1.23</v>
@@ -14591,7 +14591,7 @@
         <v>2.33</v>
       </c>
       <c r="AT70">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU70">
         <v>2.46</v>
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT77">
         <v>1.55</v>
@@ -18029,7 +18029,7 @@
         <v>2.33</v>
       </c>
       <c r="AT88">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AU88">
         <v>2.54</v>
@@ -18599,10 +18599,10 @@
         <v>1.33</v>
       </c>
       <c r="AS91">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT91">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU91">
         <v>2.05</v>
@@ -19554,7 +19554,7 @@
         <v>0.75</v>
       </c>
       <c r="AS96">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT96">
         <v>1</v>
@@ -20891,7 +20891,7 @@
         <v>2.4</v>
       </c>
       <c r="AS103">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT103">
         <v>2.2</v>
@@ -21849,7 +21849,7 @@
         <v>1.64</v>
       </c>
       <c r="AT108">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU108">
         <v>1.88</v>
@@ -22037,7 +22037,7 @@
         <v>0.2</v>
       </c>
       <c r="AS109">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT109">
         <v>0.3</v>
@@ -23377,7 +23377,7 @@
         <v>1.27</v>
       </c>
       <c r="AT116">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AU116">
         <v>1.99</v>
@@ -24902,7 +24902,7 @@
         <v>0.33</v>
       </c>
       <c r="AS124">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT124">
         <v>0.3</v>
@@ -25096,7 +25096,7 @@
         <v>1.18</v>
       </c>
       <c r="AT125">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU125">
         <v>1.57</v>
@@ -25857,7 +25857,7 @@
         <v>1.33</v>
       </c>
       <c r="AS129">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT129">
         <v>1</v>
@@ -26815,7 +26815,7 @@
         <v>1.8</v>
       </c>
       <c r="AT134">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AU134">
         <v>1.86</v>
@@ -29486,7 +29486,7 @@
         <v>2.57</v>
       </c>
       <c r="AS148">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT148">
         <v>2.18</v>
@@ -29871,7 +29871,7 @@
         <v>1.7</v>
       </c>
       <c r="AT150">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU150">
         <v>1.71</v>
@@ -30059,7 +30059,7 @@
         <v>1</v>
       </c>
       <c r="AS151">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT151">
         <v>0.6</v>
@@ -30632,7 +30632,7 @@
         <v>2.63</v>
       </c>
       <c r="AS154">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT154">
         <v>2.18</v>
@@ -31781,7 +31781,7 @@
         <v>1.5</v>
       </c>
       <c r="AT160">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AU160">
         <v>1.75</v>
@@ -31972,7 +31972,7 @@
         <v>1.82</v>
       </c>
       <c r="AT161">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU161">
         <v>2.13</v>
@@ -32351,7 +32351,7 @@
         <v>1.13</v>
       </c>
       <c r="AS163">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT163">
         <v>1.45</v>
@@ -34643,7 +34643,7 @@
         <v>0.75</v>
       </c>
       <c r="AS175">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT175">
         <v>0.6</v>
@@ -34837,7 +34837,7 @@
         <v>0.6</v>
       </c>
       <c r="AT176">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU176">
         <v>1.38</v>
@@ -35983,7 +35983,7 @@
         <v>1.64</v>
       </c>
       <c r="AT182">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AU182">
         <v>1.92</v>
@@ -36553,7 +36553,7 @@
         <v>0.86</v>
       </c>
       <c r="AS185">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT185">
         <v>0.6</v>
@@ -37317,7 +37317,7 @@
         <v>1.33</v>
       </c>
       <c r="AS189">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT189">
         <v>1.45</v>
@@ -37511,7 +37511,7 @@
         <v>1.7</v>
       </c>
       <c r="AT190">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AU190">
         <v>1.61</v>
@@ -38084,7 +38084,7 @@
         <v>1</v>
       </c>
       <c r="AT193">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU193">
         <v>1.59</v>
@@ -40810,6 +40810,388 @@
       </c>
       <c r="BK207">
         <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>2710867</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>44969.60416666666</v>
+      </c>
+      <c r="F208">
+        <v>21</v>
+      </c>
+      <c r="G208" t="s">
+        <v>67</v>
+      </c>
+      <c r="H208" t="s">
+        <v>65</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+      <c r="O208" t="s">
+        <v>87</v>
+      </c>
+      <c r="P208" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q208">
+        <v>10</v>
+      </c>
+      <c r="R208">
+        <v>4</v>
+      </c>
+      <c r="S208">
+        <v>14</v>
+      </c>
+      <c r="T208">
+        <v>3.6</v>
+      </c>
+      <c r="U208">
+        <v>1.95</v>
+      </c>
+      <c r="V208">
+        <v>3.5</v>
+      </c>
+      <c r="W208">
+        <v>1.53</v>
+      </c>
+      <c r="X208">
+        <v>2.38</v>
+      </c>
+      <c r="Y208">
+        <v>3.75</v>
+      </c>
+      <c r="Z208">
+        <v>1.25</v>
+      </c>
+      <c r="AA208">
+        <v>11</v>
+      </c>
+      <c r="AB208">
+        <v>1.05</v>
+      </c>
+      <c r="AC208">
+        <v>2.65</v>
+      </c>
+      <c r="AD208">
+        <v>3.26</v>
+      </c>
+      <c r="AE208">
+        <v>2.71</v>
+      </c>
+      <c r="AF208">
+        <v>1.1</v>
+      </c>
+      <c r="AG208">
+        <v>7.5</v>
+      </c>
+      <c r="AH208">
+        <v>1.5</v>
+      </c>
+      <c r="AI208">
+        <v>2.65</v>
+      </c>
+      <c r="AJ208">
+        <v>2.18</v>
+      </c>
+      <c r="AK208">
+        <v>1.68</v>
+      </c>
+      <c r="AL208">
+        <v>2.05</v>
+      </c>
+      <c r="AM208">
+        <v>1.7</v>
+      </c>
+      <c r="AN208">
+        <v>1.43</v>
+      </c>
+      <c r="AO208">
+        <v>1.37</v>
+      </c>
+      <c r="AP208">
+        <v>1.44</v>
+      </c>
+      <c r="AQ208">
+        <v>1.6</v>
+      </c>
+      <c r="AR208">
+        <v>1.1</v>
+      </c>
+      <c r="AS208">
+        <v>1.55</v>
+      </c>
+      <c r="AT208">
+        <v>1.09</v>
+      </c>
+      <c r="AU208">
+        <v>1.52</v>
+      </c>
+      <c r="AV208">
+        <v>1.27</v>
+      </c>
+      <c r="AW208">
+        <v>2.79</v>
+      </c>
+      <c r="AX208">
+        <v>1.95</v>
+      </c>
+      <c r="AY208">
+        <v>7.5</v>
+      </c>
+      <c r="AZ208">
+        <v>2.12</v>
+      </c>
+      <c r="BA208">
+        <v>1.38</v>
+      </c>
+      <c r="BB208">
+        <v>1.65</v>
+      </c>
+      <c r="BC208">
+        <v>2.02</v>
+      </c>
+      <c r="BD208">
+        <v>2.6</v>
+      </c>
+      <c r="BE208">
+        <v>3.5</v>
+      </c>
+      <c r="BF208">
+        <v>4</v>
+      </c>
+      <c r="BG208">
+        <v>6</v>
+      </c>
+      <c r="BH208">
+        <v>14</v>
+      </c>
+      <c r="BI208">
+        <v>10</v>
+      </c>
+      <c r="BJ208">
+        <v>18</v>
+      </c>
+      <c r="BK208">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>2710864</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>44969.70833333334</v>
+      </c>
+      <c r="F209">
+        <v>21</v>
+      </c>
+      <c r="G209" t="s">
+        <v>84</v>
+      </c>
+      <c r="H209" t="s">
+        <v>68</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>1</v>
+      </c>
+      <c r="O209" t="s">
+        <v>87</v>
+      </c>
+      <c r="P209" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q209">
+        <v>6</v>
+      </c>
+      <c r="R209">
+        <v>2</v>
+      </c>
+      <c r="S209">
+        <v>8</v>
+      </c>
+      <c r="T209">
+        <v>4.5</v>
+      </c>
+      <c r="U209">
+        <v>2.3</v>
+      </c>
+      <c r="V209">
+        <v>2.38</v>
+      </c>
+      <c r="W209">
+        <v>1.33</v>
+      </c>
+      <c r="X209">
+        <v>3.25</v>
+      </c>
+      <c r="Y209">
+        <v>2.5</v>
+      </c>
+      <c r="Z209">
+        <v>1.5</v>
+      </c>
+      <c r="AA209">
+        <v>6.5</v>
+      </c>
+      <c r="AB209">
+        <v>1.11</v>
+      </c>
+      <c r="AC209">
+        <v>3.94</v>
+      </c>
+      <c r="AD209">
+        <v>3.8</v>
+      </c>
+      <c r="AE209">
+        <v>1.86</v>
+      </c>
+      <c r="AF209">
+        <v>1.03</v>
+      </c>
+      <c r="AG209">
+        <v>13</v>
+      </c>
+      <c r="AH209">
+        <v>1.24</v>
+      </c>
+      <c r="AI209">
+        <v>4.2</v>
+      </c>
+      <c r="AJ209">
+        <v>1.72</v>
+      </c>
+      <c r="AK209">
+        <v>2.13</v>
+      </c>
+      <c r="AL209">
+        <v>1.7</v>
+      </c>
+      <c r="AM209">
+        <v>2.05</v>
+      </c>
+      <c r="AN209">
+        <v>1.93</v>
+      </c>
+      <c r="AO209">
+        <v>1.26</v>
+      </c>
+      <c r="AP209">
+        <v>1.24</v>
+      </c>
+      <c r="AQ209">
+        <v>2.11</v>
+      </c>
+      <c r="AR209">
+        <v>2.7</v>
+      </c>
+      <c r="AS209">
+        <v>1.9</v>
+      </c>
+      <c r="AT209">
+        <v>2.73</v>
+      </c>
+      <c r="AU209">
+        <v>1.91</v>
+      </c>
+      <c r="AV209">
+        <v>1.69</v>
+      </c>
+      <c r="AW209">
+        <v>3.6</v>
+      </c>
+      <c r="AX209">
+        <v>2.55</v>
+      </c>
+      <c r="AY209">
+        <v>7.5</v>
+      </c>
+      <c r="AZ209">
+        <v>1.68</v>
+      </c>
+      <c r="BA209">
+        <v>1.35</v>
+      </c>
+      <c r="BB209">
+        <v>1.58</v>
+      </c>
+      <c r="BC209">
+        <v>1.94</v>
+      </c>
+      <c r="BD209">
+        <v>2.45</v>
+      </c>
+      <c r="BE209">
+        <v>3.25</v>
+      </c>
+      <c r="BF209">
+        <v>3</v>
+      </c>
+      <c r="BG209">
+        <v>5</v>
+      </c>
+      <c r="BH209">
+        <v>10</v>
+      </c>
+      <c r="BI209">
+        <v>3</v>
+      </c>
+      <c r="BJ209">
+        <v>13</v>
+      </c>
+      <c r="BK209">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="300">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,9 @@
     <t>['77']</t>
   </si>
   <si>
+    <t>['74', '87']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -908,6 +911,9 @@
   </si>
   <si>
     <t>['30', '72']</t>
+  </si>
+  <si>
+    <t>['23', '51', '63']</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK209"/>
+  <dimension ref="A1:BK210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1513,7 +1519,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1704,7 +1710,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1895,7 +1901,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2277,7 +2283,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2367,7 +2373,7 @@
         <v>1.27</v>
       </c>
       <c r="AT6">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2659,7 +2665,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -3041,7 +3047,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3423,7 +3429,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3510,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT12">
         <v>1.45</v>
@@ -3614,7 +3620,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q13">
         <v>12</v>
@@ -3996,7 +4002,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4187,7 +4193,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4569,7 +4575,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4760,7 +4766,7 @@
         <v>89</v>
       </c>
       <c r="P19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5142,7 +5148,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5333,7 +5339,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5805,7 +5811,7 @@
         <v>0.6</v>
       </c>
       <c r="AT24">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU24">
         <v>1.51</v>
@@ -5906,7 +5912,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -6670,7 +6676,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6757,7 +6763,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT29">
         <v>2.18</v>
@@ -6861,7 +6867,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7052,7 +7058,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7434,7 +7440,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7816,7 +7822,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8007,7 +8013,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8198,7 +8204,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9153,7 +9159,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9535,7 +9541,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9622,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT44">
         <v>0.9</v>
@@ -9726,7 +9732,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10299,7 +10305,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10490,7 +10496,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10580,7 +10586,7 @@
         <v>0.91</v>
       </c>
       <c r="AT49">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU49">
         <v>1</v>
@@ -10872,7 +10878,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11063,7 +11069,7 @@
         <v>87</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -11827,7 +11833,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -12018,7 +12024,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12209,7 +12215,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12782,7 +12788,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -13355,7 +13361,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13546,7 +13552,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13928,7 +13934,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14015,7 +14021,7 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT67">
         <v>0.6</v>
@@ -14310,7 +14316,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14400,7 +14406,7 @@
         <v>1.64</v>
       </c>
       <c r="AT69">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU69">
         <v>1.59</v>
@@ -14501,7 +14507,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14692,7 +14698,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q71">
         <v>13</v>
@@ -14883,7 +14889,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15074,7 +15080,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15265,7 +15271,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15456,7 +15462,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15647,7 +15653,7 @@
         <v>87</v>
       </c>
       <c r="P76" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16029,7 +16035,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16984,7 +16990,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17175,7 +17181,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17366,7 +17372,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17748,7 +17754,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17838,7 +17844,7 @@
         <v>1.18</v>
       </c>
       <c r="AT87">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU87">
         <v>1.38</v>
@@ -18217,7 +18223,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT89">
         <v>0.7</v>
@@ -18894,7 +18900,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -19085,7 +19091,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19849,7 +19855,7 @@
         <v>87</v>
       </c>
       <c r="P98" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -20040,7 +20046,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20613,7 +20619,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q102">
         <v>10</v>
@@ -20894,7 +20900,7 @@
         <v>1.55</v>
       </c>
       <c r="AT103">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU103">
         <v>1.51</v>
@@ -20995,7 +21001,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21186,7 +21192,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21377,7 +21383,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21464,7 +21470,7 @@
         <v>0.2</v>
       </c>
       <c r="AS106">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT106">
         <v>0.3</v>
@@ -21568,7 +21574,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21950,7 +21956,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22905,7 +22911,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -23669,7 +23675,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -24051,7 +24057,7 @@
         <v>87</v>
       </c>
       <c r="P120" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24242,7 +24248,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -25006,7 +25012,7 @@
         <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25388,7 +25394,7 @@
         <v>143</v>
       </c>
       <c r="P127" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q127">
         <v>12</v>
@@ -25770,7 +25776,7 @@
         <v>87</v>
       </c>
       <c r="P129" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25961,7 +25967,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26152,7 +26158,7 @@
         <v>170</v>
       </c>
       <c r="P131" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26343,7 +26349,7 @@
         <v>152</v>
       </c>
       <c r="P132" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q132">
         <v>2</v>
@@ -26725,7 +26731,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26916,7 +26922,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q135">
         <v>2</v>
@@ -27006,7 +27012,7 @@
         <v>1.36</v>
       </c>
       <c r="AT135">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU135">
         <v>1.8</v>
@@ -27298,7 +27304,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27385,7 +27391,7 @@
         <v>1</v>
       </c>
       <c r="AS137">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT137">
         <v>1.09</v>
@@ -28062,7 +28068,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28253,7 +28259,7 @@
         <v>176</v>
       </c>
       <c r="P142" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -29017,7 +29023,7 @@
         <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29208,7 +29214,7 @@
         <v>124</v>
       </c>
       <c r="P147" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29399,7 +29405,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29590,7 +29596,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q149">
         <v>10</v>
@@ -29972,7 +29978,7 @@
         <v>181</v>
       </c>
       <c r="P151" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30163,7 +30169,7 @@
         <v>87</v>
       </c>
       <c r="P152" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q152">
         <v>8</v>
@@ -30927,7 +30933,7 @@
         <v>184</v>
       </c>
       <c r="P156" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -31014,7 +31020,7 @@
         <v>0.71</v>
       </c>
       <c r="AS156">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT156">
         <v>0.6</v>
@@ -31118,7 +31124,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31208,7 +31214,7 @@
         <v>1.73</v>
       </c>
       <c r="AT157">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU157">
         <v>1.4</v>
@@ -31309,7 +31315,7 @@
         <v>147</v>
       </c>
       <c r="P158" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31691,7 +31697,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -32264,7 +32270,7 @@
         <v>87</v>
       </c>
       <c r="P163" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32837,7 +32843,7 @@
         <v>189</v>
       </c>
       <c r="P166" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q166">
         <v>4</v>
@@ -33028,7 +33034,7 @@
         <v>179</v>
       </c>
       <c r="P167" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33219,7 +33225,7 @@
         <v>190</v>
       </c>
       <c r="P168" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33410,7 +33416,7 @@
         <v>179</v>
       </c>
       <c r="P169" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33792,7 +33798,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33882,7 +33888,7 @@
         <v>1.7</v>
       </c>
       <c r="AT171">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU171">
         <v>1.99</v>
@@ -34070,7 +34076,7 @@
         <v>1.38</v>
       </c>
       <c r="AS172">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT172">
         <v>1.55</v>
@@ -35129,7 +35135,7 @@
         <v>87</v>
       </c>
       <c r="P178" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q178">
         <v>12</v>
@@ -35320,7 +35326,7 @@
         <v>195</v>
       </c>
       <c r="P179" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -36657,7 +36663,7 @@
         <v>87</v>
       </c>
       <c r="P186" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -37129,7 +37135,7 @@
         <v>2.33</v>
       </c>
       <c r="AT188">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU188">
         <v>2.19</v>
@@ -37421,7 +37427,7 @@
         <v>201</v>
       </c>
       <c r="P190" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q190">
         <v>1</v>
@@ -37994,7 +38000,7 @@
         <v>114</v>
       </c>
       <c r="P193" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38081,7 +38087,7 @@
         <v>1.11</v>
       </c>
       <c r="AS193">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT193">
         <v>1.09</v>
@@ -38185,7 +38191,7 @@
         <v>204</v>
       </c>
       <c r="P194" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38567,7 +38573,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39140,7 +39146,7 @@
         <v>87</v>
       </c>
       <c r="P199" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -39904,7 +39910,7 @@
         <v>212</v>
       </c>
       <c r="P203" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q203">
         <v>8</v>
@@ -40286,7 +40292,7 @@
         <v>137</v>
       </c>
       <c r="P205" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -40477,7 +40483,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -41050,7 +41056,7 @@
         <v>87</v>
       </c>
       <c r="P209" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41192,6 +41198,197 @@
       </c>
       <c r="BK209">
         <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:63">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>2710860</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="2">
+        <v>44970.70833333334</v>
+      </c>
+      <c r="F210">
+        <v>21</v>
+      </c>
+      <c r="G210" t="s">
+        <v>75</v>
+      </c>
+      <c r="H210" t="s">
+        <v>79</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>2</v>
+      </c>
+      <c r="M210">
+        <v>3</v>
+      </c>
+      <c r="N210">
+        <v>5</v>
+      </c>
+      <c r="O210" t="s">
+        <v>215</v>
+      </c>
+      <c r="P210" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q210">
+        <v>4</v>
+      </c>
+      <c r="R210">
+        <v>3</v>
+      </c>
+      <c r="S210">
+        <v>7</v>
+      </c>
+      <c r="T210">
+        <v>4</v>
+      </c>
+      <c r="U210">
+        <v>1.95</v>
+      </c>
+      <c r="V210">
+        <v>3.1</v>
+      </c>
+      <c r="W210">
+        <v>1.53</v>
+      </c>
+      <c r="X210">
+        <v>2.38</v>
+      </c>
+      <c r="Y210">
+        <v>3.75</v>
+      </c>
+      <c r="Z210">
+        <v>1.25</v>
+      </c>
+      <c r="AA210">
+        <v>11</v>
+      </c>
+      <c r="AB210">
+        <v>1.05</v>
+      </c>
+      <c r="AC210">
+        <v>3.46</v>
+      </c>
+      <c r="AD210">
+        <v>3.06</v>
+      </c>
+      <c r="AE210">
+        <v>2.3</v>
+      </c>
+      <c r="AF210">
+        <v>1.1</v>
+      </c>
+      <c r="AG210">
+        <v>7.5</v>
+      </c>
+      <c r="AH210">
+        <v>1.5</v>
+      </c>
+      <c r="AI210">
+        <v>2.55</v>
+      </c>
+      <c r="AJ210">
+        <v>2.16</v>
+      </c>
+      <c r="AK210">
+        <v>1.57</v>
+      </c>
+      <c r="AL210">
+        <v>2.05</v>
+      </c>
+      <c r="AM210">
+        <v>1.7</v>
+      </c>
+      <c r="AN210">
+        <v>1.58</v>
+      </c>
+      <c r="AO210">
+        <v>1.35</v>
+      </c>
+      <c r="AP210">
+        <v>1.32</v>
+      </c>
+      <c r="AQ210">
+        <v>1</v>
+      </c>
+      <c r="AR210">
+        <v>2.2</v>
+      </c>
+      <c r="AS210">
+        <v>0.91</v>
+      </c>
+      <c r="AT210">
+        <v>2.27</v>
+      </c>
+      <c r="AU210">
+        <v>1.56</v>
+      </c>
+      <c r="AV210">
+        <v>1.71</v>
+      </c>
+      <c r="AW210">
+        <v>3.27</v>
+      </c>
+      <c r="AX210">
+        <v>2.2</v>
+      </c>
+      <c r="AY210">
+        <v>8</v>
+      </c>
+      <c r="AZ210">
+        <v>1.87</v>
+      </c>
+      <c r="BA210">
+        <v>1.36</v>
+      </c>
+      <c r="BB210">
+        <v>1.58</v>
+      </c>
+      <c r="BC210">
+        <v>1.94</v>
+      </c>
+      <c r="BD210">
+        <v>2.45</v>
+      </c>
+      <c r="BE210">
+        <v>3.25</v>
+      </c>
+      <c r="BF210">
+        <v>4</v>
+      </c>
+      <c r="BG210">
+        <v>5</v>
+      </c>
+      <c r="BH210">
+        <v>1</v>
+      </c>
+      <c r="BI210">
+        <v>2</v>
+      </c>
+      <c r="BJ210">
+        <v>5</v>
+      </c>
+      <c r="BK210">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="301">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -664,6 +664,9 @@
     <t>['74', '87']</t>
   </si>
   <si>
+    <t>['8', '31', '45+1', '80']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -1275,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK210"/>
+  <dimension ref="A1:BK211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1519,7 +1522,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1710,7 +1713,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1901,7 +1904,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2283,7 +2286,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2665,7 +2668,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -3047,7 +3050,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3328,7 +3331,7 @@
         <v>1.7</v>
       </c>
       <c r="AT11">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3429,7 +3432,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3620,7 +3623,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q13">
         <v>12</v>
@@ -4002,7 +4005,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4193,7 +4196,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4575,7 +4578,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4766,7 +4769,7 @@
         <v>89</v>
       </c>
       <c r="P19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5148,7 +5151,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5339,7 +5342,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5912,7 +5915,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -6676,7 +6679,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6867,7 +6870,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7058,7 +7061,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7440,7 +7443,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7718,7 +7721,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT34">
         <v>1.55</v>
@@ -7822,7 +7825,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8013,7 +8016,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8204,7 +8207,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8676,7 +8679,7 @@
         <v>1.9</v>
       </c>
       <c r="AT39">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -9159,7 +9162,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9541,7 +9544,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9732,7 +9735,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10201,7 +10204,7 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT47">
         <v>1</v>
@@ -10305,7 +10308,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10496,7 +10499,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10878,7 +10881,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11069,7 +11072,7 @@
         <v>87</v>
       </c>
       <c r="P52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -11541,7 +11544,7 @@
         <v>2.6</v>
       </c>
       <c r="AT54">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU54">
         <v>2.69</v>
@@ -11833,7 +11836,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -12024,7 +12027,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12215,7 +12218,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12788,7 +12791,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -13361,7 +13364,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13552,7 +13555,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13934,7 +13937,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14316,7 +14319,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14507,7 +14510,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14594,7 +14597,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT70">
         <v>1.09</v>
@@ -14698,7 +14701,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q71">
         <v>13</v>
@@ -14788,7 +14791,7 @@
         <v>1.7</v>
       </c>
       <c r="AT71">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU71">
         <v>1.8</v>
@@ -14889,7 +14892,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15080,7 +15083,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15271,7 +15274,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15462,7 +15465,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15653,7 +15656,7 @@
         <v>87</v>
       </c>
       <c r="P76" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16035,7 +16038,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16990,7 +16993,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17181,7 +17184,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17271,7 +17274,7 @@
         <v>1.27</v>
       </c>
       <c r="AT84">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU84">
         <v>1.91</v>
@@ -17372,7 +17375,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17754,7 +17757,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -18032,7 +18035,7 @@
         <v>3</v>
       </c>
       <c r="AS88">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT88">
         <v>2.73</v>
@@ -18900,7 +18903,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -19091,7 +19094,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19855,7 +19858,7 @@
         <v>87</v>
       </c>
       <c r="P98" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -20046,7 +20049,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20619,7 +20622,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q102">
         <v>10</v>
@@ -21001,7 +21004,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21192,7 +21195,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21279,7 +21282,7 @@
         <v>1.4</v>
       </c>
       <c r="AS105">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT105">
         <v>0.9</v>
@@ -21383,7 +21386,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21473,7 +21476,7 @@
         <v>0.91</v>
       </c>
       <c r="AT106">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU106">
         <v>1.64</v>
@@ -21574,7 +21577,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21956,7 +21959,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22911,7 +22914,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -23675,7 +23678,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23762,7 +23765,7 @@
         <v>0.2</v>
       </c>
       <c r="AS118">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT118">
         <v>0.6</v>
@@ -24057,7 +24060,7 @@
         <v>87</v>
       </c>
       <c r="P120" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24248,7 +24251,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24911,7 +24914,7 @@
         <v>1.55</v>
       </c>
       <c r="AT124">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU124">
         <v>1.45</v>
@@ -25012,7 +25015,7 @@
         <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25394,7 +25397,7 @@
         <v>143</v>
       </c>
       <c r="P127" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q127">
         <v>12</v>
@@ -25776,7 +25779,7 @@
         <v>87</v>
       </c>
       <c r="P129" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25967,7 +25970,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26158,7 +26161,7 @@
         <v>170</v>
       </c>
       <c r="P131" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26349,7 +26352,7 @@
         <v>152</v>
       </c>
       <c r="P132" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q132">
         <v>2</v>
@@ -26731,7 +26734,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26922,7 +26925,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q135">
         <v>2</v>
@@ -27304,7 +27307,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -28068,7 +28071,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28155,7 +28158,7 @@
         <v>0.83</v>
       </c>
       <c r="AS141">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT141">
         <v>0.8</v>
@@ -28259,7 +28262,7 @@
         <v>176</v>
       </c>
       <c r="P142" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28731,7 +28734,7 @@
         <v>1.5</v>
       </c>
       <c r="AT144">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU144">
         <v>1.77</v>
@@ -29023,7 +29026,7 @@
         <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29214,7 +29217,7 @@
         <v>124</v>
       </c>
       <c r="P147" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29405,7 +29408,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29596,7 +29599,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q149">
         <v>10</v>
@@ -29978,7 +29981,7 @@
         <v>181</v>
       </c>
       <c r="P151" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30169,7 +30172,7 @@
         <v>87</v>
       </c>
       <c r="P152" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q152">
         <v>8</v>
@@ -30933,7 +30936,7 @@
         <v>184</v>
       </c>
       <c r="P156" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -31124,7 +31127,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31315,7 +31318,7 @@
         <v>147</v>
       </c>
       <c r="P158" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31697,7 +31700,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -32270,7 +32273,7 @@
         <v>87</v>
       </c>
       <c r="P163" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32843,7 +32846,7 @@
         <v>189</v>
       </c>
       <c r="P166" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q166">
         <v>4</v>
@@ -33034,7 +33037,7 @@
         <v>179</v>
       </c>
       <c r="P167" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33225,7 +33228,7 @@
         <v>190</v>
       </c>
       <c r="P168" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33416,7 +33419,7 @@
         <v>179</v>
       </c>
       <c r="P169" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33506,7 +33509,7 @@
         <v>1.27</v>
       </c>
       <c r="AT169">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU169">
         <v>1.32</v>
@@ -33798,7 +33801,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -35135,7 +35138,7 @@
         <v>87</v>
       </c>
       <c r="P178" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q178">
         <v>12</v>
@@ -35326,7 +35329,7 @@
         <v>195</v>
       </c>
       <c r="P179" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -36180,7 +36183,7 @@
         <v>1.36</v>
       </c>
       <c r="AT183">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU183">
         <v>1.8</v>
@@ -36663,7 +36666,7 @@
         <v>87</v>
       </c>
       <c r="P186" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -37132,7 +37135,7 @@
         <v>2.33</v>
       </c>
       <c r="AS188">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT188">
         <v>2.27</v>
@@ -37427,7 +37430,7 @@
         <v>201</v>
       </c>
       <c r="P190" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q190">
         <v>1</v>
@@ -37705,7 +37708,7 @@
         <v>0.75</v>
       </c>
       <c r="AS191">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT191">
         <v>0.6</v>
@@ -38000,7 +38003,7 @@
         <v>114</v>
       </c>
       <c r="P193" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38191,7 +38194,7 @@
         <v>204</v>
       </c>
       <c r="P194" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38573,7 +38576,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39146,7 +39149,7 @@
         <v>87</v>
       </c>
       <c r="P199" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -39910,7 +39913,7 @@
         <v>212</v>
       </c>
       <c r="P203" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q203">
         <v>8</v>
@@ -40292,7 +40295,7 @@
         <v>137</v>
       </c>
       <c r="P205" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -40483,7 +40486,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -41056,7 +41059,7 @@
         <v>87</v>
       </c>
       <c r="P209" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41247,7 +41250,7 @@
         <v>215</v>
       </c>
       <c r="P210" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41389,6 +41392,197 @@
       </c>
       <c r="BK210">
         <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>2710865</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="2">
+        <v>44972.70833333334</v>
+      </c>
+      <c r="F211">
+        <v>21</v>
+      </c>
+      <c r="G211" t="s">
+        <v>83</v>
+      </c>
+      <c r="H211" t="s">
+        <v>80</v>
+      </c>
+      <c r="I211">
+        <v>3</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>3</v>
+      </c>
+      <c r="L211">
+        <v>4</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>4</v>
+      </c>
+      <c r="O211" t="s">
+        <v>216</v>
+      </c>
+      <c r="P211" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q211">
+        <v>6</v>
+      </c>
+      <c r="R211">
+        <v>4</v>
+      </c>
+      <c r="S211">
+        <v>10</v>
+      </c>
+      <c r="T211">
+        <v>1.57</v>
+      </c>
+      <c r="U211">
+        <v>2.88</v>
+      </c>
+      <c r="V211">
+        <v>11</v>
+      </c>
+      <c r="W211">
+        <v>1.25</v>
+      </c>
+      <c r="X211">
+        <v>3.75</v>
+      </c>
+      <c r="Y211">
+        <v>2.2</v>
+      </c>
+      <c r="Z211">
+        <v>1.62</v>
+      </c>
+      <c r="AA211">
+        <v>5</v>
+      </c>
+      <c r="AB211">
+        <v>1.17</v>
+      </c>
+      <c r="AC211">
+        <v>1.18</v>
+      </c>
+      <c r="AD211">
+        <v>6.5</v>
+      </c>
+      <c r="AE211">
+        <v>17</v>
+      </c>
+      <c r="AF211">
+        <v>1.02</v>
+      </c>
+      <c r="AG211">
+        <v>13</v>
+      </c>
+      <c r="AH211">
+        <v>1.17</v>
+      </c>
+      <c r="AI211">
+        <v>5</v>
+      </c>
+      <c r="AJ211">
+        <v>1.47</v>
+      </c>
+      <c r="AK211">
+        <v>2.5</v>
+      </c>
+      <c r="AL211">
+        <v>2.2</v>
+      </c>
+      <c r="AM211">
+        <v>1.62</v>
+      </c>
+      <c r="AN211">
+        <v>1.04</v>
+      </c>
+      <c r="AO211">
+        <v>1.11</v>
+      </c>
+      <c r="AP211">
+        <v>4.78</v>
+      </c>
+      <c r="AQ211">
+        <v>2.33</v>
+      </c>
+      <c r="AR211">
+        <v>0.3</v>
+      </c>
+      <c r="AS211">
+        <v>2.4</v>
+      </c>
+      <c r="AT211">
+        <v>0.27</v>
+      </c>
+      <c r="AU211">
+        <v>2.26</v>
+      </c>
+      <c r="AV211">
+        <v>0.89</v>
+      </c>
+      <c r="AW211">
+        <v>3.15</v>
+      </c>
+      <c r="AX211">
+        <v>1.2</v>
+      </c>
+      <c r="AY211">
+        <v>11.5</v>
+      </c>
+      <c r="AZ211">
+        <v>6.4</v>
+      </c>
+      <c r="BA211">
+        <v>1.36</v>
+      </c>
+      <c r="BB211">
+        <v>1.55</v>
+      </c>
+      <c r="BC211">
+        <v>1.85</v>
+      </c>
+      <c r="BD211">
+        <v>2.3</v>
+      </c>
+      <c r="BE211">
+        <v>3.3</v>
+      </c>
+      <c r="BF211">
+        <v>14</v>
+      </c>
+      <c r="BG211">
+        <v>0</v>
+      </c>
+      <c r="BH211">
+        <v>13</v>
+      </c>
+      <c r="BI211">
+        <v>8</v>
+      </c>
+      <c r="BJ211">
+        <v>27</v>
+      </c>
+      <c r="BK211">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="303">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -667,6 +667,9 @@
     <t>['8', '31', '45+1', '80']</t>
   </si>
   <si>
+    <t>['8', '34', '36', '43', '77', '79']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -917,6 +920,9 @@
   </si>
   <si>
     <t>['23', '51', '63']</t>
+  </si>
+  <si>
+    <t>['66', '81']</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK211"/>
+  <dimension ref="A1:BK212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1522,7 +1528,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1713,7 +1719,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1904,7 +1910,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2286,7 +2292,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2668,7 +2674,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -3050,7 +3056,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3432,7 +3438,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3623,7 +3629,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q13">
         <v>12</v>
@@ -4005,7 +4011,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4196,7 +4202,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4578,7 +4584,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4769,7 +4775,7 @@
         <v>89</v>
       </c>
       <c r="P19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5050,7 +5056,7 @@
         <v>0.6</v>
       </c>
       <c r="AT20">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5151,7 +5157,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5238,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT21">
         <v>0.9</v>
@@ -5342,7 +5348,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5429,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT22">
         <v>1</v>
@@ -5915,7 +5921,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -6679,7 +6685,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6870,7 +6876,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7061,7 +7067,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7443,7 +7449,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7825,7 +7831,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8016,7 +8022,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8207,7 +8213,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9061,7 +9067,7 @@
         <v>1.55</v>
       </c>
       <c r="AT41">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU41">
         <v>1.67</v>
@@ -9162,7 +9168,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9249,7 +9255,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT42">
         <v>0.7</v>
@@ -9544,7 +9550,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9735,7 +9741,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10308,7 +10314,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10499,7 +10505,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10881,7 +10887,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11072,7 +11078,7 @@
         <v>87</v>
       </c>
       <c r="P52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -11353,7 +11359,7 @@
         <v>1.7</v>
       </c>
       <c r="AT53">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU53">
         <v>1.46</v>
@@ -11836,7 +11842,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -12027,7 +12033,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12218,7 +12224,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12791,7 +12797,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -13072,7 +13078,7 @@
         <v>1.82</v>
       </c>
       <c r="AT62">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU62">
         <v>2.11</v>
@@ -13364,7 +13370,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13555,7 +13561,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13937,7 +13943,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14319,7 +14325,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14406,7 +14412,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT69">
         <v>2.27</v>
@@ -14510,7 +14516,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14701,7 +14707,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q71">
         <v>13</v>
@@ -14892,7 +14898,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15083,7 +15089,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15274,7 +15280,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15465,7 +15471,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15656,7 +15662,7 @@
         <v>87</v>
       </c>
       <c r="P76" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16038,7 +16044,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16993,7 +16999,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17080,7 +17086,7 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT83">
         <v>0.8</v>
@@ -17184,7 +17190,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17375,7 +17381,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17757,7 +17763,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -18420,7 +18426,7 @@
         <v>1.7</v>
       </c>
       <c r="AT90">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU90">
         <v>1.57</v>
@@ -18903,7 +18909,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -19094,7 +19100,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19858,7 +19864,7 @@
         <v>87</v>
       </c>
       <c r="P98" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -20049,7 +20055,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20622,7 +20628,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q102">
         <v>10</v>
@@ -21004,7 +21010,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21195,7 +21201,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21386,7 +21392,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21577,7 +21583,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21855,7 +21861,7 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT108">
         <v>1.09</v>
@@ -21959,7 +21965,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22049,7 +22055,7 @@
         <v>1.9</v>
       </c>
       <c r="AT109">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU109">
         <v>1.96</v>
@@ -22914,7 +22920,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -23678,7 +23684,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -24060,7 +24066,7 @@
         <v>87</v>
       </c>
       <c r="P120" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24251,7 +24257,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24529,7 +24535,7 @@
         <v>1.6</v>
       </c>
       <c r="AS122">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT122">
         <v>1.2</v>
@@ -25015,7 +25021,7 @@
         <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25296,7 +25302,7 @@
         <v>2.6</v>
       </c>
       <c r="AT126">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU126">
         <v>2.29</v>
@@ -25397,7 +25403,7 @@
         <v>143</v>
       </c>
       <c r="P127" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q127">
         <v>12</v>
@@ -25779,7 +25785,7 @@
         <v>87</v>
       </c>
       <c r="P129" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25970,7 +25976,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26161,7 +26167,7 @@
         <v>170</v>
       </c>
       <c r="P131" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26352,7 +26358,7 @@
         <v>152</v>
       </c>
       <c r="P132" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q132">
         <v>2</v>
@@ -26734,7 +26740,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26925,7 +26931,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q135">
         <v>2</v>
@@ -27307,7 +27313,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -28071,7 +28077,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28262,7 +28268,7 @@
         <v>176</v>
       </c>
       <c r="P142" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28349,7 +28355,7 @@
         <v>1.14</v>
       </c>
       <c r="AS142">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT142">
         <v>1.45</v>
@@ -29026,7 +29032,7 @@
         <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29217,7 +29223,7 @@
         <v>124</v>
       </c>
       <c r="P147" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29307,7 +29313,7 @@
         <v>1.27</v>
       </c>
       <c r="AT147">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU147">
         <v>1.26</v>
@@ -29408,7 +29414,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29599,7 +29605,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q149">
         <v>10</v>
@@ -29981,7 +29987,7 @@
         <v>181</v>
       </c>
       <c r="P151" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30172,7 +30178,7 @@
         <v>87</v>
       </c>
       <c r="P152" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q152">
         <v>8</v>
@@ -30936,7 +30942,7 @@
         <v>184</v>
       </c>
       <c r="P156" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -31127,7 +31133,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31318,7 +31324,7 @@
         <v>147</v>
       </c>
       <c r="P158" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31700,7 +31706,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -32273,7 +32279,7 @@
         <v>87</v>
       </c>
       <c r="P163" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32551,7 +32557,7 @@
         <v>1.13</v>
       </c>
       <c r="AS164">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT164">
         <v>0.9</v>
@@ -32846,7 +32852,7 @@
         <v>189</v>
       </c>
       <c r="P166" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q166">
         <v>4</v>
@@ -33037,7 +33043,7 @@
         <v>179</v>
       </c>
       <c r="P167" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33228,7 +33234,7 @@
         <v>190</v>
       </c>
       <c r="P168" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33419,7 +33425,7 @@
         <v>179</v>
       </c>
       <c r="P169" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33801,7 +33807,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -35138,7 +35144,7 @@
         <v>87</v>
       </c>
       <c r="P178" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q178">
         <v>12</v>
@@ -35329,7 +35335,7 @@
         <v>195</v>
       </c>
       <c r="P179" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -35419,7 +35425,7 @@
         <v>1.27</v>
       </c>
       <c r="AT179">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU179">
         <v>1.82</v>
@@ -35989,7 +35995,7 @@
         <v>2.63</v>
       </c>
       <c r="AS182">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT182">
         <v>2.73</v>
@@ -36666,7 +36672,7 @@
         <v>87</v>
       </c>
       <c r="P186" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -37430,7 +37436,7 @@
         <v>201</v>
       </c>
       <c r="P190" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q190">
         <v>1</v>
@@ -38003,7 +38009,7 @@
         <v>114</v>
       </c>
       <c r="P193" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38194,7 +38200,7 @@
         <v>204</v>
       </c>
       <c r="P194" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38576,7 +38582,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39045,7 +39051,7 @@
         <v>0.67</v>
       </c>
       <c r="AS198">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT198">
         <v>0.6</v>
@@ -39149,7 +39155,7 @@
         <v>87</v>
       </c>
       <c r="P199" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -39621,7 +39627,7 @@
         <v>1.7</v>
       </c>
       <c r="AT201">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU201">
         <v>1.95</v>
@@ -39913,7 +39919,7 @@
         <v>212</v>
       </c>
       <c r="P203" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q203">
         <v>8</v>
@@ -40295,7 +40301,7 @@
         <v>137</v>
       </c>
       <c r="P205" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -40486,7 +40492,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -41059,7 +41065,7 @@
         <v>87</v>
       </c>
       <c r="P209" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41250,7 +41256,7 @@
         <v>215</v>
       </c>
       <c r="P210" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41583,6 +41589,197 @@
       </c>
       <c r="BK211">
         <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>2710877</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>44974.70833333334</v>
+      </c>
+      <c r="F212">
+        <v>22</v>
+      </c>
+      <c r="G212" t="s">
+        <v>81</v>
+      </c>
+      <c r="H212" t="s">
+        <v>71</v>
+      </c>
+      <c r="I212">
+        <v>4</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>4</v>
+      </c>
+      <c r="L212">
+        <v>6</v>
+      </c>
+      <c r="M212">
+        <v>2</v>
+      </c>
+      <c r="N212">
+        <v>8</v>
+      </c>
+      <c r="O212" t="s">
+        <v>217</v>
+      </c>
+      <c r="P212" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q212">
+        <v>1</v>
+      </c>
+      <c r="R212">
+        <v>7</v>
+      </c>
+      <c r="S212">
+        <v>8</v>
+      </c>
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
+        <v>2.2</v>
+      </c>
+      <c r="V212">
+        <v>4.5</v>
+      </c>
+      <c r="W212">
+        <v>1.4</v>
+      </c>
+      <c r="X212">
+        <v>2.75</v>
+      </c>
+      <c r="Y212">
+        <v>2.75</v>
+      </c>
+      <c r="Z212">
+        <v>1.4</v>
+      </c>
+      <c r="AA212">
+        <v>8</v>
+      </c>
+      <c r="AB212">
+        <v>1.08</v>
+      </c>
+      <c r="AC212">
+        <v>1.85</v>
+      </c>
+      <c r="AD212">
+        <v>3.86</v>
+      </c>
+      <c r="AE212">
+        <v>4.6</v>
+      </c>
+      <c r="AF212">
+        <v>1.04</v>
+      </c>
+      <c r="AG212">
+        <v>9.5</v>
+      </c>
+      <c r="AH212">
+        <v>1.27</v>
+      </c>
+      <c r="AI212">
+        <v>3.6</v>
+      </c>
+      <c r="AJ212">
+        <v>1.87</v>
+      </c>
+      <c r="AK212">
+        <v>1.83</v>
+      </c>
+      <c r="AL212">
+        <v>1.8</v>
+      </c>
+      <c r="AM212">
+        <v>1.95</v>
+      </c>
+      <c r="AN212">
+        <v>1.18</v>
+      </c>
+      <c r="AO212">
+        <v>1.3</v>
+      </c>
+      <c r="AP212">
+        <v>1.95</v>
+      </c>
+      <c r="AQ212">
+        <v>1.64</v>
+      </c>
+      <c r="AR212">
+        <v>0.3</v>
+      </c>
+      <c r="AS212">
+        <v>1.75</v>
+      </c>
+      <c r="AT212">
+        <v>0.27</v>
+      </c>
+      <c r="AU212">
+        <v>1.9</v>
+      </c>
+      <c r="AV212">
+        <v>1.28</v>
+      </c>
+      <c r="AW212">
+        <v>3.18</v>
+      </c>
+      <c r="AX212">
+        <v>1.42</v>
+      </c>
+      <c r="AY212">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ212">
+        <v>3.8</v>
+      </c>
+      <c r="BA212">
+        <v>1.34</v>
+      </c>
+      <c r="BB212">
+        <v>1.7</v>
+      </c>
+      <c r="BC212">
+        <v>2.1</v>
+      </c>
+      <c r="BD212">
+        <v>2.65</v>
+      </c>
+      <c r="BE212">
+        <v>4.05</v>
+      </c>
+      <c r="BF212">
+        <v>9</v>
+      </c>
+      <c r="BG212">
+        <v>5</v>
+      </c>
+      <c r="BH212">
+        <v>5</v>
+      </c>
+      <c r="BI212">
+        <v>7</v>
+      </c>
+      <c r="BJ212">
+        <v>14</v>
+      </c>
+      <c r="BK212">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="309">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -670,6 +670,27 @@
     <t>['8', '34', '36', '43', '77', '79']</t>
   </si>
   <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['2', '45+4']</t>
+  </si>
+  <si>
+    <t>['20', '45', '56', '63']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['43', '45+1']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -706,9 +727,6 @@
     <t>['1', '66', '68', '79']</t>
   </si>
   <si>
-    <t>['73']</t>
-  </si>
-  <si>
     <t>['49']</t>
   </si>
   <si>
@@ -725,9 +743,6 @@
   </si>
   <si>
     <t>['90+2']</t>
-  </si>
-  <si>
-    <t>['5']</t>
   </si>
   <si>
     <t>['21', '36', '50']</t>
@@ -814,9 +829,6 @@
     <t>['47', '83']</t>
   </si>
   <si>
-    <t>['82']</t>
-  </si>
-  <si>
     <t>['66', '83']</t>
   </si>
   <si>
@@ -883,9 +895,6 @@
     <t>['22']</t>
   </si>
   <si>
-    <t>['65']</t>
-  </si>
-  <si>
     <t>['6', '62']</t>
   </si>
   <si>
@@ -923,6 +932,15 @@
   </si>
   <si>
     <t>['66', '81']</t>
+  </si>
+  <si>
+    <t>['43', '50']</t>
+  </si>
+  <si>
+    <t>['78', '90+2']</t>
+  </si>
+  <si>
+    <t>['29']</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK212"/>
+  <dimension ref="A1:BK221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1528,7 +1546,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1615,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT2">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1719,7 +1737,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1809,7 +1827,7 @@
         <v>1.18</v>
       </c>
       <c r="AT3">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1910,7 +1928,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2000,7 +2018,7 @@
         <v>1.55</v>
       </c>
       <c r="AT4">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2188,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT5">
         <v>1.45</v>
@@ -2292,7 +2310,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2674,7 +2692,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2764,7 +2782,7 @@
         <v>1.73</v>
       </c>
       <c r="AT8">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3056,7 +3074,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3143,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT10">
         <v>2.09</v>
@@ -3334,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT11">
         <v>0.27</v>
@@ -3438,7 +3456,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3629,7 +3647,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q13">
         <v>12</v>
@@ -3719,7 +3737,7 @@
         <v>1.36</v>
       </c>
       <c r="AT13">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3907,10 +3925,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT14">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU14">
         <v>1.45</v>
@@ -4011,7 +4029,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4098,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT15">
         <v>1.55</v>
@@ -4202,7 +4220,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4292,7 +4310,7 @@
         <v>1.18</v>
       </c>
       <c r="AT16">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU16">
         <v>1.09</v>
@@ -4483,7 +4501,7 @@
         <v>1.82</v>
       </c>
       <c r="AT17">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU17">
         <v>2.62</v>
@@ -4584,7 +4602,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4671,10 +4689,10 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT18">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4775,7 +4793,7 @@
         <v>89</v>
       </c>
       <c r="P19" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4862,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT19">
         <v>2.73</v>
@@ -5053,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT20">
         <v>0.27</v>
@@ -5157,7 +5175,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5348,7 +5366,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5626,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT23">
         <v>1.09</v>
@@ -5817,7 +5835,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT24">
         <v>2.27</v>
@@ -5921,7 +5939,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -6008,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -6202,7 +6220,7 @@
         <v>1.73</v>
       </c>
       <c r="AT26">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU26">
         <v>1.31</v>
@@ -6390,10 +6408,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT27">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>1.13</v>
@@ -6581,10 +6599,10 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT28">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU28">
         <v>2.46</v>
@@ -6685,7 +6703,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6775,7 +6793,7 @@
         <v>0.91</v>
       </c>
       <c r="AT29">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU29">
         <v>1.51</v>
@@ -6876,7 +6894,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -6966,7 +6984,7 @@
         <v>1.27</v>
       </c>
       <c r="AT30">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU30">
         <v>1.1</v>
@@ -7067,7 +7085,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7348,7 +7366,7 @@
         <v>1.18</v>
       </c>
       <c r="AT32">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU32">
         <v>1.37</v>
@@ -7449,7 +7467,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7536,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT33">
         <v>0.6</v>
@@ -7831,7 +7849,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7918,7 +7936,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT35">
         <v>2.09</v>
@@ -8022,7 +8040,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8213,7 +8231,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8300,7 +8318,7 @@
         <v>2</v>
       </c>
       <c r="AS37">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT37">
         <v>1.45</v>
@@ -8494,7 +8512,7 @@
         <v>1.82</v>
       </c>
       <c r="AT38">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU38">
         <v>2.14</v>
@@ -9168,7 +9186,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9258,7 +9276,7 @@
         <v>1.75</v>
       </c>
       <c r="AT42">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU42">
         <v>1.59</v>
@@ -9446,10 +9464,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT43">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU43">
         <v>1.56</v>
@@ -9550,7 +9568,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9640,7 +9658,7 @@
         <v>0.91</v>
       </c>
       <c r="AT44">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU44">
         <v>1.52</v>
@@ -9741,7 +9759,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10019,7 +10037,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT46">
         <v>1</v>
@@ -10314,7 +10332,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10401,10 +10419,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT48">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU48">
         <v>1.59</v>
@@ -10505,7 +10523,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10592,7 +10610,7 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT49">
         <v>2.27</v>
@@ -10783,10 +10801,10 @@
         <v>2.33</v>
       </c>
       <c r="AS50">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT50">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>1.69</v>
@@ -10887,7 +10905,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11078,7 +11096,7 @@
         <v>87</v>
       </c>
       <c r="P52" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -11168,7 +11186,7 @@
         <v>1.55</v>
       </c>
       <c r="AT52">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU52">
         <v>1.27</v>
@@ -11356,7 +11374,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT53">
         <v>0.27</v>
@@ -11547,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT54">
         <v>0.27</v>
@@ -11842,7 +11860,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -12033,7 +12051,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12120,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT57">
         <v>0.9</v>
@@ -12224,7 +12242,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12314,7 +12332,7 @@
         <v>1.9</v>
       </c>
       <c r="AT58">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU58">
         <v>2.19</v>
@@ -12502,7 +12520,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT59">
         <v>0.6</v>
@@ -12693,10 +12711,10 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT60">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU60">
         <v>1.62</v>
@@ -12797,7 +12815,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12884,10 +12902,10 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT61">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU61">
         <v>1.78</v>
@@ -13269,7 +13287,7 @@
         <v>1.27</v>
       </c>
       <c r="AT63">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU63">
         <v>1.06</v>
@@ -13370,7 +13388,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13457,10 +13475,10 @@
         <v>0.33</v>
       </c>
       <c r="AS64">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT64">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU64">
         <v>1.02</v>
@@ -13561,7 +13579,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13839,7 +13857,7 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT66">
         <v>2.73</v>
@@ -13943,7 +13961,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14033,7 +14051,7 @@
         <v>0.91</v>
       </c>
       <c r="AT67">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU67">
         <v>1.75</v>
@@ -14325,7 +14343,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14516,7 +14534,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14707,7 +14725,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q71">
         <v>13</v>
@@ -14794,7 +14812,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT71">
         <v>0.27</v>
@@ -14898,7 +14916,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14985,10 +15003,10 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT72">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU72">
         <v>1.72</v>
@@ -15089,7 +15107,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15280,7 +15298,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15367,7 +15385,7 @@
         <v>0.33</v>
       </c>
       <c r="AS74">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT74">
         <v>0.6</v>
@@ -15471,7 +15489,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15561,7 +15579,7 @@
         <v>1.36</v>
       </c>
       <c r="AT75">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU75">
         <v>1.91</v>
@@ -15662,7 +15680,7 @@
         <v>87</v>
       </c>
       <c r="P76" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15749,10 +15767,10 @@
         <v>3</v>
       </c>
       <c r="AS76">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT76">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU76">
         <v>1.18</v>
@@ -16044,7 +16062,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16134,7 +16152,7 @@
         <v>1.27</v>
       </c>
       <c r="AT78">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU78">
         <v>1.08</v>
@@ -16322,10 +16340,10 @@
         <v>1.6</v>
       </c>
       <c r="AS79">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT79">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU79">
         <v>1.66</v>
@@ -16513,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT80">
         <v>1</v>
@@ -16704,7 +16722,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT81">
         <v>1</v>
@@ -16895,7 +16913,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT82">
         <v>0.9</v>
@@ -16999,7 +17017,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17089,7 +17107,7 @@
         <v>1.75</v>
       </c>
       <c r="AT83">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU83">
         <v>1.65</v>
@@ -17190,7 +17208,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17381,7 +17399,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17468,10 +17486,10 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT85">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU85">
         <v>1.27</v>
@@ -17763,7 +17781,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -18235,7 +18253,7 @@
         <v>0.91</v>
       </c>
       <c r="AT89">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU89">
         <v>1.66</v>
@@ -18423,7 +18441,7 @@
         <v>0.25</v>
       </c>
       <c r="AS90">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT90">
         <v>0.27</v>
@@ -18808,7 +18826,7 @@
         <v>1.36</v>
       </c>
       <c r="AT92">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU92">
         <v>1.74</v>
@@ -18909,7 +18927,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18996,10 +19014,10 @@
         <v>2.33</v>
       </c>
       <c r="AS93">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT93">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU93">
         <v>1.14</v>
@@ -19100,7 +19118,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19187,7 +19205,7 @@
         <v>0.8</v>
       </c>
       <c r="AS94">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT94">
         <v>1.45</v>
@@ -19760,7 +19778,7 @@
         <v>1.25</v>
       </c>
       <c r="AS97">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT97">
         <v>1</v>
@@ -19864,7 +19882,7 @@
         <v>87</v>
       </c>
       <c r="P98" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19951,10 +19969,10 @@
         <v>3</v>
       </c>
       <c r="AS98">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT98">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU98">
         <v>1.29</v>
@@ -20055,7 +20073,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20333,10 +20351,10 @@
         <v>1.25</v>
       </c>
       <c r="AS100">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT100">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU100">
         <v>1.63</v>
@@ -20524,10 +20542,10 @@
         <v>1.33</v>
       </c>
       <c r="AS101">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT101">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU101">
         <v>2.6</v>
@@ -20628,7 +20646,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="Q102">
         <v>10</v>
@@ -20715,10 +20733,10 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT102">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU102">
         <v>1.89</v>
@@ -21010,7 +21028,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21201,7 +21219,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21291,7 +21309,7 @@
         <v>2.4</v>
       </c>
       <c r="AT105">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU105">
         <v>2.23</v>
@@ -21392,7 +21410,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21583,7 +21601,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21670,7 +21688,7 @@
         <v>2.6</v>
       </c>
       <c r="AS107">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT107">
         <v>2.09</v>
@@ -21965,7 +21983,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22243,10 +22261,10 @@
         <v>2</v>
       </c>
       <c r="AS110">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT110">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU110">
         <v>2.49</v>
@@ -22625,10 +22643,10 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT112">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU112">
         <v>1.29</v>
@@ -22920,7 +22938,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -23580,10 +23598,10 @@
         <v>0.8</v>
       </c>
       <c r="AS117">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT117">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU117">
         <v>1.71</v>
@@ -23684,7 +23702,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23965,7 +23983,7 @@
         <v>1.82</v>
       </c>
       <c r="AT119">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU119">
         <v>2.09</v>
@@ -24066,7 +24084,7 @@
         <v>87</v>
       </c>
       <c r="P120" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24153,7 +24171,7 @@
         <v>1</v>
       </c>
       <c r="AS120">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT120">
         <v>1.55</v>
@@ -24257,7 +24275,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24344,7 +24362,7 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT121">
         <v>0.9</v>
@@ -24538,7 +24556,7 @@
         <v>1.75</v>
       </c>
       <c r="AT122">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU122">
         <v>1.78</v>
@@ -24726,10 +24744,10 @@
         <v>0.8</v>
       </c>
       <c r="AS123">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT123">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU123">
         <v>1.16</v>
@@ -25021,7 +25039,7 @@
         <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25299,7 +25317,7 @@
         <v>0.17</v>
       </c>
       <c r="AS126">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT126">
         <v>0.27</v>
@@ -25403,7 +25421,7 @@
         <v>143</v>
       </c>
       <c r="P127" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q127">
         <v>12</v>
@@ -25490,10 +25508,10 @@
         <v>1</v>
       </c>
       <c r="AS127">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT127">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU127">
         <v>1.64</v>
@@ -25681,10 +25699,10 @@
         <v>1</v>
       </c>
       <c r="AS128">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT128">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU128">
         <v>1.78</v>
@@ -25785,7 +25803,7 @@
         <v>87</v>
       </c>
       <c r="P129" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25976,7 +25994,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26063,10 +26081,10 @@
         <v>1.17</v>
       </c>
       <c r="AS130">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT130">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU130">
         <v>1.71</v>
@@ -26167,7 +26185,7 @@
         <v>170</v>
       </c>
       <c r="P131" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26254,10 +26272,10 @@
         <v>3</v>
       </c>
       <c r="AS131">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT131">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU131">
         <v>2.15</v>
@@ -26358,7 +26376,7 @@
         <v>152</v>
       </c>
       <c r="P132" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q132">
         <v>2</v>
@@ -26445,7 +26463,7 @@
         <v>0.33</v>
       </c>
       <c r="AS132">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT132">
         <v>0.6</v>
@@ -26639,7 +26657,7 @@
         <v>1.82</v>
       </c>
       <c r="AT133">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU133">
         <v>2.13</v>
@@ -26740,7 +26758,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26827,7 +26845,7 @@
         <v>2.5</v>
       </c>
       <c r="AS134">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT134">
         <v>2.73</v>
@@ -26931,7 +26949,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q135">
         <v>2</v>
@@ -27313,7 +27331,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27403,7 +27421,7 @@
         <v>0.91</v>
       </c>
       <c r="AT137">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU137">
         <v>1.64</v>
@@ -27591,7 +27609,7 @@
         <v>2.29</v>
       </c>
       <c r="AS138">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT138">
         <v>2.09</v>
@@ -27782,7 +27800,7 @@
         <v>0.5</v>
       </c>
       <c r="AS139">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT139">
         <v>1</v>
@@ -28077,7 +28095,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28167,7 +28185,7 @@
         <v>2.4</v>
       </c>
       <c r="AT141">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU141">
         <v>2.2</v>
@@ -28268,7 +28286,7 @@
         <v>176</v>
       </c>
       <c r="P142" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28546,10 +28564,10 @@
         <v>1.33</v>
       </c>
       <c r="AS143">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT143">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU143">
         <v>1.63</v>
@@ -28737,7 +28755,7 @@
         <v>0.29</v>
       </c>
       <c r="AS144">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT144">
         <v>0.27</v>
@@ -28928,7 +28946,7 @@
         <v>1.57</v>
       </c>
       <c r="AS145">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT145">
         <v>1</v>
@@ -29032,7 +29050,7 @@
         <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29122,7 +29140,7 @@
         <v>1.18</v>
       </c>
       <c r="AT146">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU146">
         <v>1.58</v>
@@ -29223,7 +29241,7 @@
         <v>124</v>
       </c>
       <c r="P147" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29414,7 +29432,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29504,7 +29522,7 @@
         <v>1.55</v>
       </c>
       <c r="AT148">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU148">
         <v>1.58</v>
@@ -29605,7 +29623,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="Q149">
         <v>10</v>
@@ -29692,10 +29710,10 @@
         <v>1</v>
       </c>
       <c r="AS149">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT149">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU149">
         <v>2.45</v>
@@ -29883,7 +29901,7 @@
         <v>1.33</v>
       </c>
       <c r="AS150">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT150">
         <v>1.09</v>
@@ -29987,7 +30005,7 @@
         <v>181</v>
       </c>
       <c r="P151" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30077,7 +30095,7 @@
         <v>1.9</v>
       </c>
       <c r="AT151">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU151">
         <v>1.82</v>
@@ -30178,7 +30196,7 @@
         <v>87</v>
       </c>
       <c r="P152" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="Q152">
         <v>8</v>
@@ -30265,7 +30283,7 @@
         <v>0.57</v>
       </c>
       <c r="AS152">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT152">
         <v>1</v>
@@ -30459,7 +30477,7 @@
         <v>1.27</v>
       </c>
       <c r="AT153">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU153">
         <v>1.84</v>
@@ -30650,7 +30668,7 @@
         <v>1.9</v>
       </c>
       <c r="AT154">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU154">
         <v>1.84</v>
@@ -30838,10 +30856,10 @@
         <v>0.57</v>
       </c>
       <c r="AS155">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT155">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU155">
         <v>1.31</v>
@@ -30942,7 +30960,7 @@
         <v>184</v>
       </c>
       <c r="P156" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -31133,7 +31151,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31324,7 +31342,7 @@
         <v>147</v>
       </c>
       <c r="P158" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31411,7 +31429,7 @@
         <v>1.14</v>
       </c>
       <c r="AS158">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT158">
         <v>1.55</v>
@@ -31706,7 +31724,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -31793,7 +31811,7 @@
         <v>2.57</v>
       </c>
       <c r="AS160">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT160">
         <v>2.73</v>
@@ -32178,7 +32196,7 @@
         <v>1.18</v>
       </c>
       <c r="AT162">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU162">
         <v>1.6</v>
@@ -32279,7 +32297,7 @@
         <v>87</v>
       </c>
       <c r="P163" t="s">
-        <v>289</v>
+        <v>221</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32560,7 +32578,7 @@
         <v>1.75</v>
       </c>
       <c r="AT164">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU164">
         <v>1.95</v>
@@ -32748,7 +32766,7 @@
         <v>1.38</v>
       </c>
       <c r="AS165">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT165">
         <v>1</v>
@@ -32852,7 +32870,7 @@
         <v>189</v>
       </c>
       <c r="P166" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q166">
         <v>4</v>
@@ -32939,10 +32957,10 @@
         <v>1.29</v>
       </c>
       <c r="AS166">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT166">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU166">
         <v>1.65</v>
@@ -33043,7 +33061,7 @@
         <v>179</v>
       </c>
       <c r="P167" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33130,10 +33148,10 @@
         <v>1</v>
       </c>
       <c r="AS167">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT167">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU167">
         <v>1.2</v>
@@ -33234,7 +33252,7 @@
         <v>190</v>
       </c>
       <c r="P168" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33425,7 +33443,7 @@
         <v>179</v>
       </c>
       <c r="P169" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33703,7 +33721,7 @@
         <v>0.88</v>
       </c>
       <c r="AS170">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT170">
         <v>1</v>
@@ -33807,7 +33825,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33894,7 +33912,7 @@
         <v>2.25</v>
       </c>
       <c r="AS171">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT171">
         <v>2.27</v>
@@ -34276,10 +34294,10 @@
         <v>0.5</v>
       </c>
       <c r="AS173">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT173">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU173">
         <v>1.79</v>
@@ -34470,7 +34488,7 @@
         <v>1.36</v>
       </c>
       <c r="AT174">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU174">
         <v>1.68</v>
@@ -34849,7 +34867,7 @@
         <v>1.13</v>
       </c>
       <c r="AS176">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT176">
         <v>1.09</v>
@@ -35040,7 +35058,7 @@
         <v>1</v>
       </c>
       <c r="AS177">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT177">
         <v>0.9</v>
@@ -35144,7 +35162,7 @@
         <v>87</v>
       </c>
       <c r="P178" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q178">
         <v>12</v>
@@ -35234,7 +35252,7 @@
         <v>1.82</v>
       </c>
       <c r="AT178">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU178">
         <v>2.08</v>
@@ -35335,7 +35353,7 @@
         <v>195</v>
       </c>
       <c r="P179" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -35616,7 +35634,7 @@
         <v>1.73</v>
       </c>
       <c r="AT180">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU180">
         <v>1.37</v>
@@ -36377,7 +36395,7 @@
         <v>1.22</v>
       </c>
       <c r="AS184">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT184">
         <v>1.55</v>
@@ -36571,7 +36589,7 @@
         <v>1.55</v>
       </c>
       <c r="AT185">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU185">
         <v>1.51</v>
@@ -36672,7 +36690,7 @@
         <v>87</v>
       </c>
       <c r="P186" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -36759,7 +36777,7 @@
         <v>1.89</v>
       </c>
       <c r="AS186">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT186">
         <v>2.09</v>
@@ -36953,7 +36971,7 @@
         <v>1.18</v>
       </c>
       <c r="AT187">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU187">
         <v>1.69</v>
@@ -37436,7 +37454,7 @@
         <v>201</v>
       </c>
       <c r="P190" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q190">
         <v>1</v>
@@ -37523,7 +37541,7 @@
         <v>2.67</v>
       </c>
       <c r="AS190">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT190">
         <v>2.73</v>
@@ -37717,7 +37735,7 @@
         <v>2.4</v>
       </c>
       <c r="AT191">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU191">
         <v>2.24</v>
@@ -37908,7 +37926,7 @@
         <v>1.82</v>
       </c>
       <c r="AT192">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU192">
         <v>2.08</v>
@@ -38009,7 +38027,7 @@
         <v>114</v>
       </c>
       <c r="P193" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38200,7 +38218,7 @@
         <v>204</v>
       </c>
       <c r="P194" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38287,10 +38305,10 @@
         <v>1.2</v>
       </c>
       <c r="AS194">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT194">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU194">
         <v>1.4</v>
@@ -38478,7 +38496,7 @@
         <v>0.89</v>
       </c>
       <c r="AS195">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT195">
         <v>0.9</v>
@@ -38582,7 +38600,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -38669,7 +38687,7 @@
         <v>0.78</v>
       </c>
       <c r="AS196">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT196">
         <v>1</v>
@@ -38860,10 +38878,10 @@
         <v>2.4</v>
       </c>
       <c r="AS197">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT197">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU197">
         <v>1.32</v>
@@ -39054,7 +39072,7 @@
         <v>1.75</v>
       </c>
       <c r="AT198">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU198">
         <v>1.86</v>
@@ -39155,7 +39173,7 @@
         <v>87</v>
       </c>
       <c r="P199" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -39242,10 +39260,10 @@
         <v>0.44</v>
       </c>
       <c r="AS199">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT199">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU199">
         <v>1.62</v>
@@ -39433,10 +39451,10 @@
         <v>1</v>
       </c>
       <c r="AS200">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT200">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU200">
         <v>2.34</v>
@@ -39624,7 +39642,7 @@
         <v>0.33</v>
       </c>
       <c r="AS201">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT201">
         <v>0.27</v>
@@ -39919,7 +39937,7 @@
         <v>212</v>
       </c>
       <c r="P203" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q203">
         <v>8</v>
@@ -40301,7 +40319,7 @@
         <v>137</v>
       </c>
       <c r="P205" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -40391,7 +40409,7 @@
         <v>1.27</v>
       </c>
       <c r="AT205">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU205">
         <v>1.77</v>
@@ -40492,7 +40510,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -40579,7 +40597,7 @@
         <v>1.5</v>
       </c>
       <c r="AS206">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT206">
         <v>1.45</v>
@@ -41065,7 +41083,7 @@
         <v>87</v>
       </c>
       <c r="P209" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41256,7 +41274,7 @@
         <v>215</v>
       </c>
       <c r="P210" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41638,7 +41656,7 @@
         <v>217</v>
       </c>
       <c r="P212" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q212">
         <v>1</v>
@@ -41780,6 +41798,1725 @@
       </c>
       <c r="BK212">
         <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>2710876</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>44975.41666666666</v>
+      </c>
+      <c r="F213">
+        <v>22</v>
+      </c>
+      <c r="G213" t="s">
+        <v>79</v>
+      </c>
+      <c r="H213" t="s">
+        <v>66</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+      <c r="N213">
+        <v>2</v>
+      </c>
+      <c r="O213" t="s">
+        <v>218</v>
+      </c>
+      <c r="P213" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q213">
+        <v>3</v>
+      </c>
+      <c r="R213">
+        <v>7</v>
+      </c>
+      <c r="S213">
+        <v>10</v>
+      </c>
+      <c r="T213">
+        <v>2.5</v>
+      </c>
+      <c r="U213">
+        <v>2.05</v>
+      </c>
+      <c r="V213">
+        <v>5.5</v>
+      </c>
+      <c r="W213">
+        <v>1.5</v>
+      </c>
+      <c r="X213">
+        <v>2.5</v>
+      </c>
+      <c r="Y213">
+        <v>3.5</v>
+      </c>
+      <c r="Z213">
+        <v>1.29</v>
+      </c>
+      <c r="AA213">
+        <v>11</v>
+      </c>
+      <c r="AB213">
+        <v>1.05</v>
+      </c>
+      <c r="AC213">
+        <v>1.8</v>
+      </c>
+      <c r="AD213">
+        <v>3.45</v>
+      </c>
+      <c r="AE213">
+        <v>4.8</v>
+      </c>
+      <c r="AF213">
+        <v>1.08</v>
+      </c>
+      <c r="AG213">
+        <v>7</v>
+      </c>
+      <c r="AH213">
+        <v>1.42</v>
+      </c>
+      <c r="AI213">
+        <v>2.75</v>
+      </c>
+      <c r="AJ213">
+        <v>2.55</v>
+      </c>
+      <c r="AK213">
+        <v>1.52</v>
+      </c>
+      <c r="AL213">
+        <v>2.1</v>
+      </c>
+      <c r="AM213">
+        <v>1.67</v>
+      </c>
+      <c r="AN213">
+        <v>1.12</v>
+      </c>
+      <c r="AO213">
+        <v>1.32</v>
+      </c>
+      <c r="AP213">
+        <v>2.1</v>
+      </c>
+      <c r="AQ213">
+        <v>1.7</v>
+      </c>
+      <c r="AR213">
+        <v>1</v>
+      </c>
+      <c r="AS213">
+        <v>1.64</v>
+      </c>
+      <c r="AT213">
+        <v>1</v>
+      </c>
+      <c r="AU213">
+        <v>1.62</v>
+      </c>
+      <c r="AV213">
+        <v>1.51</v>
+      </c>
+      <c r="AW213">
+        <v>3.13</v>
+      </c>
+      <c r="AX213">
+        <v>1.49</v>
+      </c>
+      <c r="AY213">
+        <v>8.1</v>
+      </c>
+      <c r="AZ213">
+        <v>3.42</v>
+      </c>
+      <c r="BA213">
+        <v>1.47</v>
+      </c>
+      <c r="BB213">
+        <v>1.8</v>
+      </c>
+      <c r="BC213">
+        <v>2.2</v>
+      </c>
+      <c r="BD213">
+        <v>2.75</v>
+      </c>
+      <c r="BE213">
+        <v>3.6</v>
+      </c>
+      <c r="BF213">
+        <v>4</v>
+      </c>
+      <c r="BG213">
+        <v>5</v>
+      </c>
+      <c r="BH213">
+        <v>6</v>
+      </c>
+      <c r="BI213">
+        <v>8</v>
+      </c>
+      <c r="BJ213">
+        <v>10</v>
+      </c>
+      <c r="BK213">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>2710869</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>44975.51041666666</v>
+      </c>
+      <c r="F214">
+        <v>22</v>
+      </c>
+      <c r="G214" t="s">
+        <v>74</v>
+      </c>
+      <c r="H214" t="s">
+        <v>67</v>
+      </c>
+      <c r="I214">
+        <v>2</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>3</v>
+      </c>
+      <c r="L214">
+        <v>2</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>3</v>
+      </c>
+      <c r="O214" t="s">
+        <v>219</v>
+      </c>
+      <c r="P214" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q214">
+        <v>4</v>
+      </c>
+      <c r="R214">
+        <v>6</v>
+      </c>
+      <c r="S214">
+        <v>10</v>
+      </c>
+      <c r="T214">
+        <v>2.2</v>
+      </c>
+      <c r="U214">
+        <v>2.2</v>
+      </c>
+      <c r="V214">
+        <v>5.5</v>
+      </c>
+      <c r="W214">
+        <v>1.4</v>
+      </c>
+      <c r="X214">
+        <v>2.75</v>
+      </c>
+      <c r="Y214">
+        <v>3</v>
+      </c>
+      <c r="Z214">
+        <v>1.36</v>
+      </c>
+      <c r="AA214">
+        <v>8</v>
+      </c>
+      <c r="AB214">
+        <v>1.08</v>
+      </c>
+      <c r="AC214">
+        <v>1.63</v>
+      </c>
+      <c r="AD214">
+        <v>3.85</v>
+      </c>
+      <c r="AE214">
+        <v>5.6</v>
+      </c>
+      <c r="AF214">
+        <v>1.04</v>
+      </c>
+      <c r="AG214">
+        <v>9.5</v>
+      </c>
+      <c r="AH214">
+        <v>1.28</v>
+      </c>
+      <c r="AI214">
+        <v>3.5</v>
+      </c>
+      <c r="AJ214">
+        <v>1.98</v>
+      </c>
+      <c r="AK214">
+        <v>1.82</v>
+      </c>
+      <c r="AL214">
+        <v>1.95</v>
+      </c>
+      <c r="AM214">
+        <v>1.8</v>
+      </c>
+      <c r="AN214">
+        <v>1.1</v>
+      </c>
+      <c r="AO214">
+        <v>1.27</v>
+      </c>
+      <c r="AP214">
+        <v>2.35</v>
+      </c>
+      <c r="AQ214">
+        <v>1.7</v>
+      </c>
+      <c r="AR214">
+        <v>0.7</v>
+      </c>
+      <c r="AS214">
+        <v>1.82</v>
+      </c>
+      <c r="AT214">
+        <v>0.64</v>
+      </c>
+      <c r="AU214">
+        <v>1.54</v>
+      </c>
+      <c r="AV214">
+        <v>1.17</v>
+      </c>
+      <c r="AW214">
+        <v>2.71</v>
+      </c>
+      <c r="AX214">
+        <v>1.36</v>
+      </c>
+      <c r="AY214">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ214">
+        <v>4.2</v>
+      </c>
+      <c r="BA214">
+        <v>1.3</v>
+      </c>
+      <c r="BB214">
+        <v>1.55</v>
+      </c>
+      <c r="BC214">
+        <v>1.85</v>
+      </c>
+      <c r="BD214">
+        <v>2.4</v>
+      </c>
+      <c r="BE214">
+        <v>3</v>
+      </c>
+      <c r="BF214">
+        <v>11</v>
+      </c>
+      <c r="BG214">
+        <v>4</v>
+      </c>
+      <c r="BH214">
+        <v>3</v>
+      </c>
+      <c r="BI214">
+        <v>9</v>
+      </c>
+      <c r="BJ214">
+        <v>14</v>
+      </c>
+      <c r="BK214">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>2710871</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>44975.60416666666</v>
+      </c>
+      <c r="F215">
+        <v>22</v>
+      </c>
+      <c r="G215" t="s">
+        <v>77</v>
+      </c>
+      <c r="H215" t="s">
+        <v>84</v>
+      </c>
+      <c r="I215">
+        <v>2</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>3</v>
+      </c>
+      <c r="L215">
+        <v>4</v>
+      </c>
+      <c r="M215">
+        <v>2</v>
+      </c>
+      <c r="N215">
+        <v>6</v>
+      </c>
+      <c r="O215" t="s">
+        <v>220</v>
+      </c>
+      <c r="P215" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q215">
+        <v>4</v>
+      </c>
+      <c r="R215">
+        <v>4</v>
+      </c>
+      <c r="S215">
+        <v>8</v>
+      </c>
+      <c r="T215">
+        <v>4</v>
+      </c>
+      <c r="U215">
+        <v>1.91</v>
+      </c>
+      <c r="V215">
+        <v>3.25</v>
+      </c>
+      <c r="W215">
+        <v>1.57</v>
+      </c>
+      <c r="X215">
+        <v>2.25</v>
+      </c>
+      <c r="Y215">
+        <v>3.75</v>
+      </c>
+      <c r="Z215">
+        <v>1.25</v>
+      </c>
+      <c r="AA215">
+        <v>13</v>
+      </c>
+      <c r="AB215">
+        <v>1.04</v>
+      </c>
+      <c r="AC215">
+        <v>3.2</v>
+      </c>
+      <c r="AD215">
+        <v>3</v>
+      </c>
+      <c r="AE215">
+        <v>2.55</v>
+      </c>
+      <c r="AF215">
+        <v>1.1</v>
+      </c>
+      <c r="AG215">
+        <v>6.3</v>
+      </c>
+      <c r="AH215">
+        <v>1.56</v>
+      </c>
+      <c r="AI215">
+        <v>2.4</v>
+      </c>
+      <c r="AJ215">
+        <v>2.55</v>
+      </c>
+      <c r="AK215">
+        <v>1.52</v>
+      </c>
+      <c r="AL215">
+        <v>2.2</v>
+      </c>
+      <c r="AM215">
+        <v>1.62</v>
+      </c>
+      <c r="AN215">
+        <v>1.57</v>
+      </c>
+      <c r="AO215">
+        <v>1.42</v>
+      </c>
+      <c r="AP215">
+        <v>1.27</v>
+      </c>
+      <c r="AQ215">
+        <v>1.7</v>
+      </c>
+      <c r="AR215">
+        <v>1.09</v>
+      </c>
+      <c r="AS215">
+        <v>1.82</v>
+      </c>
+      <c r="AT215">
+        <v>1</v>
+      </c>
+      <c r="AU215">
+        <v>1.27</v>
+      </c>
+      <c r="AV215">
+        <v>1.32</v>
+      </c>
+      <c r="AW215">
+        <v>2.59</v>
+      </c>
+      <c r="AX215">
+        <v>2.18</v>
+      </c>
+      <c r="AY215">
+        <v>7.4</v>
+      </c>
+      <c r="AZ215">
+        <v>2.03</v>
+      </c>
+      <c r="BA215">
+        <v>1.42</v>
+      </c>
+      <c r="BB215">
+        <v>1.7</v>
+      </c>
+      <c r="BC215">
+        <v>2.1</v>
+      </c>
+      <c r="BD215">
+        <v>3.1</v>
+      </c>
+      <c r="BE215">
+        <v>4.15</v>
+      </c>
+      <c r="BF215">
+        <v>6</v>
+      </c>
+      <c r="BG215">
+        <v>5</v>
+      </c>
+      <c r="BH215">
+        <v>4</v>
+      </c>
+      <c r="BI215">
+        <v>3</v>
+      </c>
+      <c r="BJ215">
+        <v>10</v>
+      </c>
+      <c r="BK215">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>2710873</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>44975.70833333334</v>
+      </c>
+      <c r="F216">
+        <v>22</v>
+      </c>
+      <c r="G216" t="s">
+        <v>65</v>
+      </c>
+      <c r="H216" t="s">
+        <v>83</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+      <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>2</v>
+      </c>
+      <c r="O216" t="s">
+        <v>87</v>
+      </c>
+      <c r="P216" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q216">
+        <v>5</v>
+      </c>
+      <c r="R216">
+        <v>5</v>
+      </c>
+      <c r="S216">
+        <v>10</v>
+      </c>
+      <c r="T216">
+        <v>4.75</v>
+      </c>
+      <c r="U216">
+        <v>2.2</v>
+      </c>
+      <c r="V216">
+        <v>2.4</v>
+      </c>
+      <c r="W216">
+        <v>1.4</v>
+      </c>
+      <c r="X216">
+        <v>2.75</v>
+      </c>
+      <c r="Y216">
+        <v>2.75</v>
+      </c>
+      <c r="Z216">
+        <v>1.4</v>
+      </c>
+      <c r="AA216">
+        <v>8</v>
+      </c>
+      <c r="AB216">
+        <v>1.08</v>
+      </c>
+      <c r="AC216">
+        <v>4.38</v>
+      </c>
+      <c r="AD216">
+        <v>3.72</v>
+      </c>
+      <c r="AE216">
+        <v>1.8</v>
+      </c>
+      <c r="AF216">
+        <v>1.06</v>
+      </c>
+      <c r="AG216">
+        <v>8</v>
+      </c>
+      <c r="AH216">
+        <v>1.3</v>
+      </c>
+      <c r="AI216">
+        <v>3.4</v>
+      </c>
+      <c r="AJ216">
+        <v>1.91</v>
+      </c>
+      <c r="AK216">
+        <v>1.89</v>
+      </c>
+      <c r="AL216">
+        <v>1.8</v>
+      </c>
+      <c r="AM216">
+        <v>1.95</v>
+      </c>
+      <c r="AN216">
+        <v>1.95</v>
+      </c>
+      <c r="AO216">
+        <v>1.28</v>
+      </c>
+      <c r="AP216">
+        <v>1.23</v>
+      </c>
+      <c r="AQ216">
+        <v>1.8</v>
+      </c>
+      <c r="AR216">
+        <v>2.18</v>
+      </c>
+      <c r="AS216">
+        <v>1.64</v>
+      </c>
+      <c r="AT216">
+        <v>2.25</v>
+      </c>
+      <c r="AU216">
+        <v>1.8</v>
+      </c>
+      <c r="AV216">
+        <v>1.98</v>
+      </c>
+      <c r="AW216">
+        <v>3.78</v>
+      </c>
+      <c r="AX216">
+        <v>2.63</v>
+      </c>
+      <c r="AY216">
+        <v>7.5</v>
+      </c>
+      <c r="AZ216">
+        <v>1.66</v>
+      </c>
+      <c r="BA216">
+        <v>1.27</v>
+      </c>
+      <c r="BB216">
+        <v>1.53</v>
+      </c>
+      <c r="BC216">
+        <v>1.94</v>
+      </c>
+      <c r="BD216">
+        <v>2.53</v>
+      </c>
+      <c r="BE216">
+        <v>3.42</v>
+      </c>
+      <c r="BF216">
+        <v>5</v>
+      </c>
+      <c r="BG216">
+        <v>7</v>
+      </c>
+      <c r="BH216">
+        <v>6</v>
+      </c>
+      <c r="BI216">
+        <v>2</v>
+      </c>
+      <c r="BJ216">
+        <v>11</v>
+      </c>
+      <c r="BK216">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>2710870</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>44976.41666666666</v>
+      </c>
+      <c r="F217">
+        <v>22</v>
+      </c>
+      <c r="G217" t="s">
+        <v>80</v>
+      </c>
+      <c r="H217" t="s">
+        <v>75</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>1</v>
+      </c>
+      <c r="O217" t="s">
+        <v>87</v>
+      </c>
+      <c r="P217" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q217">
+        <v>10</v>
+      </c>
+      <c r="R217">
+        <v>5</v>
+      </c>
+      <c r="S217">
+        <v>15</v>
+      </c>
+      <c r="T217">
+        <v>3.5</v>
+      </c>
+      <c r="U217">
+        <v>2</v>
+      </c>
+      <c r="V217">
+        <v>3.4</v>
+      </c>
+      <c r="W217">
+        <v>1.5</v>
+      </c>
+      <c r="X217">
+        <v>2.5</v>
+      </c>
+      <c r="Y217">
+        <v>3.4</v>
+      </c>
+      <c r="Z217">
+        <v>1.3</v>
+      </c>
+      <c r="AA217">
+        <v>10</v>
+      </c>
+      <c r="AB217">
+        <v>1.06</v>
+      </c>
+      <c r="AC217">
+        <v>2.9</v>
+      </c>
+      <c r="AD217">
+        <v>3.2</v>
+      </c>
+      <c r="AE217">
+        <v>2.6</v>
+      </c>
+      <c r="AF217">
+        <v>1.09</v>
+      </c>
+      <c r="AG217">
+        <v>8</v>
+      </c>
+      <c r="AH217">
+        <v>1.44</v>
+      </c>
+      <c r="AI217">
+        <v>2.8</v>
+      </c>
+      <c r="AJ217">
+        <v>2.3</v>
+      </c>
+      <c r="AK217">
+        <v>1.57</v>
+      </c>
+      <c r="AL217">
+        <v>1.95</v>
+      </c>
+      <c r="AM217">
+        <v>1.8</v>
+      </c>
+      <c r="AN217">
+        <v>1.49</v>
+      </c>
+      <c r="AO217">
+        <v>1.35</v>
+      </c>
+      <c r="AP217">
+        <v>1.41</v>
+      </c>
+      <c r="AQ217">
+        <v>0.6</v>
+      </c>
+      <c r="AR217">
+        <v>1.1</v>
+      </c>
+      <c r="AS217">
+        <v>0.55</v>
+      </c>
+      <c r="AT217">
+        <v>1.27</v>
+      </c>
+      <c r="AU217">
+        <v>1.47</v>
+      </c>
+      <c r="AV217">
+        <v>1.12</v>
+      </c>
+      <c r="AW217">
+        <v>2.59</v>
+      </c>
+      <c r="AX217">
+        <v>1.8</v>
+      </c>
+      <c r="AY217">
+        <v>7.6</v>
+      </c>
+      <c r="AZ217">
+        <v>2.5</v>
+      </c>
+      <c r="BA217">
+        <v>1.29</v>
+      </c>
+      <c r="BB217">
+        <v>1.56</v>
+      </c>
+      <c r="BC217">
+        <v>1.99</v>
+      </c>
+      <c r="BD217">
+        <v>2.61</v>
+      </c>
+      <c r="BE217">
+        <v>3.56</v>
+      </c>
+      <c r="BF217">
+        <v>6</v>
+      </c>
+      <c r="BG217">
+        <v>4</v>
+      </c>
+      <c r="BH217">
+        <v>6</v>
+      </c>
+      <c r="BI217">
+        <v>2</v>
+      </c>
+      <c r="BJ217">
+        <v>12</v>
+      </c>
+      <c r="BK217">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:63">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>2710874</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
+      </c>
+      <c r="D218" t="s">
+        <v>64</v>
+      </c>
+      <c r="E218" s="2">
+        <v>44976.51041666666</v>
+      </c>
+      <c r="F218">
+        <v>22</v>
+      </c>
+      <c r="G218" t="s">
+        <v>82</v>
+      </c>
+      <c r="H218" t="s">
+        <v>76</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+      <c r="N218">
+        <v>2</v>
+      </c>
+      <c r="O218" t="s">
+        <v>221</v>
+      </c>
+      <c r="P218" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q218">
+        <v>7</v>
+      </c>
+      <c r="R218">
+        <v>3</v>
+      </c>
+      <c r="S218">
+        <v>10</v>
+      </c>
+      <c r="T218">
+        <v>3.2</v>
+      </c>
+      <c r="U218">
+        <v>1.95</v>
+      </c>
+      <c r="V218">
+        <v>4</v>
+      </c>
+      <c r="W218">
+        <v>1.53</v>
+      </c>
+      <c r="X218">
+        <v>2.38</v>
+      </c>
+      <c r="Y218">
+        <v>3.5</v>
+      </c>
+      <c r="Z218">
+        <v>1.29</v>
+      </c>
+      <c r="AA218">
+        <v>11</v>
+      </c>
+      <c r="AB218">
+        <v>1.05</v>
+      </c>
+      <c r="AC218">
+        <v>2.39</v>
+      </c>
+      <c r="AD218">
+        <v>3.2</v>
+      </c>
+      <c r="AE218">
+        <v>3.2</v>
+      </c>
+      <c r="AF218">
+        <v>1.1</v>
+      </c>
+      <c r="AG218">
+        <v>7.5</v>
+      </c>
+      <c r="AH218">
+        <v>1.87</v>
+      </c>
+      <c r="AI218">
+        <v>1.94</v>
+      </c>
+      <c r="AJ218">
+        <v>2.37</v>
+      </c>
+      <c r="AK218">
+        <v>1.53</v>
+      </c>
+      <c r="AL218">
+        <v>2</v>
+      </c>
+      <c r="AM218">
+        <v>1.75</v>
+      </c>
+      <c r="AN218">
+        <v>1.38</v>
+      </c>
+      <c r="AO218">
+        <v>1.38</v>
+      </c>
+      <c r="AP218">
+        <v>1.55</v>
+      </c>
+      <c r="AQ218">
+        <v>1.7</v>
+      </c>
+      <c r="AR218">
+        <v>0.9</v>
+      </c>
+      <c r="AS218">
+        <v>1.64</v>
+      </c>
+      <c r="AT218">
+        <v>0.91</v>
+      </c>
+      <c r="AU218">
+        <v>1.97</v>
+      </c>
+      <c r="AV218">
+        <v>1.23</v>
+      </c>
+      <c r="AW218">
+        <v>3.2</v>
+      </c>
+      <c r="AX218">
+        <v>1.76</v>
+      </c>
+      <c r="AY218">
+        <v>7.8</v>
+      </c>
+      <c r="AZ218">
+        <v>2.56</v>
+      </c>
+      <c r="BA218">
+        <v>1.24</v>
+      </c>
+      <c r="BB218">
+        <v>1.47</v>
+      </c>
+      <c r="BC218">
+        <v>1.85</v>
+      </c>
+      <c r="BD218">
+        <v>2.38</v>
+      </c>
+      <c r="BE218">
+        <v>3.18</v>
+      </c>
+      <c r="BF218">
+        <v>6</v>
+      </c>
+      <c r="BG218">
+        <v>3</v>
+      </c>
+      <c r="BH218">
+        <v>7</v>
+      </c>
+      <c r="BI218">
+        <v>3</v>
+      </c>
+      <c r="BJ218">
+        <v>13</v>
+      </c>
+      <c r="BK218">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:63">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>2710875</v>
+      </c>
+      <c r="C219" t="s">
+        <v>63</v>
+      </c>
+      <c r="D219" t="s">
+        <v>64</v>
+      </c>
+      <c r="E219" s="2">
+        <v>44976.60416666666</v>
+      </c>
+      <c r="F219">
+        <v>22</v>
+      </c>
+      <c r="G219" t="s">
+        <v>78</v>
+      </c>
+      <c r="H219" t="s">
+        <v>72</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>1</v>
+      </c>
+      <c r="O219" t="s">
+        <v>222</v>
+      </c>
+      <c r="P219" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q219">
+        <v>6</v>
+      </c>
+      <c r="R219">
+        <v>5</v>
+      </c>
+      <c r="S219">
+        <v>11</v>
+      </c>
+      <c r="T219">
+        <v>2.75</v>
+      </c>
+      <c r="U219">
+        <v>2</v>
+      </c>
+      <c r="V219">
+        <v>4.5</v>
+      </c>
+      <c r="W219">
+        <v>1.5</v>
+      </c>
+      <c r="X219">
+        <v>2.5</v>
+      </c>
+      <c r="Y219">
+        <v>3.5</v>
+      </c>
+      <c r="Z219">
+        <v>1.29</v>
+      </c>
+      <c r="AA219">
+        <v>11</v>
+      </c>
+      <c r="AB219">
+        <v>1.05</v>
+      </c>
+      <c r="AC219">
+        <v>2</v>
+      </c>
+      <c r="AD219">
+        <v>3.25</v>
+      </c>
+      <c r="AE219">
+        <v>3.45</v>
+      </c>
+      <c r="AF219">
+        <v>1.09</v>
+      </c>
+      <c r="AG219">
+        <v>8</v>
+      </c>
+      <c r="AH219">
+        <v>1.45</v>
+      </c>
+      <c r="AI219">
+        <v>2.8</v>
+      </c>
+      <c r="AJ219">
+        <v>2.38</v>
+      </c>
+      <c r="AK219">
+        <v>1.58</v>
+      </c>
+      <c r="AL219">
+        <v>2</v>
+      </c>
+      <c r="AM219">
+        <v>1.75</v>
+      </c>
+      <c r="AN219">
+        <v>1.27</v>
+      </c>
+      <c r="AO219">
+        <v>1.33</v>
+      </c>
+      <c r="AP219">
+        <v>1.71</v>
+      </c>
+      <c r="AQ219">
+        <v>1.5</v>
+      </c>
+      <c r="AR219">
+        <v>1.2</v>
+      </c>
+      <c r="AS219">
+        <v>1.64</v>
+      </c>
+      <c r="AT219">
+        <v>1.09</v>
+      </c>
+      <c r="AU219">
+        <v>1.83</v>
+      </c>
+      <c r="AV219">
+        <v>1.55</v>
+      </c>
+      <c r="AW219">
+        <v>3.38</v>
+      </c>
+      <c r="AX219">
+        <v>1.7</v>
+      </c>
+      <c r="AY219">
+        <v>7.5</v>
+      </c>
+      <c r="AZ219">
+        <v>2.5</v>
+      </c>
+      <c r="BA219">
+        <v>1.32</v>
+      </c>
+      <c r="BB219">
+        <v>1.62</v>
+      </c>
+      <c r="BC219">
+        <v>2.1</v>
+      </c>
+      <c r="BD219">
+        <v>2.77</v>
+      </c>
+      <c r="BE219">
+        <v>3.86</v>
+      </c>
+      <c r="BF219">
+        <v>6</v>
+      </c>
+      <c r="BG219">
+        <v>3</v>
+      </c>
+      <c r="BH219">
+        <v>7</v>
+      </c>
+      <c r="BI219">
+        <v>2</v>
+      </c>
+      <c r="BJ219">
+        <v>13</v>
+      </c>
+      <c r="BK219">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:63">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>2710868</v>
+      </c>
+      <c r="C220" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" t="s">
+        <v>64</v>
+      </c>
+      <c r="E220" s="2">
+        <v>44976.70833333334</v>
+      </c>
+      <c r="F220">
+        <v>22</v>
+      </c>
+      <c r="G220" t="s">
+        <v>68</v>
+      </c>
+      <c r="H220" t="s">
+        <v>69</v>
+      </c>
+      <c r="I220">
+        <v>2</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>2</v>
+      </c>
+      <c r="L220">
+        <v>2</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>2</v>
+      </c>
+      <c r="O220" t="s">
+        <v>223</v>
+      </c>
+      <c r="P220" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q220">
+        <v>5</v>
+      </c>
+      <c r="R220">
+        <v>6</v>
+      </c>
+      <c r="S220">
+        <v>11</v>
+      </c>
+      <c r="T220">
+        <v>1.53</v>
+      </c>
+      <c r="U220">
+        <v>2.88</v>
+      </c>
+      <c r="V220">
+        <v>12</v>
+      </c>
+      <c r="W220">
+        <v>1.25</v>
+      </c>
+      <c r="X220">
+        <v>3.75</v>
+      </c>
+      <c r="Y220">
+        <v>2.2</v>
+      </c>
+      <c r="Z220">
+        <v>1.62</v>
+      </c>
+      <c r="AA220">
+        <v>5</v>
+      </c>
+      <c r="AB220">
+        <v>1.17</v>
+      </c>
+      <c r="AC220">
+        <v>1.16</v>
+      </c>
+      <c r="AD220">
+        <v>7.7</v>
+      </c>
+      <c r="AE220">
+        <v>12</v>
+      </c>
+      <c r="AF220">
+        <v>1.02</v>
+      </c>
+      <c r="AG220">
+        <v>15.5</v>
+      </c>
+      <c r="AH220">
+        <v>1.16</v>
+      </c>
+      <c r="AI220">
+        <v>4.8</v>
+      </c>
+      <c r="AJ220">
+        <v>1.37</v>
+      </c>
+      <c r="AK220">
+        <v>2.7</v>
+      </c>
+      <c r="AL220">
+        <v>2.38</v>
+      </c>
+      <c r="AM220">
+        <v>1.53</v>
+      </c>
+      <c r="AN220">
+        <v>1.02</v>
+      </c>
+      <c r="AO220">
+        <v>1.09</v>
+      </c>
+      <c r="AP220">
+        <v>5.25</v>
+      </c>
+      <c r="AQ220">
+        <v>2.6</v>
+      </c>
+      <c r="AR220">
+        <v>0.8</v>
+      </c>
+      <c r="AS220">
+        <v>2.64</v>
+      </c>
+      <c r="AT220">
+        <v>0.73</v>
+      </c>
+      <c r="AU220">
+        <v>2.32</v>
+      </c>
+      <c r="AV220">
+        <v>1</v>
+      </c>
+      <c r="AW220">
+        <v>3.32</v>
+      </c>
+      <c r="AX220">
+        <v>1.17</v>
+      </c>
+      <c r="AY220">
+        <v>13</v>
+      </c>
+      <c r="AZ220">
+        <v>7</v>
+      </c>
+      <c r="BA220">
+        <v>1.27</v>
+      </c>
+      <c r="BB220">
+        <v>1.53</v>
+      </c>
+      <c r="BC220">
+        <v>1.93</v>
+      </c>
+      <c r="BD220">
+        <v>2.53</v>
+      </c>
+      <c r="BE220">
+        <v>3.42</v>
+      </c>
+      <c r="BF220">
+        <v>6</v>
+      </c>
+      <c r="BG220">
+        <v>5</v>
+      </c>
+      <c r="BH220">
+        <v>9</v>
+      </c>
+      <c r="BI220">
+        <v>8</v>
+      </c>
+      <c r="BJ220">
+        <v>15</v>
+      </c>
+      <c r="BK220">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:63">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>2710872</v>
+      </c>
+      <c r="C221" t="s">
+        <v>63</v>
+      </c>
+      <c r="D221" t="s">
+        <v>64</v>
+      </c>
+      <c r="E221" s="2">
+        <v>44977.70833333334</v>
+      </c>
+      <c r="F221">
+        <v>22</v>
+      </c>
+      <c r="G221" t="s">
+        <v>73</v>
+      </c>
+      <c r="H221" t="s">
+        <v>70</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>1</v>
+      </c>
+      <c r="O221" t="s">
+        <v>224</v>
+      </c>
+      <c r="P221" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q221">
+        <v>4</v>
+      </c>
+      <c r="R221">
+        <v>5</v>
+      </c>
+      <c r="S221">
+        <v>9</v>
+      </c>
+      <c r="T221">
+        <v>3.75</v>
+      </c>
+      <c r="U221">
+        <v>1.83</v>
+      </c>
+      <c r="V221">
+        <v>3.75</v>
+      </c>
+      <c r="W221">
+        <v>1.62</v>
+      </c>
+      <c r="X221">
+        <v>2.2</v>
+      </c>
+      <c r="Y221">
+        <v>4</v>
+      </c>
+      <c r="Z221">
+        <v>1.22</v>
+      </c>
+      <c r="AA221">
+        <v>13</v>
+      </c>
+      <c r="AB221">
+        <v>1.04</v>
+      </c>
+      <c r="AC221">
+        <v>2.85</v>
+      </c>
+      <c r="AD221">
+        <v>3</v>
+      </c>
+      <c r="AE221">
+        <v>2.88</v>
+      </c>
+      <c r="AF221">
+        <v>1.11</v>
+      </c>
+      <c r="AG221">
+        <v>6.75</v>
+      </c>
+      <c r="AH221">
+        <v>1.55</v>
+      </c>
+      <c r="AI221">
+        <v>2.48</v>
+      </c>
+      <c r="AJ221">
+        <v>2.53</v>
+      </c>
+      <c r="AK221">
+        <v>1.42</v>
+      </c>
+      <c r="AL221">
+        <v>2.25</v>
+      </c>
+      <c r="AM221">
+        <v>1.57</v>
+      </c>
+      <c r="AN221">
+        <v>1.45</v>
+      </c>
+      <c r="AO221">
+        <v>1.43</v>
+      </c>
+      <c r="AP221">
+        <v>1.47</v>
+      </c>
+      <c r="AQ221">
+        <v>0.91</v>
+      </c>
+      <c r="AR221">
+        <v>0.6</v>
+      </c>
+      <c r="AS221">
+        <v>1.08</v>
+      </c>
+      <c r="AT221">
+        <v>0.55</v>
+      </c>
+      <c r="AU221">
+        <v>1.2</v>
+      </c>
+      <c r="AV221">
+        <v>1.5</v>
+      </c>
+      <c r="AW221">
+        <v>2.7</v>
+      </c>
+      <c r="AX221">
+        <v>2.05</v>
+      </c>
+      <c r="AY221">
+        <v>7.5</v>
+      </c>
+      <c r="AZ221">
+        <v>2.02</v>
+      </c>
+      <c r="BA221">
+        <v>1.41</v>
+      </c>
+      <c r="BB221">
+        <v>1.76</v>
+      </c>
+      <c r="BC221">
+        <v>2.28</v>
+      </c>
+      <c r="BD221">
+        <v>3.04</v>
+      </c>
+      <c r="BE221">
+        <v>4.4</v>
+      </c>
+      <c r="BF221">
+        <v>7</v>
+      </c>
+      <c r="BG221">
+        <v>4</v>
+      </c>
+      <c r="BH221">
+        <v>4</v>
+      </c>
+      <c r="BI221">
+        <v>3</v>
+      </c>
+      <c r="BJ221">
+        <v>11</v>
+      </c>
+      <c r="BK221">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="311">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -691,6 +691,9 @@
     <t>['82']</t>
   </si>
   <si>
+    <t>['7', '9']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -941,6 +944,9 @@
   </si>
   <si>
     <t>['29']</t>
+  </si>
+  <si>
+    <t>['65', '68', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK221"/>
+  <dimension ref="A1:BK222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1546,7 +1552,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1737,7 +1743,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1928,7 +1934,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2310,7 +2316,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2692,7 +2698,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -3074,7 +3080,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3456,7 +3462,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3647,7 +3653,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q13">
         <v>12</v>
@@ -4029,7 +4035,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4119,7 +4125,7 @@
         <v>1.82</v>
       </c>
       <c r="AT15">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4220,7 +4226,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4602,7 +4608,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4793,7 +4799,7 @@
         <v>89</v>
       </c>
       <c r="P19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5071,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT20">
         <v>0.27</v>
@@ -5366,7 +5372,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5835,7 +5841,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT24">
         <v>2.27</v>
@@ -5939,7 +5945,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -6703,7 +6709,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6894,7 +6900,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7085,7 +7091,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7467,7 +7473,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7748,7 +7754,7 @@
         <v>2.4</v>
       </c>
       <c r="AT34">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -8040,7 +8046,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8231,7 +8237,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9186,7 +9192,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9568,7 +9574,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9759,7 +9765,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10332,7 +10338,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10419,7 +10425,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT48">
         <v>1.09</v>
@@ -10523,7 +10529,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10905,7 +10911,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11096,7 +11102,7 @@
         <v>87</v>
       </c>
       <c r="P52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -11860,7 +11866,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -12051,7 +12057,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12242,7 +12248,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12815,7 +12821,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -13388,7 +13394,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13579,7 +13585,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13961,7 +13967,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14242,7 +14248,7 @@
         <v>1.18</v>
       </c>
       <c r="AT68">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU68">
         <v>1.34</v>
@@ -14343,7 +14349,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14534,7 +14540,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14725,7 +14731,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q71">
         <v>13</v>
@@ -14916,7 +14922,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15107,7 +15113,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15298,7 +15304,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15680,7 +15686,7 @@
         <v>87</v>
       </c>
       <c r="P76" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15961,7 +15967,7 @@
         <v>1.55</v>
       </c>
       <c r="AT77">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU77">
         <v>1.57</v>
@@ -16062,7 +16068,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16722,7 +16728,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT81">
         <v>1</v>
@@ -17017,7 +17023,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17208,7 +17214,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17399,7 +17405,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17781,7 +17787,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -18927,7 +18933,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -19118,7 +19124,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19399,7 +19405,7 @@
         <v>1.27</v>
       </c>
       <c r="AT95">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU95">
         <v>1.14</v>
@@ -19882,7 +19888,7 @@
         <v>87</v>
       </c>
       <c r="P98" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19969,7 +19975,7 @@
         <v>3</v>
       </c>
       <c r="AS98">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT98">
         <v>2.25</v>
@@ -20073,7 +20079,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21028,7 +21034,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21219,7 +21225,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21410,7 +21416,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21601,7 +21607,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21983,7 +21989,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22938,7 +22944,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -23702,7 +23708,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -24084,7 +24090,7 @@
         <v>87</v>
       </c>
       <c r="P120" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24174,7 +24180,7 @@
         <v>1.64</v>
       </c>
       <c r="AT120">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU120">
         <v>1.75</v>
@@ -24275,7 +24281,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24362,7 +24368,7 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT121">
         <v>0.9</v>
@@ -25039,7 +25045,7 @@
         <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25421,7 +25427,7 @@
         <v>143</v>
       </c>
       <c r="P127" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q127">
         <v>12</v>
@@ -25803,7 +25809,7 @@
         <v>87</v>
       </c>
       <c r="P129" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25994,7 +26000,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26185,7 +26191,7 @@
         <v>170</v>
       </c>
       <c r="P131" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26376,7 +26382,7 @@
         <v>152</v>
       </c>
       <c r="P132" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q132">
         <v>2</v>
@@ -26463,7 +26469,7 @@
         <v>0.33</v>
       </c>
       <c r="AS132">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT132">
         <v>0.6</v>
@@ -26758,7 +26764,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26949,7 +26955,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q135">
         <v>2</v>
@@ -27331,7 +27337,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27994,7 +28000,7 @@
         <v>1.27</v>
       </c>
       <c r="AT140">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU140">
         <v>1.82</v>
@@ -28095,7 +28101,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28286,7 +28292,7 @@
         <v>176</v>
       </c>
       <c r="P142" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -29050,7 +29056,7 @@
         <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29241,7 +29247,7 @@
         <v>124</v>
       </c>
       <c r="P147" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29432,7 +29438,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -30005,7 +30011,7 @@
         <v>181</v>
       </c>
       <c r="P151" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30283,7 +30289,7 @@
         <v>0.57</v>
       </c>
       <c r="AS152">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT152">
         <v>1</v>
@@ -30960,7 +30966,7 @@
         <v>184</v>
       </c>
       <c r="P156" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -31151,7 +31157,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31342,7 +31348,7 @@
         <v>147</v>
       </c>
       <c r="P158" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31432,7 +31438,7 @@
         <v>1.64</v>
       </c>
       <c r="AT158">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU158">
         <v>2.04</v>
@@ -31724,7 +31730,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -32870,7 +32876,7 @@
         <v>189</v>
       </c>
       <c r="P166" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q166">
         <v>4</v>
@@ -33061,7 +33067,7 @@
         <v>179</v>
       </c>
       <c r="P167" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33252,7 +33258,7 @@
         <v>190</v>
       </c>
       <c r="P168" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33443,7 +33449,7 @@
         <v>179</v>
       </c>
       <c r="P169" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33825,7 +33831,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34106,7 +34112,7 @@
         <v>0.91</v>
       </c>
       <c r="AT172">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU172">
         <v>1.65</v>
@@ -34867,7 +34873,7 @@
         <v>1.13</v>
       </c>
       <c r="AS176">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT176">
         <v>1.09</v>
@@ -35162,7 +35168,7 @@
         <v>87</v>
       </c>
       <c r="P178" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q178">
         <v>12</v>
@@ -35353,7 +35359,7 @@
         <v>195</v>
       </c>
       <c r="P179" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -36398,7 +36404,7 @@
         <v>1.08</v>
       </c>
       <c r="AT184">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU184">
         <v>1.22</v>
@@ -36690,7 +36696,7 @@
         <v>87</v>
       </c>
       <c r="P186" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -37454,7 +37460,7 @@
         <v>201</v>
       </c>
       <c r="P190" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q190">
         <v>1</v>
@@ -38027,7 +38033,7 @@
         <v>114</v>
       </c>
       <c r="P193" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38218,7 +38224,7 @@
         <v>204</v>
       </c>
       <c r="P194" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38305,7 +38311,7 @@
         <v>1.2</v>
       </c>
       <c r="AS194">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT194">
         <v>1</v>
@@ -38600,7 +38606,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39937,7 +39943,7 @@
         <v>212</v>
       </c>
       <c r="P203" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q203">
         <v>8</v>
@@ -40027,7 +40033,7 @@
         <v>1.73</v>
       </c>
       <c r="AT203">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU203">
         <v>1.42</v>
@@ -40319,7 +40325,7 @@
         <v>137</v>
       </c>
       <c r="P205" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -40510,7 +40516,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -41083,7 +41089,7 @@
         <v>87</v>
       </c>
       <c r="P209" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41274,7 +41280,7 @@
         <v>215</v>
       </c>
       <c r="P210" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41656,7 +41662,7 @@
         <v>217</v>
       </c>
       <c r="P212" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q212">
         <v>1</v>
@@ -42229,7 +42235,7 @@
         <v>220</v>
       </c>
       <c r="P215" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42420,7 +42426,7 @@
         <v>87</v>
       </c>
       <c r="P216" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -42611,7 +42617,7 @@
         <v>87</v>
       </c>
       <c r="P217" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q217">
         <v>10</v>
@@ -42698,7 +42704,7 @@
         <v>1.1</v>
       </c>
       <c r="AS217">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT217">
         <v>1.27</v>
@@ -42802,7 +42808,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q218">
         <v>7</v>
@@ -43517,6 +43523,197 @@
       </c>
       <c r="BK221">
         <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:63">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>2710884</v>
+      </c>
+      <c r="C222" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="2">
+        <v>44981.70833333334</v>
+      </c>
+      <c r="F222">
+        <v>23</v>
+      </c>
+      <c r="G222" t="s">
+        <v>80</v>
+      </c>
+      <c r="H222" t="s">
+        <v>74</v>
+      </c>
+      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>2</v>
+      </c>
+      <c r="L222">
+        <v>2</v>
+      </c>
+      <c r="M222">
+        <v>3</v>
+      </c>
+      <c r="N222">
+        <v>5</v>
+      </c>
+      <c r="O222" t="s">
+        <v>225</v>
+      </c>
+      <c r="P222" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q222">
+        <v>3</v>
+      </c>
+      <c r="R222">
+        <v>3</v>
+      </c>
+      <c r="S222">
+        <v>6</v>
+      </c>
+      <c r="T222">
+        <v>4.33</v>
+      </c>
+      <c r="U222">
+        <v>2.1</v>
+      </c>
+      <c r="V222">
+        <v>2.63</v>
+      </c>
+      <c r="W222">
+        <v>1.44</v>
+      </c>
+      <c r="X222">
+        <v>2.63</v>
+      </c>
+      <c r="Y222">
+        <v>3.25</v>
+      </c>
+      <c r="Z222">
+        <v>1.33</v>
+      </c>
+      <c r="AA222">
+        <v>9</v>
+      </c>
+      <c r="AB222">
+        <v>1.07</v>
+      </c>
+      <c r="AC222">
+        <v>3.05</v>
+      </c>
+      <c r="AD222">
+        <v>3.05</v>
+      </c>
+      <c r="AE222">
+        <v>2.1</v>
+      </c>
+      <c r="AF222">
+        <v>1.06</v>
+      </c>
+      <c r="AG222">
+        <v>10</v>
+      </c>
+      <c r="AH222">
+        <v>1.36</v>
+      </c>
+      <c r="AI222">
+        <v>3.2</v>
+      </c>
+      <c r="AJ222">
+        <v>2</v>
+      </c>
+      <c r="AK222">
+        <v>1.75</v>
+      </c>
+      <c r="AL222">
+        <v>1.95</v>
+      </c>
+      <c r="AM222">
+        <v>1.8</v>
+      </c>
+      <c r="AN222">
+        <v>1.77</v>
+      </c>
+      <c r="AO222">
+        <v>1.3</v>
+      </c>
+      <c r="AP222">
+        <v>1.27</v>
+      </c>
+      <c r="AQ222">
+        <v>0.55</v>
+      </c>
+      <c r="AR222">
+        <v>1.55</v>
+      </c>
+      <c r="AS222">
+        <v>0.5</v>
+      </c>
+      <c r="AT222">
+        <v>1.67</v>
+      </c>
+      <c r="AU222">
+        <v>1.47</v>
+      </c>
+      <c r="AV222">
+        <v>1.32</v>
+      </c>
+      <c r="AW222">
+        <v>2.79</v>
+      </c>
+      <c r="AX222">
+        <v>2.04</v>
+      </c>
+      <c r="AY222">
+        <v>7.5</v>
+      </c>
+      <c r="AZ222">
+        <v>2.02</v>
+      </c>
+      <c r="BA222">
+        <v>1.35</v>
+      </c>
+      <c r="BB222">
+        <v>1.57</v>
+      </c>
+      <c r="BC222">
+        <v>1.92</v>
+      </c>
+      <c r="BD222">
+        <v>2.43</v>
+      </c>
+      <c r="BE222">
+        <v>3.2</v>
+      </c>
+      <c r="BF222">
+        <v>3</v>
+      </c>
+      <c r="BG222">
+        <v>9</v>
+      </c>
+      <c r="BH222">
+        <v>3</v>
+      </c>
+      <c r="BI222">
+        <v>12</v>
+      </c>
+      <c r="BJ222">
+        <v>6</v>
+      </c>
+      <c r="BK222">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="313">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -694,6 +694,15 @@
     <t>['7', '9']</t>
   </si>
   <si>
+    <t>['22', '51']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -877,9 +886,6 @@
     <t>['64']</t>
   </si>
   <si>
-    <t>['40']</t>
-  </si>
-  <si>
     <t>['83', '89']</t>
   </si>
   <si>
@@ -913,9 +919,6 @@
     <t>['54', '74']</t>
   </si>
   <si>
-    <t>['74']</t>
-  </si>
-  <si>
     <t>['65', '80']</t>
   </si>
   <si>
@@ -947,6 +950,9 @@
   </si>
   <si>
     <t>['65', '68', '90+5']</t>
+  </si>
+  <si>
+    <t>['41']</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK222"/>
+  <dimension ref="A1:BK226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1552,7 +1558,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1743,7 +1749,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1934,7 +1940,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2215,7 +2221,7 @@
         <v>2.64</v>
       </c>
       <c r="AT5">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2316,7 +2322,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2403,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT6">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2594,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT7">
         <v>0.6</v>
@@ -2698,7 +2704,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2979,7 +2985,7 @@
         <v>1.82</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3080,7 +3086,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3170,7 +3176,7 @@
         <v>1.08</v>
       </c>
       <c r="AT10">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3462,7 +3468,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3549,10 +3555,10 @@
         <v>1</v>
       </c>
       <c r="AS12">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT12">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3653,7 +3659,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q13">
         <v>12</v>
@@ -4035,7 +4041,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4226,7 +4232,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4608,7 +4614,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4799,7 +4805,7 @@
         <v>89</v>
       </c>
       <c r="P19" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5372,7 +5378,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5844,7 +5850,7 @@
         <v>0.5</v>
       </c>
       <c r="AT24">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU24">
         <v>1.51</v>
@@ -5945,7 +5951,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -6035,7 +6041,7 @@
         <v>1.64</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6709,7 +6715,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6796,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT29">
         <v>2.25</v>
@@ -6900,7 +6906,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -6987,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT30">
         <v>1.09</v>
@@ -7091,7 +7097,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7178,10 +7184,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT31">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU31">
         <v>1.68</v>
@@ -7473,7 +7479,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7751,7 +7757,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT34">
         <v>1.67</v>
@@ -7945,7 +7951,7 @@
         <v>1.64</v>
       </c>
       <c r="AT35">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU35">
         <v>1.54</v>
@@ -8046,7 +8052,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8237,7 +8243,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8327,7 +8333,7 @@
         <v>1.64</v>
       </c>
       <c r="AT37">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU37">
         <v>1.69</v>
@@ -8897,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT40">
         <v>0.9</v>
@@ -9192,7 +9198,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9574,7 +9580,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9661,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT44">
         <v>0.91</v>
@@ -9765,7 +9771,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9852,7 +9858,7 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT45">
         <v>2.73</v>
@@ -10234,10 +10240,10 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT47">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU47">
         <v>2.24</v>
@@ -10338,7 +10344,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10529,7 +10535,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10619,7 +10625,7 @@
         <v>1.08</v>
       </c>
       <c r="AT49">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU49">
         <v>1</v>
@@ -10911,7 +10917,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11102,7 +11108,7 @@
         <v>87</v>
       </c>
       <c r="P52" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -11762,7 +11768,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -11866,7 +11872,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -11956,7 +11962,7 @@
         <v>1.82</v>
       </c>
       <c r="AT56">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU56">
         <v>2.1</v>
@@ -12057,7 +12063,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12248,7 +12254,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12821,7 +12827,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -13290,7 +13296,7 @@
         <v>1.75</v>
       </c>
       <c r="AS63">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT63">
         <v>1</v>
@@ -13394,7 +13400,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13585,7 +13591,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13675,7 +13681,7 @@
         <v>1.36</v>
       </c>
       <c r="AT65">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU65">
         <v>2.05</v>
@@ -13967,7 +13973,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14054,7 +14060,7 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT67">
         <v>0.55</v>
@@ -14349,7 +14355,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14439,7 +14445,7 @@
         <v>1.75</v>
       </c>
       <c r="AT69">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU69">
         <v>1.59</v>
@@ -14540,7 +14546,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14627,7 +14633,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT70">
         <v>1.09</v>
@@ -14731,7 +14737,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q71">
         <v>13</v>
@@ -14922,7 +14928,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15113,7 +15119,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15203,7 +15209,7 @@
         <v>1.73</v>
       </c>
       <c r="AT73">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU73">
         <v>1.28</v>
@@ -15304,7 +15310,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15686,7 +15692,7 @@
         <v>87</v>
       </c>
       <c r="P76" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16068,7 +16074,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16155,7 +16161,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT78">
         <v>1.27</v>
@@ -16731,7 +16737,7 @@
         <v>0.5</v>
       </c>
       <c r="AT81">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU81">
         <v>1.41</v>
@@ -17023,7 +17029,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17214,7 +17220,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17301,7 +17307,7 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT84">
         <v>0.27</v>
@@ -17405,7 +17411,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17686,7 +17692,7 @@
         <v>1.82</v>
       </c>
       <c r="AT86">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU86">
         <v>2.15</v>
@@ -17787,7 +17793,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17877,7 +17883,7 @@
         <v>1.18</v>
       </c>
       <c r="AT87">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU87">
         <v>1.38</v>
@@ -18065,7 +18071,7 @@
         <v>3</v>
       </c>
       <c r="AS88">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT88">
         <v>2.73</v>
@@ -18256,7 +18262,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT89">
         <v>0.64</v>
@@ -18933,7 +18939,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -19124,7 +19130,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19214,7 +19220,7 @@
         <v>1.64</v>
       </c>
       <c r="AT94">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU94">
         <v>1.66</v>
@@ -19402,7 +19408,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT95">
         <v>1.67</v>
@@ -19787,7 +19793,7 @@
         <v>1.64</v>
       </c>
       <c r="AT97">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU97">
         <v>1.7</v>
@@ -19888,7 +19894,7 @@
         <v>87</v>
       </c>
       <c r="P98" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -20079,7 +20085,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20933,7 +20939,7 @@
         <v>1.55</v>
       </c>
       <c r="AT103">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU103">
         <v>1.51</v>
@@ -21034,7 +21040,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21121,10 +21127,10 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT104">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU104">
         <v>2.02</v>
@@ -21225,7 +21231,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21312,7 +21318,7 @@
         <v>1.4</v>
       </c>
       <c r="AS105">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT105">
         <v>0.91</v>
@@ -21416,7 +21422,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21503,7 +21509,7 @@
         <v>0.2</v>
       </c>
       <c r="AS106">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT106">
         <v>0.27</v>
@@ -21607,7 +21613,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21697,7 +21703,7 @@
         <v>1.82</v>
       </c>
       <c r="AT107">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU107">
         <v>1.66</v>
@@ -21989,7 +21995,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22944,7 +22950,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -23031,10 +23037,10 @@
         <v>2.67</v>
       </c>
       <c r="AS114">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT114">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU114">
         <v>1.22</v>
@@ -23225,7 +23231,7 @@
         <v>1.36</v>
       </c>
       <c r="AT115">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU115">
         <v>1.85</v>
@@ -23413,7 +23419,7 @@
         <v>2.4</v>
       </c>
       <c r="AS116">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT116">
         <v>2.73</v>
@@ -23708,7 +23714,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23795,7 +23801,7 @@
         <v>0.2</v>
       </c>
       <c r="AS118">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT118">
         <v>0.6</v>
@@ -24090,7 +24096,7 @@
         <v>87</v>
       </c>
       <c r="P120" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24281,7 +24287,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -25045,7 +25051,7 @@
         <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25427,7 +25433,7 @@
         <v>143</v>
       </c>
       <c r="P127" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q127">
         <v>12</v>
@@ -25809,7 +25815,7 @@
         <v>87</v>
       </c>
       <c r="P129" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25899,7 +25905,7 @@
         <v>1.9</v>
       </c>
       <c r="AT129">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU129">
         <v>1.91</v>
@@ -26000,7 +26006,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26191,7 +26197,7 @@
         <v>170</v>
       </c>
       <c r="P131" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26382,7 +26388,7 @@
         <v>152</v>
       </c>
       <c r="P132" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q132">
         <v>2</v>
@@ -26764,7 +26770,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26955,7 +26961,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q135">
         <v>2</v>
@@ -27045,7 +27051,7 @@
         <v>1.36</v>
       </c>
       <c r="AT135">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU135">
         <v>1.8</v>
@@ -27337,7 +27343,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27424,7 +27430,7 @@
         <v>1</v>
       </c>
       <c r="AS137">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT137">
         <v>1</v>
@@ -27618,7 +27624,7 @@
         <v>1.82</v>
       </c>
       <c r="AT138">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU138">
         <v>1.36</v>
@@ -27997,7 +28003,7 @@
         <v>1.33</v>
       </c>
       <c r="AS140">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT140">
         <v>1.67</v>
@@ -28101,7 +28107,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28188,7 +28194,7 @@
         <v>0.83</v>
       </c>
       <c r="AS141">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT141">
         <v>0.73</v>
@@ -28292,7 +28298,7 @@
         <v>176</v>
       </c>
       <c r="P142" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28382,7 +28388,7 @@
         <v>1.75</v>
       </c>
       <c r="AT142">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU142">
         <v>1.89</v>
@@ -28955,7 +28961,7 @@
         <v>1.08</v>
       </c>
       <c r="AT145">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU145">
         <v>1.21</v>
@@ -29056,7 +29062,7 @@
         <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29247,7 +29253,7 @@
         <v>124</v>
       </c>
       <c r="P147" t="s">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29334,7 +29340,7 @@
         <v>0.14</v>
       </c>
       <c r="AS147">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT147">
         <v>0.27</v>
@@ -29438,7 +29444,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -30011,7 +30017,7 @@
         <v>181</v>
       </c>
       <c r="P151" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30480,7 +30486,7 @@
         <v>0.71</v>
       </c>
       <c r="AS153">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT153">
         <v>0.73</v>
@@ -30966,7 +30972,7 @@
         <v>184</v>
       </c>
       <c r="P156" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -31053,7 +31059,7 @@
         <v>0.71</v>
       </c>
       <c r="AS156">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT156">
         <v>0.6</v>
@@ -31157,7 +31163,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31247,7 +31253,7 @@
         <v>1.73</v>
       </c>
       <c r="AT157">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU157">
         <v>1.4</v>
@@ -31348,7 +31354,7 @@
         <v>147</v>
       </c>
       <c r="P158" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31730,7 +31736,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -32393,7 +32399,7 @@
         <v>1.55</v>
       </c>
       <c r="AT163">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU163">
         <v>1.56</v>
@@ -32775,7 +32781,7 @@
         <v>1.64</v>
       </c>
       <c r="AT165">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU165">
         <v>1.83</v>
@@ -32876,7 +32882,7 @@
         <v>189</v>
       </c>
       <c r="P166" t="s">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="Q166">
         <v>4</v>
@@ -33067,7 +33073,7 @@
         <v>179</v>
       </c>
       <c r="P167" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33258,7 +33264,7 @@
         <v>190</v>
       </c>
       <c r="P168" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33348,7 +33354,7 @@
         <v>1.73</v>
       </c>
       <c r="AT168">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU168">
         <v>1.33</v>
@@ -33449,7 +33455,7 @@
         <v>179</v>
       </c>
       <c r="P169" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33536,7 +33542,7 @@
         <v>0.25</v>
       </c>
       <c r="AS169">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT169">
         <v>0.27</v>
@@ -33831,7 +33837,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33921,7 +33927,7 @@
         <v>1.64</v>
       </c>
       <c r="AT171">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU171">
         <v>1.99</v>
@@ -34109,7 +34115,7 @@
         <v>1.38</v>
       </c>
       <c r="AS172">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT172">
         <v>1.67</v>
@@ -35168,7 +35174,7 @@
         <v>87</v>
       </c>
       <c r="P178" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q178">
         <v>12</v>
@@ -35359,7 +35365,7 @@
         <v>195</v>
       </c>
       <c r="P179" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -35446,7 +35452,7 @@
         <v>0.25</v>
       </c>
       <c r="AS179">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT179">
         <v>0.27</v>
@@ -35828,10 +35834,10 @@
         <v>1.22</v>
       </c>
       <c r="AS181">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT181">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU181">
         <v>1.35</v>
@@ -36696,7 +36702,7 @@
         <v>87</v>
       </c>
       <c r="P186" t="s">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -36786,7 +36792,7 @@
         <v>1.64</v>
       </c>
       <c r="AT186">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU186">
         <v>1.79</v>
@@ -37165,10 +37171,10 @@
         <v>2.33</v>
       </c>
       <c r="AS188">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT188">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU188">
         <v>2.19</v>
@@ -37359,7 +37365,7 @@
         <v>1.9</v>
       </c>
       <c r="AT189">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU189">
         <v>1.94</v>
@@ -37460,7 +37466,7 @@
         <v>201</v>
       </c>
       <c r="P190" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q190">
         <v>1</v>
@@ -37738,7 +37744,7 @@
         <v>0.75</v>
       </c>
       <c r="AS191">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT191">
         <v>0.55</v>
@@ -38033,7 +38039,7 @@
         <v>114</v>
       </c>
       <c r="P193" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38120,7 +38126,7 @@
         <v>1.11</v>
       </c>
       <c r="AS193">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT193">
         <v>1.09</v>
@@ -38224,7 +38230,7 @@
         <v>204</v>
       </c>
       <c r="P194" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38606,7 +38612,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39839,7 +39845,7 @@
         <v>0.67</v>
       </c>
       <c r="AS202">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT202">
         <v>0.6</v>
@@ -39943,7 +39949,7 @@
         <v>212</v>
       </c>
       <c r="P203" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q203">
         <v>8</v>
@@ -40224,7 +40230,7 @@
         <v>1.36</v>
       </c>
       <c r="AT204">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU204">
         <v>1.9</v>
@@ -40325,7 +40331,7 @@
         <v>137</v>
       </c>
       <c r="P205" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -40412,7 +40418,7 @@
         <v>1</v>
       </c>
       <c r="AS205">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT205">
         <v>1.09</v>
@@ -40516,7 +40522,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -40606,7 +40612,7 @@
         <v>1.08</v>
       </c>
       <c r="AT206">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU206">
         <v>1.18</v>
@@ -40797,7 +40803,7 @@
         <v>1.18</v>
       </c>
       <c r="AT207">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU207">
         <v>1.66</v>
@@ -41089,7 +41095,7 @@
         <v>87</v>
       </c>
       <c r="P209" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41280,7 +41286,7 @@
         <v>215</v>
       </c>
       <c r="P210" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41367,10 +41373,10 @@
         <v>2.2</v>
       </c>
       <c r="AS210">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT210">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU210">
         <v>1.56</v>
@@ -41558,7 +41564,7 @@
         <v>0.3</v>
       </c>
       <c r="AS211">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT211">
         <v>0.27</v>
@@ -41662,7 +41668,7 @@
         <v>217</v>
       </c>
       <c r="P212" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q212">
         <v>1</v>
@@ -42235,7 +42241,7 @@
         <v>220</v>
       </c>
       <c r="P215" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42426,7 +42432,7 @@
         <v>87</v>
       </c>
       <c r="P216" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -42617,7 +42623,7 @@
         <v>87</v>
       </c>
       <c r="P217" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q217">
         <v>10</v>
@@ -42808,7 +42814,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q218">
         <v>7</v>
@@ -43572,7 +43578,7 @@
         <v>225</v>
       </c>
       <c r="P222" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q222">
         <v>3</v>
@@ -43714,6 +43720,770 @@
       </c>
       <c r="BK222">
         <v>21</v>
+      </c>
+    </row>
+    <row r="223" spans="1:63">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>2710881</v>
+      </c>
+      <c r="C223" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="2">
+        <v>44982.41666666666</v>
+      </c>
+      <c r="F223">
+        <v>23</v>
+      </c>
+      <c r="G223" t="s">
+        <v>75</v>
+      </c>
+      <c r="H223" t="s">
+        <v>77</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>2</v>
+      </c>
+      <c r="L223">
+        <v>2</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+      <c r="N223">
+        <v>3</v>
+      </c>
+      <c r="O223" t="s">
+        <v>226</v>
+      </c>
+      <c r="P223" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>4</v>
+      </c>
+      <c r="S223">
+        <v>4</v>
+      </c>
+      <c r="T223">
+        <v>3.2</v>
+      </c>
+      <c r="U223">
+        <v>1.83</v>
+      </c>
+      <c r="V223">
+        <v>4.5</v>
+      </c>
+      <c r="W223">
+        <v>1.67</v>
+      </c>
+      <c r="X223">
+        <v>2.1</v>
+      </c>
+      <c r="Y223">
+        <v>4.33</v>
+      </c>
+      <c r="Z223">
+        <v>1.2</v>
+      </c>
+      <c r="AA223">
+        <v>15</v>
+      </c>
+      <c r="AB223">
+        <v>1.03</v>
+      </c>
+      <c r="AC223">
+        <v>2.45</v>
+      </c>
+      <c r="AD223">
+        <v>2.88</v>
+      </c>
+      <c r="AE223">
+        <v>3</v>
+      </c>
+      <c r="AF223">
+        <v>1.13</v>
+      </c>
+      <c r="AG223">
+        <v>6.5</v>
+      </c>
+      <c r="AH223">
+        <v>1.62</v>
+      </c>
+      <c r="AI223">
+        <v>2.3</v>
+      </c>
+      <c r="AJ223">
+        <v>2.49</v>
+      </c>
+      <c r="AK223">
+        <v>1.43</v>
+      </c>
+      <c r="AL223">
+        <v>2.38</v>
+      </c>
+      <c r="AM223">
+        <v>1.53</v>
+      </c>
+      <c r="AN223">
+        <v>1.28</v>
+      </c>
+      <c r="AO223">
+        <v>1.37</v>
+      </c>
+      <c r="AP223">
+        <v>1.63</v>
+      </c>
+      <c r="AQ223">
+        <v>0.91</v>
+      </c>
+      <c r="AR223">
+        <v>1</v>
+      </c>
+      <c r="AS223">
+        <v>1.08</v>
+      </c>
+      <c r="AT223">
+        <v>0.92</v>
+      </c>
+      <c r="AU223">
+        <v>1.48</v>
+      </c>
+      <c r="AV223">
+        <v>1.04</v>
+      </c>
+      <c r="AW223">
+        <v>2.52</v>
+      </c>
+      <c r="AX223">
+        <v>1.64</v>
+      </c>
+      <c r="AY223">
+        <v>8</v>
+      </c>
+      <c r="AZ223">
+        <v>2.65</v>
+      </c>
+      <c r="BA223">
+        <v>1.38</v>
+      </c>
+      <c r="BB223">
+        <v>1.62</v>
+      </c>
+      <c r="BC223">
+        <v>1.98</v>
+      </c>
+      <c r="BD223">
+        <v>2.5</v>
+      </c>
+      <c r="BE223">
+        <v>3.35</v>
+      </c>
+      <c r="BF223">
+        <v>4</v>
+      </c>
+      <c r="BG223">
+        <v>6</v>
+      </c>
+      <c r="BH223">
+        <v>6</v>
+      </c>
+      <c r="BI223">
+        <v>9</v>
+      </c>
+      <c r="BJ223">
+        <v>10</v>
+      </c>
+      <c r="BK223">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:63">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>2710880</v>
+      </c>
+      <c r="C224" t="s">
+        <v>63</v>
+      </c>
+      <c r="D224" t="s">
+        <v>64</v>
+      </c>
+      <c r="E224" s="2">
+        <v>44982.51041666666</v>
+      </c>
+      <c r="F224">
+        <v>23</v>
+      </c>
+      <c r="G224" t="s">
+        <v>69</v>
+      </c>
+      <c r="H224" t="s">
+        <v>82</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>1</v>
+      </c>
+      <c r="O224" t="s">
+        <v>227</v>
+      </c>
+      <c r="P224" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q224">
+        <v>4</v>
+      </c>
+      <c r="R224">
+        <v>6</v>
+      </c>
+      <c r="S224">
+        <v>10</v>
+      </c>
+      <c r="T224">
+        <v>3.75</v>
+      </c>
+      <c r="U224">
+        <v>1.95</v>
+      </c>
+      <c r="V224">
+        <v>3.4</v>
+      </c>
+      <c r="W224">
+        <v>1.53</v>
+      </c>
+      <c r="X224">
+        <v>2.38</v>
+      </c>
+      <c r="Y224">
+        <v>3.75</v>
+      </c>
+      <c r="Z224">
+        <v>1.25</v>
+      </c>
+      <c r="AA224">
+        <v>11</v>
+      </c>
+      <c r="AB224">
+        <v>1.05</v>
+      </c>
+      <c r="AC224">
+        <v>2.8</v>
+      </c>
+      <c r="AD224">
+        <v>2.9</v>
+      </c>
+      <c r="AE224">
+        <v>2.55</v>
+      </c>
+      <c r="AF224">
+        <v>1.1</v>
+      </c>
+      <c r="AG224">
+        <v>7.5</v>
+      </c>
+      <c r="AH224">
+        <v>1.55</v>
+      </c>
+      <c r="AI224">
+        <v>2.5</v>
+      </c>
+      <c r="AJ224">
+        <v>2.4</v>
+      </c>
+      <c r="AK224">
+        <v>1.5</v>
+      </c>
+      <c r="AL224">
+        <v>2.05</v>
+      </c>
+      <c r="AM224">
+        <v>1.7</v>
+      </c>
+      <c r="AN224">
+        <v>1.49</v>
+      </c>
+      <c r="AO224">
+        <v>1.35</v>
+      </c>
+      <c r="AP224">
+        <v>1.4</v>
+      </c>
+      <c r="AQ224">
+        <v>1.27</v>
+      </c>
+      <c r="AR224">
+        <v>1.45</v>
+      </c>
+      <c r="AS224">
+        <v>1.42</v>
+      </c>
+      <c r="AT224">
+        <v>1.33</v>
+      </c>
+      <c r="AU224">
+        <v>1.34</v>
+      </c>
+      <c r="AV224">
+        <v>1.4</v>
+      </c>
+      <c r="AW224">
+        <v>2.74</v>
+      </c>
+      <c r="AX224">
+        <v>2</v>
+      </c>
+      <c r="AY224">
+        <v>7.5</v>
+      </c>
+      <c r="AZ224">
+        <v>2.06</v>
+      </c>
+      <c r="BA224">
+        <v>1.45</v>
+      </c>
+      <c r="BB224">
+        <v>1.75</v>
+      </c>
+      <c r="BC224">
+        <v>2.18</v>
+      </c>
+      <c r="BD224">
+        <v>2.85</v>
+      </c>
+      <c r="BE224">
+        <v>3.9</v>
+      </c>
+      <c r="BF224">
+        <v>4</v>
+      </c>
+      <c r="BG224">
+        <v>3</v>
+      </c>
+      <c r="BH224">
+        <v>2</v>
+      </c>
+      <c r="BI224">
+        <v>10</v>
+      </c>
+      <c r="BJ224">
+        <v>6</v>
+      </c>
+      <c r="BK224">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:63">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>2710883</v>
+      </c>
+      <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="2">
+        <v>44982.60416666666</v>
+      </c>
+      <c r="F225">
+        <v>23</v>
+      </c>
+      <c r="G225" t="s">
+        <v>83</v>
+      </c>
+      <c r="H225" t="s">
+        <v>78</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+      <c r="N225">
+        <v>2</v>
+      </c>
+      <c r="O225" t="s">
+        <v>201</v>
+      </c>
+      <c r="P225" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q225">
+        <v>7</v>
+      </c>
+      <c r="R225">
+        <v>4</v>
+      </c>
+      <c r="S225">
+        <v>11</v>
+      </c>
+      <c r="T225">
+        <v>2.38</v>
+      </c>
+      <c r="U225">
+        <v>2.2</v>
+      </c>
+      <c r="V225">
+        <v>5</v>
+      </c>
+      <c r="W225">
+        <v>1.4</v>
+      </c>
+      <c r="X225">
+        <v>2.75</v>
+      </c>
+      <c r="Y225">
+        <v>2.75</v>
+      </c>
+      <c r="Z225">
+        <v>1.4</v>
+      </c>
+      <c r="AA225">
+        <v>8</v>
+      </c>
+      <c r="AB225">
+        <v>1.08</v>
+      </c>
+      <c r="AC225">
+        <v>1.75</v>
+      </c>
+      <c r="AD225">
+        <v>3.5</v>
+      </c>
+      <c r="AE225">
+        <v>4.33</v>
+      </c>
+      <c r="AF225">
+        <v>1.05</v>
+      </c>
+      <c r="AG225">
+        <v>11</v>
+      </c>
+      <c r="AH225">
+        <v>1.33</v>
+      </c>
+      <c r="AI225">
+        <v>3.4</v>
+      </c>
+      <c r="AJ225">
+        <v>2.1</v>
+      </c>
+      <c r="AK225">
+        <v>1.75</v>
+      </c>
+      <c r="AL225">
+        <v>1.91</v>
+      </c>
+      <c r="AM225">
+        <v>1.91</v>
+      </c>
+      <c r="AN225">
+        <v>1.19</v>
+      </c>
+      <c r="AO225">
+        <v>1.28</v>
+      </c>
+      <c r="AP225">
+        <v>2</v>
+      </c>
+      <c r="AQ225">
+        <v>2.4</v>
+      </c>
+      <c r="AR225">
+        <v>2.09</v>
+      </c>
+      <c r="AS225">
+        <v>2.27</v>
+      </c>
+      <c r="AT225">
+        <v>2</v>
+      </c>
+      <c r="AU225">
+        <v>2.36</v>
+      </c>
+      <c r="AV225">
+        <v>1.66</v>
+      </c>
+      <c r="AW225">
+        <v>4.02</v>
+      </c>
+      <c r="AX225">
+        <v>1.53</v>
+      </c>
+      <c r="AY225">
+        <v>8</v>
+      </c>
+      <c r="AZ225">
+        <v>3</v>
+      </c>
+      <c r="BA225">
+        <v>1.38</v>
+      </c>
+      <c r="BB225">
+        <v>1.63</v>
+      </c>
+      <c r="BC225">
+        <v>2</v>
+      </c>
+      <c r="BD225">
+        <v>2.6</v>
+      </c>
+      <c r="BE225">
+        <v>3.45</v>
+      </c>
+      <c r="BF225">
+        <v>8</v>
+      </c>
+      <c r="BG225">
+        <v>3</v>
+      </c>
+      <c r="BH225">
+        <v>12</v>
+      </c>
+      <c r="BI225">
+        <v>5</v>
+      </c>
+      <c r="BJ225">
+        <v>20</v>
+      </c>
+      <c r="BK225">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:63">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>2710887</v>
+      </c>
+      <c r="C226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E226" s="2">
+        <v>44982.70833333334</v>
+      </c>
+      <c r="F226">
+        <v>23</v>
+      </c>
+      <c r="G226" t="s">
+        <v>70</v>
+      </c>
+      <c r="H226" t="s">
+        <v>79</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>1</v>
+      </c>
+      <c r="O226" t="s">
+        <v>228</v>
+      </c>
+      <c r="P226" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q226">
+        <v>7</v>
+      </c>
+      <c r="R226">
+        <v>8</v>
+      </c>
+      <c r="S226">
+        <v>15</v>
+      </c>
+      <c r="T226">
+        <v>3.75</v>
+      </c>
+      <c r="U226">
+        <v>2</v>
+      </c>
+      <c r="V226">
+        <v>3.2</v>
+      </c>
+      <c r="W226">
+        <v>1.5</v>
+      </c>
+      <c r="X226">
+        <v>2.5</v>
+      </c>
+      <c r="Y226">
+        <v>3.4</v>
+      </c>
+      <c r="Z226">
+        <v>1.3</v>
+      </c>
+      <c r="AA226">
+        <v>10</v>
+      </c>
+      <c r="AB226">
+        <v>1.06</v>
+      </c>
+      <c r="AC226">
+        <v>3.1</v>
+      </c>
+      <c r="AD226">
+        <v>3.15</v>
+      </c>
+      <c r="AE226">
+        <v>2.45</v>
+      </c>
+      <c r="AF226">
+        <v>1.08</v>
+      </c>
+      <c r="AG226">
+        <v>8.5</v>
+      </c>
+      <c r="AH226">
+        <v>1.42</v>
+      </c>
+      <c r="AI226">
+        <v>2.9</v>
+      </c>
+      <c r="AJ226">
+        <v>2.24</v>
+      </c>
+      <c r="AK226">
+        <v>1.53</v>
+      </c>
+      <c r="AL226">
+        <v>1.95</v>
+      </c>
+      <c r="AM226">
+        <v>1.8</v>
+      </c>
+      <c r="AN226">
+        <v>1.52</v>
+      </c>
+      <c r="AO226">
+        <v>1.34</v>
+      </c>
+      <c r="AP226">
+        <v>1.38</v>
+      </c>
+      <c r="AQ226">
+        <v>1.27</v>
+      </c>
+      <c r="AR226">
+        <v>2.27</v>
+      </c>
+      <c r="AS226">
+        <v>1.42</v>
+      </c>
+      <c r="AT226">
+        <v>2.08</v>
+      </c>
+      <c r="AU226">
+        <v>1.82</v>
+      </c>
+      <c r="AV226">
+        <v>1.63</v>
+      </c>
+      <c r="AW226">
+        <v>3.45</v>
+      </c>
+      <c r="AX226">
+        <v>2</v>
+      </c>
+      <c r="AY226">
+        <v>7.5</v>
+      </c>
+      <c r="AZ226">
+        <v>2.07</v>
+      </c>
+      <c r="BA226">
+        <v>1.44</v>
+      </c>
+      <c r="BB226">
+        <v>1.72</v>
+      </c>
+      <c r="BC226">
+        <v>2.15</v>
+      </c>
+      <c r="BD226">
+        <v>2.8</v>
+      </c>
+      <c r="BE226">
+        <v>3.75</v>
+      </c>
+      <c r="BF226">
+        <v>5</v>
+      </c>
+      <c r="BG226">
+        <v>4</v>
+      </c>
+      <c r="BH226">
+        <v>5</v>
+      </c>
+      <c r="BI226">
+        <v>9</v>
+      </c>
+      <c r="BJ226">
+        <v>10</v>
+      </c>
+      <c r="BK226">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="318">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -703,6 +703,18 @@
     <t>['40']</t>
   </si>
   <si>
+    <t>['35', '89']</t>
+  </si>
+  <si>
+    <t>['17', '32', '64']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['63', '78']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -710,9 +722,6 @@
   </si>
   <si>
     <t>['49', '81', '90']</t>
-  </si>
-  <si>
-    <t>['24']</t>
   </si>
   <si>
     <t>['61', '75']</t>
@@ -953,6 +962,12 @@
   </si>
   <si>
     <t>['41']</t>
+  </si>
+  <si>
+    <t>['4', '19', '45+1']</t>
+  </si>
+  <si>
+    <t>['18', '67', '85']</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK226"/>
+  <dimension ref="A1:BK230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1558,7 +1573,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1749,7 +1764,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1836,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT3">
         <v>1.27</v>
@@ -1940,7 +1955,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2322,7 +2337,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2603,7 +2618,7 @@
         <v>1.42</v>
       </c>
       <c r="AT7">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2704,7 +2719,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2791,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT8">
         <v>2.25</v>
@@ -2982,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT9">
         <v>0.92</v>
@@ -3086,7 +3101,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3468,7 +3483,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3659,7 +3674,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q13">
         <v>12</v>
@@ -3746,10 +3761,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT13">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4041,7 +4056,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4232,7 +4247,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4319,7 +4334,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT16">
         <v>2.25</v>
@@ -4510,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT17">
         <v>0.55</v>
@@ -4614,7 +4629,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4805,7 +4820,7 @@
         <v>89</v>
       </c>
       <c r="P19" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4895,7 +4910,7 @@
         <v>1.64</v>
       </c>
       <c r="AT19">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5378,7 +5393,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5659,7 +5674,7 @@
         <v>1.82</v>
       </c>
       <c r="AT23">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU23">
         <v>2.21</v>
@@ -5951,7 +5966,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -6229,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT26">
         <v>0.91</v>
@@ -6614,7 +6629,7 @@
         <v>2.64</v>
       </c>
       <c r="AT28">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU28">
         <v>2.46</v>
@@ -6715,7 +6730,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6906,7 +6921,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7097,7 +7112,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7375,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT32">
         <v>0.73</v>
@@ -7479,7 +7494,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7569,7 +7584,7 @@
         <v>1.82</v>
       </c>
       <c r="AT33">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU33">
         <v>1.45</v>
@@ -8052,7 +8067,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8139,10 +8154,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT36">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AU36">
         <v>2.23</v>
@@ -8243,7 +8258,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8521,7 +8536,7 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT38">
         <v>1.27</v>
@@ -9198,7 +9213,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9288,7 +9303,7 @@
         <v>1.75</v>
       </c>
       <c r="AT42">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU42">
         <v>1.59</v>
@@ -9580,7 +9595,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9771,7 +9786,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9861,7 +9876,7 @@
         <v>1.42</v>
       </c>
       <c r="AT45">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AU45">
         <v>1.15</v>
@@ -10344,7 +10359,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10535,7 +10550,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10917,7 +10932,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11004,10 +11019,10 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT51">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU51">
         <v>1.4</v>
@@ -11108,7 +11123,7 @@
         <v>87</v>
       </c>
       <c r="P52" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -11872,7 +11887,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -11959,7 +11974,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT56">
         <v>1.33</v>
@@ -12063,7 +12078,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12254,7 +12269,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12535,7 +12550,7 @@
         <v>1.82</v>
       </c>
       <c r="AT59">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU59">
         <v>1.68</v>
@@ -12827,7 +12842,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -13105,7 +13120,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT62">
         <v>0.27</v>
@@ -13400,7 +13415,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13490,7 +13505,7 @@
         <v>1.08</v>
       </c>
       <c r="AT64">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU64">
         <v>1.02</v>
@@ -13591,7 +13606,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13678,7 +13693,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT65">
         <v>2</v>
@@ -13872,7 +13887,7 @@
         <v>1.82</v>
       </c>
       <c r="AT66">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AU66">
         <v>1.23</v>
@@ -13973,7 +13988,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14251,7 +14266,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT68">
         <v>1.67</v>
@@ -14355,7 +14370,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14546,7 +14561,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14636,7 +14651,7 @@
         <v>2.27</v>
       </c>
       <c r="AT70">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU70">
         <v>2.46</v>
@@ -14737,7 +14752,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q71">
         <v>13</v>
@@ -14928,7 +14943,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15119,7 +15134,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15206,7 +15221,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT73">
         <v>1.33</v>
@@ -15310,7 +15325,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15400,7 +15415,7 @@
         <v>1.64</v>
       </c>
       <c r="AT74">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU74">
         <v>1.71</v>
@@ -15588,7 +15603,7 @@
         <v>3</v>
       </c>
       <c r="AS75">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT75">
         <v>1.09</v>
@@ -15692,7 +15707,7 @@
         <v>87</v>
       </c>
       <c r="P76" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16074,7 +16089,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -17029,7 +17044,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17220,7 +17235,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17411,7 +17426,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17689,7 +17704,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT86">
         <v>2</v>
@@ -17793,7 +17808,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17880,7 +17895,7 @@
         <v>2.25</v>
       </c>
       <c r="AS87">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT87">
         <v>2.08</v>
@@ -18074,7 +18089,7 @@
         <v>2.27</v>
       </c>
       <c r="AT88">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AU88">
         <v>2.54</v>
@@ -18265,7 +18280,7 @@
         <v>1.08</v>
       </c>
       <c r="AT89">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU89">
         <v>1.66</v>
@@ -18647,7 +18662,7 @@
         <v>1.9</v>
       </c>
       <c r="AT91">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU91">
         <v>2.05</v>
@@ -18835,7 +18850,7 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT92">
         <v>0.55</v>
@@ -18939,7 +18954,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -19130,7 +19145,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19894,7 +19909,7 @@
         <v>87</v>
       </c>
       <c r="P98" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -20085,7 +20100,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20172,10 +20187,10 @@
         <v>0.25</v>
       </c>
       <c r="AS99">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT99">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU99">
         <v>1.25</v>
@@ -21040,7 +21055,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21231,7 +21246,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21422,7 +21437,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21613,7 +21628,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21894,7 +21909,7 @@
         <v>1.75</v>
       </c>
       <c r="AT108">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU108">
         <v>1.88</v>
@@ -21995,7 +22010,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22464,7 +22479,7 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT111">
         <v>0.9</v>
@@ -22846,7 +22861,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT113">
         <v>1</v>
@@ -22950,7 +22965,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -23228,7 +23243,7 @@
         <v>0.83</v>
       </c>
       <c r="AS115">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT115">
         <v>1.33</v>
@@ -23422,7 +23437,7 @@
         <v>1.42</v>
       </c>
       <c r="AT116">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AU116">
         <v>1.99</v>
@@ -23613,7 +23628,7 @@
         <v>1.64</v>
       </c>
       <c r="AT117">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU117">
         <v>1.71</v>
@@ -23714,7 +23729,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23804,7 +23819,7 @@
         <v>2.27</v>
       </c>
       <c r="AT118">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU118">
         <v>2.16</v>
@@ -23992,7 +24007,7 @@
         <v>1.14</v>
       </c>
       <c r="AS119">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT119">
         <v>1</v>
@@ -24096,7 +24111,7 @@
         <v>87</v>
       </c>
       <c r="P120" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24287,7 +24302,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -25051,7 +25066,7 @@
         <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25138,10 +25153,10 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT125">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU125">
         <v>1.57</v>
@@ -25433,7 +25448,7 @@
         <v>143</v>
       </c>
       <c r="P127" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q127">
         <v>12</v>
@@ -25815,7 +25830,7 @@
         <v>87</v>
       </c>
       <c r="P129" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26006,7 +26021,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26197,7 +26212,7 @@
         <v>170</v>
       </c>
       <c r="P131" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26388,7 +26403,7 @@
         <v>152</v>
       </c>
       <c r="P132" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q132">
         <v>2</v>
@@ -26478,7 +26493,7 @@
         <v>0.5</v>
       </c>
       <c r="AT132">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU132">
         <v>1.33</v>
@@ -26666,10 +26681,10 @@
         <v>0.67</v>
       </c>
       <c r="AS133">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT133">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU133">
         <v>2.13</v>
@@ -26770,7 +26785,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26860,7 +26875,7 @@
         <v>1.64</v>
       </c>
       <c r="AT134">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AU134">
         <v>1.86</v>
@@ -26961,7 +26976,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q135">
         <v>2</v>
@@ -27048,7 +27063,7 @@
         <v>2</v>
       </c>
       <c r="AS135">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT135">
         <v>2.08</v>
@@ -27239,7 +27254,7 @@
         <v>1.33</v>
       </c>
       <c r="AS136">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT136">
         <v>0.9</v>
@@ -27343,7 +27358,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -28107,7 +28122,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28298,7 +28313,7 @@
         <v>176</v>
       </c>
       <c r="P142" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -29062,7 +29077,7 @@
         <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29149,7 +29164,7 @@
         <v>1.14</v>
       </c>
       <c r="AS146">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT146">
         <v>0.91</v>
@@ -29444,7 +29459,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29916,7 +29931,7 @@
         <v>1.64</v>
       </c>
       <c r="AT150">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU150">
         <v>1.71</v>
@@ -30017,7 +30032,7 @@
         <v>181</v>
       </c>
       <c r="P151" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30871,7 +30886,7 @@
         <v>1.82</v>
       </c>
       <c r="AT155">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU155">
         <v>1.31</v>
@@ -30972,7 +30987,7 @@
         <v>184</v>
       </c>
       <c r="P156" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -31062,7 +31077,7 @@
         <v>1.08</v>
       </c>
       <c r="AT156">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU156">
         <v>1.67</v>
@@ -31163,7 +31178,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31250,7 +31265,7 @@
         <v>2.14</v>
       </c>
       <c r="AS157">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT157">
         <v>2.08</v>
@@ -31354,7 +31369,7 @@
         <v>147</v>
       </c>
       <c r="P158" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31632,7 +31647,7 @@
         <v>1.14</v>
       </c>
       <c r="AS159">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT159">
         <v>0.9</v>
@@ -31736,7 +31751,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -31826,7 +31841,7 @@
         <v>1.64</v>
       </c>
       <c r="AT160">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AU160">
         <v>1.75</v>
@@ -32014,10 +32029,10 @@
         <v>1.14</v>
       </c>
       <c r="AS161">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT161">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU161">
         <v>2.13</v>
@@ -32205,7 +32220,7 @@
         <v>1.22</v>
       </c>
       <c r="AS162">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT162">
         <v>1</v>
@@ -33073,7 +33088,7 @@
         <v>179</v>
       </c>
       <c r="P167" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33264,7 +33279,7 @@
         <v>190</v>
       </c>
       <c r="P168" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33351,7 +33366,7 @@
         <v>2</v>
       </c>
       <c r="AS168">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT168">
         <v>2</v>
@@ -33455,7 +33470,7 @@
         <v>179</v>
       </c>
       <c r="P169" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33837,7 +33852,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34309,7 +34324,7 @@
         <v>1.64</v>
       </c>
       <c r="AT173">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU173">
         <v>1.79</v>
@@ -34497,7 +34512,7 @@
         <v>1</v>
       </c>
       <c r="AS174">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT174">
         <v>0.73</v>
@@ -34691,7 +34706,7 @@
         <v>1.9</v>
       </c>
       <c r="AT175">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU175">
         <v>1.85</v>
@@ -34882,7 +34897,7 @@
         <v>0.5</v>
       </c>
       <c r="AT176">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU176">
         <v>1.38</v>
@@ -35174,7 +35189,7 @@
         <v>87</v>
       </c>
       <c r="P178" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q178">
         <v>12</v>
@@ -35261,7 +35276,7 @@
         <v>2.33</v>
       </c>
       <c r="AS178">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT178">
         <v>2.25</v>
@@ -35365,7 +35380,7 @@
         <v>195</v>
       </c>
       <c r="P179" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -35643,7 +35658,7 @@
         <v>1.22</v>
       </c>
       <c r="AS180">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT180">
         <v>1.27</v>
@@ -36028,7 +36043,7 @@
         <v>1.75</v>
       </c>
       <c r="AT182">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AU182">
         <v>1.92</v>
@@ -36216,7 +36231,7 @@
         <v>0.33</v>
       </c>
       <c r="AS183">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT183">
         <v>0.27</v>
@@ -36980,7 +36995,7 @@
         <v>1.13</v>
       </c>
       <c r="AS187">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT187">
         <v>1.09</v>
@@ -37466,7 +37481,7 @@
         <v>201</v>
       </c>
       <c r="P190" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q190">
         <v>1</v>
@@ -37556,7 +37571,7 @@
         <v>1.82</v>
       </c>
       <c r="AT190">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AU190">
         <v>1.61</v>
@@ -37935,7 +37950,7 @@
         <v>0.89</v>
       </c>
       <c r="AS192">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT192">
         <v>0.73</v>
@@ -38039,7 +38054,7 @@
         <v>114</v>
       </c>
       <c r="P193" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38129,7 +38144,7 @@
         <v>1.08</v>
       </c>
       <c r="AT193">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU193">
         <v>1.59</v>
@@ -38230,7 +38245,7 @@
         <v>204</v>
       </c>
       <c r="P194" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38612,7 +38627,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39275,7 +39290,7 @@
         <v>1.64</v>
       </c>
       <c r="AT199">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU199">
         <v>1.62</v>
@@ -39848,7 +39863,7 @@
         <v>1.42</v>
       </c>
       <c r="AT202">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU202">
         <v>1.34</v>
@@ -39949,7 +39964,7 @@
         <v>212</v>
       </c>
       <c r="P203" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q203">
         <v>8</v>
@@ -40036,7 +40051,7 @@
         <v>1.4</v>
       </c>
       <c r="AS203">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT203">
         <v>1.67</v>
@@ -40227,7 +40242,7 @@
         <v>1.1</v>
       </c>
       <c r="AS204">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT204">
         <v>0.92</v>
@@ -40331,7 +40346,7 @@
         <v>137</v>
       </c>
       <c r="P205" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -40522,7 +40537,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -40800,7 +40815,7 @@
         <v>2</v>
       </c>
       <c r="AS207">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT207">
         <v>2</v>
@@ -40994,7 +41009,7 @@
         <v>1.55</v>
       </c>
       <c r="AT208">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU208">
         <v>1.52</v>
@@ -41095,7 +41110,7 @@
         <v>87</v>
       </c>
       <c r="P209" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41185,7 +41200,7 @@
         <v>1.9</v>
       </c>
       <c r="AT209">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AU209">
         <v>1.91</v>
@@ -41286,7 +41301,7 @@
         <v>215</v>
       </c>
       <c r="P210" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41668,7 +41683,7 @@
         <v>217</v>
       </c>
       <c r="P212" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q212">
         <v>1</v>
@@ -42140,7 +42155,7 @@
         <v>1.82</v>
       </c>
       <c r="AT214">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU214">
         <v>1.54</v>
@@ -42241,7 +42256,7 @@
         <v>220</v>
       </c>
       <c r="P215" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42432,7 +42447,7 @@
         <v>87</v>
       </c>
       <c r="P216" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -42623,7 +42638,7 @@
         <v>87</v>
       </c>
       <c r="P217" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q217">
         <v>10</v>
@@ -42814,7 +42829,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q218">
         <v>7</v>
@@ -43578,7 +43593,7 @@
         <v>225</v>
       </c>
       <c r="P222" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q222">
         <v>3</v>
@@ -43769,7 +43784,7 @@
         <v>226</v>
       </c>
       <c r="P223" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -44484,6 +44499,770 @@
       </c>
       <c r="BK226">
         <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:63">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>2710878</v>
+      </c>
+      <c r="C227" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="2">
+        <v>44983.41666666666</v>
+      </c>
+      <c r="F227">
+        <v>23</v>
+      </c>
+      <c r="G227" t="s">
+        <v>72</v>
+      </c>
+      <c r="H227" t="s">
+        <v>81</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>3</v>
+      </c>
+      <c r="K227">
+        <v>4</v>
+      </c>
+      <c r="L227">
+        <v>2</v>
+      </c>
+      <c r="M227">
+        <v>3</v>
+      </c>
+      <c r="N227">
+        <v>5</v>
+      </c>
+      <c r="O227" t="s">
+        <v>229</v>
+      </c>
+      <c r="P227" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q227">
+        <v>11</v>
+      </c>
+      <c r="R227">
+        <v>3</v>
+      </c>
+      <c r="S227">
+        <v>14</v>
+      </c>
+      <c r="T227">
+        <v>2.3</v>
+      </c>
+      <c r="U227">
+        <v>2.2</v>
+      </c>
+      <c r="V227">
+        <v>5.5</v>
+      </c>
+      <c r="W227">
+        <v>1.4</v>
+      </c>
+      <c r="X227">
+        <v>2.75</v>
+      </c>
+      <c r="Y227">
+        <v>3</v>
+      </c>
+      <c r="Z227">
+        <v>1.36</v>
+      </c>
+      <c r="AA227">
+        <v>9</v>
+      </c>
+      <c r="AB227">
+        <v>1.07</v>
+      </c>
+      <c r="AC227">
+        <v>1.62</v>
+      </c>
+      <c r="AD227">
+        <v>3.7</v>
+      </c>
+      <c r="AE227">
+        <v>5</v>
+      </c>
+      <c r="AF227">
+        <v>1.06</v>
+      </c>
+      <c r="AG227">
+        <v>10.5</v>
+      </c>
+      <c r="AH227">
+        <v>1.35</v>
+      </c>
+      <c r="AI227">
+        <v>3.25</v>
+      </c>
+      <c r="AJ227">
+        <v>1.95</v>
+      </c>
+      <c r="AK227">
+        <v>1.85</v>
+      </c>
+      <c r="AL227">
+        <v>2</v>
+      </c>
+      <c r="AM227">
+        <v>1.75</v>
+      </c>
+      <c r="AN227">
+        <v>1.17</v>
+      </c>
+      <c r="AO227">
+        <v>1.24</v>
+      </c>
+      <c r="AP227">
+        <v>2.2</v>
+      </c>
+      <c r="AQ227">
+        <v>1.82</v>
+      </c>
+      <c r="AR227">
+        <v>0.6</v>
+      </c>
+      <c r="AS227">
+        <v>1.67</v>
+      </c>
+      <c r="AT227">
+        <v>0.82</v>
+      </c>
+      <c r="AU227">
+        <v>2.07</v>
+      </c>
+      <c r="AV227">
+        <v>1.39</v>
+      </c>
+      <c r="AW227">
+        <v>3.46</v>
+      </c>
+      <c r="AX227">
+        <v>1.33</v>
+      </c>
+      <c r="AY227">
+        <v>7.5</v>
+      </c>
+      <c r="AZ227">
+        <v>4.5</v>
+      </c>
+      <c r="BA227">
+        <v>1.27</v>
+      </c>
+      <c r="BB227">
+        <v>1.51</v>
+      </c>
+      <c r="BC227">
+        <v>1.9</v>
+      </c>
+      <c r="BD227">
+        <v>2.55</v>
+      </c>
+      <c r="BE227">
+        <v>3.6</v>
+      </c>
+      <c r="BF227">
+        <v>6</v>
+      </c>
+      <c r="BG227">
+        <v>7</v>
+      </c>
+      <c r="BH227">
+        <v>15</v>
+      </c>
+      <c r="BI227">
+        <v>3</v>
+      </c>
+      <c r="BJ227">
+        <v>21</v>
+      </c>
+      <c r="BK227">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:63">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>2710879</v>
+      </c>
+      <c r="C228" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" t="s">
+        <v>64</v>
+      </c>
+      <c r="E228" s="2">
+        <v>44983.51041666666</v>
+      </c>
+      <c r="F228">
+        <v>23</v>
+      </c>
+      <c r="G228" t="s">
+        <v>66</v>
+      </c>
+      <c r="H228" t="s">
+        <v>67</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>2</v>
+      </c>
+      <c r="L228">
+        <v>3</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>3</v>
+      </c>
+      <c r="O228" t="s">
+        <v>230</v>
+      </c>
+      <c r="P228" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q228">
+        <v>5</v>
+      </c>
+      <c r="R228">
+        <v>4</v>
+      </c>
+      <c r="S228">
+        <v>9</v>
+      </c>
+      <c r="T228">
+        <v>2.3</v>
+      </c>
+      <c r="U228">
+        <v>2.1</v>
+      </c>
+      <c r="V228">
+        <v>5.5</v>
+      </c>
+      <c r="W228">
+        <v>1.44</v>
+      </c>
+      <c r="X228">
+        <v>2.63</v>
+      </c>
+      <c r="Y228">
+        <v>3.25</v>
+      </c>
+      <c r="Z228">
+        <v>1.33</v>
+      </c>
+      <c r="AA228">
+        <v>9</v>
+      </c>
+      <c r="AB228">
+        <v>1.07</v>
+      </c>
+      <c r="AC228">
+        <v>1.75</v>
+      </c>
+      <c r="AD228">
+        <v>3.5</v>
+      </c>
+      <c r="AE228">
+        <v>4.5</v>
+      </c>
+      <c r="AF228">
+        <v>1.07</v>
+      </c>
+      <c r="AG228">
+        <v>9.5</v>
+      </c>
+      <c r="AH228">
+        <v>1.38</v>
+      </c>
+      <c r="AI228">
+        <v>3.1</v>
+      </c>
+      <c r="AJ228">
+        <v>2.25</v>
+      </c>
+      <c r="AK228">
+        <v>1.64</v>
+      </c>
+      <c r="AL228">
+        <v>2.05</v>
+      </c>
+      <c r="AM228">
+        <v>1.7</v>
+      </c>
+      <c r="AN228">
+        <v>1.2</v>
+      </c>
+      <c r="AO228">
+        <v>1.24</v>
+      </c>
+      <c r="AP228">
+        <v>1.94</v>
+      </c>
+      <c r="AQ228">
+        <v>1.18</v>
+      </c>
+      <c r="AR228">
+        <v>0.64</v>
+      </c>
+      <c r="AS228">
+        <v>1.33</v>
+      </c>
+      <c r="AT228">
+        <v>0.58</v>
+      </c>
+      <c r="AU228">
+        <v>1.65</v>
+      </c>
+      <c r="AV228">
+        <v>1.2</v>
+      </c>
+      <c r="AW228">
+        <v>2.85</v>
+      </c>
+      <c r="AX228">
+        <v>1.55</v>
+      </c>
+      <c r="AY228">
+        <v>6.5</v>
+      </c>
+      <c r="AZ228">
+        <v>3.1</v>
+      </c>
+      <c r="BA228">
+        <v>1.31</v>
+      </c>
+      <c r="BB228">
+        <v>1.58</v>
+      </c>
+      <c r="BC228">
+        <v>2</v>
+      </c>
+      <c r="BD228">
+        <v>2.55</v>
+      </c>
+      <c r="BE228">
+        <v>3.9</v>
+      </c>
+      <c r="BF228">
+        <v>6</v>
+      </c>
+      <c r="BG228">
+        <v>5</v>
+      </c>
+      <c r="BH228">
+        <v>13</v>
+      </c>
+      <c r="BI228">
+        <v>3</v>
+      </c>
+      <c r="BJ228">
+        <v>19</v>
+      </c>
+      <c r="BK228">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:63">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>2710882</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" t="s">
+        <v>64</v>
+      </c>
+      <c r="E229" s="2">
+        <v>44983.60416666666</v>
+      </c>
+      <c r="F229">
+        <v>23</v>
+      </c>
+      <c r="G229" t="s">
+        <v>71</v>
+      </c>
+      <c r="H229" t="s">
+        <v>68</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>1</v>
+      </c>
+      <c r="O229" t="s">
+        <v>231</v>
+      </c>
+      <c r="P229" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q229">
+        <v>4</v>
+      </c>
+      <c r="R229">
+        <v>7</v>
+      </c>
+      <c r="S229">
+        <v>11</v>
+      </c>
+      <c r="T229">
+        <v>6.5</v>
+      </c>
+      <c r="U229">
+        <v>2.5</v>
+      </c>
+      <c r="V229">
+        <v>1.91</v>
+      </c>
+      <c r="W229">
+        <v>1.29</v>
+      </c>
+      <c r="X229">
+        <v>3.5</v>
+      </c>
+      <c r="Y229">
+        <v>2.38</v>
+      </c>
+      <c r="Z229">
+        <v>1.53</v>
+      </c>
+      <c r="AA229">
+        <v>5.5</v>
+      </c>
+      <c r="AB229">
+        <v>1.14</v>
+      </c>
+      <c r="AC229">
+        <v>8</v>
+      </c>
+      <c r="AD229">
+        <v>4.5</v>
+      </c>
+      <c r="AE229">
+        <v>1.4</v>
+      </c>
+      <c r="AF229">
+        <v>1.02</v>
+      </c>
+      <c r="AG229">
+        <v>17</v>
+      </c>
+      <c r="AH229">
+        <v>1.19</v>
+      </c>
+      <c r="AI229">
+        <v>4.75</v>
+      </c>
+      <c r="AJ229">
+        <v>1.53</v>
+      </c>
+      <c r="AK229">
+        <v>2.33</v>
+      </c>
+      <c r="AL229">
+        <v>1.8</v>
+      </c>
+      <c r="AM229">
+        <v>1.95</v>
+      </c>
+      <c r="AN229">
+        <v>2.6</v>
+      </c>
+      <c r="AO229">
+        <v>1.16</v>
+      </c>
+      <c r="AP229">
+        <v>1.09</v>
+      </c>
+      <c r="AQ229">
+        <v>1.73</v>
+      </c>
+      <c r="AR229">
+        <v>2.73</v>
+      </c>
+      <c r="AS229">
+        <v>1.83</v>
+      </c>
+      <c r="AT229">
+        <v>2.5</v>
+      </c>
+      <c r="AU229">
+        <v>1.51</v>
+      </c>
+      <c r="AV229">
+        <v>1.64</v>
+      </c>
+      <c r="AW229">
+        <v>3.15</v>
+      </c>
+      <c r="AX229">
+        <v>4.6</v>
+      </c>
+      <c r="AY229">
+        <v>7.5</v>
+      </c>
+      <c r="AZ229">
+        <v>1.32</v>
+      </c>
+      <c r="BA229">
+        <v>1.27</v>
+      </c>
+      <c r="BB229">
+        <v>1.51</v>
+      </c>
+      <c r="BC229">
+        <v>1.9</v>
+      </c>
+      <c r="BD229">
+        <v>2.5</v>
+      </c>
+      <c r="BE229">
+        <v>3.5</v>
+      </c>
+      <c r="BF229">
+        <v>5</v>
+      </c>
+      <c r="BG229">
+        <v>3</v>
+      </c>
+      <c r="BH229">
+        <v>3</v>
+      </c>
+      <c r="BI229">
+        <v>11</v>
+      </c>
+      <c r="BJ229">
+        <v>8</v>
+      </c>
+      <c r="BK229">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="1:63">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>2710886</v>
+      </c>
+      <c r="C230" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" t="s">
+        <v>64</v>
+      </c>
+      <c r="E230" s="2">
+        <v>44983.70833333334</v>
+      </c>
+      <c r="F230">
+        <v>23</v>
+      </c>
+      <c r="G230" t="s">
+        <v>76</v>
+      </c>
+      <c r="H230" t="s">
+        <v>65</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>2</v>
+      </c>
+      <c r="M230">
+        <v>3</v>
+      </c>
+      <c r="N230">
+        <v>5</v>
+      </c>
+      <c r="O230" t="s">
+        <v>232</v>
+      </c>
+      <c r="P230" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q230">
+        <v>10</v>
+      </c>
+      <c r="R230">
+        <v>2</v>
+      </c>
+      <c r="S230">
+        <v>12</v>
+      </c>
+      <c r="T230">
+        <v>2.6</v>
+      </c>
+      <c r="U230">
+        <v>2</v>
+      </c>
+      <c r="V230">
+        <v>5</v>
+      </c>
+      <c r="W230">
+        <v>1.5</v>
+      </c>
+      <c r="X230">
+        <v>2.5</v>
+      </c>
+      <c r="Y230">
+        <v>3.5</v>
+      </c>
+      <c r="Z230">
+        <v>1.29</v>
+      </c>
+      <c r="AA230">
+        <v>10</v>
+      </c>
+      <c r="AB230">
+        <v>1.06</v>
+      </c>
+      <c r="AC230">
+        <v>1.91</v>
+      </c>
+      <c r="AD230">
+        <v>3.2</v>
+      </c>
+      <c r="AE230">
+        <v>4.33</v>
+      </c>
+      <c r="AF230">
+        <v>1.09</v>
+      </c>
+      <c r="AG230">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH230">
+        <v>1.45</v>
+      </c>
+      <c r="AI230">
+        <v>2.79</v>
+      </c>
+      <c r="AJ230">
+        <v>2.35</v>
+      </c>
+      <c r="AK230">
+        <v>1.53</v>
+      </c>
+      <c r="AL230">
+        <v>2.05</v>
+      </c>
+      <c r="AM230">
+        <v>1.7</v>
+      </c>
+      <c r="AN230">
+        <v>1.24</v>
+      </c>
+      <c r="AO230">
+        <v>1.32</v>
+      </c>
+      <c r="AP230">
+        <v>1.85</v>
+      </c>
+      <c r="AQ230">
+        <v>1.36</v>
+      </c>
+      <c r="AR230">
+        <v>1.09</v>
+      </c>
+      <c r="AS230">
+        <v>1.25</v>
+      </c>
+      <c r="AT230">
+        <v>1.25</v>
+      </c>
+      <c r="AU230">
+        <v>1.92</v>
+      </c>
+      <c r="AV230">
+        <v>1.32</v>
+      </c>
+      <c r="AW230">
+        <v>3.24</v>
+      </c>
+      <c r="AX230">
+        <v>1.57</v>
+      </c>
+      <c r="AY230">
+        <v>6.5</v>
+      </c>
+      <c r="AZ230">
+        <v>3.1</v>
+      </c>
+      <c r="BA230">
+        <v>1.24</v>
+      </c>
+      <c r="BB230">
+        <v>1.46</v>
+      </c>
+      <c r="BC230">
+        <v>1.82</v>
+      </c>
+      <c r="BD230">
+        <v>2.4</v>
+      </c>
+      <c r="BE230">
+        <v>3.3</v>
+      </c>
+      <c r="BF230">
+        <v>7</v>
+      </c>
+      <c r="BG230">
+        <v>7</v>
+      </c>
+      <c r="BH230">
+        <v>14</v>
+      </c>
+      <c r="BI230">
+        <v>8</v>
+      </c>
+      <c r="BJ230">
+        <v>21</v>
+      </c>
+      <c r="BK230">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="319">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1332,7 +1332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK231"/>
+  <dimension ref="A1:BK232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3958,7 +3958,7 @@
         <v>1.64</v>
       </c>
       <c r="AT14">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU14">
         <v>1.45</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT19">
         <v>2.5</v>
@@ -7396,7 +7396,7 @@
         <v>1.33</v>
       </c>
       <c r="AT32">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU32">
         <v>1.37</v>
@@ -7966,7 +7966,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT35">
         <v>2</v>
@@ -11216,7 +11216,7 @@
         <v>1.55</v>
       </c>
       <c r="AT52">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU52">
         <v>1.27</v>
@@ -12741,7 +12741,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT60">
         <v>1.27</v>
@@ -16370,7 +16370,7 @@
         <v>1.6</v>
       </c>
       <c r="AS79">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT79">
         <v>1</v>
@@ -17137,7 +17137,7 @@
         <v>1.75</v>
       </c>
       <c r="AT83">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU83">
         <v>1.65</v>
@@ -19808,7 +19808,7 @@
         <v>1.25</v>
       </c>
       <c r="AS97">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT97">
         <v>0.92</v>
@@ -20766,7 +20766,7 @@
         <v>1.64</v>
       </c>
       <c r="AT102">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU102">
         <v>1.89</v>
@@ -24201,7 +24201,7 @@
         <v>1</v>
       </c>
       <c r="AS120">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT120">
         <v>1.67</v>
@@ -24777,7 +24777,7 @@
         <v>1.08</v>
       </c>
       <c r="AT123">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU123">
         <v>1.16</v>
@@ -25729,7 +25729,7 @@
         <v>1</v>
       </c>
       <c r="AS128">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT128">
         <v>0.55</v>
@@ -28215,7 +28215,7 @@
         <v>2.27</v>
       </c>
       <c r="AT141">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU141">
         <v>2.2</v>
@@ -29931,7 +29931,7 @@
         <v>1.33</v>
       </c>
       <c r="AS150">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT150">
         <v>1.25</v>
@@ -30507,7 +30507,7 @@
         <v>1.42</v>
       </c>
       <c r="AT153">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU153">
         <v>1.84</v>
@@ -32987,7 +32987,7 @@
         <v>1.29</v>
       </c>
       <c r="AS166">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT166">
         <v>1.09</v>
@@ -34518,7 +34518,7 @@
         <v>1.25</v>
       </c>
       <c r="AT174">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU174">
         <v>1.68</v>
@@ -37956,7 +37956,7 @@
         <v>1.67</v>
       </c>
       <c r="AT192">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU192">
         <v>2.08</v>
@@ -39290,7 +39290,7 @@
         <v>0.44</v>
       </c>
       <c r="AS199">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT199">
         <v>0.58</v>
@@ -41964,7 +41964,7 @@
         <v>1</v>
       </c>
       <c r="AS213">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT213">
         <v>1</v>
@@ -43304,7 +43304,7 @@
         <v>2.64</v>
       </c>
       <c r="AT220">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU220">
         <v>2.32</v>
@@ -45457,6 +45457,197 @@
       </c>
       <c r="BK231">
         <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:63">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>2710896</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="E232" s="2">
+        <v>44988.70833333334</v>
+      </c>
+      <c r="F232">
+        <v>24</v>
+      </c>
+      <c r="G232" t="s">
+        <v>79</v>
+      </c>
+      <c r="H232" t="s">
+        <v>69</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232" t="s">
+        <v>87</v>
+      </c>
+      <c r="P232" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q232">
+        <v>2</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>2</v>
+      </c>
+      <c r="T232">
+        <v>2.1</v>
+      </c>
+      <c r="U232">
+        <v>2.2</v>
+      </c>
+      <c r="V232">
+        <v>7.5</v>
+      </c>
+      <c r="W232">
+        <v>1.44</v>
+      </c>
+      <c r="X232">
+        <v>2.63</v>
+      </c>
+      <c r="Y232">
+        <v>3.25</v>
+      </c>
+      <c r="Z232">
+        <v>1.33</v>
+      </c>
+      <c r="AA232">
+        <v>10</v>
+      </c>
+      <c r="AB232">
+        <v>1.06</v>
+      </c>
+      <c r="AC232">
+        <v>1.43</v>
+      </c>
+      <c r="AD232">
+        <v>3.95</v>
+      </c>
+      <c r="AE232">
+        <v>6.5</v>
+      </c>
+      <c r="AF232">
+        <v>1.07</v>
+      </c>
+      <c r="AG232">
+        <v>8</v>
+      </c>
+      <c r="AH232">
+        <v>1.38</v>
+      </c>
+      <c r="AI232">
+        <v>2.8</v>
+      </c>
+      <c r="AJ232">
+        <v>2.15</v>
+      </c>
+      <c r="AK232">
+        <v>1.7</v>
+      </c>
+      <c r="AL232">
+        <v>2.38</v>
+      </c>
+      <c r="AM232">
+        <v>1.53</v>
+      </c>
+      <c r="AN232">
+        <v>1.1</v>
+      </c>
+      <c r="AO232">
+        <v>1.23</v>
+      </c>
+      <c r="AP232">
+        <v>2.55</v>
+      </c>
+      <c r="AQ232">
+        <v>1.64</v>
+      </c>
+      <c r="AR232">
+        <v>0.73</v>
+      </c>
+      <c r="AS232">
+        <v>1.58</v>
+      </c>
+      <c r="AT232">
+        <v>0.75</v>
+      </c>
+      <c r="AU232">
+        <v>1.58</v>
+      </c>
+      <c r="AV232">
+        <v>1.04</v>
+      </c>
+      <c r="AW232">
+        <v>2.62</v>
+      </c>
+      <c r="AX232">
+        <v>1.34</v>
+      </c>
+      <c r="AY232">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ232">
+        <v>4.3</v>
+      </c>
+      <c r="BA232">
+        <v>1.4</v>
+      </c>
+      <c r="BB232">
+        <v>1.73</v>
+      </c>
+      <c r="BC232">
+        <v>2.2</v>
+      </c>
+      <c r="BD232">
+        <v>2.91</v>
+      </c>
+      <c r="BE232">
+        <v>4.15</v>
+      </c>
+      <c r="BF232">
+        <v>4</v>
+      </c>
+      <c r="BG232">
+        <v>3</v>
+      </c>
+      <c r="BH232">
+        <v>6</v>
+      </c>
+      <c r="BI232">
+        <v>4</v>
+      </c>
+      <c r="BJ232">
+        <v>10</v>
+      </c>
+      <c r="BK232">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1350,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK240"/>
+  <dimension ref="A1:BK241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT2">
         <v>0.83</v>
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT14">
         <v>0.75</v>
@@ -8366,7 +8366,7 @@
         <v>2</v>
       </c>
       <c r="AS37">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT37">
         <v>1.33</v>
@@ -12186,7 +12186,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT57">
         <v>0.82</v>
@@ -15051,7 +15051,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT72">
         <v>0.5</v>
@@ -20399,7 +20399,7 @@
         <v>1.25</v>
       </c>
       <c r="AS100">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT100">
         <v>1.17</v>
@@ -23646,7 +23646,7 @@
         <v>0.8</v>
       </c>
       <c r="AS117">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT117">
         <v>0.58</v>
@@ -26893,7 +26893,7 @@
         <v>2.5</v>
       </c>
       <c r="AS134">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT134">
         <v>2.5</v>
@@ -32814,7 +32814,7 @@
         <v>1.38</v>
       </c>
       <c r="AS165">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT165">
         <v>0.92</v>
@@ -36825,7 +36825,7 @@
         <v>1.89</v>
       </c>
       <c r="AS186">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT186">
         <v>2</v>
@@ -42555,7 +42555,7 @@
         <v>2.18</v>
       </c>
       <c r="AS216">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT216">
         <v>2.15</v>
@@ -47194,6 +47194,197 @@
       </c>
       <c r="BK240">
         <v>17</v>
+      </c>
+    </row>
+    <row r="241" spans="1:63">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>2710894</v>
+      </c>
+      <c r="C241" t="s">
+        <v>63</v>
+      </c>
+      <c r="D241" t="s">
+        <v>64</v>
+      </c>
+      <c r="E241" s="2">
+        <v>44991.70833333334</v>
+      </c>
+      <c r="F241">
+        <v>24</v>
+      </c>
+      <c r="G241" t="s">
+        <v>65</v>
+      </c>
+      <c r="H241" t="s">
+        <v>66</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+      <c r="O241" t="s">
+        <v>87</v>
+      </c>
+      <c r="P241" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q241">
+        <v>6</v>
+      </c>
+      <c r="R241">
+        <v>4</v>
+      </c>
+      <c r="S241">
+        <v>10</v>
+      </c>
+      <c r="T241">
+        <v>3.5</v>
+      </c>
+      <c r="U241">
+        <v>1.95</v>
+      </c>
+      <c r="V241">
+        <v>3.5</v>
+      </c>
+      <c r="W241">
+        <v>1.53</v>
+      </c>
+      <c r="X241">
+        <v>2.38</v>
+      </c>
+      <c r="Y241">
+        <v>3.75</v>
+      </c>
+      <c r="Z241">
+        <v>1.25</v>
+      </c>
+      <c r="AA241">
+        <v>11</v>
+      </c>
+      <c r="AB241">
+        <v>1.05</v>
+      </c>
+      <c r="AC241">
+        <v>2.64</v>
+      </c>
+      <c r="AD241">
+        <v>3.15</v>
+      </c>
+      <c r="AE241">
+        <v>2.88</v>
+      </c>
+      <c r="AF241">
+        <v>1.09</v>
+      </c>
+      <c r="AG241">
+        <v>7</v>
+      </c>
+      <c r="AH241">
+        <v>1.5</v>
+      </c>
+      <c r="AI241">
+        <v>2.65</v>
+      </c>
+      <c r="AJ241">
+        <v>2.4</v>
+      </c>
+      <c r="AK241">
+        <v>1.56</v>
+      </c>
+      <c r="AL241">
+        <v>2</v>
+      </c>
+      <c r="AM241">
+        <v>1.75</v>
+      </c>
+      <c r="AN241">
+        <v>1.47</v>
+      </c>
+      <c r="AO241">
+        <v>1.4</v>
+      </c>
+      <c r="AP241">
+        <v>1.48</v>
+      </c>
+      <c r="AQ241">
+        <v>1.64</v>
+      </c>
+      <c r="AR241">
+        <v>1</v>
+      </c>
+      <c r="AS241">
+        <v>1.58</v>
+      </c>
+      <c r="AT241">
+        <v>1</v>
+      </c>
+      <c r="AU241">
+        <v>1.77</v>
+      </c>
+      <c r="AV241">
+        <v>1.52</v>
+      </c>
+      <c r="AW241">
+        <v>3.29</v>
+      </c>
+      <c r="AX241">
+        <v>1.95</v>
+      </c>
+      <c r="AY241">
+        <v>7.5</v>
+      </c>
+      <c r="AZ241">
+        <v>2.27</v>
+      </c>
+      <c r="BA241">
+        <v>1.4</v>
+      </c>
+      <c r="BB241">
+        <v>1.66</v>
+      </c>
+      <c r="BC241">
+        <v>2.06</v>
+      </c>
+      <c r="BD241">
+        <v>2.65</v>
+      </c>
+      <c r="BE241">
+        <v>3.55</v>
+      </c>
+      <c r="BF241">
+        <v>7</v>
+      </c>
+      <c r="BG241">
+        <v>0</v>
+      </c>
+      <c r="BH241">
+        <v>5</v>
+      </c>
+      <c r="BI241">
+        <v>7</v>
+      </c>
+      <c r="BJ241">
+        <v>12</v>
+      </c>
+      <c r="BK241">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="327">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -727,6 +727,9 @@
     <t>['25', '62']</t>
   </si>
   <si>
+    <t>['39', '82']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -989,6 +992,9 @@
   </si>
   <si>
     <t>['88']</t>
+  </si>
+  <si>
+    <t>['61', '90+16']</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK241"/>
+  <dimension ref="A1:BK242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1594,7 +1600,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1785,7 +1791,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1976,7 +1982,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2445,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT6">
         <v>2.08</v>
@@ -2740,7 +2746,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -3122,7 +3128,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3504,7 +3510,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3695,7 +3701,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q13">
         <v>12</v>
@@ -4077,7 +4083,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4268,7 +4274,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4650,7 +4656,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4841,7 +4847,7 @@
         <v>89</v>
       </c>
       <c r="P19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5313,7 +5319,7 @@
         <v>1.75</v>
       </c>
       <c r="AT21">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5414,7 +5420,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5987,7 +5993,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -6751,7 +6757,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6942,7 +6948,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7029,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT30">
         <v>1.08</v>
@@ -7133,7 +7139,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7515,7 +7521,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -8088,7 +8094,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8279,7 +8285,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8942,7 +8948,7 @@
         <v>1.42</v>
       </c>
       <c r="AT40">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU40">
         <v>1.71</v>
@@ -9234,7 +9240,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9616,7 +9622,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9807,7 +9813,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9894,7 +9900,7 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT45">
         <v>2.5</v>
@@ -10380,7 +10386,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10571,7 +10577,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10953,7 +10959,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11144,7 +11150,7 @@
         <v>87</v>
       </c>
       <c r="P52" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -11908,7 +11914,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -12099,7 +12105,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12189,7 +12195,7 @@
         <v>1.58</v>
       </c>
       <c r="AT57">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU57">
         <v>1.76</v>
@@ -12290,7 +12296,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12863,7 +12869,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -13332,7 +13338,7 @@
         <v>1.75</v>
       </c>
       <c r="AS63">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT63">
         <v>1.15</v>
@@ -13436,7 +13442,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13627,7 +13633,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14009,7 +14015,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14391,7 +14397,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14582,7 +14588,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14773,7 +14779,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q71">
         <v>13</v>
@@ -14964,7 +14970,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15155,7 +15161,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15346,7 +15352,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15728,7 +15734,7 @@
         <v>87</v>
       </c>
       <c r="P76" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16110,7 +16116,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16197,7 +16203,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT78">
         <v>1.17</v>
@@ -16964,7 +16970,7 @@
         <v>1.58</v>
       </c>
       <c r="AT82">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU82">
         <v>1.93</v>
@@ -17065,7 +17071,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17256,7 +17262,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17447,7 +17453,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17829,7 +17835,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -18975,7 +18981,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -19166,7 +19172,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19444,7 +19450,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT95">
         <v>1.67</v>
@@ -19930,7 +19936,7 @@
         <v>87</v>
       </c>
       <c r="P98" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -20121,7 +20127,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21076,7 +21082,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21267,7 +21273,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21458,7 +21464,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21649,7 +21655,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -22031,7 +22037,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22503,7 +22509,7 @@
         <v>1.33</v>
       </c>
       <c r="AT111">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU111">
         <v>1.39</v>
@@ -22986,7 +22992,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -23073,7 +23079,7 @@
         <v>2.67</v>
       </c>
       <c r="AS114">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT114">
         <v>2</v>
@@ -23750,7 +23756,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -24132,7 +24138,7 @@
         <v>87</v>
       </c>
       <c r="P120" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24323,7 +24329,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24413,7 +24419,7 @@
         <v>0.5</v>
       </c>
       <c r="AT121">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU121">
         <v>1.26</v>
@@ -25087,7 +25093,7 @@
         <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25469,7 +25475,7 @@
         <v>143</v>
       </c>
       <c r="P127" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q127">
         <v>12</v>
@@ -25851,7 +25857,7 @@
         <v>87</v>
       </c>
       <c r="P129" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26042,7 +26048,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26233,7 +26239,7 @@
         <v>170</v>
       </c>
       <c r="P131" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26424,7 +26430,7 @@
         <v>152</v>
       </c>
       <c r="P132" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q132">
         <v>2</v>
@@ -26806,7 +26812,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26997,7 +27003,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q135">
         <v>2</v>
@@ -27278,7 +27284,7 @@
         <v>1.69</v>
       </c>
       <c r="AT136">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU136">
         <v>1.45</v>
@@ -27379,7 +27385,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -28143,7 +28149,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28334,7 +28340,7 @@
         <v>176</v>
       </c>
       <c r="P142" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -29098,7 +29104,7 @@
         <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29376,7 +29382,7 @@
         <v>0.14</v>
       </c>
       <c r="AS147">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT147">
         <v>0.27</v>
@@ -29480,7 +29486,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -30053,7 +30059,7 @@
         <v>181</v>
       </c>
       <c r="P151" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -31008,7 +31014,7 @@
         <v>184</v>
       </c>
       <c r="P156" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -31199,7 +31205,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31390,7 +31396,7 @@
         <v>147</v>
       </c>
       <c r="P158" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31671,7 +31677,7 @@
         <v>1.25</v>
       </c>
       <c r="AT159">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU159">
         <v>1.69</v>
@@ -31772,7 +31778,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -33109,7 +33115,7 @@
         <v>179</v>
       </c>
       <c r="P167" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33300,7 +33306,7 @@
         <v>190</v>
       </c>
       <c r="P168" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33491,7 +33497,7 @@
         <v>179</v>
       </c>
       <c r="P169" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33578,7 +33584,7 @@
         <v>0.25</v>
       </c>
       <c r="AS169">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT169">
         <v>0.5</v>
@@ -33873,7 +33879,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -35109,7 +35115,7 @@
         <v>2.67</v>
       </c>
       <c r="AT177">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU177">
         <v>2.43</v>
@@ -35210,7 +35216,7 @@
         <v>87</v>
       </c>
       <c r="P178" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q178">
         <v>12</v>
@@ -35401,7 +35407,7 @@
         <v>195</v>
       </c>
       <c r="P179" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -35870,7 +35876,7 @@
         <v>1.22</v>
       </c>
       <c r="AS181">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT181">
         <v>0.92</v>
@@ -37502,7 +37508,7 @@
         <v>201</v>
       </c>
       <c r="P190" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q190">
         <v>1</v>
@@ -38075,7 +38081,7 @@
         <v>114</v>
       </c>
       <c r="P193" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38266,7 +38272,7 @@
         <v>204</v>
       </c>
       <c r="P194" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38547,7 +38553,7 @@
         <v>1.75</v>
       </c>
       <c r="AT195">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU195">
         <v>1.8</v>
@@ -38648,7 +38654,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39881,7 +39887,7 @@
         <v>0.67</v>
       </c>
       <c r="AS202">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT202">
         <v>0.75</v>
@@ -39985,7 +39991,7 @@
         <v>212</v>
       </c>
       <c r="P203" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q203">
         <v>8</v>
@@ -40367,7 +40373,7 @@
         <v>137</v>
       </c>
       <c r="P205" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -40558,7 +40564,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -41131,7 +41137,7 @@
         <v>87</v>
       </c>
       <c r="P209" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41322,7 +41328,7 @@
         <v>215</v>
       </c>
       <c r="P210" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41704,7 +41710,7 @@
         <v>217</v>
       </c>
       <c r="P212" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q212">
         <v>1</v>
@@ -42277,7 +42283,7 @@
         <v>220</v>
       </c>
       <c r="P215" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42468,7 +42474,7 @@
         <v>87</v>
       </c>
       <c r="P216" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -42659,7 +42665,7 @@
         <v>87</v>
       </c>
       <c r="P217" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q217">
         <v>10</v>
@@ -42850,7 +42856,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q218">
         <v>7</v>
@@ -43614,7 +43620,7 @@
         <v>225</v>
       </c>
       <c r="P222" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q222">
         <v>3</v>
@@ -43805,7 +43811,7 @@
         <v>226</v>
       </c>
       <c r="P223" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -44083,7 +44089,7 @@
         <v>1.45</v>
       </c>
       <c r="AS224">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT224">
         <v>1.33</v>
@@ -44569,7 +44575,7 @@
         <v>229</v>
       </c>
       <c r="P227" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q227">
         <v>11</v>
@@ -45142,7 +45148,7 @@
         <v>232</v>
       </c>
       <c r="P230" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q230">
         <v>10</v>
@@ -45423,7 +45429,7 @@
         <v>2</v>
       </c>
       <c r="AT231">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU231">
         <v>1.86</v>
@@ -45715,7 +45721,7 @@
         <v>234</v>
       </c>
       <c r="P233" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -45906,7 +45912,7 @@
         <v>87</v>
       </c>
       <c r="P234" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q234">
         <v>2</v>
@@ -46097,7 +46103,7 @@
         <v>87</v>
       </c>
       <c r="P235" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q235">
         <v>6</v>
@@ -47385,6 +47391,197 @@
       </c>
       <c r="BK241">
         <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:63">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>2710902</v>
+      </c>
+      <c r="C242" t="s">
+        <v>63</v>
+      </c>
+      <c r="D242" t="s">
+        <v>64</v>
+      </c>
+      <c r="E242" s="2">
+        <v>44995.70833333334</v>
+      </c>
+      <c r="F242">
+        <v>25</v>
+      </c>
+      <c r="G242" t="s">
+        <v>69</v>
+      </c>
+      <c r="H242" t="s">
+        <v>73</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+      <c r="L242">
+        <v>2</v>
+      </c>
+      <c r="M242">
+        <v>2</v>
+      </c>
+      <c r="N242">
+        <v>4</v>
+      </c>
+      <c r="O242" t="s">
+        <v>237</v>
+      </c>
+      <c r="P242" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q242">
+        <v>2</v>
+      </c>
+      <c r="R242">
+        <v>6</v>
+      </c>
+      <c r="S242">
+        <v>8</v>
+      </c>
+      <c r="T242">
+        <v>3.4</v>
+      </c>
+      <c r="U242">
+        <v>1.83</v>
+      </c>
+      <c r="V242">
+        <v>4</v>
+      </c>
+      <c r="W242">
+        <v>1.62</v>
+      </c>
+      <c r="X242">
+        <v>2.2</v>
+      </c>
+      <c r="Y242">
+        <v>4</v>
+      </c>
+      <c r="Z242">
+        <v>1.22</v>
+      </c>
+      <c r="AA242">
+        <v>13</v>
+      </c>
+      <c r="AB242">
+        <v>1.04</v>
+      </c>
+      <c r="AC242">
+        <v>2.45</v>
+      </c>
+      <c r="AD242">
+        <v>2.8</v>
+      </c>
+      <c r="AE242">
+        <v>3.1</v>
+      </c>
+      <c r="AF242">
+        <v>1.13</v>
+      </c>
+      <c r="AG242">
+        <v>6</v>
+      </c>
+      <c r="AH242">
+        <v>1.67</v>
+      </c>
+      <c r="AI242">
+        <v>2.25</v>
+      </c>
+      <c r="AJ242">
+        <v>2.7</v>
+      </c>
+      <c r="AK242">
+        <v>1.45</v>
+      </c>
+      <c r="AL242">
+        <v>2.25</v>
+      </c>
+      <c r="AM242">
+        <v>1.57</v>
+      </c>
+      <c r="AN242">
+        <v>1.36</v>
+      </c>
+      <c r="AO242">
+        <v>1.4</v>
+      </c>
+      <c r="AP242">
+        <v>1.56</v>
+      </c>
+      <c r="AQ242">
+        <v>1.42</v>
+      </c>
+      <c r="AR242">
+        <v>0.82</v>
+      </c>
+      <c r="AS242">
+        <v>1.38</v>
+      </c>
+      <c r="AT242">
+        <v>0.83</v>
+      </c>
+      <c r="AU242">
+        <v>1.31</v>
+      </c>
+      <c r="AV242">
+        <v>1.09</v>
+      </c>
+      <c r="AW242">
+        <v>2.4</v>
+      </c>
+      <c r="AX242">
+        <v>1.77</v>
+      </c>
+      <c r="AY242">
+        <v>7.5</v>
+      </c>
+      <c r="AZ242">
+        <v>2.38</v>
+      </c>
+      <c r="BA242">
+        <v>1.44</v>
+      </c>
+      <c r="BB242">
+        <v>1.72</v>
+      </c>
+      <c r="BC242">
+        <v>2.15</v>
+      </c>
+      <c r="BD242">
+        <v>2.8</v>
+      </c>
+      <c r="BE242">
+        <v>3.75</v>
+      </c>
+      <c r="BF242">
+        <v>5</v>
+      </c>
+      <c r="BG242">
+        <v>10</v>
+      </c>
+      <c r="BH242">
+        <v>8</v>
+      </c>
+      <c r="BI242">
+        <v>6</v>
+      </c>
+      <c r="BJ242">
+        <v>13</v>
+      </c>
+      <c r="BK242">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="332">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -733,6 +733,18 @@
     <t>['22', '39', '90+3']</t>
   </si>
   <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['51', '52', '85']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['45+2', '73']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -800,9 +812,6 @@
   </si>
   <si>
     <t>['9', '14', '22', '44']</t>
-  </si>
-  <si>
-    <t>['50']</t>
   </si>
   <si>
     <t>['28']</t>
@@ -998,6 +1007,9 @@
   </si>
   <si>
     <t>['61', '90+16']</t>
+  </si>
+  <si>
+    <t>['2']</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK243"/>
+  <dimension ref="A1:BK250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1603,7 +1615,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1794,7 +1806,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1881,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT3">
         <v>1.08</v>
@@ -1985,7 +1997,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2266,7 +2278,7 @@
         <v>2.67</v>
       </c>
       <c r="AT5">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2457,7 +2469,7 @@
         <v>1.38</v>
       </c>
       <c r="AT6">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2645,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT7">
         <v>0.75</v>
@@ -2749,7 +2761,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -3027,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT9">
         <v>0.92</v>
@@ -3131,7 +3143,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3513,7 +3525,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3603,7 +3615,7 @@
         <v>1.08</v>
       </c>
       <c r="AT12">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3704,7 +3716,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q13">
         <v>12</v>
@@ -3791,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT13">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4086,7 +4098,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4173,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT15">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4277,7 +4289,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4364,7 +4376,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT16">
         <v>2.15</v>
@@ -4555,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT17">
         <v>0.5</v>
@@ -4659,7 +4671,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4850,7 +4862,7 @@
         <v>89</v>
       </c>
       <c r="P19" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4940,7 +4952,7 @@
         <v>1.58</v>
       </c>
       <c r="AT19">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5128,10 +5140,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT20">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5423,7 +5435,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5704,7 +5716,7 @@
         <v>1.75</v>
       </c>
       <c r="AT23">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU23">
         <v>2.21</v>
@@ -5892,10 +5904,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT24">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU24">
         <v>1.51</v>
@@ -5996,7 +6008,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -6659,7 +6671,7 @@
         <v>2.67</v>
       </c>
       <c r="AT28">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU28">
         <v>2.46</v>
@@ -6760,7 +6772,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6951,7 +6963,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7142,7 +7154,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7229,7 +7241,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT31">
         <v>2</v>
@@ -7420,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT32">
         <v>0.75</v>
@@ -7524,7 +7536,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7611,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT33">
         <v>0.75</v>
@@ -7805,7 +7817,7 @@
         <v>2.33</v>
       </c>
       <c r="AT34">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -8097,7 +8109,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8184,10 +8196,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT36">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AU36">
         <v>2.23</v>
@@ -8288,7 +8300,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8378,7 +8390,7 @@
         <v>1.58</v>
       </c>
       <c r="AT37">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU37">
         <v>1.69</v>
@@ -8566,7 +8578,7 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT38">
         <v>1.08</v>
@@ -8757,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT39">
         <v>0.5</v>
@@ -8948,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT40">
         <v>0.83</v>
@@ -9142,7 +9154,7 @@
         <v>1.67</v>
       </c>
       <c r="AT41">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU41">
         <v>1.67</v>
@@ -9243,7 +9255,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9333,7 +9345,7 @@
         <v>1.75</v>
       </c>
       <c r="AT42">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU42">
         <v>1.59</v>
@@ -9625,7 +9637,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9816,7 +9828,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9906,7 +9918,7 @@
         <v>1.38</v>
       </c>
       <c r="AT45">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AU45">
         <v>1.15</v>
@@ -10389,7 +10401,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10476,7 +10488,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT48">
         <v>1.08</v>
@@ -10580,7 +10592,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10670,7 +10682,7 @@
         <v>1.23</v>
       </c>
       <c r="AT49">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU49">
         <v>1</v>
@@ -10962,7 +10974,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11052,7 +11064,7 @@
         <v>1.69</v>
       </c>
       <c r="AT51">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU51">
         <v>1.4</v>
@@ -11153,7 +11165,7 @@
         <v>87</v>
       </c>
       <c r="P52" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -11431,10 +11443,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT53">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU53">
         <v>1.46</v>
@@ -11813,7 +11825,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -11917,7 +11929,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -12004,10 +12016,10 @@
         <v>1.33</v>
       </c>
       <c r="AS56">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT56">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU56">
         <v>2.1</v>
@@ -12108,7 +12120,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12299,7 +12311,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12386,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT58">
         <v>0.83</v>
@@ -12872,7 +12884,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -13150,10 +13162,10 @@
         <v>0.33</v>
       </c>
       <c r="AS62">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT62">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU62">
         <v>2.11</v>
@@ -13445,7 +13457,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13535,7 +13547,7 @@
         <v>1.23</v>
       </c>
       <c r="AT64">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU64">
         <v>1.02</v>
@@ -13636,7 +13648,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13723,7 +13735,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT65">
         <v>2</v>
@@ -13914,10 +13926,10 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT66">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AU66">
         <v>1.23</v>
@@ -14018,7 +14030,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14296,10 +14308,10 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT68">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU68">
         <v>1.34</v>
@@ -14400,7 +14412,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14490,7 +14502,7 @@
         <v>1.75</v>
       </c>
       <c r="AT69">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU69">
         <v>1.59</v>
@@ -14591,7 +14603,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14681,7 +14693,7 @@
         <v>2.33</v>
       </c>
       <c r="AT70">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU70">
         <v>2.46</v>
@@ -14782,7 +14794,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q71">
         <v>13</v>
@@ -14973,7 +14985,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15164,7 +15176,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15254,7 +15266,7 @@
         <v>1.69</v>
       </c>
       <c r="AT73">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU73">
         <v>1.28</v>
@@ -15355,7 +15367,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15633,7 +15645,7 @@
         <v>3</v>
       </c>
       <c r="AS75">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT75">
         <v>1.08</v>
@@ -15737,7 +15749,7 @@
         <v>87</v>
       </c>
       <c r="P76" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16018,7 +16030,7 @@
         <v>1.67</v>
       </c>
       <c r="AT77">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU77">
         <v>1.57</v>
@@ -16119,7 +16131,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16779,7 +16791,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT81">
         <v>0.92</v>
@@ -17074,7 +17086,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17265,7 +17277,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17352,7 +17364,7 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT84">
         <v>0.5</v>
@@ -17456,7 +17468,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17543,7 +17555,7 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT85">
         <v>0.83</v>
@@ -17734,7 +17746,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT86">
         <v>2</v>
@@ -17838,7 +17850,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17925,10 +17937,10 @@
         <v>2.25</v>
       </c>
       <c r="AS87">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT87">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU87">
         <v>1.38</v>
@@ -18119,7 +18131,7 @@
         <v>2.33</v>
       </c>
       <c r="AT88">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AU88">
         <v>2.54</v>
@@ -18310,7 +18322,7 @@
         <v>1.08</v>
       </c>
       <c r="AT89">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU89">
         <v>1.66</v>
@@ -18501,7 +18513,7 @@
         <v>1.75</v>
       </c>
       <c r="AT90">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU90">
         <v>1.57</v>
@@ -18689,10 +18701,10 @@
         <v>1.33</v>
       </c>
       <c r="AS91">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT91">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU91">
         <v>2.05</v>
@@ -18880,7 +18892,7 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT92">
         <v>0.5</v>
@@ -18984,7 +18996,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -19175,7 +19187,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19265,7 +19277,7 @@
         <v>1.75</v>
       </c>
       <c r="AT94">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU94">
         <v>1.66</v>
@@ -19456,7 +19468,7 @@
         <v>1.38</v>
       </c>
       <c r="AT95">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU95">
         <v>1.14</v>
@@ -19939,7 +19951,7 @@
         <v>87</v>
       </c>
       <c r="P98" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -20026,7 +20038,7 @@
         <v>3</v>
       </c>
       <c r="AS98">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT98">
         <v>2.15</v>
@@ -20130,7 +20142,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20984,7 +20996,7 @@
         <v>1.67</v>
       </c>
       <c r="AT103">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU103">
         <v>1.51</v>
@@ -21085,7 +21097,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21172,7 +21184,7 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT104">
         <v>0.92</v>
@@ -21276,7 +21288,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21467,7 +21479,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21658,7 +21670,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21939,7 +21951,7 @@
         <v>1.75</v>
       </c>
       <c r="AT108">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU108">
         <v>1.88</v>
@@ -22040,7 +22052,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22127,10 +22139,10 @@
         <v>0.2</v>
       </c>
       <c r="AS109">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT109">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU109">
         <v>1.96</v>
@@ -22509,7 +22521,7 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT111">
         <v>0.83</v>
@@ -22700,7 +22712,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT112">
         <v>1.08</v>
@@ -22995,7 +23007,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -23273,10 +23285,10 @@
         <v>0.83</v>
       </c>
       <c r="AS115">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT115">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU115">
         <v>1.85</v>
@@ -23464,10 +23476,10 @@
         <v>2.4</v>
       </c>
       <c r="AS116">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT116">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AU116">
         <v>1.99</v>
@@ -23658,7 +23670,7 @@
         <v>1.58</v>
       </c>
       <c r="AT117">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU117">
         <v>1.71</v>
@@ -23759,7 +23771,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -24037,7 +24049,7 @@
         <v>1.14</v>
       </c>
       <c r="AS119">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT119">
         <v>1.15</v>
@@ -24141,7 +24153,7 @@
         <v>87</v>
       </c>
       <c r="P120" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24231,7 +24243,7 @@
         <v>1.58</v>
       </c>
       <c r="AT120">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU120">
         <v>1.75</v>
@@ -24332,7 +24344,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24419,7 +24431,7 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT121">
         <v>0.83</v>
@@ -25096,7 +25108,7 @@
         <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25183,10 +25195,10 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT125">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU125">
         <v>1.57</v>
@@ -25377,7 +25389,7 @@
         <v>2.67</v>
       </c>
       <c r="AT126">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU126">
         <v>2.29</v>
@@ -25478,7 +25490,7 @@
         <v>143</v>
       </c>
       <c r="P127" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q127">
         <v>12</v>
@@ -25860,7 +25872,7 @@
         <v>87</v>
       </c>
       <c r="P129" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25947,7 +25959,7 @@
         <v>1.33</v>
       </c>
       <c r="AS129">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT129">
         <v>0.92</v>
@@ -26051,7 +26063,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26242,7 +26254,7 @@
         <v>170</v>
       </c>
       <c r="P131" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26433,7 +26445,7 @@
         <v>152</v>
       </c>
       <c r="P132" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q132">
         <v>2</v>
@@ -26520,7 +26532,7 @@
         <v>0.33</v>
       </c>
       <c r="AS132">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT132">
         <v>0.75</v>
@@ -26711,10 +26723,10 @@
         <v>0.67</v>
       </c>
       <c r="AS133">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT133">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU133">
         <v>2.13</v>
@@ -26815,7 +26827,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26905,7 +26917,7 @@
         <v>1.58</v>
       </c>
       <c r="AT134">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AU134">
         <v>1.86</v>
@@ -27006,7 +27018,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q135">
         <v>2</v>
@@ -27093,10 +27105,10 @@
         <v>2</v>
       </c>
       <c r="AS135">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT135">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU135">
         <v>1.8</v>
@@ -27388,7 +27400,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27666,7 +27678,7 @@
         <v>2.29</v>
       </c>
       <c r="AS138">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT138">
         <v>2</v>
@@ -28048,10 +28060,10 @@
         <v>1.33</v>
       </c>
       <c r="AS140">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT140">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU140">
         <v>1.82</v>
@@ -28152,7 +28164,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28343,7 +28355,7 @@
         <v>176</v>
       </c>
       <c r="P142" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28433,7 +28445,7 @@
         <v>1.75</v>
       </c>
       <c r="AT142">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU142">
         <v>1.89</v>
@@ -29107,7 +29119,7 @@
         <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29194,7 +29206,7 @@
         <v>1.14</v>
       </c>
       <c r="AS146">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT146">
         <v>0.83</v>
@@ -29388,7 +29400,7 @@
         <v>1.38</v>
       </c>
       <c r="AT147">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU147">
         <v>1.26</v>
@@ -29489,7 +29501,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29961,7 +29973,7 @@
         <v>1.58</v>
       </c>
       <c r="AT150">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU150">
         <v>1.71</v>
@@ -30062,7 +30074,7 @@
         <v>181</v>
       </c>
       <c r="P151" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30149,7 +30161,7 @@
         <v>1</v>
       </c>
       <c r="AS151">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT151">
         <v>0.5</v>
@@ -30340,7 +30352,7 @@
         <v>0.57</v>
       </c>
       <c r="AS152">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT152">
         <v>1</v>
@@ -30531,7 +30543,7 @@
         <v>0.71</v>
       </c>
       <c r="AS153">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT153">
         <v>0.75</v>
@@ -30722,7 +30734,7 @@
         <v>2.63</v>
       </c>
       <c r="AS154">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT154">
         <v>2.15</v>
@@ -30913,10 +30925,10 @@
         <v>0.57</v>
       </c>
       <c r="AS155">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT155">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU155">
         <v>1.31</v>
@@ -31017,7 +31029,7 @@
         <v>184</v>
       </c>
       <c r="P156" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -31208,7 +31220,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31298,7 +31310,7 @@
         <v>1.69</v>
       </c>
       <c r="AT157">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU157">
         <v>1.4</v>
@@ -31399,7 +31411,7 @@
         <v>147</v>
       </c>
       <c r="P158" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31489,7 +31501,7 @@
         <v>1.58</v>
       </c>
       <c r="AT158">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU158">
         <v>2.04</v>
@@ -31677,7 +31689,7 @@
         <v>1.14</v>
       </c>
       <c r="AS159">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT159">
         <v>0.83</v>
@@ -31781,7 +31793,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -31871,7 +31883,7 @@
         <v>1.75</v>
       </c>
       <c r="AT160">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AU160">
         <v>1.75</v>
@@ -32059,10 +32071,10 @@
         <v>1.14</v>
       </c>
       <c r="AS161">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT161">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU161">
         <v>2.13</v>
@@ -32250,7 +32262,7 @@
         <v>1.22</v>
       </c>
       <c r="AS162">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT162">
         <v>1.15</v>
@@ -32444,7 +32456,7 @@
         <v>1.67</v>
       </c>
       <c r="AT163">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU163">
         <v>1.56</v>
@@ -33118,7 +33130,7 @@
         <v>179</v>
       </c>
       <c r="P167" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33309,7 +33321,7 @@
         <v>190</v>
       </c>
       <c r="P168" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33500,7 +33512,7 @@
         <v>179</v>
       </c>
       <c r="P169" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33778,7 +33790,7 @@
         <v>0.88</v>
       </c>
       <c r="AS170">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT170">
         <v>1</v>
@@ -33882,7 +33894,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33972,7 +33984,7 @@
         <v>1.58</v>
       </c>
       <c r="AT171">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU171">
         <v>1.99</v>
@@ -34163,7 +34175,7 @@
         <v>1.08</v>
       </c>
       <c r="AT172">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU172">
         <v>1.65</v>
@@ -34354,7 +34366,7 @@
         <v>1.75</v>
       </c>
       <c r="AT173">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU173">
         <v>1.79</v>
@@ -34542,7 +34554,7 @@
         <v>1</v>
       </c>
       <c r="AS174">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT174">
         <v>0.75</v>
@@ -34733,7 +34745,7 @@
         <v>0.75</v>
       </c>
       <c r="AS175">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT175">
         <v>0.75</v>
@@ -34924,10 +34936,10 @@
         <v>1.13</v>
       </c>
       <c r="AS176">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT176">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU176">
         <v>1.38</v>
@@ -35219,7 +35231,7 @@
         <v>87</v>
       </c>
       <c r="P178" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q178">
         <v>12</v>
@@ -35306,7 +35318,7 @@
         <v>2.33</v>
       </c>
       <c r="AS178">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT178">
         <v>2.15</v>
@@ -35410,7 +35422,7 @@
         <v>195</v>
       </c>
       <c r="P179" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -35497,10 +35509,10 @@
         <v>0.25</v>
       </c>
       <c r="AS179">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT179">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU179">
         <v>1.82</v>
@@ -36073,7 +36085,7 @@
         <v>1.75</v>
       </c>
       <c r="AT182">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AU182">
         <v>1.92</v>
@@ -36261,7 +36273,7 @@
         <v>0.33</v>
       </c>
       <c r="AS183">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT183">
         <v>0.5</v>
@@ -36455,7 +36467,7 @@
         <v>1.23</v>
       </c>
       <c r="AT184">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU184">
         <v>1.22</v>
@@ -37025,7 +37037,7 @@
         <v>1.13</v>
       </c>
       <c r="AS187">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT187">
         <v>1.08</v>
@@ -37219,7 +37231,7 @@
         <v>2.33</v>
       </c>
       <c r="AT188">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU188">
         <v>2.19</v>
@@ -37407,10 +37419,10 @@
         <v>1.33</v>
       </c>
       <c r="AS189">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT189">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU189">
         <v>1.94</v>
@@ -37511,7 +37523,7 @@
         <v>201</v>
       </c>
       <c r="P190" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q190">
         <v>1</v>
@@ -37601,7 +37613,7 @@
         <v>1.75</v>
       </c>
       <c r="AT190">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AU190">
         <v>1.61</v>
@@ -37980,7 +37992,7 @@
         <v>0.89</v>
       </c>
       <c r="AS192">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT192">
         <v>0.75</v>
@@ -38084,7 +38096,7 @@
         <v>114</v>
       </c>
       <c r="P193" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38174,7 +38186,7 @@
         <v>1.08</v>
       </c>
       <c r="AT193">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU193">
         <v>1.59</v>
@@ -38275,7 +38287,7 @@
         <v>204</v>
       </c>
       <c r="P194" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38362,7 +38374,7 @@
         <v>1.2</v>
       </c>
       <c r="AS194">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT194">
         <v>1.15</v>
@@ -38657,7 +38669,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -38935,7 +38947,7 @@
         <v>2.4</v>
       </c>
       <c r="AS197">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT197">
         <v>2.15</v>
@@ -39320,7 +39332,7 @@
         <v>1.58</v>
       </c>
       <c r="AT199">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU199">
         <v>1.62</v>
@@ -39702,7 +39714,7 @@
         <v>1.58</v>
       </c>
       <c r="AT201">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU201">
         <v>1.95</v>
@@ -39994,7 +40006,7 @@
         <v>212</v>
       </c>
       <c r="P203" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q203">
         <v>8</v>
@@ -40084,7 +40096,7 @@
         <v>1.69</v>
       </c>
       <c r="AT203">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU203">
         <v>1.42</v>
@@ -40272,7 +40284,7 @@
         <v>1.1</v>
       </c>
       <c r="AS204">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT204">
         <v>0.92</v>
@@ -40376,7 +40388,7 @@
         <v>137</v>
       </c>
       <c r="P205" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -40463,7 +40475,7 @@
         <v>1</v>
       </c>
       <c r="AS205">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT205">
         <v>1.08</v>
@@ -40567,7 +40579,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -40657,7 +40669,7 @@
         <v>1.23</v>
       </c>
       <c r="AT206">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU206">
         <v>1.18</v>
@@ -40845,7 +40857,7 @@
         <v>2</v>
       </c>
       <c r="AS207">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT207">
         <v>2</v>
@@ -41039,7 +41051,7 @@
         <v>1.67</v>
       </c>
       <c r="AT208">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU208">
         <v>1.52</v>
@@ -41140,7 +41152,7 @@
         <v>87</v>
       </c>
       <c r="P209" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41227,10 +41239,10 @@
         <v>2.7</v>
       </c>
       <c r="AS209">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT209">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AU209">
         <v>1.91</v>
@@ -41331,7 +41343,7 @@
         <v>215</v>
       </c>
       <c r="P210" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41421,7 +41433,7 @@
         <v>1.08</v>
       </c>
       <c r="AT210">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU210">
         <v>1.56</v>
@@ -41713,7 +41725,7 @@
         <v>217</v>
       </c>
       <c r="P212" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q212">
         <v>1</v>
@@ -41803,7 +41815,7 @@
         <v>1.75</v>
       </c>
       <c r="AT212">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU212">
         <v>1.9</v>
@@ -42185,7 +42197,7 @@
         <v>1.75</v>
       </c>
       <c r="AT214">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU214">
         <v>1.54</v>
@@ -42286,7 +42298,7 @@
         <v>220</v>
       </c>
       <c r="P215" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42373,7 +42385,7 @@
         <v>1.09</v>
       </c>
       <c r="AS215">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT215">
         <v>1.15</v>
@@ -42477,7 +42489,7 @@
         <v>87</v>
       </c>
       <c r="P216" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -42668,7 +42680,7 @@
         <v>87</v>
       </c>
       <c r="P217" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q217">
         <v>10</v>
@@ -42755,7 +42767,7 @@
         <v>1.1</v>
       </c>
       <c r="AS217">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT217">
         <v>1.08</v>
@@ -42859,7 +42871,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q218">
         <v>7</v>
@@ -43623,7 +43635,7 @@
         <v>225</v>
       </c>
       <c r="P222" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q222">
         <v>3</v>
@@ -43710,10 +43722,10 @@
         <v>1.55</v>
       </c>
       <c r="AS222">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT222">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU222">
         <v>1.47</v>
@@ -43814,7 +43826,7 @@
         <v>226</v>
       </c>
       <c r="P223" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -44095,7 +44107,7 @@
         <v>1.38</v>
       </c>
       <c r="AT224">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU224">
         <v>1.34</v>
@@ -44474,10 +44486,10 @@
         <v>2.27</v>
       </c>
       <c r="AS226">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT226">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU226">
         <v>1.82</v>
@@ -44578,7 +44590,7 @@
         <v>229</v>
       </c>
       <c r="P227" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q227">
         <v>11</v>
@@ -44665,7 +44677,7 @@
         <v>0.6</v>
       </c>
       <c r="AS227">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT227">
         <v>0.75</v>
@@ -44856,10 +44868,10 @@
         <v>0.64</v>
       </c>
       <c r="AS228">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT228">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU228">
         <v>1.65</v>
@@ -45050,7 +45062,7 @@
         <v>1.69</v>
       </c>
       <c r="AT229">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AU229">
         <v>1.51</v>
@@ -45151,7 +45163,7 @@
         <v>232</v>
       </c>
       <c r="P230" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q230">
         <v>10</v>
@@ -45238,10 +45250,10 @@
         <v>1.09</v>
       </c>
       <c r="AS230">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT230">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU230">
         <v>1.92</v>
@@ -45429,7 +45441,7 @@
         <v>0.9</v>
       </c>
       <c r="AS231">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT231">
         <v>0.83</v>
@@ -45724,7 +45736,7 @@
         <v>234</v>
       </c>
       <c r="P233" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -45915,7 +45927,7 @@
         <v>87</v>
       </c>
       <c r="P234" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q234">
         <v>2</v>
@@ -46106,7 +46118,7 @@
         <v>87</v>
       </c>
       <c r="P235" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q235">
         <v>6</v>
@@ -46193,7 +46205,7 @@
         <v>0.27</v>
       </c>
       <c r="AS235">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT235">
         <v>0.5</v>
@@ -47443,7 +47455,7 @@
         <v>237</v>
       </c>
       <c r="P242" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q242">
         <v>2</v>
@@ -47634,7 +47646,7 @@
         <v>238</v>
       </c>
       <c r="P243" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q243">
         <v>7</v>
@@ -47775,6 +47787,1343 @@
         <v>24</v>
       </c>
       <c r="BK243">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="1:63">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>2710900</v>
+      </c>
+      <c r="C244" t="s">
+        <v>63</v>
+      </c>
+      <c r="D244" t="s">
+        <v>64</v>
+      </c>
+      <c r="E244" s="2">
+        <v>44996.51041666666</v>
+      </c>
+      <c r="F244">
+        <v>25</v>
+      </c>
+      <c r="G244" t="s">
+        <v>80</v>
+      </c>
+      <c r="H244" t="s">
+        <v>67</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244">
+        <v>1</v>
+      </c>
+      <c r="N244">
+        <v>2</v>
+      </c>
+      <c r="O244" t="s">
+        <v>239</v>
+      </c>
+      <c r="P244" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q244">
+        <v>10</v>
+      </c>
+      <c r="R244">
+        <v>3</v>
+      </c>
+      <c r="S244">
+        <v>13</v>
+      </c>
+      <c r="T244">
+        <v>3.4</v>
+      </c>
+      <c r="U244">
+        <v>2.05</v>
+      </c>
+      <c r="V244">
+        <v>3.4</v>
+      </c>
+      <c r="W244">
+        <v>1.44</v>
+      </c>
+      <c r="X244">
+        <v>2.63</v>
+      </c>
+      <c r="Y244">
+        <v>3.25</v>
+      </c>
+      <c r="Z244">
+        <v>1.33</v>
+      </c>
+      <c r="AA244">
+        <v>9</v>
+      </c>
+      <c r="AB244">
+        <v>1.07</v>
+      </c>
+      <c r="AC244">
+        <v>2.75</v>
+      </c>
+      <c r="AD244">
+        <v>3.3</v>
+      </c>
+      <c r="AE244">
+        <v>2.6</v>
+      </c>
+      <c r="AF244">
+        <v>1.06</v>
+      </c>
+      <c r="AG244">
+        <v>8</v>
+      </c>
+      <c r="AH244">
+        <v>1.35</v>
+      </c>
+      <c r="AI244">
+        <v>3</v>
+      </c>
+      <c r="AJ244">
+        <v>2.1</v>
+      </c>
+      <c r="AK244">
+        <v>1.67</v>
+      </c>
+      <c r="AL244">
+        <v>1.8</v>
+      </c>
+      <c r="AM244">
+        <v>1.95</v>
+      </c>
+      <c r="AN244">
+        <v>1.47</v>
+      </c>
+      <c r="AO244">
+        <v>1.32</v>
+      </c>
+      <c r="AP244">
+        <v>1.44</v>
+      </c>
+      <c r="AQ244">
+        <v>0.5</v>
+      </c>
+      <c r="AR244">
+        <v>0.58</v>
+      </c>
+      <c r="AS244">
+        <v>0.54</v>
+      </c>
+      <c r="AT244">
+        <v>0.62</v>
+      </c>
+      <c r="AU244">
+        <v>1.42</v>
+      </c>
+      <c r="AV244">
+        <v>1.19</v>
+      </c>
+      <c r="AW244">
+        <v>2.61</v>
+      </c>
+      <c r="AX244">
+        <v>1.73</v>
+      </c>
+      <c r="AY244">
+        <v>7.7</v>
+      </c>
+      <c r="AZ244">
+        <v>2.64</v>
+      </c>
+      <c r="BA244">
+        <v>1.29</v>
+      </c>
+      <c r="BB244">
+        <v>1.55</v>
+      </c>
+      <c r="BC244">
+        <v>1.94</v>
+      </c>
+      <c r="BD244">
+        <v>2.5</v>
+      </c>
+      <c r="BE244">
+        <v>3.48</v>
+      </c>
+      <c r="BF244">
+        <v>11</v>
+      </c>
+      <c r="BG244">
+        <v>2</v>
+      </c>
+      <c r="BH244">
+        <v>9</v>
+      </c>
+      <c r="BI244">
+        <v>4</v>
+      </c>
+      <c r="BJ244">
+        <v>20</v>
+      </c>
+      <c r="BK244">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:63">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>2710899</v>
+      </c>
+      <c r="C245" t="s">
+        <v>63</v>
+      </c>
+      <c r="D245" t="s">
+        <v>64</v>
+      </c>
+      <c r="E245" s="2">
+        <v>44996.60416666666</v>
+      </c>
+      <c r="F245">
+        <v>25</v>
+      </c>
+      <c r="G245" t="s">
+        <v>66</v>
+      </c>
+      <c r="H245" t="s">
+        <v>82</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>3</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>3</v>
+      </c>
+      <c r="O245" t="s">
+        <v>240</v>
+      </c>
+      <c r="P245" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q245">
+        <v>3</v>
+      </c>
+      <c r="R245">
+        <v>7</v>
+      </c>
+      <c r="S245">
+        <v>10</v>
+      </c>
+      <c r="T245">
+        <v>2.88</v>
+      </c>
+      <c r="U245">
+        <v>2</v>
+      </c>
+      <c r="V245">
+        <v>4.5</v>
+      </c>
+      <c r="W245">
+        <v>1.53</v>
+      </c>
+      <c r="X245">
+        <v>2.38</v>
+      </c>
+      <c r="Y245">
+        <v>3.5</v>
+      </c>
+      <c r="Z245">
+        <v>1.29</v>
+      </c>
+      <c r="AA245">
+        <v>11</v>
+      </c>
+      <c r="AB245">
+        <v>1.05</v>
+      </c>
+      <c r="AC245">
+        <v>2.13</v>
+      </c>
+      <c r="AD245">
+        <v>3.2</v>
+      </c>
+      <c r="AE245">
+        <v>3.75</v>
+      </c>
+      <c r="AF245">
+        <v>1.1</v>
+      </c>
+      <c r="AG245">
+        <v>7.5</v>
+      </c>
+      <c r="AH245">
+        <v>1.47</v>
+      </c>
+      <c r="AI245">
+        <v>2.75</v>
+      </c>
+      <c r="AJ245">
+        <v>2.45</v>
+      </c>
+      <c r="AK245">
+        <v>1.5</v>
+      </c>
+      <c r="AL245">
+        <v>2.05</v>
+      </c>
+      <c r="AM245">
+        <v>1.7</v>
+      </c>
+      <c r="AN245">
+        <v>1.25</v>
+      </c>
+      <c r="AO245">
+        <v>1.35</v>
+      </c>
+      <c r="AP245">
+        <v>1.72</v>
+      </c>
+      <c r="AQ245">
+        <v>1.33</v>
+      </c>
+      <c r="AR245">
+        <v>1.33</v>
+      </c>
+      <c r="AS245">
+        <v>1.46</v>
+      </c>
+      <c r="AT245">
+        <v>1.23</v>
+      </c>
+      <c r="AU245">
+        <v>1.68</v>
+      </c>
+      <c r="AV245">
+        <v>1.4</v>
+      </c>
+      <c r="AW245">
+        <v>3.08</v>
+      </c>
+      <c r="AX245">
+        <v>1.6</v>
+      </c>
+      <c r="AY245">
+        <v>7.8</v>
+      </c>
+      <c r="AZ245">
+        <v>2.99</v>
+      </c>
+      <c r="BA245">
+        <v>1.35</v>
+      </c>
+      <c r="BB245">
+        <v>1.65</v>
+      </c>
+      <c r="BC245">
+        <v>2.1</v>
+      </c>
+      <c r="BD245">
+        <v>2.75</v>
+      </c>
+      <c r="BE245">
+        <v>3.92</v>
+      </c>
+      <c r="BF245">
+        <v>7</v>
+      </c>
+      <c r="BG245">
+        <v>4</v>
+      </c>
+      <c r="BH245">
+        <v>5</v>
+      </c>
+      <c r="BI245">
+        <v>8</v>
+      </c>
+      <c r="BJ245">
+        <v>12</v>
+      </c>
+      <c r="BK245">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="1:63">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>2710906</v>
+      </c>
+      <c r="C246" t="s">
+        <v>63</v>
+      </c>
+      <c r="D246" t="s">
+        <v>64</v>
+      </c>
+      <c r="E246" s="2">
+        <v>44996.70833333334</v>
+      </c>
+      <c r="F246">
+        <v>25</v>
+      </c>
+      <c r="G246" t="s">
+        <v>70</v>
+      </c>
+      <c r="H246" t="s">
+        <v>65</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>1</v>
+      </c>
+      <c r="O246" t="s">
+        <v>227</v>
+      </c>
+      <c r="P246" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q246">
+        <v>12</v>
+      </c>
+      <c r="R246">
+        <v>3</v>
+      </c>
+      <c r="S246">
+        <v>15</v>
+      </c>
+      <c r="T246">
+        <v>2.75</v>
+      </c>
+      <c r="U246">
+        <v>2</v>
+      </c>
+      <c r="V246">
+        <v>4.5</v>
+      </c>
+      <c r="W246">
+        <v>1.5</v>
+      </c>
+      <c r="X246">
+        <v>2.5</v>
+      </c>
+      <c r="Y246">
+        <v>3.5</v>
+      </c>
+      <c r="Z246">
+        <v>1.29</v>
+      </c>
+      <c r="AA246">
+        <v>11</v>
+      </c>
+      <c r="AB246">
+        <v>1.05</v>
+      </c>
+      <c r="AC246">
+        <v>2.05</v>
+      </c>
+      <c r="AD246">
+        <v>3.1</v>
+      </c>
+      <c r="AE246">
+        <v>3.9</v>
+      </c>
+      <c r="AF246">
+        <v>1.09</v>
+      </c>
+      <c r="AG246">
+        <v>8</v>
+      </c>
+      <c r="AH246">
+        <v>1.45</v>
+      </c>
+      <c r="AI246">
+        <v>2.8</v>
+      </c>
+      <c r="AJ246">
+        <v>2.35</v>
+      </c>
+      <c r="AK246">
+        <v>1.53</v>
+      </c>
+      <c r="AL246">
+        <v>2</v>
+      </c>
+      <c r="AM246">
+        <v>1.75</v>
+      </c>
+      <c r="AN246">
+        <v>1.24</v>
+      </c>
+      <c r="AO246">
+        <v>1.34</v>
+      </c>
+      <c r="AP246">
+        <v>1.77</v>
+      </c>
+      <c r="AQ246">
+        <v>1.42</v>
+      </c>
+      <c r="AR246">
+        <v>1.25</v>
+      </c>
+      <c r="AS246">
+        <v>1.54</v>
+      </c>
+      <c r="AT246">
+        <v>1.15</v>
+      </c>
+      <c r="AU246">
+        <v>1.78</v>
+      </c>
+      <c r="AV246">
+        <v>1.35</v>
+      </c>
+      <c r="AW246">
+        <v>3.13</v>
+      </c>
+      <c r="AX246">
+        <v>1.44</v>
+      </c>
+      <c r="AY246">
+        <v>8.5</v>
+      </c>
+      <c r="AZ246">
+        <v>3.64</v>
+      </c>
+      <c r="BA246">
+        <v>1.25</v>
+      </c>
+      <c r="BB246">
+        <v>1.49</v>
+      </c>
+      <c r="BC246">
+        <v>1.88</v>
+      </c>
+      <c r="BD246">
+        <v>2.42</v>
+      </c>
+      <c r="BE246">
+        <v>3.28</v>
+      </c>
+      <c r="BF246">
+        <v>6</v>
+      </c>
+      <c r="BG246">
+        <v>0</v>
+      </c>
+      <c r="BH246">
+        <v>4</v>
+      </c>
+      <c r="BI246">
+        <v>9</v>
+      </c>
+      <c r="BJ246">
+        <v>10</v>
+      </c>
+      <c r="BK246">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:63">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>2710901</v>
+      </c>
+      <c r="C247" t="s">
+        <v>63</v>
+      </c>
+      <c r="D247" t="s">
+        <v>64</v>
+      </c>
+      <c r="E247" s="2">
+        <v>44997.41666666666</v>
+      </c>
+      <c r="F247">
+        <v>25</v>
+      </c>
+      <c r="G247" t="s">
+        <v>77</v>
+      </c>
+      <c r="H247" t="s">
+        <v>79</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>1</v>
+      </c>
+      <c r="K247">
+        <v>1</v>
+      </c>
+      <c r="L247">
+        <v>1</v>
+      </c>
+      <c r="M247">
+        <v>1</v>
+      </c>
+      <c r="N247">
+        <v>2</v>
+      </c>
+      <c r="O247" t="s">
+        <v>241</v>
+      </c>
+      <c r="P247" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q247">
+        <v>3</v>
+      </c>
+      <c r="R247">
+        <v>2</v>
+      </c>
+      <c r="S247">
+        <v>5</v>
+      </c>
+      <c r="T247">
+        <v>4.33</v>
+      </c>
+      <c r="U247">
+        <v>1.83</v>
+      </c>
+      <c r="V247">
+        <v>3.25</v>
+      </c>
+      <c r="W247">
+        <v>1.67</v>
+      </c>
+      <c r="X247">
+        <v>2.1</v>
+      </c>
+      <c r="Y247">
+        <v>4.33</v>
+      </c>
+      <c r="Z247">
+        <v>1.2</v>
+      </c>
+      <c r="AA247">
+        <v>15</v>
+      </c>
+      <c r="AB247">
+        <v>1.03</v>
+      </c>
+      <c r="AC247">
+        <v>3.35</v>
+      </c>
+      <c r="AD247">
+        <v>2.77</v>
+      </c>
+      <c r="AE247">
+        <v>2.13</v>
+      </c>
+      <c r="AF247">
+        <v>1.14</v>
+      </c>
+      <c r="AG247">
+        <v>6</v>
+      </c>
+      <c r="AH247">
+        <v>1.54</v>
+      </c>
+      <c r="AI247">
+        <v>2.3</v>
+      </c>
+      <c r="AJ247">
+        <v>2.81</v>
+      </c>
+      <c r="AK247">
+        <v>1.38</v>
+      </c>
+      <c r="AL247">
+        <v>2.38</v>
+      </c>
+      <c r="AM247">
+        <v>1.53</v>
+      </c>
+      <c r="AN247">
+        <v>1.53</v>
+      </c>
+      <c r="AO247">
+        <v>1.4</v>
+      </c>
+      <c r="AP247">
+        <v>1.31</v>
+      </c>
+      <c r="AQ247">
+        <v>1.67</v>
+      </c>
+      <c r="AR247">
+        <v>2.08</v>
+      </c>
+      <c r="AS247">
+        <v>1.62</v>
+      </c>
+      <c r="AT247">
+        <v>2</v>
+      </c>
+      <c r="AU247">
+        <v>1.27</v>
+      </c>
+      <c r="AV247">
+        <v>1.63</v>
+      </c>
+      <c r="AW247">
+        <v>2.9</v>
+      </c>
+      <c r="AX247">
+        <v>2.38</v>
+      </c>
+      <c r="AY247">
+        <v>7.3</v>
+      </c>
+      <c r="AZ247">
+        <v>1.89</v>
+      </c>
+      <c r="BA247">
+        <v>1.44</v>
+      </c>
+      <c r="BB247">
+        <v>1.8</v>
+      </c>
+      <c r="BC247">
+        <v>2.35</v>
+      </c>
+      <c r="BD247">
+        <v>3.18</v>
+      </c>
+      <c r="BE247">
+        <v>4.6</v>
+      </c>
+      <c r="BF247">
+        <v>3</v>
+      </c>
+      <c r="BG247">
+        <v>3</v>
+      </c>
+      <c r="BH247">
+        <v>5</v>
+      </c>
+      <c r="BI247">
+        <v>2</v>
+      </c>
+      <c r="BJ247">
+        <v>8</v>
+      </c>
+      <c r="BK247">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:63">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>2710907</v>
+      </c>
+      <c r="C248" t="s">
+        <v>63</v>
+      </c>
+      <c r="D248" t="s">
+        <v>64</v>
+      </c>
+      <c r="E248" s="2">
+        <v>44997.51041666666</v>
+      </c>
+      <c r="F248">
+        <v>25</v>
+      </c>
+      <c r="G248" t="s">
+        <v>76</v>
+      </c>
+      <c r="H248" t="s">
+        <v>71</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248">
+        <v>1</v>
+      </c>
+      <c r="K248">
+        <v>2</v>
+      </c>
+      <c r="L248">
+        <v>2</v>
+      </c>
+      <c r="M248">
+        <v>1</v>
+      </c>
+      <c r="N248">
+        <v>3</v>
+      </c>
+      <c r="O248" t="s">
+        <v>242</v>
+      </c>
+      <c r="P248" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q248">
+        <v>6</v>
+      </c>
+      <c r="R248">
+        <v>4</v>
+      </c>
+      <c r="S248">
+        <v>10</v>
+      </c>
+      <c r="T248">
+        <v>2.2</v>
+      </c>
+      <c r="U248">
+        <v>2.25</v>
+      </c>
+      <c r="V248">
+        <v>5.5</v>
+      </c>
+      <c r="W248">
+        <v>1.36</v>
+      </c>
+      <c r="X248">
+        <v>3</v>
+      </c>
+      <c r="Y248">
+        <v>2.75</v>
+      </c>
+      <c r="Z248">
+        <v>1.4</v>
+      </c>
+      <c r="AA248">
+        <v>7</v>
+      </c>
+      <c r="AB248">
+        <v>1.1</v>
+      </c>
+      <c r="AC248">
+        <v>1.55</v>
+      </c>
+      <c r="AD248">
+        <v>3.7</v>
+      </c>
+      <c r="AE248">
+        <v>4.7</v>
+      </c>
+      <c r="AF248">
+        <v>1.05</v>
+      </c>
+      <c r="AG248">
+        <v>12</v>
+      </c>
+      <c r="AH248">
+        <v>1.3</v>
+      </c>
+      <c r="AI248">
+        <v>3.6</v>
+      </c>
+      <c r="AJ248">
+        <v>1.77</v>
+      </c>
+      <c r="AK248">
+        <v>1.93</v>
+      </c>
+      <c r="AL248">
+        <v>1.8</v>
+      </c>
+      <c r="AM248">
+        <v>1.95</v>
+      </c>
+      <c r="AN248">
+        <v>1.16</v>
+      </c>
+      <c r="AO248">
+        <v>1.25</v>
+      </c>
+      <c r="AP248">
+        <v>2.2</v>
+      </c>
+      <c r="AQ248">
+        <v>1.25</v>
+      </c>
+      <c r="AR248">
+        <v>0.27</v>
+      </c>
+      <c r="AS248">
+        <v>1.38</v>
+      </c>
+      <c r="AT248">
+        <v>0.25</v>
+      </c>
+      <c r="AU248">
+        <v>1.95</v>
+      </c>
+      <c r="AV248">
+        <v>1.3</v>
+      </c>
+      <c r="AW248">
+        <v>3.25</v>
+      </c>
+      <c r="AX248">
+        <v>1.29</v>
+      </c>
+      <c r="AY248">
+        <v>9.6</v>
+      </c>
+      <c r="AZ248">
+        <v>4.8</v>
+      </c>
+      <c r="BA248">
+        <v>1.25</v>
+      </c>
+      <c r="BB248">
+        <v>1.49</v>
+      </c>
+      <c r="BC248">
+        <v>1.88</v>
+      </c>
+      <c r="BD248">
+        <v>2.42</v>
+      </c>
+      <c r="BE248">
+        <v>3.28</v>
+      </c>
+      <c r="BF248">
+        <v>6</v>
+      </c>
+      <c r="BG248">
+        <v>6</v>
+      </c>
+      <c r="BH248">
+        <v>15</v>
+      </c>
+      <c r="BI248">
+        <v>5</v>
+      </c>
+      <c r="BJ248">
+        <v>21</v>
+      </c>
+      <c r="BK248">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:63">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>2710904</v>
+      </c>
+      <c r="C249" t="s">
+        <v>63</v>
+      </c>
+      <c r="D249" t="s">
+        <v>64</v>
+      </c>
+      <c r="E249" s="2">
+        <v>44997.60416666666</v>
+      </c>
+      <c r="F249">
+        <v>25</v>
+      </c>
+      <c r="G249" t="s">
+        <v>84</v>
+      </c>
+      <c r="H249" t="s">
+        <v>74</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+      <c r="K249">
+        <v>1</v>
+      </c>
+      <c r="L249">
+        <v>1</v>
+      </c>
+      <c r="M249">
+        <v>1</v>
+      </c>
+      <c r="N249">
+        <v>2</v>
+      </c>
+      <c r="O249" t="s">
+        <v>104</v>
+      </c>
+      <c r="P249" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q249">
+        <v>2</v>
+      </c>
+      <c r="R249">
+        <v>4</v>
+      </c>
+      <c r="S249">
+        <v>6</v>
+      </c>
+      <c r="T249">
+        <v>2.5</v>
+      </c>
+      <c r="U249">
+        <v>2.2</v>
+      </c>
+      <c r="V249">
+        <v>4.33</v>
+      </c>
+      <c r="W249">
+        <v>1.4</v>
+      </c>
+      <c r="X249">
+        <v>2.75</v>
+      </c>
+      <c r="Y249">
+        <v>2.75</v>
+      </c>
+      <c r="Z249">
+        <v>1.4</v>
+      </c>
+      <c r="AA249">
+        <v>8</v>
+      </c>
+      <c r="AB249">
+        <v>1.08</v>
+      </c>
+      <c r="AC249">
+        <v>1.95</v>
+      </c>
+      <c r="AD249">
+        <v>3.4</v>
+      </c>
+      <c r="AE249">
+        <v>3.3</v>
+      </c>
+      <c r="AF249">
+        <v>1.05</v>
+      </c>
+      <c r="AG249">
+        <v>12</v>
+      </c>
+      <c r="AH249">
+        <v>1.3</v>
+      </c>
+      <c r="AI249">
+        <v>3.6</v>
+      </c>
+      <c r="AJ249">
+        <v>1.9</v>
+      </c>
+      <c r="AK249">
+        <v>1.9</v>
+      </c>
+      <c r="AL249">
+        <v>1.75</v>
+      </c>
+      <c r="AM249">
+        <v>2</v>
+      </c>
+      <c r="AN249">
+        <v>1.25</v>
+      </c>
+      <c r="AO249">
+        <v>1.28</v>
+      </c>
+      <c r="AP249">
+        <v>1.83</v>
+      </c>
+      <c r="AQ249">
+        <v>2</v>
+      </c>
+      <c r="AR249">
+        <v>1.67</v>
+      </c>
+      <c r="AS249">
+        <v>1.92</v>
+      </c>
+      <c r="AT249">
+        <v>1.62</v>
+      </c>
+      <c r="AU249">
+        <v>1.84</v>
+      </c>
+      <c r="AV249">
+        <v>1.4</v>
+      </c>
+      <c r="AW249">
+        <v>3.24</v>
+      </c>
+      <c r="AX249">
+        <v>1.38</v>
+      </c>
+      <c r="AY249">
+        <v>8.6</v>
+      </c>
+      <c r="AZ249">
+        <v>4.05</v>
+      </c>
+      <c r="BA249">
+        <v>1.26</v>
+      </c>
+      <c r="BB249">
+        <v>1.51</v>
+      </c>
+      <c r="BC249">
+        <v>1.91</v>
+      </c>
+      <c r="BD249">
+        <v>2.47</v>
+      </c>
+      <c r="BE249">
+        <v>3.34</v>
+      </c>
+      <c r="BF249">
+        <v>5</v>
+      </c>
+      <c r="BG249">
+        <v>4</v>
+      </c>
+      <c r="BH249">
+        <v>6</v>
+      </c>
+      <c r="BI249">
+        <v>1</v>
+      </c>
+      <c r="BJ249">
+        <v>11</v>
+      </c>
+      <c r="BK249">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:63">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>2710898</v>
+      </c>
+      <c r="C250" t="s">
+        <v>63</v>
+      </c>
+      <c r="D250" t="s">
+        <v>64</v>
+      </c>
+      <c r="E250" s="2">
+        <v>44997.70833333334</v>
+      </c>
+      <c r="F250">
+        <v>25</v>
+      </c>
+      <c r="G250" t="s">
+        <v>72</v>
+      </c>
+      <c r="H250" t="s">
+        <v>68</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
+      </c>
+      <c r="K250">
+        <v>1</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
+        <v>1</v>
+      </c>
+      <c r="N250">
+        <v>1</v>
+      </c>
+      <c r="O250" t="s">
+        <v>87</v>
+      </c>
+      <c r="P250" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q250">
+        <v>5</v>
+      </c>
+      <c r="R250">
+        <v>3</v>
+      </c>
+      <c r="S250">
+        <v>8</v>
+      </c>
+      <c r="T250">
+        <v>4</v>
+      </c>
+      <c r="U250">
+        <v>2.05</v>
+      </c>
+      <c r="V250">
+        <v>2.88</v>
+      </c>
+      <c r="W250">
+        <v>1.44</v>
+      </c>
+      <c r="X250">
+        <v>2.63</v>
+      </c>
+      <c r="Y250">
+        <v>3.25</v>
+      </c>
+      <c r="Z250">
+        <v>1.33</v>
+      </c>
+      <c r="AA250">
+        <v>10</v>
+      </c>
+      <c r="AB250">
+        <v>1.06</v>
+      </c>
+      <c r="AC250">
+        <v>3.2</v>
+      </c>
+      <c r="AD250">
+        <v>3.2</v>
+      </c>
+      <c r="AE250">
+        <v>2.08</v>
+      </c>
+      <c r="AF250">
+        <v>1.07</v>
+      </c>
+      <c r="AG250">
+        <v>9</v>
+      </c>
+      <c r="AH250">
+        <v>1.4</v>
+      </c>
+      <c r="AI250">
+        <v>3</v>
+      </c>
+      <c r="AJ250">
+        <v>2.1</v>
+      </c>
+      <c r="AK250">
+        <v>1.75</v>
+      </c>
+      <c r="AL250">
+        <v>1.91</v>
+      </c>
+      <c r="AM250">
+        <v>1.91</v>
+      </c>
+      <c r="AN250">
+        <v>1.63</v>
+      </c>
+      <c r="AO250">
+        <v>1.33</v>
+      </c>
+      <c r="AP250">
+        <v>1.32</v>
+      </c>
+      <c r="AQ250">
+        <v>1.67</v>
+      </c>
+      <c r="AR250">
+        <v>2.5</v>
+      </c>
+      <c r="AS250">
+        <v>1.54</v>
+      </c>
+      <c r="AT250">
+        <v>2.54</v>
+      </c>
+      <c r="AU250">
+        <v>2.1</v>
+      </c>
+      <c r="AV250">
+        <v>1.65</v>
+      </c>
+      <c r="AW250">
+        <v>3.75</v>
+      </c>
+      <c r="AX250">
+        <v>2.25</v>
+      </c>
+      <c r="AY250">
+        <v>7.4</v>
+      </c>
+      <c r="AZ250">
+        <v>1.97</v>
+      </c>
+      <c r="BA250">
+        <v>1.33</v>
+      </c>
+      <c r="BB250">
+        <v>1.62</v>
+      </c>
+      <c r="BC250">
+        <v>2.05</v>
+      </c>
+      <c r="BD250">
+        <v>2.67</v>
+      </c>
+      <c r="BE250">
+        <v>3.74</v>
+      </c>
+      <c r="BF250">
+        <v>6</v>
+      </c>
+      <c r="BG250">
+        <v>3</v>
+      </c>
+      <c r="BH250">
+        <v>12</v>
+      </c>
+      <c r="BI250">
+        <v>8</v>
+      </c>
+      <c r="BJ250">
+        <v>18</v>
+      </c>
+      <c r="BK250">
         <v>11</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="333">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1011,6 +1011,9 @@
   <si>
     <t>['2']</t>
   </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
 </sst>
 </file>
 
@@ -1371,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK250"/>
+  <dimension ref="A1:BK251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3233,7 +3236,7 @@
         <v>1.23</v>
       </c>
       <c r="AT10">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -5331,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT21">
         <v>0.83</v>
@@ -5522,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT22">
         <v>1</v>
@@ -7244,7 +7247,7 @@
         <v>1.54</v>
       </c>
       <c r="AT31">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU31">
         <v>1.68</v>
@@ -8008,7 +8011,7 @@
         <v>1.58</v>
       </c>
       <c r="AT35">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU35">
         <v>1.54</v>
@@ -9342,7 +9345,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT42">
         <v>0.62</v>
@@ -13738,7 +13741,7 @@
         <v>1.38</v>
       </c>
       <c r="AT65">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU65">
         <v>2.05</v>
@@ -14499,7 +14502,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT69">
         <v>2</v>
@@ -17173,7 +17176,7 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT83">
         <v>0.75</v>
@@ -17749,7 +17752,7 @@
         <v>1.54</v>
       </c>
       <c r="AT86">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU86">
         <v>2.15</v>
@@ -21760,7 +21763,7 @@
         <v>1.75</v>
       </c>
       <c r="AT107">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU107">
         <v>1.66</v>
@@ -21948,7 +21951,7 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT108">
         <v>1.15</v>
@@ -23097,7 +23100,7 @@
         <v>1.38</v>
       </c>
       <c r="AT114">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU114">
         <v>1.22</v>
@@ -24622,7 +24625,7 @@
         <v>1.6</v>
       </c>
       <c r="AS122">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT122">
         <v>1.08</v>
@@ -27681,7 +27684,7 @@
         <v>1.62</v>
       </c>
       <c r="AT138">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU138">
         <v>1.36</v>
@@ -28442,7 +28445,7 @@
         <v>1.14</v>
       </c>
       <c r="AS142">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT142">
         <v>1.23</v>
@@ -32644,7 +32647,7 @@
         <v>1.13</v>
       </c>
       <c r="AS164">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT164">
         <v>0.83</v>
@@ -33411,7 +33414,7 @@
         <v>1.69</v>
       </c>
       <c r="AT168">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU168">
         <v>1.33</v>
@@ -36082,7 +36085,7 @@
         <v>2.63</v>
       </c>
       <c r="AS182">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT182">
         <v>2.54</v>
@@ -36849,7 +36852,7 @@
         <v>1.58</v>
       </c>
       <c r="AT186">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU186">
         <v>1.79</v>
@@ -39138,7 +39141,7 @@
         <v>0.67</v>
       </c>
       <c r="AS198">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT198">
         <v>0.5</v>
@@ -40860,7 +40863,7 @@
         <v>1.46</v>
       </c>
       <c r="AT207">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU207">
         <v>1.66</v>
@@ -41812,7 +41815,7 @@
         <v>0.3</v>
       </c>
       <c r="AS212">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT212">
         <v>0.25</v>
@@ -44298,7 +44301,7 @@
         <v>2.33</v>
       </c>
       <c r="AT225">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU225">
         <v>2.36</v>
@@ -49125,6 +49128,197 @@
       </c>
       <c r="BK250">
         <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:63">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>2710903</v>
+      </c>
+      <c r="C251" t="s">
+        <v>63</v>
+      </c>
+      <c r="D251" t="s">
+        <v>64</v>
+      </c>
+      <c r="E251" s="2">
+        <v>44998.70833333334</v>
+      </c>
+      <c r="F251">
+        <v>25</v>
+      </c>
+      <c r="G251" t="s">
+        <v>81</v>
+      </c>
+      <c r="H251" t="s">
+        <v>78</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>1</v>
+      </c>
+      <c r="N251">
+        <v>1</v>
+      </c>
+      <c r="O251" t="s">
+        <v>87</v>
+      </c>
+      <c r="P251" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q251">
+        <v>1</v>
+      </c>
+      <c r="R251">
+        <v>3</v>
+      </c>
+      <c r="S251">
+        <v>4</v>
+      </c>
+      <c r="T251">
+        <v>4.33</v>
+      </c>
+      <c r="U251">
+        <v>2.05</v>
+      </c>
+      <c r="V251">
+        <v>2.75</v>
+      </c>
+      <c r="W251">
+        <v>1.44</v>
+      </c>
+      <c r="X251">
+        <v>2.63</v>
+      </c>
+      <c r="Y251">
+        <v>3.25</v>
+      </c>
+      <c r="Z251">
+        <v>1.33</v>
+      </c>
+      <c r="AA251">
+        <v>10</v>
+      </c>
+      <c r="AB251">
+        <v>1.06</v>
+      </c>
+      <c r="AC251">
+        <v>3.5</v>
+      </c>
+      <c r="AD251">
+        <v>3.3</v>
+      </c>
+      <c r="AE251">
+        <v>2.2</v>
+      </c>
+      <c r="AF251">
+        <v>1.07</v>
+      </c>
+      <c r="AG251">
+        <v>9.5</v>
+      </c>
+      <c r="AH251">
+        <v>1.4</v>
+      </c>
+      <c r="AI251">
+        <v>3</v>
+      </c>
+      <c r="AJ251">
+        <v>2.3</v>
+      </c>
+      <c r="AK251">
+        <v>1.62</v>
+      </c>
+      <c r="AL251">
+        <v>1.95</v>
+      </c>
+      <c r="AM251">
+        <v>1.8</v>
+      </c>
+      <c r="AN251">
+        <v>1.71</v>
+      </c>
+      <c r="AO251">
+        <v>1.33</v>
+      </c>
+      <c r="AP251">
+        <v>1.27</v>
+      </c>
+      <c r="AQ251">
+        <v>1.75</v>
+      </c>
+      <c r="AR251">
+        <v>2</v>
+      </c>
+      <c r="AS251">
+        <v>1.62</v>
+      </c>
+      <c r="AT251">
+        <v>2.08</v>
+      </c>
+      <c r="AU251">
+        <v>1.89</v>
+      </c>
+      <c r="AV251">
+        <v>1.61</v>
+      </c>
+      <c r="AW251">
+        <v>3.5</v>
+      </c>
+      <c r="AX251">
+        <v>2.66</v>
+      </c>
+      <c r="AY251">
+        <v>7.6</v>
+      </c>
+      <c r="AZ251">
+        <v>1.73</v>
+      </c>
+      <c r="BA251">
+        <v>1.41</v>
+      </c>
+      <c r="BB251">
+        <v>1.76</v>
+      </c>
+      <c r="BC251">
+        <v>2.28</v>
+      </c>
+      <c r="BD251">
+        <v>3.04</v>
+      </c>
+      <c r="BE251">
+        <v>4.45</v>
+      </c>
+      <c r="BF251">
+        <v>5</v>
+      </c>
+      <c r="BG251">
+        <v>4</v>
+      </c>
+      <c r="BH251">
+        <v>3</v>
+      </c>
+      <c r="BI251">
+        <v>15</v>
+      </c>
+      <c r="BJ251">
+        <v>8</v>
+      </c>
+      <c r="BK251">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK251"/>
+  <dimension ref="A1:BK256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT4" t="n">
         <v>1.15</v>
@@ -1918,7 +1918,7 @@
         <v>1.54</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT8" t="n">
         <v>2.15</v>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
         <v>1.23</v>
@@ -3339,7 +3339,7 @@
         <v>1.58</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU14" t="n">
         <v>1.45</v>
@@ -3948,7 +3948,7 @@
         <v>1.54</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU17" t="n">
         <v>2.62</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT18" t="n">
         <v>1.15</v>
@@ -4963,7 +4963,7 @@
         <v>1.62</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU22" t="n">
         <v>1.7</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT25" t="n">
         <v>0.92</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT26" t="n">
         <v>0.83</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT29" t="n">
         <v>2.15</v>
@@ -6587,7 +6587,7 @@
         <v>1.38</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU30" t="n">
         <v>1.1</v>
@@ -6993,7 +6993,7 @@
         <v>1.46</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU32" t="n">
         <v>1.37</v>
@@ -7196,7 +7196,7 @@
         <v>1.62</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU33" t="n">
         <v>1.45</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT41" t="n">
         <v>0.25</v>
@@ -9223,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU43" t="n">
         <v>1.56</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT44" t="n">
         <v>0.83</v>
@@ -9832,10 +9832,10 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU46" t="n">
         <v>1.96</v>
@@ -10241,7 +10241,7 @@
         <v>0.54</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT51" t="n">
         <v>1.15</v>
@@ -11050,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU52" t="n">
         <v>1.27</v>
@@ -11662,7 +11662,7 @@
         <v>1.54</v>
       </c>
       <c r="AT55" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU55" t="n">
         <v>2.05</v>
@@ -12474,7 +12474,7 @@
         <v>1.75</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU59" t="n">
         <v>1.68</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT61" t="n">
         <v>2.15</v>
@@ -14095,10 +14095,10 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU67" t="n">
         <v>1.75</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT71" t="n">
         <v>0.5</v>
@@ -15113,7 +15113,7 @@
         <v>1.58</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU72" t="n">
         <v>1.72</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT73" t="n">
         <v>1.23</v>
@@ -15516,10 +15516,10 @@
         <v>0.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU74" t="n">
         <v>1.71</v>
@@ -15722,7 +15722,7 @@
         <v>1.38</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU75" t="n">
         <v>1.91</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT77" t="n">
         <v>1.62</v>
@@ -16737,7 +16737,7 @@
         <v>2.67</v>
       </c>
       <c r="AT80" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU80" t="n">
         <v>2.92</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT82" t="n">
         <v>0.83</v>
@@ -17346,7 +17346,7 @@
         <v>1.62</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU83" t="n">
         <v>1.65</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT89" t="n">
         <v>0.62</v>
@@ -19173,7 +19173,7 @@
         <v>1.38</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU92" t="n">
         <v>1.74</v>
@@ -19376,7 +19376,7 @@
         <v>1.23</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU93" t="n">
         <v>1.14</v>
@@ -19576,7 +19576,7 @@
         <v>0.8</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT94" t="n">
         <v>1.23</v>
@@ -19982,10 +19982,10 @@
         <v>0.75</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT96" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU96" t="n">
         <v>1.57</v>
@@ -20591,10 +20591,10 @@
         <v>0.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU99" t="n">
         <v>1.25</v>
@@ -21200,10 +21200,10 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU102" t="n">
         <v>1.89</v>
@@ -21403,7 +21403,7 @@
         <v>2.4</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT103" t="n">
         <v>2</v>
@@ -22012,7 +22012,7 @@
         <v>0.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT106" t="n">
         <v>0.5</v>
@@ -22827,7 +22827,7 @@
         <v>2.67</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU110" t="n">
         <v>2.49</v>
@@ -23433,10 +23433,10 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT113" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU113" t="n">
         <v>1.32</v>
@@ -24451,7 +24451,7 @@
         <v>2.33</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU118" t="n">
         <v>2.16</v>
@@ -25263,7 +25263,7 @@
         <v>1.62</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU122" t="n">
         <v>1.78</v>
@@ -25466,7 +25466,7 @@
         <v>1.23</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU123" t="n">
         <v>1.16</v>
@@ -25666,7 +25666,7 @@
         <v>0.33</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT124" t="n">
         <v>0.5</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT127" t="n">
         <v>1.08</v>
@@ -26481,7 +26481,7 @@
         <v>1.58</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU128" t="n">
         <v>1.78</v>
@@ -27087,7 +27087,7 @@
         <v>3</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT131" t="n">
         <v>2.15</v>
@@ -27293,7 +27293,7 @@
         <v>0.54</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU132" t="n">
         <v>1.33</v>
@@ -28102,7 +28102,7 @@
         <v>1.33</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT136" t="n">
         <v>0.83</v>
@@ -28305,7 +28305,7 @@
         <v>1</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT137" t="n">
         <v>1.15</v>
@@ -28711,10 +28711,10 @@
         <v>0.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT139" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU139" t="n">
         <v>2.14</v>
@@ -29120,7 +29120,7 @@
         <v>2.33</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU141" t="n">
         <v>2.2</v>
@@ -29526,7 +29526,7 @@
         <v>1.75</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU143" t="n">
         <v>1.63</v>
@@ -29726,7 +29726,7 @@
         <v>0.29</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT144" t="n">
         <v>0.5</v>
@@ -30538,7 +30538,7 @@
         <v>2.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT148" t="n">
         <v>2.15</v>
@@ -31150,7 +31150,7 @@
         <v>1.92</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU151" t="n">
         <v>1.82</v>
@@ -31353,7 +31353,7 @@
         <v>0.54</v>
       </c>
       <c r="AT152" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU152" t="n">
         <v>1.34</v>
@@ -31556,7 +31556,7 @@
         <v>1.54</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU153" t="n">
         <v>1.84</v>
@@ -32162,10 +32162,10 @@
         <v>0.71</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU156" t="n">
         <v>1.67</v>
@@ -32365,7 +32365,7 @@
         <v>2.14</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT157" t="n">
         <v>2</v>
@@ -32568,7 +32568,7 @@
         <v>1.14</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT158" t="n">
         <v>1.62</v>
@@ -32974,7 +32974,7 @@
         <v>2.57</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT160" t="n">
         <v>2.54</v>
@@ -33583,7 +33583,7 @@
         <v>1.13</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT163" t="n">
         <v>1.23</v>
@@ -34195,7 +34195,7 @@
         <v>1.58</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU166" t="n">
         <v>1.65</v>
@@ -34598,7 +34598,7 @@
         <v>2</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT168" t="n">
         <v>2.08</v>
@@ -35007,7 +35007,7 @@
         <v>1.62</v>
       </c>
       <c r="AT170" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU170" t="n">
         <v>1.34</v>
@@ -35207,7 +35207,7 @@
         <v>2.25</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT171" t="n">
         <v>2</v>
@@ -35410,7 +35410,7 @@
         <v>1.38</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT172" t="n">
         <v>1.62</v>
@@ -35613,7 +35613,7 @@
         <v>0.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT173" t="n">
         <v>0.62</v>
@@ -35819,7 +35819,7 @@
         <v>1.38</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU174" t="n">
         <v>1.68</v>
@@ -36022,7 +36022,7 @@
         <v>1.92</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU175" t="n">
         <v>1.85</v>
@@ -37034,7 +37034,7 @@
         <v>1.22</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT180" t="n">
         <v>1.08</v>
@@ -38049,10 +38049,10 @@
         <v>0.86</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU185" t="n">
         <v>1.51</v>
@@ -38458,7 +38458,7 @@
         <v>1.46</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU187" t="n">
         <v>1.69</v>
@@ -39270,7 +39270,7 @@
         <v>2.33</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU191" t="n">
         <v>2.24</v>
@@ -39473,7 +39473,7 @@
         <v>1.54</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU192" t="n">
         <v>2.08</v>
@@ -39673,7 +39673,7 @@
         <v>1.11</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT193" t="n">
         <v>1.15</v>
@@ -40079,7 +40079,7 @@
         <v>0.89</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT195" t="n">
         <v>0.83</v>
@@ -40285,7 +40285,7 @@
         <v>1.75</v>
       </c>
       <c r="AT196" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU196" t="n">
         <v>1.51</v>
@@ -40691,7 +40691,7 @@
         <v>1.62</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU198" t="n">
         <v>1.86</v>
@@ -41297,7 +41297,7 @@
         <v>0.33</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT201" t="n">
         <v>0.25</v>
@@ -41503,7 +41503,7 @@
         <v>1.38</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU202" t="n">
         <v>1.34</v>
@@ -41703,7 +41703,7 @@
         <v>1.4</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT203" t="n">
         <v>1.62</v>
@@ -42112,7 +42112,7 @@
         <v>1.54</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU205" t="n">
         <v>1.77</v>
@@ -42718,7 +42718,7 @@
         <v>1.1</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT208" t="n">
         <v>1.15</v>
@@ -43124,7 +43124,7 @@
         <v>2.2</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT210" t="n">
         <v>2</v>
@@ -43736,7 +43736,7 @@
         <v>1.58</v>
       </c>
       <c r="AT213" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU213" t="n">
         <v>1.62</v>
@@ -44748,7 +44748,7 @@
         <v>0.9</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT218" t="n">
         <v>0.83</v>
@@ -44951,10 +44951,10 @@
         <v>1.2</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU219" t="n">
         <v>1.83</v>
@@ -45157,7 +45157,7 @@
         <v>2.67</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU220" t="n">
         <v>2.32</v>
@@ -45360,7 +45360,7 @@
         <v>1.23</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU221" t="n">
         <v>1.2</v>
@@ -45763,7 +45763,7 @@
         <v>1</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT223" t="n">
         <v>0.92</v>
@@ -46578,7 +46578,7 @@
         <v>1.54</v>
       </c>
       <c r="AT227" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU227" t="n">
         <v>2.07</v>
@@ -46981,7 +46981,7 @@
         <v>2.73</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT229" t="n">
         <v>2.54</v>
@@ -47593,7 +47593,7 @@
         <v>1.58</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU232" t="n">
         <v>1.58</v>
@@ -47796,7 +47796,7 @@
         <v>1.23</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU233" t="n">
         <v>1.23</v>
@@ -47996,7 +47996,7 @@
         <v>1</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT234" t="n">
         <v>1.15</v>
@@ -48402,7 +48402,7 @@
         <v>0.91</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT236" t="n">
         <v>0.83</v>
@@ -48605,7 +48605,7 @@
         <v>1.27</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT237" t="n">
         <v>1.08</v>
@@ -48811,7 +48811,7 @@
         <v>2.67</v>
       </c>
       <c r="AT238" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU238" t="n">
         <v>2.27</v>
@@ -49011,10 +49011,10 @@
         <v>1.09</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU239" t="n">
         <v>1.94</v>
@@ -49420,7 +49420,7 @@
         <v>1.58</v>
       </c>
       <c r="AT241" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU241" t="n">
         <v>1.77</v>
@@ -51502,6 +51502,1021 @@
       </c>
       <c r="BK251" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2710914</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45002.70833333334</v>
+      </c>
+      <c r="F252" t="n">
+        <v>26</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>1</v>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="n">
+        <v>3</v>
+      </c>
+      <c r="N252" t="n">
+        <v>4</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>['30', '57', '78']</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>2</v>
+      </c>
+      <c r="R252" t="n">
+        <v>9</v>
+      </c>
+      <c r="S252" t="n">
+        <v>11</v>
+      </c>
+      <c r="T252" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U252" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V252" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X252" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2710913</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F253" t="n">
+        <v>26</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="n">
+        <v>2</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>5</v>
+      </c>
+      <c r="R253" t="n">
+        <v>2</v>
+      </c>
+      <c r="S253" t="n">
+        <v>7</v>
+      </c>
+      <c r="T253" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U253" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V253" t="n">
+        <v>4</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X253" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2710917</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>45003.51041666666</v>
+      </c>
+      <c r="F254" t="n">
+        <v>26</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>2</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1</v>
+      </c>
+      <c r="K254" t="n">
+        <v>3</v>
+      </c>
+      <c r="L254" t="n">
+        <v>2</v>
+      </c>
+      <c r="M254" t="n">
+        <v>2</v>
+      </c>
+      <c r="N254" t="n">
+        <v>4</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>['23', '34']</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>['29', '52']</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>3</v>
+      </c>
+      <c r="R254" t="n">
+        <v>5</v>
+      </c>
+      <c r="S254" t="n">
+        <v>8</v>
+      </c>
+      <c r="T254" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U254" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V254" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X254" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH254" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2710915</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>45003.60416666666</v>
+      </c>
+      <c r="F255" t="n">
+        <v>26</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>2</v>
+      </c>
+      <c r="K255" t="n">
+        <v>2</v>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="n">
+        <v>3</v>
+      </c>
+      <c r="N255" t="n">
+        <v>4</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>['26', '45', '82']</t>
+        </is>
+      </c>
+      <c r="Q255" t="n">
+        <v>4</v>
+      </c>
+      <c r="R255" t="n">
+        <v>1</v>
+      </c>
+      <c r="S255" t="n">
+        <v>5</v>
+      </c>
+      <c r="T255" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U255" t="n">
+        <v>2</v>
+      </c>
+      <c r="V255" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W255" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X255" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA255" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF255" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG255" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH255" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ255" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2710908</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>45003.70833333334</v>
+      </c>
+      <c r="F256" t="n">
+        <v>26</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>1</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="n">
+        <v>3</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>3</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>['23', '49', '67']</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q256" t="n">
+        <v>4</v>
+      </c>
+      <c r="R256" t="n">
+        <v>2</v>
+      </c>
+      <c r="S256" t="n">
+        <v>6</v>
+      </c>
+      <c r="T256" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U256" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V256" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W256" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X256" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ256" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BA256" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB256" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC256" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD256" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BE256" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF256" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG256" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH256" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI256" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ256" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK256" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -50499,7 +50499,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>2710916</v>
+        <v>2710912</v>
       </c>
       <c r="C258" t="s">
         <v>63</v>
@@ -50514,175 +50514,175 @@
         <v>26</v>
       </c>
       <c r="G258" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H258" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I258">
         <v>0</v>
       </c>
       <c r="J258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L258">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M258">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N258">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O258" t="s">
-        <v>245</v>
+        <v>87</v>
       </c>
       <c r="P258" t="s">
-        <v>87</v>
+        <v>341</v>
       </c>
       <c r="Q258">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R258">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S258">
         <v>8</v>
       </c>
       <c r="T258">
-        <v>1.91</v>
+        <v>3.6</v>
       </c>
       <c r="U258">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="V258">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="W258">
+        <v>1.5</v>
+      </c>
+      <c r="X258">
+        <v>2.5</v>
+      </c>
+      <c r="Y258">
+        <v>3.4</v>
+      </c>
+      <c r="Z258">
+        <v>1.3</v>
+      </c>
+      <c r="AA258">
+        <v>10</v>
+      </c>
+      <c r="AB258">
+        <v>1.06</v>
+      </c>
+      <c r="AC258">
+        <v>3.1</v>
+      </c>
+      <c r="AD258">
+        <v>3.3</v>
+      </c>
+      <c r="AE258">
+        <v>2.45</v>
+      </c>
+      <c r="AF258">
+        <v>1.08</v>
+      </c>
+      <c r="AG258">
+        <v>7.25</v>
+      </c>
+      <c r="AH258">
         <v>1.4</v>
       </c>
-      <c r="X258">
+      <c r="AI258">
         <v>2.75</v>
       </c>
-      <c r="Y258">
-        <v>2.75</v>
-      </c>
-      <c r="Z258">
-        <v>1.4</v>
-      </c>
-      <c r="AA258">
-        <v>8</v>
-      </c>
-      <c r="AB258">
-        <v>1.08</v>
-      </c>
-      <c r="AC258">
-        <v>1.33</v>
-      </c>
-      <c r="AD258">
-        <v>5</v>
-      </c>
-      <c r="AE258">
-        <v>11</v>
-      </c>
-      <c r="AF258">
-        <v>1.05</v>
-      </c>
-      <c r="AG258">
-        <v>10</v>
-      </c>
-      <c r="AH258">
-        <v>1.29</v>
-      </c>
-      <c r="AI258">
-        <v>3.3</v>
-      </c>
       <c r="AJ258">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="AK258">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="AL258">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AM258">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AN258">
-        <v>1.05</v>
+        <v>1.53</v>
       </c>
       <c r="AO258">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
       <c r="AP258">
-        <v>3.1</v>
+        <v>1.38</v>
       </c>
       <c r="AQ258">
         <v>1.58</v>
       </c>
       <c r="AR258">
-        <v>0.5</v>
+        <v>1.15</v>
       </c>
       <c r="AS258">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
       <c r="AT258">
-        <v>0.46</v>
+        <v>1.29</v>
       </c>
       <c r="AU258">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="AV258">
-        <v>0.92</v>
+        <v>1.38</v>
       </c>
       <c r="AW258">
-        <v>2.49</v>
+        <v>3.15</v>
       </c>
       <c r="AX258">
-        <v>1.28</v>
+        <v>2.09</v>
       </c>
       <c r="AY258">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ258">
+        <v>1.97</v>
+      </c>
+      <c r="BA258">
+        <v>1.26</v>
+      </c>
+      <c r="BB258">
+        <v>1.5</v>
+      </c>
+      <c r="BC258">
+        <v>1.9</v>
+      </c>
+      <c r="BD258">
+        <v>2.45</v>
+      </c>
+      <c r="BE258">
+        <v>3.34</v>
+      </c>
+      <c r="BF258">
+        <v>3</v>
+      </c>
+      <c r="BG258">
+        <v>7</v>
+      </c>
+      <c r="BH258">
+        <v>6</v>
+      </c>
+      <c r="BI258">
+        <v>3</v>
+      </c>
+      <c r="BJ258">
+        <v>9</v>
+      </c>
+      <c r="BK258">
         <v>10</v>
-      </c>
-      <c r="AZ258">
-        <v>4.75</v>
-      </c>
-      <c r="BA258">
-        <v>1.4</v>
-      </c>
-      <c r="BB258">
-        <v>1.67</v>
-      </c>
-      <c r="BC258">
-        <v>2.1</v>
-      </c>
-      <c r="BD258">
-        <v>2.63</v>
-      </c>
-      <c r="BE258">
-        <v>3.4</v>
-      </c>
-      <c r="BF258">
-        <v>5</v>
-      </c>
-      <c r="BG258">
-        <v>4</v>
-      </c>
-      <c r="BH258">
-        <v>8</v>
-      </c>
-      <c r="BI258">
-        <v>1</v>
-      </c>
-      <c r="BJ258">
-        <v>13</v>
-      </c>
-      <c r="BK258">
-        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:63">
@@ -50690,7 +50690,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>2710912</v>
+        <v>2710916</v>
       </c>
       <c r="C259" t="s">
         <v>63</v>
@@ -50705,175 +50705,175 @@
         <v>26</v>
       </c>
       <c r="G259" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H259" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I259">
         <v>0</v>
       </c>
       <c r="J259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259">
+        <v>2</v>
+      </c>
+      <c r="O259" t="s">
+        <v>245</v>
+      </c>
+      <c r="P259" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q259">
+        <v>5</v>
+      </c>
+      <c r="R259">
         <v>3</v>
-      </c>
-      <c r="N259">
-        <v>3</v>
-      </c>
-      <c r="O259" t="s">
-        <v>87</v>
-      </c>
-      <c r="P259" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q259">
-        <v>7</v>
-      </c>
-      <c r="R259">
-        <v>1</v>
       </c>
       <c r="S259">
         <v>8</v>
       </c>
       <c r="T259">
-        <v>3.6</v>
+        <v>1.91</v>
       </c>
       <c r="U259">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="V259">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="W259">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X259">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Y259">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Z259">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AA259">
+        <v>8</v>
+      </c>
+      <c r="AB259">
+        <v>1.08</v>
+      </c>
+      <c r="AC259">
+        <v>1.33</v>
+      </c>
+      <c r="AD259">
+        <v>5</v>
+      </c>
+      <c r="AE259">
+        <v>11</v>
+      </c>
+      <c r="AF259">
+        <v>1.05</v>
+      </c>
+      <c r="AG259">
         <v>10</v>
       </c>
-      <c r="AB259">
-        <v>1.06</v>
-      </c>
-      <c r="AC259">
+      <c r="AH259">
+        <v>1.29</v>
+      </c>
+      <c r="AI259">
+        <v>3.3</v>
+      </c>
+      <c r="AJ259">
+        <v>1.88</v>
+      </c>
+      <c r="AK259">
+        <v>1.92</v>
+      </c>
+      <c r="AL259">
+        <v>2.2</v>
+      </c>
+      <c r="AM259">
+        <v>1.62</v>
+      </c>
+      <c r="AN259">
+        <v>1.05</v>
+      </c>
+      <c r="AO259">
+        <v>1.17</v>
+      </c>
+      <c r="AP259">
         <v>3.1</v>
-      </c>
-      <c r="AD259">
-        <v>3.3</v>
-      </c>
-      <c r="AE259">
-        <v>2.45</v>
-      </c>
-      <c r="AF259">
-        <v>1.08</v>
-      </c>
-      <c r="AG259">
-        <v>7.25</v>
-      </c>
-      <c r="AH259">
-        <v>1.4</v>
-      </c>
-      <c r="AI259">
-        <v>2.75</v>
-      </c>
-      <c r="AJ259">
-        <v>2.25</v>
-      </c>
-      <c r="AK259">
-        <v>1.65</v>
-      </c>
-      <c r="AL259">
-        <v>1.95</v>
-      </c>
-      <c r="AM259">
-        <v>1.8</v>
-      </c>
-      <c r="AN259">
-        <v>1.53</v>
-      </c>
-      <c r="AO259">
-        <v>1.34</v>
-      </c>
-      <c r="AP259">
-        <v>1.38</v>
       </c>
       <c r="AQ259">
         <v>1.58</v>
       </c>
       <c r="AR259">
-        <v>1.15</v>
+        <v>0.5</v>
       </c>
       <c r="AS259">
-        <v>1.46</v>
+        <v>1.69</v>
       </c>
       <c r="AT259">
-        <v>1.29</v>
+        <v>0.46</v>
       </c>
       <c r="AU259">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="AV259">
-        <v>1.38</v>
+        <v>0.92</v>
       </c>
       <c r="AW259">
-        <v>3.15</v>
+        <v>2.49</v>
       </c>
       <c r="AX259">
-        <v>2.09</v>
+        <v>1.28</v>
       </c>
       <c r="AY259">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AZ259">
-        <v>1.97</v>
+        <v>4.75</v>
       </c>
       <c r="BA259">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="BB259">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="BC259">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="BD259">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="BE259">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="BF259">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG259">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH259">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI259">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BJ259">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BK259">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK261"/>
+  <dimension ref="A1:BK271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.46</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2.69</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT7" t="n">
         <v>0.77</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
         <v>0.85</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.38</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT16" t="n">
         <v>2</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT17" t="n">
         <v>0.46</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT18" t="n">
         <v>1.29</v>
@@ -4354,7 +4354,7 @@
         <v>1.69</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT22" t="n">
         <v>1.15</v>
@@ -5166,7 +5166,7 @@
         <v>1.85</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU23" t="n">
         <v>2.21</v>
@@ -5366,10 +5366,10 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU24" t="n">
         <v>1.51</v>
@@ -5775,7 +5775,7 @@
         <v>1.64</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU26" t="n">
         <v>1.31</v>
@@ -6181,7 +6181,7 @@
         <v>2.69</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU28" t="n">
         <v>2.46</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT30" t="n">
         <v>1.23</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT31" t="n">
         <v>2.08</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT32" t="n">
         <v>0.77</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT33" t="n">
         <v>0.77</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>1.38</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AU36" t="n">
         <v>2.23</v>
@@ -8008,7 +8008,7 @@
         <v>1.46</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU37" t="n">
         <v>1.69</v>
@@ -8208,10 +8208,10 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>2.14</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT39" t="n">
         <v>0.46</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU40" t="n">
         <v>1.71</v>
@@ -8820,7 +8820,7 @@
         <v>1.54</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU41" t="n">
         <v>1.67</v>
@@ -9020,10 +9020,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU42" t="n">
         <v>1.59</v>
@@ -9429,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU44" t="n">
         <v>1.52</v>
@@ -9629,10 +9629,10 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AU45" t="n">
         <v>1.15</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT46" t="n">
         <v>1.15</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT47" t="n">
         <v>0.85</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT48" t="n">
         <v>1.23</v>
@@ -10444,7 +10444,7 @@
         <v>1.36</v>
       </c>
       <c r="AT49" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU49" t="n">
         <v>1</v>
@@ -10850,7 +10850,7 @@
         <v>1.64</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU51" t="n">
         <v>1.4</v>
@@ -11253,10 +11253,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU53" t="n">
         <v>1.46</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT55" t="n">
         <v>1.15</v>
@@ -11862,10 +11862,10 @@
         <v>1.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU56" t="n">
         <v>2.1</v>
@@ -12068,7 +12068,7 @@
         <v>1.46</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU57" t="n">
         <v>1.76</v>
@@ -12268,10 +12268,10 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU58" t="n">
         <v>2.19</v>
@@ -12677,7 +12677,7 @@
         <v>1.69</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU60" t="n">
         <v>1.62</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT61" t="n">
         <v>2</v>
@@ -13080,10 +13080,10 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU62" t="n">
         <v>2.11</v>
@@ -13283,7 +13283,7 @@
         <v>1.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT63" t="n">
         <v>1.29</v>
@@ -13489,7 +13489,7 @@
         <v>1.36</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU64" t="n">
         <v>1.02</v>
@@ -13892,10 +13892,10 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AU66" t="n">
         <v>1.23</v>
@@ -14298,10 +14298,10 @@
         <v>1.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU68" t="n">
         <v>1.34</v>
@@ -14501,10 +14501,10 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT69" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU69" t="n">
         <v>1.59</v>
@@ -14704,10 +14704,10 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU70" t="n">
         <v>2.46</v>
@@ -15316,7 +15316,7 @@
         <v>1.64</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU73" t="n">
         <v>1.28</v>
@@ -15516,7 +15516,7 @@
         <v>0.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT74" t="n">
         <v>0.77</v>
@@ -16128,7 +16128,7 @@
         <v>1.54</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU77" t="n">
         <v>1.57</v>
@@ -16328,10 +16328,10 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.08</v>
@@ -16937,7 +16937,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT81" t="n">
         <v>0.85</v>
@@ -17143,7 +17143,7 @@
         <v>1.54</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU82" t="n">
         <v>1.93</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT83" t="n">
         <v>0.77</v>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT84" t="n">
         <v>0.46</v>
@@ -17749,10 +17749,10 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU85" t="n">
         <v>1.27</v>
@@ -17952,7 +17952,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT86" t="n">
         <v>2.08</v>
@@ -18155,10 +18155,10 @@
         <v>2.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT87" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU87" t="n">
         <v>1.38</v>
@@ -18358,10 +18358,10 @@
         <v>3</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AU88" t="n">
         <v>2.54</v>
@@ -18564,7 +18564,7 @@
         <v>1</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU89" t="n">
         <v>1.66</v>
@@ -18767,7 +18767,7 @@
         <v>1.85</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU90" t="n">
         <v>1.57</v>
@@ -18967,10 +18967,10 @@
         <v>1.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU91" t="n">
         <v>2.05</v>
@@ -19576,10 +19576,10 @@
         <v>0.8</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU94" t="n">
         <v>1.66</v>
@@ -19779,10 +19779,10 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU95" t="n">
         <v>1.14</v>
@@ -20388,7 +20388,7 @@
         <v>3</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT98" t="n">
         <v>2</v>
@@ -20797,7 +20797,7 @@
         <v>1.46</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU100" t="n">
         <v>1.63</v>
@@ -21406,7 +21406,7 @@
         <v>1.54</v>
       </c>
       <c r="AT103" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU103" t="n">
         <v>1.51</v>
@@ -21606,7 +21606,7 @@
         <v>1</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT104" t="n">
         <v>0.85</v>
@@ -21809,10 +21809,10 @@
         <v>1.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU105" t="n">
         <v>2.23</v>
@@ -22418,10 +22418,10 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -22621,10 +22621,10 @@
         <v>0.2</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU109" t="n">
         <v>1.96</v>
@@ -23027,10 +23027,10 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU111" t="n">
         <v>1.39</v>
@@ -23230,10 +23230,10 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU112" t="n">
         <v>1.29</v>
@@ -23636,7 +23636,7 @@
         <v>2.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT114" t="n">
         <v>2.08</v>
@@ -23842,7 +23842,7 @@
         <v>1.38</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU115" t="n">
         <v>1.85</v>
@@ -24042,10 +24042,10 @@
         <v>2.4</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AU116" t="n">
         <v>1.99</v>
@@ -24248,7 +24248,7 @@
         <v>1.46</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU117" t="n">
         <v>1.71</v>
@@ -24448,7 +24448,7 @@
         <v>0.2</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT118" t="n">
         <v>0.77</v>
@@ -24651,7 +24651,7 @@
         <v>1.14</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT119" t="n">
         <v>1.29</v>
@@ -24857,7 +24857,7 @@
         <v>1.69</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU120" t="n">
         <v>1.75</v>
@@ -25057,10 +25057,10 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU121" t="n">
         <v>1.26</v>
@@ -25260,7 +25260,7 @@
         <v>1.6</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT122" t="n">
         <v>1.23</v>
@@ -25869,10 +25869,10 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU125" t="n">
         <v>1.57</v>
@@ -26075,7 +26075,7 @@
         <v>2.69</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU126" t="n">
         <v>2.29</v>
@@ -26275,10 +26275,10 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU127" t="n">
         <v>1.64</v>
@@ -26681,7 +26681,7 @@
         <v>1.33</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT129" t="n">
         <v>0.85</v>
@@ -26887,7 +26887,7 @@
         <v>1.85</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU130" t="n">
         <v>1.71</v>
@@ -27290,7 +27290,7 @@
         <v>0.33</v>
       </c>
       <c r="AS132" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT132" t="n">
         <v>0.77</v>
@@ -27493,10 +27493,10 @@
         <v>0.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU133" t="n">
         <v>2.13</v>
@@ -27699,7 +27699,7 @@
         <v>1.46</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AU134" t="n">
         <v>1.86</v>
@@ -27902,7 +27902,7 @@
         <v>1.38</v>
       </c>
       <c r="AT135" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU135" t="n">
         <v>1.8</v>
@@ -28105,7 +28105,7 @@
         <v>1.64</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU136" t="n">
         <v>1.45</v>
@@ -28508,7 +28508,7 @@
         <v>2.29</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT138" t="n">
         <v>2.08</v>
@@ -28914,10 +28914,10 @@
         <v>1.33</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU140" t="n">
         <v>1.82</v>
@@ -29117,7 +29117,7 @@
         <v>0.83</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT141" t="n">
         <v>0.77</v>
@@ -29320,10 +29320,10 @@
         <v>1.14</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU142" t="n">
         <v>1.89</v>
@@ -29726,7 +29726,7 @@
         <v>0.29</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT144" t="n">
         <v>0.46</v>
@@ -30132,10 +30132,10 @@
         <v>1.14</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU146" t="n">
         <v>1.58</v>
@@ -30335,10 +30335,10 @@
         <v>0.14</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU147" t="n">
         <v>1.26</v>
@@ -30744,7 +30744,7 @@
         <v>2.69</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU149" t="n">
         <v>2.45</v>
@@ -30947,7 +30947,7 @@
         <v>1.69</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU150" t="n">
         <v>1.71</v>
@@ -31147,7 +31147,7 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT151" t="n">
         <v>0.46</v>
@@ -31350,7 +31350,7 @@
         <v>0.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT152" t="n">
         <v>1.15</v>
@@ -31553,7 +31553,7 @@
         <v>0.71</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT153" t="n">
         <v>0.77</v>
@@ -31756,7 +31756,7 @@
         <v>2.63</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT154" t="n">
         <v>2</v>
@@ -31959,10 +31959,10 @@
         <v>0.57</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU155" t="n">
         <v>1.31</v>
@@ -32368,7 +32368,7 @@
         <v>1.64</v>
       </c>
       <c r="AT157" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU157" t="n">
         <v>1.4</v>
@@ -32571,7 +32571,7 @@
         <v>1.54</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU158" t="n">
         <v>2.04</v>
@@ -32774,7 +32774,7 @@
         <v>1.38</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU159" t="n">
         <v>1.69</v>
@@ -32974,10 +32974,10 @@
         <v>2.57</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AU160" t="n">
         <v>1.75</v>
@@ -33177,10 +33177,10 @@
         <v>1.14</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU161" t="n">
         <v>2.13</v>
@@ -33380,7 +33380,7 @@
         <v>1.22</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT162" t="n">
         <v>1.29</v>
@@ -33586,7 +33586,7 @@
         <v>1.54</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU163" t="n">
         <v>1.56</v>
@@ -33786,10 +33786,10 @@
         <v>1.13</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU164" t="n">
         <v>1.95</v>
@@ -34398,7 +34398,7 @@
         <v>1.36</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU167" t="n">
         <v>1.2</v>
@@ -34801,7 +34801,7 @@
         <v>0.25</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT169" t="n">
         <v>0.46</v>
@@ -35004,7 +35004,7 @@
         <v>0.88</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT170" t="n">
         <v>1.15</v>
@@ -35210,7 +35210,7 @@
         <v>1.54</v>
       </c>
       <c r="AT171" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU171" t="n">
         <v>1.99</v>
@@ -35413,7 +35413,7 @@
         <v>1</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU172" t="n">
         <v>1.65</v>
@@ -35613,10 +35613,10 @@
         <v>0.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU173" t="n">
         <v>1.79</v>
@@ -36019,7 +36019,7 @@
         <v>0.75</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT175" t="n">
         <v>0.77</v>
@@ -36222,10 +36222,10 @@
         <v>1.13</v>
       </c>
       <c r="AS176" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU176" t="n">
         <v>1.38</v>
@@ -36428,7 +36428,7 @@
         <v>2.69</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU177" t="n">
         <v>2.43</v>
@@ -36628,7 +36628,7 @@
         <v>2.33</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT178" t="n">
         <v>2</v>
@@ -36831,10 +36831,10 @@
         <v>0.25</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU179" t="n">
         <v>1.82</v>
@@ -37037,7 +37037,7 @@
         <v>1.64</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU180" t="n">
         <v>1.37</v>
@@ -37237,7 +37237,7 @@
         <v>1.22</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT181" t="n">
         <v>0.85</v>
@@ -37440,10 +37440,10 @@
         <v>2.63</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT182" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AU182" t="n">
         <v>1.92</v>
@@ -37849,7 +37849,7 @@
         <v>1.36</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU184" t="n">
         <v>1.22</v>
@@ -38455,7 +38455,7 @@
         <v>1.13</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT187" t="n">
         <v>1.23</v>
@@ -38658,10 +38658,10 @@
         <v>2.33</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT188" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU188" t="n">
         <v>2.19</v>
@@ -38861,10 +38861,10 @@
         <v>1.33</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU189" t="n">
         <v>1.94</v>
@@ -39067,7 +39067,7 @@
         <v>1.85</v>
       </c>
       <c r="AT190" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AU190" t="n">
         <v>1.61</v>
@@ -39267,7 +39267,7 @@
         <v>0.75</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT191" t="n">
         <v>0.46</v>
@@ -39470,7 +39470,7 @@
         <v>0.89</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT192" t="n">
         <v>0.77</v>
@@ -39676,7 +39676,7 @@
         <v>1</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU193" t="n">
         <v>1.59</v>
@@ -39876,7 +39876,7 @@
         <v>1.2</v>
       </c>
       <c r="AS194" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT194" t="n">
         <v>1.29</v>
@@ -40079,10 +40079,10 @@
         <v>0.89</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU195" t="n">
         <v>1.8</v>
@@ -40485,7 +40485,7 @@
         <v>2.4</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT197" t="n">
         <v>2</v>
@@ -40688,7 +40688,7 @@
         <v>0.67</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT198" t="n">
         <v>0.46</v>
@@ -40894,7 +40894,7 @@
         <v>1.69</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU199" t="n">
         <v>1.62</v>
@@ -41097,7 +41097,7 @@
         <v>2.69</v>
       </c>
       <c r="AT200" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU200" t="n">
         <v>2.34</v>
@@ -41300,7 +41300,7 @@
         <v>1.54</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU201" t="n">
         <v>1.95</v>
@@ -41500,7 +41500,7 @@
         <v>0.67</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT202" t="n">
         <v>0.77</v>
@@ -41706,7 +41706,7 @@
         <v>1.64</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU203" t="n">
         <v>1.42</v>
@@ -42109,7 +42109,7 @@
         <v>1</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT205" t="n">
         <v>1.23</v>
@@ -42315,7 +42315,7 @@
         <v>1.36</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU206" t="n">
         <v>1.18</v>
@@ -42515,7 +42515,7 @@
         <v>2</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT207" t="n">
         <v>2.08</v>
@@ -42721,7 +42721,7 @@
         <v>1.54</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU208" t="n">
         <v>1.52</v>
@@ -42921,10 +42921,10 @@
         <v>2.7</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT209" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AU209" t="n">
         <v>1.91</v>
@@ -43127,7 +43127,7 @@
         <v>1</v>
       </c>
       <c r="AT210" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU210" t="n">
         <v>1.56</v>
@@ -43327,7 +43327,7 @@
         <v>0.3</v>
       </c>
       <c r="AS211" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT211" t="n">
         <v>0.46</v>
@@ -43530,10 +43530,10 @@
         <v>0.3</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU212" t="n">
         <v>1.9</v>
@@ -43939,7 +43939,7 @@
         <v>1.85</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU214" t="n">
         <v>1.54</v>
@@ -44139,7 +44139,7 @@
         <v>1.09</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT215" t="n">
         <v>1.29</v>
@@ -44545,10 +44545,10 @@
         <v>1.1</v>
       </c>
       <c r="AS217" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU217" t="n">
         <v>1.47</v>
@@ -44751,7 +44751,7 @@
         <v>1.54</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU218" t="n">
         <v>1.97</v>
@@ -44951,7 +44951,7 @@
         <v>1.2</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT219" t="n">
         <v>1.23</v>
@@ -45560,10 +45560,10 @@
         <v>1.55</v>
       </c>
       <c r="AS222" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU222" t="n">
         <v>1.47</v>
@@ -45966,10 +45966,10 @@
         <v>1.45</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU224" t="n">
         <v>1.34</v>
@@ -46169,7 +46169,7 @@
         <v>2.09</v>
       </c>
       <c r="AS225" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT225" t="n">
         <v>2.08</v>
@@ -46372,10 +46372,10 @@
         <v>2.27</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT226" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU226" t="n">
         <v>1.82</v>
@@ -46575,7 +46575,7 @@
         <v>0.6</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT227" t="n">
         <v>0.77</v>
@@ -46778,10 +46778,10 @@
         <v>0.64</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU228" t="n">
         <v>1.65</v>
@@ -46984,7 +46984,7 @@
         <v>1.64</v>
       </c>
       <c r="AT229" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AU229" t="n">
         <v>1.51</v>
@@ -47187,7 +47187,7 @@
         <v>1.38</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU230" t="n">
         <v>1.92</v>
@@ -47387,10 +47387,10 @@
         <v>0.9</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU231" t="n">
         <v>1.86</v>
@@ -48199,7 +48199,7 @@
         <v>0.27</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT235" t="n">
         <v>0.46</v>
@@ -48402,10 +48402,10 @@
         <v>0.91</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT236" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU236" t="n">
         <v>1.82</v>
@@ -48608,7 +48608,7 @@
         <v>1.54</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU237" t="n">
         <v>1.55</v>
@@ -49620,10 +49620,10 @@
         <v>0.82</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU242" t="n">
         <v>1.31</v>
@@ -49823,10 +49823,10 @@
         <v>1.17</v>
       </c>
       <c r="AS243" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU243" t="n">
         <v>2.36</v>
@@ -50026,10 +50026,10 @@
         <v>0.58</v>
       </c>
       <c r="AS244" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU244" t="n">
         <v>1.42</v>
@@ -50229,10 +50229,10 @@
         <v>1.33</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU245" t="n">
         <v>1.68</v>
@@ -50432,10 +50432,10 @@
         <v>1.25</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU246" t="n">
         <v>1.78</v>
@@ -50635,10 +50635,10 @@
         <v>2.08</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT247" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU247" t="n">
         <v>1.27</v>
@@ -50841,7 +50841,7 @@
         <v>1.38</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU248" t="n">
         <v>1.95</v>
@@ -51041,10 +51041,10 @@
         <v>1.67</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU249" t="n">
         <v>1.84</v>
@@ -51244,10 +51244,10 @@
         <v>2.5</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT250" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AU250" t="n">
         <v>2.1</v>
@@ -51447,7 +51447,7 @@
         <v>2</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT251" t="n">
         <v>2.08</v>
@@ -52462,7 +52462,7 @@
         <v>0.5</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT256" t="n">
         <v>0.46</v>
@@ -53277,7 +53277,7 @@
         <v>1.36</v>
       </c>
       <c r="AT260" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU260" t="n">
         <v>1.22</v>
@@ -53532,6 +53532,2036 @@
       </c>
       <c r="BK261" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2710920</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>45016.66666666666</v>
+      </c>
+      <c r="F262" t="n">
+        <v>27</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q262" t="n">
+        <v>2</v>
+      </c>
+      <c r="R262" t="n">
+        <v>3</v>
+      </c>
+      <c r="S262" t="n">
+        <v>5</v>
+      </c>
+      <c r="T262" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U262" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V262" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W262" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X262" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD262" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BF262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG262" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH262" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ262" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2710924</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45017.375</v>
+      </c>
+      <c r="F263" t="n">
+        <v>27</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>2</v>
+      </c>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="n">
+        <v>3</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>['53', '88']</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q263" t="n">
+        <v>5</v>
+      </c>
+      <c r="R263" t="n">
+        <v>2</v>
+      </c>
+      <c r="S263" t="n">
+        <v>7</v>
+      </c>
+      <c r="T263" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U263" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V263" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W263" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X263" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD263" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE263" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF263" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG263" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH263" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ263" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK263" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2710918</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45017.46875</v>
+      </c>
+      <c r="F264" t="n">
+        <v>27</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q264" t="n">
+        <v>13</v>
+      </c>
+      <c r="R264" t="n">
+        <v>3</v>
+      </c>
+      <c r="S264" t="n">
+        <v>16</v>
+      </c>
+      <c r="T264" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U264" t="n">
+        <v>2</v>
+      </c>
+      <c r="V264" t="n">
+        <v>7</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X264" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD264" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE264" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF264" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG264" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH264" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ264" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK264" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2710921</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45017.5625</v>
+      </c>
+      <c r="F265" t="n">
+        <v>27</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>2</v>
+      </c>
+      <c r="N265" t="n">
+        <v>2</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>['51', '74']</t>
+        </is>
+      </c>
+      <c r="Q265" t="n">
+        <v>8</v>
+      </c>
+      <c r="R265" t="n">
+        <v>4</v>
+      </c>
+      <c r="S265" t="n">
+        <v>12</v>
+      </c>
+      <c r="T265" t="n">
+        <v>4</v>
+      </c>
+      <c r="U265" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V265" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W265" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X265" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD265" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE265" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BF265" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG265" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH265" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ265" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK265" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2710923</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45017.66666666666</v>
+      </c>
+      <c r="F266" t="n">
+        <v>27</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>1</v>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>4</v>
+      </c>
+      <c r="N266" t="n">
+        <v>4</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>['20', '56', '66', '70']</t>
+        </is>
+      </c>
+      <c r="Q266" t="n">
+        <v>11</v>
+      </c>
+      <c r="R266" t="n">
+        <v>3</v>
+      </c>
+      <c r="S266" t="n">
+        <v>14</v>
+      </c>
+      <c r="T266" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U266" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V266" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W266" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X266" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD266" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE266" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF266" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ266" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK266" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2710927</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>45018.375</v>
+      </c>
+      <c r="F267" t="n">
+        <v>27</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>2</v>
+      </c>
+      <c r="J267" t="n">
+        <v>2</v>
+      </c>
+      <c r="K267" t="n">
+        <v>4</v>
+      </c>
+      <c r="L267" t="n">
+        <v>2</v>
+      </c>
+      <c r="M267" t="n">
+        <v>2</v>
+      </c>
+      <c r="N267" t="n">
+        <v>4</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>['10', '42']</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>['7', '32']</t>
+        </is>
+      </c>
+      <c r="Q267" t="n">
+        <v>4</v>
+      </c>
+      <c r="R267" t="n">
+        <v>1</v>
+      </c>
+      <c r="S267" t="n">
+        <v>5</v>
+      </c>
+      <c r="T267" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U267" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V267" t="n">
+        <v>6</v>
+      </c>
+      <c r="W267" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X267" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE267" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF267" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG267" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH267" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ267" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK267" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>2710922</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>45018.46875</v>
+      </c>
+      <c r="F268" t="n">
+        <v>27</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>4</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>4</v>
+      </c>
+      <c r="L268" t="n">
+        <v>6</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>6</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>['22', '29', '32', '36', '73', '90+1']</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q268" t="n">
+        <v>9</v>
+      </c>
+      <c r="R268" t="n">
+        <v>1</v>
+      </c>
+      <c r="S268" t="n">
+        <v>10</v>
+      </c>
+      <c r="T268" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U268" t="n">
+        <v>3</v>
+      </c>
+      <c r="V268" t="n">
+        <v>9</v>
+      </c>
+      <c r="W268" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X268" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD268" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE268" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF268" t="n">
+        <v>18</v>
+      </c>
+      <c r="BG268" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH268" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI268" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ268" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK268" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2710925</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>45018.5625</v>
+      </c>
+      <c r="F269" t="n">
+        <v>27</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" t="n">
+        <v>2</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N269" t="n">
+        <v>2</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>['77', '81']</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q269" t="n">
+        <v>4</v>
+      </c>
+      <c r="R269" t="n">
+        <v>4</v>
+      </c>
+      <c r="S269" t="n">
+        <v>8</v>
+      </c>
+      <c r="T269" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U269" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V269" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W269" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X269" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK269" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL269" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP269" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ269" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR269" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS269" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW269" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX269" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY269" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ269" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA269" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB269" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC269" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD269" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE269" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF269" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG269" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH269" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI269" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ269" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK269" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>2710919</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>45018.66666666666</v>
+      </c>
+      <c r="F270" t="n">
+        <v>27</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N270" t="n">
+        <v>1</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q270" t="n">
+        <v>5</v>
+      </c>
+      <c r="R270" t="n">
+        <v>1</v>
+      </c>
+      <c r="S270" t="n">
+        <v>6</v>
+      </c>
+      <c r="T270" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U270" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V270" t="n">
+        <v>6</v>
+      </c>
+      <c r="W270" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X270" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP270" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AQ270" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR270" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS270" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU270" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW270" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ270" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA270" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC270" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD270" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE270" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF270" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG270" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI270" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ270" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK270" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2710926</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>45019.66666666666</v>
+      </c>
+      <c r="F271" t="n">
+        <v>27</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>1</v>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+      <c r="N271" t="n">
+        <v>2</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q271" t="n">
+        <v>13</v>
+      </c>
+      <c r="R271" t="n">
+        <v>3</v>
+      </c>
+      <c r="S271" t="n">
+        <v>16</v>
+      </c>
+      <c r="T271" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U271" t="n">
+        <v>2</v>
+      </c>
+      <c r="V271" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W271" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X271" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA271" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC271" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD271" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE271" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF271" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG271" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH271" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI271" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ271" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK271" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK271"/>
+  <dimension ref="A1:BK275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT2" t="n">
         <v>0.93</v>
@@ -2730,7 +2730,7 @@
         <v>1.85</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT12" t="n">
         <v>1.21</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT13" t="n">
         <v>0.57</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT14" t="n">
         <v>0.77</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT19" t="n">
         <v>2.57</v>
@@ -4760,7 +4760,7 @@
         <v>1.71</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.71</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU22" t="n">
         <v>1.7</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT29" t="n">
         <v>2</v>
@@ -6587,7 +6587,7 @@
         <v>1.29</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU30" t="n">
         <v>1.1</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT35" t="n">
         <v>2.08</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT36" t="n">
         <v>2.57</v>
@@ -8005,7 +8005,7 @@
         <v>2</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT37" t="n">
         <v>1.21</v>
@@ -8414,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8617,7 +8617,7 @@
         <v>1.5</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU40" t="n">
         <v>1.71</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT44" t="n">
         <v>0.93</v>
@@ -9835,7 +9835,7 @@
         <v>1.93</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU46" t="n">
         <v>1.96</v>
@@ -10241,7 +10241,7 @@
         <v>0.5</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -11459,7 +11459,7 @@
         <v>2.69</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU54" t="n">
         <v>2.69</v>
@@ -11662,7 +11662,7 @@
         <v>1.5</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU55" t="n">
         <v>2.05</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU57" t="n">
         <v>1.76</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT60" t="n">
         <v>1</v>
@@ -13689,7 +13689,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT65" t="n">
         <v>2.08</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT67" t="n">
         <v>0.46</v>
@@ -14910,7 +14910,7 @@
         <v>1.54</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU71" t="n">
         <v>1.8</v>
@@ -15110,7 +15110,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT72" t="n">
         <v>0.46</v>
@@ -15719,10 +15719,10 @@
         <v>3</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU75" t="n">
         <v>1.91</v>
@@ -16531,7 +16531,7 @@
         <v>1.6</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT79" t="n">
         <v>1.29</v>
@@ -16737,7 +16737,7 @@
         <v>2.69</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU80" t="n">
         <v>2.92</v>
@@ -17143,7 +17143,7 @@
         <v>1.54</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU82" t="n">
         <v>1.93</v>
@@ -17549,7 +17549,7 @@
         <v>1.5</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU84" t="n">
         <v>1.91</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT89" t="n">
         <v>0.57</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT92" t="n">
         <v>0.46</v>
@@ -19376,7 +19376,7 @@
         <v>1.36</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU93" t="n">
         <v>1.14</v>
@@ -19985,7 +19985,7 @@
         <v>1.54</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU96" t="n">
         <v>1.57</v>
@@ -20185,7 +20185,7 @@
         <v>1.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT97" t="n">
         <v>0.85</v>
@@ -20794,7 +20794,7 @@
         <v>1.25</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT100" t="n">
         <v>1</v>
@@ -22012,10 +22012,10 @@
         <v>0.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU106" t="n">
         <v>1.64</v>
@@ -22827,7 +22827,7 @@
         <v>2.69</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU110" t="n">
         <v>2.49</v>
@@ -23030,7 +23030,7 @@
         <v>1.43</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU111" t="n">
         <v>1.39</v>
@@ -23436,7 +23436,7 @@
         <v>1.64</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU113" t="n">
         <v>1.32</v>
@@ -23839,7 +23839,7 @@
         <v>0.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT115" t="n">
         <v>1.21</v>
@@ -24245,7 +24245,7 @@
         <v>0.8</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT117" t="n">
         <v>0.57</v>
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT120" t="n">
         <v>1.5</v>
@@ -25060,7 +25060,7 @@
         <v>0.5</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU121" t="n">
         <v>1.26</v>
@@ -25263,7 +25263,7 @@
         <v>1.71</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU122" t="n">
         <v>1.78</v>
@@ -25669,7 +25669,7 @@
         <v>1.54</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU124" t="n">
         <v>1.45</v>
@@ -26478,7 +26478,7 @@
         <v>1</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT128" t="n">
         <v>0.46</v>
@@ -27696,7 +27696,7 @@
         <v>2.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT134" t="n">
         <v>2.57</v>
@@ -27899,7 +27899,7 @@
         <v>2</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT135" t="n">
         <v>1.86</v>
@@ -28105,7 +28105,7 @@
         <v>1.64</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU136" t="n">
         <v>1.45</v>
@@ -28305,7 +28305,7 @@
         <v>1</v>
       </c>
       <c r="AS137" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT137" t="n">
         <v>1.29</v>
@@ -28714,7 +28714,7 @@
         <v>1.54</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU139" t="n">
         <v>2.14</v>
@@ -29526,7 +29526,7 @@
         <v>1.85</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU143" t="n">
         <v>1.63</v>
@@ -29729,7 +29729,7 @@
         <v>1.93</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU144" t="n">
         <v>1.77</v>
@@ -30944,7 +30944,7 @@
         <v>1.33</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT150" t="n">
         <v>1.14</v>
@@ -31353,7 +31353,7 @@
         <v>0.5</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU152" t="n">
         <v>1.34</v>
@@ -32162,7 +32162,7 @@
         <v>0.71</v>
       </c>
       <c r="AS156" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT156" t="n">
         <v>0.77</v>
@@ -32771,10 +32771,10 @@
         <v>1.14</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU159" t="n">
         <v>1.69</v>
@@ -33989,7 +33989,7 @@
         <v>1.38</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT165" t="n">
         <v>0.85</v>
@@ -34192,10 +34192,10 @@
         <v>1.29</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU166" t="n">
         <v>1.65</v>
@@ -34804,7 +34804,7 @@
         <v>1.29</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU169" t="n">
         <v>1.32</v>
@@ -35007,7 +35007,7 @@
         <v>1.57</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU170" t="n">
         <v>1.34</v>
@@ -35410,7 +35410,7 @@
         <v>1.38</v>
       </c>
       <c r="AS172" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT172" t="n">
         <v>1.5</v>
@@ -35816,7 +35816,7 @@
         <v>1</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT174" t="n">
         <v>0.77</v>
@@ -36428,7 +36428,7 @@
         <v>2.69</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU177" t="n">
         <v>2.43</v>
@@ -37643,10 +37643,10 @@
         <v>0.33</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU183" t="n">
         <v>1.8</v>
@@ -38252,7 +38252,7 @@
         <v>1.89</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT186" t="n">
         <v>2.08</v>
@@ -38458,7 +38458,7 @@
         <v>1.43</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU187" t="n">
         <v>1.69</v>
@@ -39673,7 +39673,7 @@
         <v>1.11</v>
       </c>
       <c r="AS193" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT193" t="n">
         <v>1.14</v>
@@ -40082,7 +40082,7 @@
         <v>1.93</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU195" t="n">
         <v>1.8</v>
@@ -40285,7 +40285,7 @@
         <v>1.85</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU196" t="n">
         <v>1.51</v>
@@ -40891,7 +40891,7 @@
         <v>0.44</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT199" t="n">
         <v>0.57</v>
@@ -41906,7 +41906,7 @@
         <v>1.1</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT204" t="n">
         <v>0.85</v>
@@ -42112,7 +42112,7 @@
         <v>1.5</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU205" t="n">
         <v>1.77</v>
@@ -43124,7 +43124,7 @@
         <v>2.2</v>
       </c>
       <c r="AS210" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT210" t="n">
         <v>1.86</v>
@@ -43330,7 +43330,7 @@
         <v>2.38</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU211" t="n">
         <v>2.26</v>
@@ -43733,10 +43733,10 @@
         <v>1</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU213" t="n">
         <v>1.62</v>
@@ -44342,7 +44342,7 @@
         <v>2.18</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT216" t="n">
         <v>2</v>
@@ -44954,7 +44954,7 @@
         <v>1.93</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU219" t="n">
         <v>1.83</v>
@@ -45763,7 +45763,7 @@
         <v>1</v>
       </c>
       <c r="AS223" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT223" t="n">
         <v>0.85</v>
@@ -47184,7 +47184,7 @@
         <v>1.09</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT230" t="n">
         <v>1.14</v>
@@ -47390,7 +47390,7 @@
         <v>2</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU231" t="n">
         <v>1.86</v>
@@ -47590,7 +47590,7 @@
         <v>0.73</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT232" t="n">
         <v>0.77</v>
@@ -48202,7 +48202,7 @@
         <v>1.57</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU235" t="n">
         <v>1.27</v>
@@ -49014,7 +49014,7 @@
         <v>1.54</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU239" t="n">
         <v>1.94</v>
@@ -49417,10 +49417,10 @@
         <v>1</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU241" t="n">
         <v>1.77</v>
@@ -49623,7 +49623,7 @@
         <v>1.29</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU242" t="n">
         <v>1.31</v>
@@ -50838,7 +50838,7 @@
         <v>0.27</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT248" t="n">
         <v>0.31</v>
@@ -51653,7 +51653,7 @@
         <v>1.54</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU252" t="n">
         <v>1.55</v>
@@ -52259,10 +52259,10 @@
         <v>1</v>
       </c>
       <c r="AS255" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU255" t="n">
         <v>1.45</v>
@@ -52868,7 +52868,7 @@
         <v>1.15</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT258" t="n">
         <v>1.29</v>
@@ -53071,10 +53071,10 @@
         <v>0.5</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT259" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU259" t="n">
         <v>1.57</v>
@@ -54089,7 +54089,7 @@
         <v>1.5</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU264" t="n">
         <v>2.08</v>
@@ -55562,6 +55562,818 @@
       </c>
       <c r="BK271" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2710934</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>45023.66666666666</v>
+      </c>
+      <c r="F272" t="n">
+        <v>28</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="n">
+        <v>2</v>
+      </c>
+      <c r="M272" t="n">
+        <v>2</v>
+      </c>
+      <c r="N272" t="n">
+        <v>4</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>['43', '81']</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>['89', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>8</v>
+      </c>
+      <c r="R272" t="n">
+        <v>3</v>
+      </c>
+      <c r="S272" t="n">
+        <v>11</v>
+      </c>
+      <c r="T272" t="n">
+        <v>3</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V272" t="n">
+        <v>4</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X272" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2710935</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>45024.375</v>
+      </c>
+      <c r="F273" t="n">
+        <v>28</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>1</v>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="n">
+        <v>2</v>
+      </c>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="n">
+        <v>3</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>['71', '84']</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>9</v>
+      </c>
+      <c r="R273" t="n">
+        <v>2</v>
+      </c>
+      <c r="S273" t="n">
+        <v>11</v>
+      </c>
+      <c r="T273" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U273" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V273" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X273" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2710932</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>45024.46875</v>
+      </c>
+      <c r="F274" t="n">
+        <v>28</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>1</v>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="n">
+        <v>2</v>
+      </c>
+      <c r="N274" t="n">
+        <v>3</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>['22', '75']</t>
+        </is>
+      </c>
+      <c r="Q274" t="n">
+        <v>8</v>
+      </c>
+      <c r="R274" t="n">
+        <v>7</v>
+      </c>
+      <c r="S274" t="n">
+        <v>15</v>
+      </c>
+      <c r="T274" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2</v>
+      </c>
+      <c r="V274" t="n">
+        <v>3</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X274" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2710937</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>45024.5625</v>
+      </c>
+      <c r="F275" t="n">
+        <v>28</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="n">
+        <v>2</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N275" t="n">
+        <v>2</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>['45+2', '60']</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
+        <v>3</v>
+      </c>
+      <c r="R275" t="n">
+        <v>2</v>
+      </c>
+      <c r="S275" t="n">
+        <v>5</v>
+      </c>
+      <c r="T275" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U275" t="n">
+        <v>2</v>
+      </c>
+      <c r="V275" t="n">
+        <v>7</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X275" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK275"/>
+  <dimension ref="A1:BK280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT8" t="n">
         <v>2</v>
@@ -2324,7 +2324,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.36</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT11" t="n">
         <v>0.43</v>
@@ -3339,7 +3339,7 @@
         <v>1.57</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU14" t="n">
         <v>1.45</v>
@@ -3948,7 +3948,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU17" t="n">
         <v>2.62</v>
@@ -4151,7 +4151,7 @@
         <v>1.93</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT23" t="n">
         <v>1.14</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT26" t="n">
         <v>0.93</v>
@@ -5978,7 +5978,7 @@
         <v>1.36</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU27" t="n">
         <v>1.13</v>
@@ -6790,7 +6790,7 @@
         <v>1.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU31" t="n">
         <v>1.68</v>
@@ -6993,7 +6993,7 @@
         <v>1.43</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU32" t="n">
         <v>1.37</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT34" t="n">
         <v>1.5</v>
@@ -7602,7 +7602,7 @@
         <v>1.79</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU35" t="n">
         <v>1.54</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
         <v>0.31</v>
@@ -9223,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU43" t="n">
         <v>1.56</v>
@@ -10035,10 +10035,10 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU47" t="n">
         <v>2.24</v>
@@ -10644,10 +10644,10 @@
         <v>2.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU50" t="n">
         <v>1.69</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT51" t="n">
         <v>1.14</v>
@@ -11050,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU52" t="n">
         <v>1.27</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT59" t="n">
         <v>0.77</v>
@@ -13286,7 +13286,7 @@
         <v>1.29</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU63" t="n">
         <v>1.06</v>
@@ -13692,7 +13692,7 @@
         <v>1.36</v>
       </c>
       <c r="AT65" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU65" t="n">
         <v>2.05</v>
@@ -14098,7 +14098,7 @@
         <v>0.93</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU67" t="n">
         <v>1.75</v>
@@ -14704,7 +14704,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT70" t="n">
         <v>1.14</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT71" t="n">
         <v>0.43</v>
@@ -15113,7 +15113,7 @@
         <v>1.57</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU72" t="n">
         <v>1.72</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT73" t="n">
         <v>1.21</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT77" t="n">
         <v>1.5</v>
@@ -16534,7 +16534,7 @@
         <v>1.79</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU79" t="n">
         <v>1.66</v>
@@ -16940,7 +16940,7 @@
         <v>0.5</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU81" t="n">
         <v>1.41</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT82" t="n">
         <v>0.79</v>
@@ -17346,7 +17346,7 @@
         <v>1.71</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU83" t="n">
         <v>1.65</v>
@@ -17955,7 +17955,7 @@
         <v>1.5</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU86" t="n">
         <v>2.15</v>
@@ -18358,7 +18358,7 @@
         <v>3</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT88" t="n">
         <v>2.57</v>
@@ -18764,7 +18764,7 @@
         <v>0.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT90" t="n">
         <v>0.31</v>
@@ -19173,7 +19173,7 @@
         <v>1.36</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU92" t="n">
         <v>1.74</v>
@@ -19982,7 +19982,7 @@
         <v>0.75</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT96" t="n">
         <v>1.14</v>
@@ -20188,7 +20188,7 @@
         <v>1.79</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU97" t="n">
         <v>1.7</v>
@@ -20591,7 +20591,7 @@
         <v>0.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT99" t="n">
         <v>0.77</v>
@@ -21000,7 +21000,7 @@
         <v>2.69</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU101" t="n">
         <v>2.6</v>
@@ -21200,10 +21200,10 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU102" t="n">
         <v>1.89</v>
@@ -21403,7 +21403,7 @@
         <v>2.4</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT103" t="n">
         <v>1.86</v>
@@ -21609,7 +21609,7 @@
         <v>1.5</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU104" t="n">
         <v>2.02</v>
@@ -21809,7 +21809,7 @@
         <v>1.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT105" t="n">
         <v>0.93</v>
@@ -22215,10 +22215,10 @@
         <v>2.6</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU107" t="n">
         <v>1.66</v>
@@ -23433,7 +23433,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT113" t="n">
         <v>1.14</v>
@@ -23639,7 +23639,7 @@
         <v>1.29</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU114" t="n">
         <v>1.22</v>
@@ -24448,7 +24448,7 @@
         <v>0.2</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT118" t="n">
         <v>0.77</v>
@@ -24654,7 +24654,7 @@
         <v>1.5</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU119" t="n">
         <v>2.09</v>
@@ -25466,7 +25466,7 @@
         <v>1.36</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU123" t="n">
         <v>1.16</v>
@@ -25666,7 +25666,7 @@
         <v>0.33</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT124" t="n">
         <v>0.43</v>
@@ -26481,7 +26481,7 @@
         <v>1.79</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU128" t="n">
         <v>1.78</v>
@@ -26684,7 +26684,7 @@
         <v>2</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU129" t="n">
         <v>1.91</v>
@@ -26884,7 +26884,7 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT130" t="n">
         <v>0.93</v>
@@ -27087,7 +27087,7 @@
         <v>3</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT131" t="n">
         <v>2</v>
@@ -28102,7 +28102,7 @@
         <v>1.33</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT136" t="n">
         <v>0.79</v>
@@ -28308,7 +28308,7 @@
         <v>0.93</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU137" t="n">
         <v>1.64</v>
@@ -28511,7 +28511,7 @@
         <v>1.57</v>
       </c>
       <c r="AT138" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU138" t="n">
         <v>1.36</v>
@@ -28711,7 +28711,7 @@
         <v>0.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT139" t="n">
         <v>1.14</v>
@@ -29117,10 +29117,10 @@
         <v>0.83</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU141" t="n">
         <v>2.2</v>
@@ -29523,7 +29523,7 @@
         <v>1.33</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT143" t="n">
         <v>1.36</v>
@@ -29932,7 +29932,7 @@
         <v>1.36</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU145" t="n">
         <v>1.21</v>
@@ -30538,7 +30538,7 @@
         <v>2.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT148" t="n">
         <v>2</v>
@@ -31150,7 +31150,7 @@
         <v>2</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU151" t="n">
         <v>1.82</v>
@@ -31556,7 +31556,7 @@
         <v>1.5</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU153" t="n">
         <v>1.84</v>
@@ -32365,7 +32365,7 @@
         <v>2.14</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT157" t="n">
         <v>1.86</v>
@@ -32568,7 +32568,7 @@
         <v>1.14</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT158" t="n">
         <v>1.5</v>
@@ -33383,7 +33383,7 @@
         <v>1.43</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU162" t="n">
         <v>1.6</v>
@@ -33583,7 +33583,7 @@
         <v>1.13</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT163" t="n">
         <v>1.21</v>
@@ -33992,7 +33992,7 @@
         <v>1.57</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU165" t="n">
         <v>1.83</v>
@@ -34598,10 +34598,10 @@
         <v>2</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU168" t="n">
         <v>1.33</v>
@@ -35207,7 +35207,7 @@
         <v>2.25</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT171" t="n">
         <v>1.86</v>
@@ -35819,7 +35819,7 @@
         <v>1.36</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU174" t="n">
         <v>1.68</v>
@@ -37034,7 +37034,7 @@
         <v>1.22</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT180" t="n">
         <v>1</v>
@@ -37240,7 +37240,7 @@
         <v>1.29</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU181" t="n">
         <v>1.35</v>
@@ -38049,10 +38049,10 @@
         <v>0.86</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU185" t="n">
         <v>1.51</v>
@@ -38255,7 +38255,7 @@
         <v>1.57</v>
       </c>
       <c r="AT186" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU186" t="n">
         <v>1.79</v>
@@ -38658,7 +38658,7 @@
         <v>2.33</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT188" t="n">
         <v>1.86</v>
@@ -39064,7 +39064,7 @@
         <v>2.67</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT190" t="n">
         <v>2.57</v>
@@ -39267,10 +39267,10 @@
         <v>0.75</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU191" t="n">
         <v>2.24</v>
@@ -39473,7 +39473,7 @@
         <v>1.5</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU192" t="n">
         <v>2.08</v>
@@ -39879,7 +39879,7 @@
         <v>0.5</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU194" t="n">
         <v>1.4</v>
@@ -40282,7 +40282,7 @@
         <v>0.78</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT196" t="n">
         <v>1.14</v>
@@ -40691,7 +40691,7 @@
         <v>1.71</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU198" t="n">
         <v>1.86</v>
@@ -41297,7 +41297,7 @@
         <v>0.33</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT201" t="n">
         <v>0.31</v>
@@ -41703,7 +41703,7 @@
         <v>1.4</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT203" t="n">
         <v>1.5</v>
@@ -41909,7 +41909,7 @@
         <v>1.36</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU204" t="n">
         <v>1.9</v>
@@ -42518,7 +42518,7 @@
         <v>1.43</v>
       </c>
       <c r="AT207" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU207" t="n">
         <v>1.66</v>
@@ -42718,7 +42718,7 @@
         <v>1.1</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT208" t="n">
         <v>1.14</v>
@@ -43327,7 +43327,7 @@
         <v>0.3</v>
       </c>
       <c r="AS211" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT211" t="n">
         <v>0.43</v>
@@ -43936,7 +43936,7 @@
         <v>0.7</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT214" t="n">
         <v>0.57</v>
@@ -44142,7 +44142,7 @@
         <v>1.57</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU215" t="n">
         <v>1.27</v>
@@ -44748,7 +44748,7 @@
         <v>0.9</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT218" t="n">
         <v>0.93</v>
@@ -45157,7 +45157,7 @@
         <v>2.69</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU220" t="n">
         <v>2.32</v>
@@ -45360,7 +45360,7 @@
         <v>1.36</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU221" t="n">
         <v>1.2</v>
@@ -45766,7 +45766,7 @@
         <v>0.93</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU223" t="n">
         <v>1.48</v>
@@ -46169,10 +46169,10 @@
         <v>2.09</v>
       </c>
       <c r="AS225" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT225" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU225" t="n">
         <v>2.36</v>
@@ -46981,7 +46981,7 @@
         <v>2.73</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT229" t="n">
         <v>2.57</v>
@@ -47593,7 +47593,7 @@
         <v>1.79</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU232" t="n">
         <v>1.58</v>
@@ -47996,10 +47996,10 @@
         <v>1</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU234" t="n">
         <v>1.47</v>
@@ -48605,7 +48605,7 @@
         <v>1.27</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT237" t="n">
         <v>1</v>
@@ -48811,7 +48811,7 @@
         <v>2.69</v>
       </c>
       <c r="AT238" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU238" t="n">
         <v>2.27</v>
@@ -49011,7 +49011,7 @@
         <v>1.09</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT239" t="n">
         <v>1.36</v>
@@ -49214,7 +49214,7 @@
         <v>2.25</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT240" t="n">
         <v>2</v>
@@ -49823,7 +49823,7 @@
         <v>1.17</v>
       </c>
       <c r="AS243" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT243" t="n">
         <v>1</v>
@@ -51450,7 +51450,7 @@
         <v>1.71</v>
       </c>
       <c r="AT251" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU251" t="n">
         <v>1.89</v>
@@ -51650,7 +51650,7 @@
         <v>1.08</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT252" t="n">
         <v>1.36</v>
@@ -51853,10 +51853,10 @@
         <v>0.75</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU253" t="n">
         <v>1.41</v>
@@ -52056,7 +52056,7 @@
         <v>0.75</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT254" t="n">
         <v>0.77</v>
@@ -52465,7 +52465,7 @@
         <v>1.93</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU256" t="n">
         <v>1.83</v>
@@ -52665,10 +52665,10 @@
         <v>0.92</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT257" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU257" t="n">
         <v>1.55</v>
@@ -52871,7 +52871,7 @@
         <v>1.57</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU258" t="n">
         <v>1.77</v>
@@ -54898,7 +54898,7 @@
         <v>0.62</v>
       </c>
       <c r="AS268" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT268" t="n">
         <v>0.57</v>
@@ -56374,6 +56374,1021 @@
       </c>
       <c r="BK275" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>2710930</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>45024.66666666666</v>
+      </c>
+      <c r="F276" t="n">
+        <v>28</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>1</v>
+      </c>
+      <c r="J276" t="n">
+        <v>1</v>
+      </c>
+      <c r="K276" t="n">
+        <v>2</v>
+      </c>
+      <c r="L276" t="n">
+        <v>2</v>
+      </c>
+      <c r="M276" t="n">
+        <v>3</v>
+      </c>
+      <c r="N276" t="n">
+        <v>5</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>['16', '48']</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>['39', '70', '80']</t>
+        </is>
+      </c>
+      <c r="Q276" t="n">
+        <v>6</v>
+      </c>
+      <c r="R276" t="n">
+        <v>7</v>
+      </c>
+      <c r="S276" t="n">
+        <v>13</v>
+      </c>
+      <c r="T276" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U276" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V276" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X276" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2710936</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>45025.375</v>
+      </c>
+      <c r="F277" t="n">
+        <v>28</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>1</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="n">
+        <v>3</v>
+      </c>
+      <c r="M277" t="n">
+        <v>3</v>
+      </c>
+      <c r="N277" t="n">
+        <v>6</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>['33', '68', '86']</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>['53', '58', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>1</v>
+      </c>
+      <c r="R277" t="n">
+        <v>2</v>
+      </c>
+      <c r="S277" t="n">
+        <v>3</v>
+      </c>
+      <c r="T277" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U277" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V277" t="n">
+        <v>4</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X277" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2710929</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>45025.46875</v>
+      </c>
+      <c r="F278" t="n">
+        <v>28</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>2</v>
+      </c>
+      <c r="N278" t="n">
+        <v>2</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>['53', '59']</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>5</v>
+      </c>
+      <c r="R278" t="n">
+        <v>6</v>
+      </c>
+      <c r="S278" t="n">
+        <v>11</v>
+      </c>
+      <c r="T278" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U278" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V278" t="n">
+        <v>6</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X278" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK278" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>2710931</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>45025.5625</v>
+      </c>
+      <c r="F279" t="n">
+        <v>28</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>2</v>
+      </c>
+      <c r="M279" t="n">
+        <v>1</v>
+      </c>
+      <c r="N279" t="n">
+        <v>3</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>['49', '58']</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q279" t="n">
+        <v>3</v>
+      </c>
+      <c r="R279" t="n">
+        <v>7</v>
+      </c>
+      <c r="S279" t="n">
+        <v>10</v>
+      </c>
+      <c r="T279" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U279" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V279" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W279" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X279" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ279" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD279" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE279" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF279" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ279" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK279" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>2710933</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>45025.66666666666</v>
+      </c>
+      <c r="F280" t="n">
+        <v>28</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>2</v>
+      </c>
+      <c r="K280" t="n">
+        <v>2</v>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="n">
+        <v>2</v>
+      </c>
+      <c r="N280" t="n">
+        <v>3</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>['22', '24']</t>
+        </is>
+      </c>
+      <c r="Q280" t="n">
+        <v>8</v>
+      </c>
+      <c r="R280" t="n">
+        <v>2</v>
+      </c>
+      <c r="S280" t="n">
+        <v>10</v>
+      </c>
+      <c r="T280" t="n">
+        <v>5</v>
+      </c>
+      <c r="U280" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V280" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W280" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X280" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL280" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP280" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ280" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW280" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX280" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ280" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BA280" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC280" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD280" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE280" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF280" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG280" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH280" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI280" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ280" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK280" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK280"/>
+  <dimension ref="A1:BK281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT5" t="n">
         <v>1.21</v>
@@ -1918,7 +1918,7 @@
         <v>1.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT28" t="n">
         <v>0.57</v>
@@ -7196,7 +7196,7 @@
         <v>1.57</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU33" t="n">
         <v>1.45</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT54" t="n">
         <v>0.43</v>
@@ -12474,7 +12474,7 @@
         <v>1.71</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU59" t="n">
         <v>1.68</v>
@@ -15519,7 +15519,7 @@
         <v>1.93</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU74" t="n">
         <v>1.71</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT80" t="n">
         <v>1.14</v>
@@ -20594,7 +20594,7 @@
         <v>1.73</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU99" t="n">
         <v>1.25</v>
@@ -20997,7 +20997,7 @@
         <v>1.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT101" t="n">
         <v>1.4</v>
@@ -22824,7 +22824,7 @@
         <v>2</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT110" t="n">
         <v>1.36</v>
@@ -24451,7 +24451,7 @@
         <v>2.21</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU118" t="n">
         <v>2.16</v>
@@ -26072,7 +26072,7 @@
         <v>0.17</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT126" t="n">
         <v>0.31</v>
@@ -27293,7 +27293,7 @@
         <v>0.5</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU132" t="n">
         <v>1.33</v>
@@ -30741,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT149" t="n">
         <v>1</v>
@@ -32165,7 +32165,7 @@
         <v>0.93</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU156" t="n">
         <v>1.67</v>
@@ -36022,7 +36022,7 @@
         <v>2</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU175" t="n">
         <v>1.85</v>
@@ -36425,7 +36425,7 @@
         <v>1</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT177" t="n">
         <v>0.79</v>
@@ -41094,7 +41094,7 @@
         <v>1</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT200" t="n">
         <v>0.93</v>
@@ -41503,7 +41503,7 @@
         <v>1.29</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU202" t="n">
         <v>1.34</v>
@@ -45154,7 +45154,7 @@
         <v>0.8</v>
       </c>
       <c r="AS220" t="n">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT220" t="n">
         <v>0.93</v>
@@ -46578,7 +46578,7 @@
         <v>1.5</v>
       </c>
       <c r="AT227" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU227" t="n">
         <v>2.07</v>
@@ -47796,7 +47796,7 @@
         <v>1.36</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU233" t="n">
         <v>1.23</v>
@@ -48808,7 +48808,7 @@
         <v>0.55</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT238" t="n">
         <v>0.43</v>
@@ -52059,7 +52059,7 @@
         <v>1.43</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU254" t="n">
         <v>1.9</v>
@@ -53477,7 +53477,7 @@
         <v>2.15</v>
       </c>
       <c r="AS261" t="n">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT261" t="n">
         <v>2</v>
@@ -57389,6 +57389,209 @@
       </c>
       <c r="BK280" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>2710928</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>45026.66666666666</v>
+      </c>
+      <c r="F281" t="n">
+        <v>28</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q281" t="n">
+        <v>12</v>
+      </c>
+      <c r="R281" t="n">
+        <v>2</v>
+      </c>
+      <c r="S281" t="n">
+        <v>14</v>
+      </c>
+      <c r="T281" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U281" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V281" t="n">
+        <v>8</v>
+      </c>
+      <c r="W281" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X281" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ281" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK281" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL281" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AR281" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW281" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX281" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY281" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ281" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BA281" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC281" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD281" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE281" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF281" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG281" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH281" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI281" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ281" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK281" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK281"/>
+  <dimension ref="A1:BK282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5166,7 +5166,7 @@
         <v>1.71</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU23" t="n">
         <v>2.21</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT25" t="n">
         <v>0.86</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT43" t="n">
         <v>0.43</v>
@@ -10850,7 +10850,7 @@
         <v>1.73</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU51" t="n">
         <v>1.4</v>
@@ -14707,7 +14707,7 @@
         <v>2.21</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU70" t="n">
         <v>2.46</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT71" t="n">
         <v>0.43</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT82" t="n">
         <v>0.79</v>
@@ -18970,7 +18970,7 @@
         <v>2</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU91" t="n">
         <v>2.05</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT102" t="n">
         <v>0.93</v>
@@ -22421,7 +22421,7 @@
         <v>1.71</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -25872,7 +25872,7 @@
         <v>1.43</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU125" t="n">
         <v>1.57</v>
@@ -27087,7 +27087,7 @@
         <v>3</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT131" t="n">
         <v>2</v>
@@ -28711,7 +28711,7 @@
         <v>0.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT139" t="n">
         <v>1.14</v>
@@ -30947,7 +30947,7 @@
         <v>1.79</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU150" t="n">
         <v>1.71</v>
@@ -32568,7 +32568,7 @@
         <v>1.14</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT158" t="n">
         <v>1.5</v>
@@ -33180,7 +33180,7 @@
         <v>1.5</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU161" t="n">
         <v>2.13</v>
@@ -35207,7 +35207,7 @@
         <v>2.25</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT171" t="n">
         <v>1.86</v>
@@ -36225,7 +36225,7 @@
         <v>0.5</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU176" t="n">
         <v>1.38</v>
@@ -39676,7 +39676,7 @@
         <v>0.93</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU193" t="n">
         <v>1.59</v>
@@ -41297,7 +41297,7 @@
         <v>0.33</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT201" t="n">
         <v>0.31</v>
@@ -42721,7 +42721,7 @@
         <v>1.5</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU208" t="n">
         <v>1.52</v>
@@ -44748,7 +44748,7 @@
         <v>0.9</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT218" t="n">
         <v>0.93</v>
@@ -47187,7 +47187,7 @@
         <v>1.36</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU230" t="n">
         <v>1.92</v>
@@ -49011,7 +49011,7 @@
         <v>1.09</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT239" t="n">
         <v>1.36</v>
@@ -50435,7 +50435,7 @@
         <v>1.5</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU246" t="n">
         <v>1.78</v>
@@ -52056,7 +52056,7 @@
         <v>0.75</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT254" t="n">
         <v>0.79</v>
@@ -53683,7 +53683,7 @@
         <v>1.57</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU262" t="n">
         <v>1.24</v>
@@ -57334,7 +57334,7 @@
         <v>2.08</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT280" t="n">
         <v>2.14</v>
@@ -57592,6 +57592,209 @@
       </c>
       <c r="BK281" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>2710945</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>45030.66666666666</v>
+      </c>
+      <c r="F282" t="n">
+        <v>29</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>2</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="n">
+        <v>2</v>
+      </c>
+      <c r="L282" t="n">
+        <v>2</v>
+      </c>
+      <c r="M282" t="n">
+        <v>1</v>
+      </c>
+      <c r="N282" t="n">
+        <v>3</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>['40', '43']</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q282" t="n">
+        <v>1</v>
+      </c>
+      <c r="R282" t="n">
+        <v>0</v>
+      </c>
+      <c r="S282" t="n">
+        <v>1</v>
+      </c>
+      <c r="T282" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U282" t="n">
+        <v>2</v>
+      </c>
+      <c r="V282" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W282" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X282" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH282" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI282" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ282" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK282" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL282" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM282" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN282" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP282" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ282" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR282" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT282" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU282" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW282" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX282" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY282" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ282" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA282" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB282" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC282" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD282" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE282" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF282" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG282" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH282" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI282" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ282" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK282" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK290"/>
+  <dimension ref="A1:BK291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT3" t="n">
         <v>0.93</v>
@@ -2324,7 +2324,7 @@
         <v>1.6</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT16" t="n">
         <v>2.07</v>
@@ -5572,7 +5572,7 @@
         <v>1.53</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT32" t="n">
         <v>0.93</v>
@@ -10038,7 +10038,7 @@
         <v>2.21</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU47" t="n">
         <v>2.24</v>
@@ -14298,7 +14298,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT68" t="n">
         <v>1.5</v>
@@ -16940,7 +16940,7 @@
         <v>0.5</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU81" t="n">
         <v>1.41</v>
@@ -18155,7 +18155,7 @@
         <v>2.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT87" t="n">
         <v>1.73</v>
@@ -20188,7 +20188,7 @@
         <v>1.79</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU97" t="n">
         <v>1.7</v>
@@ -21609,7 +21609,7 @@
         <v>1.4</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU104" t="n">
         <v>2.02</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT111" t="n">
         <v>0.79</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT125" t="n">
         <v>1.07</v>
@@ -26684,7 +26684,7 @@
         <v>1.86</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU129" t="n">
         <v>1.91</v>
@@ -29932,7 +29932,7 @@
         <v>1.33</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU145" t="n">
         <v>1.21</v>
@@ -30132,7 +30132,7 @@
         <v>1.14</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT146" t="n">
         <v>1.07</v>
@@ -33380,7 +33380,7 @@
         <v>1.22</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT162" t="n">
         <v>1.4</v>
@@ -33992,7 +33992,7 @@
         <v>1.57</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU165" t="n">
         <v>1.83</v>
@@ -37240,7 +37240,7 @@
         <v>1.2</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU181" t="n">
         <v>1.35</v>
@@ -38455,7 +38455,7 @@
         <v>1.13</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT187" t="n">
         <v>1.36</v>
@@ -41909,7 +41909,7 @@
         <v>1.36</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU204" t="n">
         <v>1.9</v>
@@ -42515,7 +42515,7 @@
         <v>2</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT207" t="n">
         <v>2.14</v>
@@ -45766,7 +45766,7 @@
         <v>0.93</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU223" t="n">
         <v>1.48</v>
@@ -46778,7 +46778,7 @@
         <v>0.64</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT228" t="n">
         <v>0.73</v>
@@ -50229,7 +50229,7 @@
         <v>1.33</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT245" t="n">
         <v>1.21</v>
@@ -52668,7 +52668,7 @@
         <v>1.8</v>
       </c>
       <c r="AT257" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU257" t="n">
         <v>1.55</v>
@@ -54695,7 +54695,7 @@
         <v>0.25</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT267" t="n">
         <v>0.29</v>
@@ -56728,7 +56728,7 @@
         <v>1.5</v>
       </c>
       <c r="AT277" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU277" t="n">
         <v>1.55</v>
@@ -59419,6 +59419,209 @@
       </c>
       <c r="BK290" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>2710940</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>45033.66666666666</v>
+      </c>
+      <c r="F291" t="n">
+        <v>29</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" t="n">
+        <v>1</v>
+      </c>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M291" t="n">
+        <v>1</v>
+      </c>
+      <c r="N291" t="n">
+        <v>1</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q291" t="n">
+        <v>7</v>
+      </c>
+      <c r="R291" t="n">
+        <v>5</v>
+      </c>
+      <c r="S291" t="n">
+        <v>12</v>
+      </c>
+      <c r="T291" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U291" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V291" t="n">
+        <v>6</v>
+      </c>
+      <c r="W291" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X291" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL291" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP291" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ291" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW291" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ291" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA291" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB291" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BC291" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD291" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE291" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BF291" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG291" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH291" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI291" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ291" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK291" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
